--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy200_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy200_ptAll-nph_tileExpand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B299373-49DC-494F-9F43-3B3F26D987DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DFA32-E160-4C46-909D-25C5F7FCB8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="14490" activeTab="1" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="6" r:id="rId1"/>
@@ -833,61 +833,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.745355448717952</c:v>
+                  <c:v>17.062002564102567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.244929807692305</c:v>
+                  <c:v>18.666967948717947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.681311538461539</c:v>
+                  <c:v>20.600471794871794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.207922435897434</c:v>
+                  <c:v>21.431702564102569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.726686538461536</c:v>
+                  <c:v>22.05834358974359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.711074038461536</c:v>
+                  <c:v>22.367576923076914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.700908012820513</c:v>
+                  <c:v>22.457907692307693</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.738418269230763</c:v>
+                  <c:v>22.605321794871788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.271766666666664</c:v>
+                  <c:v>22.533843589743594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.090238461538462</c:v>
+                  <c:v>22.605837179487178</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.134112820512819</c:v>
+                  <c:v>22.769288461538455</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.140826282051279</c:v>
+                  <c:v>22.7254282051282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.222066987179481</c:v>
+                  <c:v>22.853789743589743</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.247664743589745</c:v>
+                  <c:v>22.873143589743595</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.287827884615389</c:v>
+                  <c:v>22.975564102564103</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.350217307692311</c:v>
+                  <c:v>22.967002564102565</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.371274038461536</c:v>
+                  <c:v>22.984969230769217</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.346842948717946</c:v>
+                  <c:v>22.874271794871795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.248155128205127</c:v>
+                  <c:v>22.978502564102566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,61 +999,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.743303205128207</c:v>
+                  <c:v>17.116773076923071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.976538782051286</c:v>
+                  <c:v>19.239364102564089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.788336858974361</c:v>
+                  <c:v>21.121852564102571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.327548397435894</c:v>
+                  <c:v>21.38314487179488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.327696153846155</c:v>
+                  <c:v>21.583246153846158</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.21871282051282</c:v>
+                  <c:v>21.633671794871791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.088488141025643</c:v>
+                  <c:v>21.270264102564116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.116096794871801</c:v>
+                  <c:v>21.659507692307685</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.835055448717949</c:v>
+                  <c:v>21.651053846153847</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.182268589743593</c:v>
+                  <c:v>21.760361538461535</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.318065384615387</c:v>
+                  <c:v>22.004571794871797</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.342460576923077</c:v>
+                  <c:v>21.988553846153842</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.259008333333334</c:v>
+                  <c:v>21.984574358974356</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.180731089743592</c:v>
+                  <c:v>22.013798717948717</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.037893910256408</c:v>
+                  <c:v>21.849776923076931</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.142483012820517</c:v>
+                  <c:v>21.808628205128205</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.157295512820514</c:v>
+                  <c:v>21.951398717948724</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.192557371794873</c:v>
+                  <c:v>22.069108974358976</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.234574679487181</c:v>
+                  <c:v>21.996229487179491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1165,61 +1165,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.943236538461541</c:v>
+                  <c:v>17.36446282051282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.994659615384613</c:v>
+                  <c:v>19.408871794871803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.743520833333335</c:v>
+                  <c:v>21.181608974358976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.386546794871794</c:v>
+                  <c:v>21.49552692307693</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.483408333333333</c:v>
+                  <c:v>21.829561538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.409875961538461</c:v>
+                  <c:v>21.952897435897441</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.388379166666667</c:v>
+                  <c:v>21.711543589743584</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.373928205128205</c:v>
+                  <c:v>22.046105128205127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.195134615384617</c:v>
+                  <c:v>22.005094871794878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.411099358974358</c:v>
+                  <c:v>22.107349999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.562668910256413</c:v>
+                  <c:v>22.384643589743593</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.55516762820513</c:v>
+                  <c:v>22.355374358974352</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.514002243589744</c:v>
+                  <c:v>22.346210256410259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.442147435897439</c:v>
+                  <c:v>22.394005128205134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.368893589743589</c:v>
+                  <c:v>22.34097564102564</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.424491025641029</c:v>
+                  <c:v>22.292557692307689</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.439344551282051</c:v>
+                  <c:v>22.387271794871801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.459444230769229</c:v>
+                  <c:v>22.457821794871794</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.494235576923074</c:v>
+                  <c:v>22.415662820512825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,61 +1331,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>15.493210897435898</c:v>
+                  <c:v>16.620806410256414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.942716025641026</c:v>
+                  <c:v>18.478314102564099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.29380961538461</c:v>
+                  <c:v>19.867766666666665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.96266794871795</c:v>
+                  <c:v>19.683694871794867</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.875989423076923</c:v>
+                  <c:v>19.67264102564102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.840034935897433</c:v>
+                  <c:v>19.363658974358973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.778014102564107</c:v>
+                  <c:v>19.150549999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.851864743589745</c:v>
+                  <c:v>19.388148717948713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.668561858974357</c:v>
+                  <c:v>19.515066666666673</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.839379487179485</c:v>
+                  <c:v>19.496346153846144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.885191346153846</c:v>
+                  <c:v>19.616611538461534</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.897615384615383</c:v>
+                  <c:v>19.575960256410252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.86151987179487</c:v>
+                  <c:v>19.597192307692303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.820579166666665</c:v>
+                  <c:v>19.496832051282045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.761293269230775</c:v>
+                  <c:v>19.247412820512825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15.829912179487177</c:v>
+                  <c:v>19.278058974358974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.831118589743591</c:v>
+                  <c:v>19.500446153846159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15.836114423076921</c:v>
+                  <c:v>19.653365384615384</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.848484615384614</c:v>
+                  <c:v>19.509762820512808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1497,61 +1497,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.731276522435898</c:v>
+                  <c:v>16.630251282051276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.789711057692308</c:v>
+                  <c:v>18.335106410256412</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.626744711538464</c:v>
+                  <c:v>19.60694358974359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.471171394230769</c:v>
+                  <c:v>19.429933333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.603445112179486</c:v>
+                  <c:v>19.51100641025641</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.544924439102562</c:v>
+                  <c:v>19.243364102564112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.488947355769234</c:v>
+                  <c:v>19.072744871794871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.520077003205127</c:v>
+                  <c:v>19.282091025641023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.492629647435898</c:v>
+                  <c:v>19.408920512820515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.630746474358975</c:v>
+                  <c:v>19.355810256410255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.725009615384614</c:v>
+                  <c:v>19.514329487179488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.734017467948714</c:v>
+                  <c:v>19.45446282051282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.714149358974357</c:v>
+                  <c:v>19.469625641025655</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18.67278060897436</c:v>
+                  <c:v>19.384665384615385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.613977163461541</c:v>
+                  <c:v>19.196042307692306</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.686775881410259</c:v>
+                  <c:v>19.193970512820517</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.699758173076923</c:v>
+                  <c:v>19.413967948717946</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.708739743589742</c:v>
+                  <c:v>19.545728205128203</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.706362499999997</c:v>
+                  <c:v>19.419193589743596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,6 +1640,7 @@
         <c:axId val="653846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2690,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2381517C-EC5B-48CA-83D2-CDF281D4667A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2718,20 +2719,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17.745355448717952</v>
+        <v>17.062002564102567</v>
       </c>
       <c r="C2">
-        <v>16.743303205128207</v>
+        <v>17.116773076923071</v>
       </c>
       <c r="D2">
-        <v>16.943236538461541</v>
+        <v>17.36446282051282</v>
       </c>
       <c r="E2">
-        <v>15.493210897435898</v>
+        <v>16.620806410256414</v>
       </c>
       <c r="F2">
-        <f>AVERAGE(B2:E2)</f>
-        <v>16.731276522435898</v>
+        <v>16.630251282051276</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2739,20 +2739,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>19.244929807692305</v>
+        <v>18.666967948717947</v>
       </c>
       <c r="C3">
-        <v>17.976538782051286</v>
+        <v>19.239364102564089</v>
       </c>
       <c r="D3">
-        <v>17.994659615384613</v>
+        <v>19.408871794871803</v>
       </c>
       <c r="E3">
-        <v>15.942716025641026</v>
+        <v>18.478314102564099</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>17.789711057692308</v>
+        <v>18.335106410256412</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2760,20 +2759,19 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>20.681311538461539</v>
+        <v>20.600471794871794</v>
       </c>
       <c r="C4">
-        <v>18.788336858974361</v>
+        <v>21.121852564102571</v>
       </c>
       <c r="D4">
-        <v>18.743520833333335</v>
+        <v>21.181608974358976</v>
       </c>
       <c r="E4">
-        <v>16.29380961538461</v>
+        <v>19.867766666666665</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>18.626744711538464</v>
+        <v>19.60694358974359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2781,20 +2779,19 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>21.207922435897434</v>
+        <v>21.431702564102569</v>
       </c>
       <c r="C5">
-        <v>18.327548397435894</v>
+        <v>21.38314487179488</v>
       </c>
       <c r="D5">
-        <v>18.386546794871794</v>
+        <v>21.49552692307693</v>
       </c>
       <c r="E5">
-        <v>15.96266794871795</v>
+        <v>19.683694871794867</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>18.471171394230769</v>
+        <v>19.429933333333334</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2802,20 +2799,19 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>21.726686538461536</v>
+        <v>22.05834358974359</v>
       </c>
       <c r="C6">
-        <v>18.327696153846155</v>
+        <v>21.583246153846158</v>
       </c>
       <c r="D6">
-        <v>18.483408333333333</v>
+        <v>21.829561538461537</v>
       </c>
       <c r="E6">
-        <v>15.875989423076923</v>
+        <v>19.67264102564102</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>18.603445112179486</v>
+        <v>19.51100641025641</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2823,20 +2819,19 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>21.711074038461536</v>
+        <v>22.367576923076914</v>
       </c>
       <c r="C7">
-        <v>18.21871282051282</v>
+        <v>21.633671794871791</v>
       </c>
       <c r="D7">
-        <v>18.409875961538461</v>
+        <v>21.952897435897441</v>
       </c>
       <c r="E7">
-        <v>15.840034935897433</v>
+        <v>19.363658974358973</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>18.544924439102562</v>
+        <v>19.243364102564112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2844,20 +2839,19 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>21.700908012820513</v>
+        <v>22.457907692307693</v>
       </c>
       <c r="C8">
-        <v>18.088488141025643</v>
+        <v>21.270264102564116</v>
       </c>
       <c r="D8">
-        <v>18.388379166666667</v>
+        <v>21.711543589743584</v>
       </c>
       <c r="E8">
-        <v>15.778014102564107</v>
+        <v>19.150549999999996</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>18.488947355769234</v>
+        <v>19.072744871794871</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2865,20 +2859,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>21.738418269230763</v>
+        <v>22.605321794871788</v>
       </c>
       <c r="C9">
-        <v>18.116096794871801</v>
+        <v>21.659507692307685</v>
       </c>
       <c r="D9">
-        <v>18.373928205128205</v>
+        <v>22.046105128205127</v>
       </c>
       <c r="E9">
-        <v>15.851864743589745</v>
+        <v>19.388148717948713</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>18.520077003205127</v>
+        <v>19.282091025641023</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2886,20 +2879,19 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>22.271766666666664</v>
+        <v>22.533843589743594</v>
       </c>
       <c r="C10">
-        <v>17.835055448717949</v>
+        <v>21.651053846153847</v>
       </c>
       <c r="D10">
-        <v>18.195134615384617</v>
+        <v>22.005094871794878</v>
       </c>
       <c r="E10">
-        <v>15.668561858974357</v>
+        <v>19.515066666666673</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>18.492629647435898</v>
+        <v>19.408920512820515</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2907,20 +2899,19 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>22.090238461538462</v>
+        <v>22.605837179487178</v>
       </c>
       <c r="C11">
-        <v>18.182268589743593</v>
+        <v>21.760361538461535</v>
       </c>
       <c r="D11">
-        <v>18.411099358974358</v>
+        <v>22.107349999999993</v>
       </c>
       <c r="E11">
-        <v>15.839379487179485</v>
+        <v>19.496346153846144</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>18.630746474358975</v>
+        <v>19.355810256410255</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2928,20 +2919,19 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>22.134112820512819</v>
+        <v>22.769288461538455</v>
       </c>
       <c r="C12">
-        <v>18.318065384615387</v>
+        <v>22.004571794871797</v>
       </c>
       <c r="D12">
-        <v>18.562668910256413</v>
+        <v>22.384643589743593</v>
       </c>
       <c r="E12">
-        <v>15.885191346153846</v>
+        <v>19.616611538461534</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>18.725009615384614</v>
+        <v>19.514329487179488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2949,20 +2939,19 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>22.140826282051279</v>
+        <v>22.7254282051282</v>
       </c>
       <c r="C13">
-        <v>18.342460576923077</v>
+        <v>21.988553846153842</v>
       </c>
       <c r="D13">
-        <v>18.55516762820513</v>
+        <v>22.355374358974352</v>
       </c>
       <c r="E13">
-        <v>15.897615384615383</v>
+        <v>19.575960256410252</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>18.734017467948714</v>
+        <v>19.45446282051282</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2970,20 +2959,19 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>22.222066987179481</v>
+        <v>22.853789743589743</v>
       </c>
       <c r="C14">
-        <v>18.259008333333334</v>
+        <v>21.984574358974356</v>
       </c>
       <c r="D14">
-        <v>18.514002243589744</v>
+        <v>22.346210256410259</v>
       </c>
       <c r="E14">
-        <v>15.86151987179487</v>
+        <v>19.597192307692303</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>18.714149358974357</v>
+        <v>19.469625641025655</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2991,20 +2979,19 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>22.247664743589745</v>
+        <v>22.873143589743595</v>
       </c>
       <c r="C15">
-        <v>18.180731089743592</v>
+        <v>22.013798717948717</v>
       </c>
       <c r="D15">
-        <v>18.442147435897439</v>
+        <v>22.394005128205134</v>
       </c>
       <c r="E15">
-        <v>15.820579166666665</v>
+        <v>19.496832051282045</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>18.67278060897436</v>
+        <v>19.384665384615385</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3012,20 +2999,19 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>22.287827884615389</v>
+        <v>22.975564102564103</v>
       </c>
       <c r="C16">
-        <v>18.037893910256408</v>
+        <v>21.849776923076931</v>
       </c>
       <c r="D16">
-        <v>18.368893589743589</v>
+        <v>22.34097564102564</v>
       </c>
       <c r="E16">
-        <v>15.761293269230775</v>
+        <v>19.247412820512825</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>18.613977163461541</v>
+        <v>19.196042307692306</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3033,20 +3019,19 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>22.350217307692311</v>
+        <v>22.967002564102565</v>
       </c>
       <c r="C17">
-        <v>18.142483012820517</v>
+        <v>21.808628205128205</v>
       </c>
       <c r="D17">
-        <v>18.424491025641029</v>
+        <v>22.292557692307689</v>
       </c>
       <c r="E17">
-        <v>15.829912179487177</v>
+        <v>19.278058974358974</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>18.686775881410259</v>
+        <v>19.193970512820517</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3054,20 +3039,19 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>22.371274038461536</v>
+        <v>22.984969230769217</v>
       </c>
       <c r="C18">
-        <v>18.157295512820514</v>
+        <v>21.951398717948724</v>
       </c>
       <c r="D18">
-        <v>18.439344551282051</v>
+        <v>22.387271794871801</v>
       </c>
       <c r="E18">
-        <v>15.831118589743591</v>
+        <v>19.500446153846159</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>18.699758173076923</v>
+        <v>19.413967948717946</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3075,20 +3059,19 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>22.346842948717946</v>
+        <v>22.874271794871795</v>
       </c>
       <c r="C19">
-        <v>18.192557371794873</v>
+        <v>22.069108974358976</v>
       </c>
       <c r="D19">
-        <v>18.459444230769229</v>
+        <v>22.457821794871794</v>
       </c>
       <c r="E19">
-        <v>15.836114423076921</v>
+        <v>19.653365384615384</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>18.708739743589742</v>
+        <v>19.545728205128203</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3096,20 +3079,19 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>22.248155128205127</v>
+        <v>22.978502564102566</v>
       </c>
       <c r="C20">
-        <v>18.234574679487181</v>
+        <v>21.996229487179491</v>
       </c>
       <c r="D20">
-        <v>18.494235576923074</v>
+        <v>22.415662820512825</v>
       </c>
       <c r="E20">
-        <v>15.848484615384614</v>
+        <v>19.509762820512808</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>18.706362499999997</v>
+        <v>19.419193589743596</v>
       </c>
     </row>
   </sheetData>
@@ -3123,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F5954-E7CD-4758-8230-9A4C512CB0F4}">
   <dimension ref="A1:CA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:CA19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3132,4656 +3114,4656 @@
     <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <f>AVERAGE(B1:CA1)</f>
-        <v>16.630935897435904</v>
+        <v>16.630251282051276</v>
       </c>
       <c r="B1">
-        <v>23.0334</v>
+        <v>20.488600000000002</v>
       </c>
       <c r="C1">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D1">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E1">
-        <v>16.691199999999998</v>
+        <v>17.018699999999999</v>
       </c>
       <c r="F1">
-        <v>23.7851</v>
+        <v>24.584299999999999</v>
       </c>
       <c r="G1">
-        <v>18.811599999999999</v>
+        <v>17.024100000000001</v>
       </c>
       <c r="H1">
-        <v>17.558900000000001</v>
+        <v>18.048400000000001</v>
       </c>
       <c r="I1">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J1">
-        <v>22.185400000000001</v>
+        <v>21.135100000000001</v>
       </c>
       <c r="K1">
-        <v>19.260999999999999</v>
+        <v>18.541699999999999</v>
       </c>
       <c r="L1">
-        <v>18.618300000000001</v>
+        <v>16.871400000000001</v>
       </c>
       <c r="M1">
-        <v>14.6594</v>
+        <v>14.408099999999999</v>
       </c>
       <c r="N1">
-        <v>14.7814</v>
+        <v>15.202</v>
       </c>
       <c r="O1">
-        <v>16.174399999999999</v>
+        <v>15.9396</v>
       </c>
       <c r="P1">
-        <v>16.087800000000001</v>
+        <v>16.954999999999998</v>
       </c>
       <c r="Q1">
-        <v>16.077500000000001</v>
+        <v>18.573499999999999</v>
       </c>
       <c r="R1">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S1">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T1">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U1">
-        <v>17.623999999999999</v>
+        <v>21.237300000000001</v>
       </c>
       <c r="V1">
-        <v>21.0046</v>
+        <v>20.7363</v>
       </c>
       <c r="W1">
-        <v>20.6096</v>
+        <v>20.152699999999999</v>
       </c>
       <c r="X1">
-        <v>20.209</v>
+        <v>20.983899999999998</v>
       </c>
       <c r="Y1">
-        <v>19.700399999999998</v>
+        <v>20.4863</v>
       </c>
       <c r="Z1">
-        <v>19.334800000000001</v>
+        <v>20.110700000000001</v>
       </c>
       <c r="AA1">
-        <v>18.884699999999999</v>
+        <v>19.768699999999999</v>
       </c>
       <c r="AB1">
-        <v>18.566700000000001</v>
+        <v>19.483899999999998</v>
       </c>
       <c r="AC1">
-        <v>19.035299999999999</v>
+        <v>19.184999999999999</v>
       </c>
       <c r="AD1">
-        <v>18.879100000000001</v>
+        <v>18.963000000000001</v>
       </c>
       <c r="AE1">
-        <v>18.748999999999999</v>
+        <v>18.071100000000001</v>
       </c>
       <c r="AF1">
-        <v>18.556899999999999</v>
+        <v>17.9177</v>
       </c>
       <c r="AG1">
-        <v>18.386099999999999</v>
+        <v>17.822099999999999</v>
       </c>
       <c r="AH1">
-        <v>18.258700000000001</v>
+        <v>17.722200000000001</v>
       </c>
       <c r="AI1">
-        <v>18.035699999999999</v>
+        <v>17.5837</v>
       </c>
       <c r="AJ1">
-        <v>17.904299999999999</v>
+        <v>17.493300000000001</v>
       </c>
       <c r="AK1">
-        <v>17.802700000000002</v>
+        <v>16.666399999999999</v>
       </c>
       <c r="AL1">
-        <v>17.631799999999998</v>
+        <v>16.689699999999998</v>
       </c>
       <c r="AM1">
-        <v>17.4696</v>
+        <v>16.678899999999999</v>
       </c>
       <c r="AN1">
-        <v>13.054</v>
+        <v>13.1264</v>
       </c>
       <c r="AO1">
-        <v>14.156599999999999</v>
+        <v>13.116</v>
       </c>
       <c r="AP1">
-        <v>14.129899999999999</v>
+        <v>13.096</v>
       </c>
       <c r="AQ1">
-        <v>14.141299999999999</v>
+        <v>13.112</v>
       </c>
       <c r="AR1">
-        <v>14.1479</v>
+        <v>13.1303</v>
       </c>
       <c r="AS1">
-        <v>14.1206</v>
+        <v>13.1175</v>
       </c>
       <c r="AT1">
-        <v>14.1249</v>
+        <v>14.4747</v>
       </c>
       <c r="AU1">
-        <v>14.121600000000001</v>
+        <v>14.4823</v>
       </c>
       <c r="AV1">
-        <v>14.1309</v>
+        <v>14.5025</v>
       </c>
       <c r="AW1">
-        <v>14.1136</v>
+        <v>14.4915</v>
       </c>
       <c r="AX1">
-        <v>14.089499999999999</v>
+        <v>14.481999999999999</v>
       </c>
       <c r="AY1">
-        <v>14.0844</v>
+        <v>14.4701</v>
       </c>
       <c r="AZ1">
-        <v>14.0692</v>
+        <v>14.466900000000001</v>
       </c>
       <c r="BA1">
-        <v>14.080299999999999</v>
+        <v>14.4887</v>
       </c>
       <c r="BB1">
-        <v>14.0731</v>
+        <v>14.495200000000001</v>
       </c>
       <c r="BC1">
-        <v>14.0716</v>
+        <v>14.503399999999999</v>
       </c>
       <c r="BD1">
-        <v>14.0586</v>
+        <v>14.491099999999999</v>
       </c>
       <c r="BE1">
-        <v>14.036099999999999</v>
+        <v>14.4781</v>
       </c>
       <c r="BF1">
-        <v>14.014799999999999</v>
+        <v>14.4635</v>
       </c>
       <c r="BG1">
-        <v>14.009600000000001</v>
+        <v>14.4701</v>
       </c>
       <c r="BH1">
-        <v>13.9854</v>
+        <v>14.450699999999999</v>
       </c>
       <c r="BI1">
-        <v>13.9663</v>
+        <v>14.436299999999999</v>
       </c>
       <c r="BJ1">
-        <v>13.972899999999999</v>
+        <v>14.4497</v>
       </c>
       <c r="BK1">
-        <v>13.958399999999999</v>
+        <v>14.441599999999999</v>
       </c>
       <c r="BL1">
-        <v>13.9427</v>
+        <v>14.4338</v>
       </c>
       <c r="BM1">
-        <v>13.9339</v>
+        <v>14.4298</v>
       </c>
       <c r="BN1">
-        <v>13.9337</v>
+        <v>14.417</v>
       </c>
       <c r="BO1">
-        <v>13.9191</v>
+        <v>14.4078</v>
       </c>
       <c r="BP1">
-        <v>13.9253</v>
+        <v>14.411199999999999</v>
       </c>
       <c r="BQ1">
-        <v>13.904400000000001</v>
+        <v>14.390700000000001</v>
       </c>
       <c r="BR1">
-        <v>15.638199999999999</v>
+        <v>14.3904</v>
       </c>
       <c r="BS1">
-        <v>15.635899999999999</v>
+        <v>14.399800000000001</v>
       </c>
       <c r="BT1">
-        <v>15.6213</v>
+        <v>14.391</v>
       </c>
       <c r="BU1">
-        <v>15.5891</v>
+        <v>14.3743</v>
       </c>
       <c r="BV1">
-        <v>15.5685</v>
+        <v>14.354900000000001</v>
       </c>
       <c r="BW1">
-        <v>15.555</v>
+        <v>14.3566</v>
       </c>
       <c r="BX1">
-        <v>15.5474</v>
+        <v>14.343999999999999</v>
       </c>
       <c r="BY1">
-        <v>15.540900000000001</v>
+        <v>14.338800000000001</v>
       </c>
       <c r="BZ1">
-        <v>15.543799999999999</v>
+        <v>14.3499</v>
       </c>
       <c r="CA1">
-        <v>15.5413</v>
+        <v>14.363099999999999</v>
       </c>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <f t="shared" ref="A2:A19" si="0">AVERAGE(B2:CA2)</f>
-        <v>17.717806410256404</v>
+        <v>18.335106410256412</v>
       </c>
       <c r="B2">
-        <v>25.929099999999998</v>
+        <v>32.878599999999999</v>
       </c>
       <c r="C2">
-        <v>20.7165</v>
+        <v>19.617599999999999</v>
       </c>
       <c r="D2">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E2">
-        <v>21.8325</v>
+        <v>23.165199999999999</v>
       </c>
       <c r="F2">
-        <v>20.186199999999999</v>
+        <v>18.977900000000002</v>
       </c>
       <c r="G2">
-        <v>21.708600000000001</v>
+        <v>23.649100000000001</v>
       </c>
       <c r="H2">
-        <v>17.558900000000001</v>
+        <v>18.048400000000001</v>
       </c>
       <c r="I2">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J2">
-        <v>22.185400000000001</v>
+        <v>21.135100000000001</v>
       </c>
       <c r="K2">
-        <v>19.260999999999999</v>
+        <v>18.541699999999999</v>
       </c>
       <c r="L2">
-        <v>16.168099999999999</v>
+        <v>16.8306</v>
       </c>
       <c r="M2">
-        <v>18.3368</v>
+        <v>17.617000000000001</v>
       </c>
       <c r="N2">
-        <v>18.0075</v>
+        <v>19.439499999999999</v>
       </c>
       <c r="O2">
-        <v>21.057200000000002</v>
+        <v>20.084199999999999</v>
       </c>
       <c r="P2">
-        <v>20.048100000000002</v>
+        <v>21.818100000000001</v>
       </c>
       <c r="Q2">
-        <v>19.321300000000001</v>
+        <v>21.095300000000002</v>
       </c>
       <c r="R2">
-        <v>19.874099999999999</v>
+        <v>20.4391</v>
       </c>
       <c r="S2">
-        <v>19.491199999999999</v>
+        <v>19.272400000000001</v>
       </c>
       <c r="T2">
-        <v>14.869199999999999</v>
+        <v>15.569599999999999</v>
       </c>
       <c r="U2">
-        <v>14.8386</v>
+        <v>16.483899999999998</v>
       </c>
       <c r="V2">
-        <v>16.713000000000001</v>
+        <v>16.507200000000001</v>
       </c>
       <c r="W2">
-        <v>16.642299999999999</v>
+        <v>16.462800000000001</v>
       </c>
       <c r="X2">
-        <v>16.5852</v>
+        <v>17.879100000000001</v>
       </c>
       <c r="Y2">
-        <v>16.4086</v>
+        <v>17.632899999999999</v>
       </c>
       <c r="Z2">
-        <v>16.327100000000002</v>
+        <v>17.523099999999999</v>
       </c>
       <c r="AA2">
-        <v>16.199300000000001</v>
+        <v>19.265899999999998</v>
       </c>
       <c r="AB2">
-        <v>16.118500000000001</v>
+        <v>19.075700000000001</v>
       </c>
       <c r="AC2">
-        <v>19.013400000000001</v>
+        <v>18.754200000000001</v>
       </c>
       <c r="AD2">
-        <v>18.888200000000001</v>
+        <v>18.5991</v>
       </c>
       <c r="AE2">
-        <v>18.696100000000001</v>
+        <v>20.636600000000001</v>
       </c>
       <c r="AF2">
-        <v>18.508500000000002</v>
+        <v>20.366800000000001</v>
       </c>
       <c r="AG2">
-        <v>18.296700000000001</v>
+        <v>20.0349</v>
       </c>
       <c r="AH2">
-        <v>18.232500000000002</v>
+        <v>19.905200000000001</v>
       </c>
       <c r="AI2">
-        <v>18.046600000000002</v>
+        <v>19.605899999999998</v>
       </c>
       <c r="AJ2">
-        <v>17.950299999999999</v>
+        <v>19.4621</v>
       </c>
       <c r="AK2">
-        <v>17.826599999999999</v>
+        <v>20.877600000000001</v>
       </c>
       <c r="AL2">
-        <v>17.606100000000001</v>
+        <v>20.614999999999998</v>
       </c>
       <c r="AM2">
-        <v>17.473500000000001</v>
+        <v>20.422000000000001</v>
       </c>
       <c r="AN2">
-        <v>17.364799999999999</v>
+        <v>20.158999999999999</v>
       </c>
       <c r="AO2">
-        <v>20.1785</v>
+        <v>19.9407</v>
       </c>
       <c r="AP2">
-        <v>19.9909</v>
+        <v>19.7331</v>
       </c>
       <c r="AQ2">
-        <v>19.917899999999999</v>
+        <v>19.620100000000001</v>
       </c>
       <c r="AR2">
-        <v>19.782299999999999</v>
+        <v>19.4892</v>
       </c>
       <c r="AS2">
-        <v>19.601400000000002</v>
+        <v>19.264399999999998</v>
       </c>
       <c r="AT2">
-        <v>19.480699999999999</v>
+        <v>19.674099999999999</v>
       </c>
       <c r="AU2">
-        <v>19.34</v>
+        <v>19.623000000000001</v>
       </c>
       <c r="AV2">
-        <v>19.2578</v>
+        <v>19.536799999999999</v>
       </c>
       <c r="AW2">
-        <v>19.130600000000001</v>
+        <v>19.462</v>
       </c>
       <c r="AX2">
-        <v>18.984000000000002</v>
+        <v>19.316400000000002</v>
       </c>
       <c r="AY2">
-        <v>18.8324</v>
+        <v>19.221</v>
       </c>
       <c r="AZ2">
-        <v>18.753799999999998</v>
+        <v>19.1004</v>
       </c>
       <c r="BA2">
-        <v>18.7012</v>
+        <v>19.0273</v>
       </c>
       <c r="BB2">
-        <v>18.610800000000001</v>
+        <v>18.936599999999999</v>
       </c>
       <c r="BC2">
-        <v>18.540199999999999</v>
+        <v>18.8611</v>
       </c>
       <c r="BD2">
-        <v>18.433499999999999</v>
+        <v>18.778300000000002</v>
       </c>
       <c r="BE2">
-        <v>18.314599999999999</v>
+        <v>18.6751</v>
       </c>
       <c r="BF2">
-        <v>18.170500000000001</v>
+        <v>18.570900000000002</v>
       </c>
       <c r="BG2">
-        <v>18.110900000000001</v>
+        <v>17.987400000000001</v>
       </c>
       <c r="BH2">
-        <v>13.641</v>
+        <v>14.450699999999999</v>
       </c>
       <c r="BI2">
-        <v>13.6257</v>
+        <v>14.436299999999999</v>
       </c>
       <c r="BJ2">
-        <v>13.632400000000001</v>
+        <v>14.4497</v>
       </c>
       <c r="BK2">
-        <v>13.6243</v>
+        <v>14.441599999999999</v>
       </c>
       <c r="BL2">
-        <v>13.6152</v>
+        <v>14.4338</v>
       </c>
       <c r="BM2">
-        <v>13.610799999999999</v>
+        <v>14.4298</v>
       </c>
       <c r="BN2">
-        <v>13.615500000000001</v>
+        <v>14.417</v>
       </c>
       <c r="BO2">
-        <v>13.606400000000001</v>
+        <v>14.4078</v>
       </c>
       <c r="BP2">
-        <v>13.616400000000001</v>
+        <v>14.411199999999999</v>
       </c>
       <c r="BQ2">
-        <v>13.600899999999999</v>
+        <v>14.390700000000001</v>
       </c>
       <c r="BR2">
-        <v>15.4758</v>
+        <v>14.3904</v>
       </c>
       <c r="BS2">
-        <v>15.4801</v>
+        <v>14.399800000000001</v>
       </c>
       <c r="BT2">
-        <v>15.4716</v>
+        <v>14.391</v>
       </c>
       <c r="BU2">
-        <v>15.442600000000001</v>
+        <v>14.3743</v>
       </c>
       <c r="BV2">
-        <v>15.430999999999999</v>
+        <v>14.354900000000001</v>
       </c>
       <c r="BW2">
-        <v>15.427899999999999</v>
+        <v>14.3566</v>
       </c>
       <c r="BX2">
-        <v>15.4246</v>
+        <v>14.343999999999999</v>
       </c>
       <c r="BY2">
-        <v>15.4177</v>
+        <v>14.338800000000001</v>
       </c>
       <c r="BZ2">
-        <v>15.426600000000001</v>
+        <v>14.3499</v>
       </c>
       <c r="CA2">
-        <v>15.4245</v>
+        <v>14.363099999999999</v>
       </c>
     </row>
     <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>18.507498717948717</v>
+        <v>19.60694358974359</v>
       </c>
       <c r="B3">
-        <v>21.8813</v>
+        <v>25.421500000000002</v>
       </c>
       <c r="C3">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D3">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E3">
-        <v>23.299299999999999</v>
+        <v>24.724900000000002</v>
       </c>
       <c r="F3">
-        <v>23.7851</v>
+        <v>24.584299999999999</v>
       </c>
       <c r="G3">
-        <v>19.711300000000001</v>
+        <v>23.552199999999999</v>
       </c>
       <c r="H3">
-        <v>17.558900000000001</v>
+        <v>18.048400000000001</v>
       </c>
       <c r="I3">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J3">
-        <v>22.185400000000001</v>
+        <v>21.135100000000001</v>
       </c>
       <c r="K3">
-        <v>18.101099999999999</v>
+        <v>17.8123</v>
       </c>
       <c r="L3">
-        <v>17.838999999999999</v>
+        <v>19.094100000000001</v>
       </c>
       <c r="M3">
-        <v>20.570900000000002</v>
+        <v>20.479600000000001</v>
       </c>
       <c r="N3">
-        <v>19.549099999999999</v>
+        <v>21.0746</v>
       </c>
       <c r="O3">
-        <v>20.439499999999999</v>
+        <v>21.021899999999999</v>
       </c>
       <c r="P3">
-        <v>16.087800000000001</v>
+        <v>16.954999999999998</v>
       </c>
       <c r="Q3">
-        <v>16.077500000000001</v>
+        <v>18.573499999999999</v>
       </c>
       <c r="R3">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S3">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T3">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U3">
-        <v>17.623999999999999</v>
+        <v>21.237300000000001</v>
       </c>
       <c r="V3">
-        <v>21.0046</v>
+        <v>20.7363</v>
       </c>
       <c r="W3">
-        <v>20.6096</v>
+        <v>20.152699999999999</v>
       </c>
       <c r="X3">
-        <v>20.209</v>
+        <v>20.983899999999998</v>
       </c>
       <c r="Y3">
-        <v>19.700399999999998</v>
+        <v>20.4863</v>
       </c>
       <c r="Z3">
-        <v>15.0022</v>
+        <v>15.348000000000001</v>
       </c>
       <c r="AA3">
-        <v>14.9613</v>
+        <v>16.415400000000002</v>
       </c>
       <c r="AB3">
-        <v>14.943300000000001</v>
+        <v>16.3857</v>
       </c>
       <c r="AC3">
-        <v>17.006699999999999</v>
+        <v>16.3081</v>
       </c>
       <c r="AD3">
-        <v>16.974299999999999</v>
+        <v>16.3064</v>
       </c>
       <c r="AE3">
-        <v>16.899999999999999</v>
+        <v>17.798200000000001</v>
       </c>
       <c r="AF3">
-        <v>16.8398</v>
+        <v>17.729199999999999</v>
       </c>
       <c r="AG3">
-        <v>16.739699999999999</v>
+        <v>17.601299999999998</v>
       </c>
       <c r="AH3">
-        <v>16.737500000000001</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="AI3">
-        <v>16.637599999999999</v>
+        <v>17.494199999999999</v>
       </c>
       <c r="AJ3">
-        <v>16.604600000000001</v>
+        <v>17.468599999999999</v>
       </c>
       <c r="AK3">
-        <v>16.5488</v>
+        <v>18.963699999999999</v>
       </c>
       <c r="AL3">
-        <v>16.4162</v>
+        <v>18.745200000000001</v>
       </c>
       <c r="AM3">
-        <v>16.358599999999999</v>
+        <v>18.630299999999998</v>
       </c>
       <c r="AN3">
-        <v>16.294699999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="AO3">
-        <v>19.332799999999999</v>
+        <v>18.364999999999998</v>
       </c>
       <c r="AP3">
-        <v>19.155999999999999</v>
+        <v>18.186299999999999</v>
       </c>
       <c r="AQ3">
-        <v>19.1112</v>
+        <v>18.110900000000001</v>
       </c>
       <c r="AR3">
-        <v>19.0246</v>
+        <v>18.047799999999999</v>
       </c>
       <c r="AS3">
-        <v>18.879300000000001</v>
+        <v>17.903600000000001</v>
       </c>
       <c r="AT3">
-        <v>18.796299999999999</v>
+        <v>20.6114</v>
       </c>
       <c r="AU3">
-        <v>18.705300000000001</v>
+        <v>20.4621</v>
       </c>
       <c r="AV3">
-        <v>18.660599999999999</v>
+        <v>20.390999999999998</v>
       </c>
       <c r="AW3">
-        <v>18.543800000000001</v>
+        <v>20.235199999999999</v>
       </c>
       <c r="AX3">
-        <v>18.437799999999999</v>
+        <v>20.0534</v>
       </c>
       <c r="AY3">
-        <v>18.291899999999998</v>
+        <v>19.905799999999999</v>
       </c>
       <c r="AZ3">
-        <v>18.222799999999999</v>
+        <v>19.796500000000002</v>
       </c>
       <c r="BA3">
-        <v>18.186599999999999</v>
+        <v>19.747</v>
       </c>
       <c r="BB3">
-        <v>18.116499999999998</v>
+        <v>19.625699999999998</v>
       </c>
       <c r="BC3">
-        <v>18.071100000000001</v>
+        <v>19.547699999999999</v>
       </c>
       <c r="BD3">
-        <v>17.9572</v>
+        <v>19.432300000000001</v>
       </c>
       <c r="BE3">
-        <v>17.870699999999999</v>
+        <v>19.305399999999999</v>
       </c>
       <c r="BF3">
-        <v>17.751300000000001</v>
+        <v>19.148499999999999</v>
       </c>
       <c r="BG3">
-        <v>17.6951</v>
+        <v>20.240600000000001</v>
       </c>
       <c r="BH3">
-        <v>17.602900000000002</v>
+        <v>20.137599999999999</v>
       </c>
       <c r="BI3">
-        <v>17.521599999999999</v>
+        <v>20.0212</v>
       </c>
       <c r="BJ3">
-        <v>17.486699999999999</v>
+        <v>19.985600000000002</v>
       </c>
       <c r="BK3">
-        <v>17.4148</v>
+        <v>19.8901</v>
       </c>
       <c r="BL3">
-        <v>17.3353</v>
+        <v>19.796900000000001</v>
       </c>
       <c r="BM3">
-        <v>17.2865</v>
+        <v>19.6983</v>
       </c>
       <c r="BN3">
-        <v>17.239899999999999</v>
+        <v>19.602799999999998</v>
       </c>
       <c r="BO3">
-        <v>17.1587</v>
+        <v>19.494199999999999</v>
       </c>
       <c r="BP3">
-        <v>17.149100000000001</v>
+        <v>19.47</v>
       </c>
       <c r="BQ3">
-        <v>17.093599999999999</v>
+        <v>19.386800000000001</v>
       </c>
       <c r="BR3">
-        <v>19.305900000000001</v>
+        <v>19.304400000000001</v>
       </c>
       <c r="BS3">
-        <v>19.2972</v>
+        <v>19.237500000000001</v>
       </c>
       <c r="BT3">
-        <v>19.236000000000001</v>
+        <v>19.156500000000001</v>
       </c>
       <c r="BU3">
-        <v>19.167300000000001</v>
+        <v>19.043500000000002</v>
       </c>
       <c r="BV3">
-        <v>19.130299999999998</v>
+        <v>18.985800000000001</v>
       </c>
       <c r="BW3">
-        <v>19.1008</v>
+        <v>18.951799999999999</v>
       </c>
       <c r="BX3">
-        <v>19.118300000000001</v>
+        <v>18.926500000000001</v>
       </c>
       <c r="BY3">
-        <v>19.059699999999999</v>
+        <v>18.866399999999999</v>
       </c>
       <c r="BZ3">
-        <v>19.046399999999998</v>
+        <v>18.841799999999999</v>
       </c>
       <c r="CA3">
-        <v>19.031300000000002</v>
+        <v>18.7974</v>
       </c>
     </row>
     <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>18.078084615384618</v>
+        <v>19.429933333333334</v>
       </c>
       <c r="B4">
-        <v>27.683</v>
+        <v>26.513100000000001</v>
       </c>
       <c r="C4">
-        <v>23.5824</v>
+        <v>23.628900000000002</v>
       </c>
       <c r="D4">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E4">
-        <v>19.1906</v>
+        <v>19.9069</v>
       </c>
       <c r="F4">
-        <v>22.532499999999999</v>
+        <v>21.454699999999999</v>
       </c>
       <c r="G4">
-        <v>18.149000000000001</v>
+        <v>20.499700000000001</v>
       </c>
       <c r="H4">
-        <v>22.859100000000002</v>
+        <v>22.882899999999999</v>
       </c>
       <c r="I4">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J4">
-        <v>22.185400000000001</v>
+        <v>21.135100000000001</v>
       </c>
       <c r="K4">
-        <v>20.429500000000001</v>
+        <v>19.688400000000001</v>
       </c>
       <c r="L4">
-        <v>19.454599999999999</v>
+        <v>20.767900000000001</v>
       </c>
       <c r="M4">
-        <v>21.468599999999999</v>
+        <v>21.2012</v>
       </c>
       <c r="N4">
-        <v>16.459900000000001</v>
+        <v>17.485499999999998</v>
       </c>
       <c r="O4">
-        <v>18.927199999999999</v>
+        <v>18.793700000000001</v>
       </c>
       <c r="P4">
-        <v>18.4238</v>
+        <v>20.234400000000001</v>
       </c>
       <c r="Q4">
-        <v>18.095400000000001</v>
+        <v>21.791499999999999</v>
       </c>
       <c r="R4">
-        <v>21.186699999999998</v>
+        <v>20.977399999999999</v>
       </c>
       <c r="S4">
-        <v>20.4528</v>
+        <v>21.056799999999999</v>
       </c>
       <c r="T4">
-        <v>15.921200000000001</v>
+        <v>16.650500000000001</v>
       </c>
       <c r="U4">
-        <v>15.828099999999999</v>
+        <v>18.177399999999999</v>
       </c>
       <c r="V4">
-        <v>18.2499</v>
+        <v>18.095300000000002</v>
       </c>
       <c r="W4">
-        <v>18.052299999999999</v>
+        <v>17.913</v>
       </c>
       <c r="X4">
-        <v>17.8948</v>
+        <v>19.188700000000001</v>
       </c>
       <c r="Y4">
-        <v>17.589300000000001</v>
+        <v>18.767099999999999</v>
       </c>
       <c r="Z4">
-        <v>17.407299999999999</v>
+        <v>18.538</v>
       </c>
       <c r="AA4">
-        <v>17.1645</v>
+        <v>21.097300000000001</v>
       </c>
       <c r="AB4">
-        <v>17.002700000000001</v>
+        <v>20.770800000000001</v>
       </c>
       <c r="AC4">
-        <v>20.3689</v>
+        <v>20.314699999999998</v>
       </c>
       <c r="AD4">
-        <v>20.1266</v>
+        <v>20.0108</v>
       </c>
       <c r="AE4">
-        <v>19.896699999999999</v>
+        <v>20.704000000000001</v>
       </c>
       <c r="AF4">
-        <v>19.633600000000001</v>
+        <v>20.404800000000002</v>
       </c>
       <c r="AG4">
-        <v>15.307</v>
+        <v>16.7395</v>
       </c>
       <c r="AH4">
-        <v>15.3306</v>
+        <v>16.7774</v>
       </c>
       <c r="AI4">
-        <v>15.288600000000001</v>
+        <v>16.7057</v>
       </c>
       <c r="AJ4">
-        <v>15.2866</v>
+        <v>16.708200000000001</v>
       </c>
       <c r="AK4">
-        <v>15.2674</v>
+        <v>17.700800000000001</v>
       </c>
       <c r="AL4">
-        <v>15.1835</v>
+        <v>17.581399999999999</v>
       </c>
       <c r="AM4">
-        <v>15.1622</v>
+        <v>17.505700000000001</v>
       </c>
       <c r="AN4">
-        <v>15.1343</v>
+        <v>17.459900000000001</v>
       </c>
       <c r="AO4">
-        <v>17.412099999999999</v>
+        <v>17.365100000000002</v>
       </c>
       <c r="AP4">
-        <v>17.29</v>
+        <v>17.233899999999998</v>
       </c>
       <c r="AQ4">
-        <v>17.2729</v>
+        <v>17.2057</v>
       </c>
       <c r="AR4">
-        <v>17.237200000000001</v>
+        <v>17.171800000000001</v>
       </c>
       <c r="AS4">
-        <v>17.142199999999999</v>
+        <v>17.073599999999999</v>
       </c>
       <c r="AT4">
-        <v>17.101800000000001</v>
+        <v>19.300599999999999</v>
       </c>
       <c r="AU4">
-        <v>17.052299999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="AV4">
-        <v>17.039100000000001</v>
+        <v>19.199400000000001</v>
       </c>
       <c r="AW4">
-        <v>16.954899999999999</v>
+        <v>19.079599999999999</v>
       </c>
       <c r="AX4">
-        <v>16.877199999999998</v>
+        <v>18.963200000000001</v>
       </c>
       <c r="AY4">
-        <v>16.802800000000001</v>
+        <v>18.829499999999999</v>
       </c>
       <c r="AZ4">
-        <v>16.764700000000001</v>
+        <v>18.722999999999999</v>
       </c>
       <c r="BA4">
-        <v>16.755199999999999</v>
+        <v>18.6982</v>
       </c>
       <c r="BB4">
-        <v>16.7151</v>
+        <v>18.617100000000001</v>
       </c>
       <c r="BC4">
-        <v>16.691500000000001</v>
+        <v>18.571200000000001</v>
       </c>
       <c r="BD4">
-        <v>16.628299999999999</v>
+        <v>18.489699999999999</v>
       </c>
       <c r="BE4">
-        <v>16.568899999999999</v>
+        <v>18.395299999999999</v>
       </c>
       <c r="BF4">
-        <v>16.5017</v>
+        <v>18.275600000000001</v>
       </c>
       <c r="BG4">
-        <v>16.469799999999999</v>
+        <v>20.356200000000001</v>
       </c>
       <c r="BH4">
-        <v>16.412400000000002</v>
+        <v>20.238900000000001</v>
       </c>
       <c r="BI4">
-        <v>16.359100000000002</v>
+        <v>20.1221</v>
       </c>
       <c r="BJ4">
-        <v>16.3415</v>
+        <v>20.101800000000001</v>
       </c>
       <c r="BK4">
-        <v>16.297000000000001</v>
+        <v>20.0183</v>
       </c>
       <c r="BL4">
-        <v>16.239999999999998</v>
+        <v>19.9267</v>
       </c>
       <c r="BM4">
-        <v>16.211400000000001</v>
+        <v>19.836500000000001</v>
       </c>
       <c r="BN4">
-        <v>16.189</v>
+        <v>19.718900000000001</v>
       </c>
       <c r="BO4">
-        <v>16.135899999999999</v>
+        <v>19.602</v>
       </c>
       <c r="BP4">
-        <v>16.133299999999998</v>
+        <v>19.584800000000001</v>
       </c>
       <c r="BQ4">
-        <v>16.093900000000001</v>
+        <v>19.5031</v>
       </c>
       <c r="BR4">
-        <v>19.5579</v>
+        <v>19.4313</v>
       </c>
       <c r="BS4">
-        <v>19.514299999999999</v>
+        <v>19.378499999999999</v>
       </c>
       <c r="BT4">
-        <v>19.455100000000002</v>
+        <v>19.305700000000002</v>
       </c>
       <c r="BU4">
-        <v>19.357900000000001</v>
+        <v>19.197700000000001</v>
       </c>
       <c r="BV4">
-        <v>19.305900000000001</v>
+        <v>19.130700000000001</v>
       </c>
       <c r="BW4">
-        <v>19.287099999999999</v>
+        <v>19.0794</v>
       </c>
       <c r="BX4">
-        <v>19.243500000000001</v>
+        <v>19.013400000000001</v>
       </c>
       <c r="BY4">
-        <v>19.198</v>
+        <v>18.957599999999999</v>
       </c>
       <c r="BZ4">
-        <v>19.1921</v>
+        <v>18.9391</v>
       </c>
       <c r="CA4">
-        <v>19.152699999999999</v>
+        <v>18.9039</v>
       </c>
     </row>
     <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>18.151408974358969</v>
+        <v>19.51100641025641</v>
       </c>
       <c r="B5">
-        <v>25.929099999999998</v>
+        <v>32.878599999999999</v>
       </c>
       <c r="C5">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D5">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E5">
-        <v>21.8325</v>
+        <v>23.165199999999999</v>
       </c>
       <c r="F5">
-        <v>23.7851</v>
+        <v>24.584299999999999</v>
       </c>
       <c r="G5">
-        <v>21.708600000000001</v>
+        <v>23.649100000000001</v>
       </c>
       <c r="H5">
-        <v>22.5669</v>
+        <v>23.0152</v>
       </c>
       <c r="I5">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J5">
-        <v>18.062000000000001</v>
+        <v>19.392199999999999</v>
       </c>
       <c r="K5">
-        <v>21.232500000000002</v>
+        <v>21.066800000000001</v>
       </c>
       <c r="L5">
-        <v>20.010999999999999</v>
+        <v>21.663900000000002</v>
       </c>
       <c r="M5">
-        <v>18.3368</v>
+        <v>17.617000000000001</v>
       </c>
       <c r="N5">
-        <v>18.0075</v>
+        <v>19.439499999999999</v>
       </c>
       <c r="O5">
-        <v>21.057200000000002</v>
+        <v>20.084199999999999</v>
       </c>
       <c r="P5">
-        <v>20.048100000000002</v>
+        <v>21.818100000000001</v>
       </c>
       <c r="Q5">
-        <v>16.077500000000001</v>
+        <v>18.573499999999999</v>
       </c>
       <c r="R5">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S5">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T5">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U5">
-        <v>17.623999999999999</v>
+        <v>21.237300000000001</v>
       </c>
       <c r="V5">
-        <v>21.0046</v>
+        <v>20.7363</v>
       </c>
       <c r="W5">
-        <v>20.6096</v>
+        <v>20.152699999999999</v>
       </c>
       <c r="X5">
-        <v>16.5852</v>
+        <v>17.879100000000001</v>
       </c>
       <c r="Y5">
-        <v>16.4086</v>
+        <v>17.632899999999999</v>
       </c>
       <c r="Z5">
-        <v>16.327100000000002</v>
+        <v>17.523099999999999</v>
       </c>
       <c r="AA5">
-        <v>16.199300000000001</v>
+        <v>19.265899999999998</v>
       </c>
       <c r="AB5">
-        <v>16.118500000000001</v>
+        <v>19.075700000000001</v>
       </c>
       <c r="AC5">
-        <v>19.013400000000001</v>
+        <v>18.754200000000001</v>
       </c>
       <c r="AD5">
-        <v>18.888200000000001</v>
+        <v>18.5991</v>
       </c>
       <c r="AE5">
-        <v>18.696100000000001</v>
+        <v>20.636600000000001</v>
       </c>
       <c r="AF5">
-        <v>18.508500000000002</v>
+        <v>20.366800000000001</v>
       </c>
       <c r="AG5">
-        <v>18.296700000000001</v>
+        <v>20.0349</v>
       </c>
       <c r="AH5">
-        <v>18.232500000000002</v>
+        <v>19.905200000000001</v>
       </c>
       <c r="AI5">
-        <v>18.046600000000002</v>
+        <v>19.605899999999998</v>
       </c>
       <c r="AJ5">
-        <v>17.950299999999999</v>
+        <v>19.4621</v>
       </c>
       <c r="AK5">
-        <v>17.826599999999999</v>
+        <v>20.877600000000001</v>
       </c>
       <c r="AL5">
-        <v>17.606100000000001</v>
+        <v>20.614999999999998</v>
       </c>
       <c r="AM5">
-        <v>17.473500000000001</v>
+        <v>20.422000000000001</v>
       </c>
       <c r="AN5">
-        <v>14.773999999999999</v>
+        <v>16.662199999999999</v>
       </c>
       <c r="AO5">
-        <v>16.927600000000002</v>
+        <v>16.596599999999999</v>
       </c>
       <c r="AP5">
-        <v>16.8203</v>
+        <v>16.527999999999999</v>
       </c>
       <c r="AQ5">
-        <v>16.816700000000001</v>
+        <v>16.525200000000002</v>
       </c>
       <c r="AR5">
-        <v>16.788699999999999</v>
+        <v>16.508600000000001</v>
       </c>
       <c r="AS5">
-        <v>16.7102</v>
+        <v>16.434899999999999</v>
       </c>
       <c r="AT5">
-        <v>16.6875</v>
+        <v>17.598199999999999</v>
       </c>
       <c r="AU5">
-        <v>16.654299999999999</v>
+        <v>17.5519</v>
       </c>
       <c r="AV5">
-        <v>16.646899999999999</v>
+        <v>17.546299999999999</v>
       </c>
       <c r="AW5">
-        <v>16.580500000000001</v>
+        <v>17.466999999999999</v>
       </c>
       <c r="AX5">
-        <v>16.520099999999999</v>
+        <v>17.392399999999999</v>
       </c>
       <c r="AY5">
-        <v>16.463799999999999</v>
+        <v>17.2971</v>
       </c>
       <c r="AZ5">
-        <v>16.428699999999999</v>
+        <v>17.257300000000001</v>
       </c>
       <c r="BA5">
-        <v>16.4238</v>
+        <v>17.2592</v>
       </c>
       <c r="BB5">
-        <v>16.3874</v>
+        <v>17.213100000000001</v>
       </c>
       <c r="BC5">
-        <v>16.368400000000001</v>
+        <v>17.186800000000002</v>
       </c>
       <c r="BD5">
-        <v>16.317</v>
+        <v>17.141100000000002</v>
       </c>
       <c r="BE5">
-        <v>16.263100000000001</v>
+        <v>17.085799999999999</v>
       </c>
       <c r="BF5">
-        <v>16.205300000000001</v>
+        <v>17.016999999999999</v>
       </c>
       <c r="BG5">
-        <v>16.180499999999999</v>
+        <v>19.863199999999999</v>
       </c>
       <c r="BH5">
-        <v>16.126200000000001</v>
+        <v>19.741499999999998</v>
       </c>
       <c r="BI5">
-        <v>16.0806</v>
+        <v>19.643999999999998</v>
       </c>
       <c r="BJ5">
-        <v>16.0686</v>
+        <v>19.645</v>
       </c>
       <c r="BK5">
-        <v>16.032800000000002</v>
+        <v>19.5566</v>
       </c>
       <c r="BL5">
-        <v>15.9861</v>
+        <v>19.484000000000002</v>
       </c>
       <c r="BM5">
-        <v>15.9612</v>
+        <v>19.4147</v>
       </c>
       <c r="BN5">
-        <v>15.9415</v>
+        <v>19.337900000000001</v>
       </c>
       <c r="BO5">
-        <v>15.895899999999999</v>
+        <v>19.2333</v>
       </c>
       <c r="BP5">
-        <v>15.895099999999999</v>
+        <v>19.229299999999999</v>
       </c>
       <c r="BQ5">
-        <v>15.859400000000001</v>
+        <v>19.150400000000001</v>
       </c>
       <c r="BR5">
-        <v>19.229600000000001</v>
+        <v>19.096499999999999</v>
       </c>
       <c r="BS5">
-        <v>19.195599999999999</v>
+        <v>19.058299999999999</v>
       </c>
       <c r="BT5">
-        <v>19.145600000000002</v>
+        <v>18.997699999999998</v>
       </c>
       <c r="BU5">
-        <v>19.059899999999999</v>
+        <v>18.8901</v>
       </c>
       <c r="BV5">
-        <v>19.0061</v>
+        <v>18.8246</v>
       </c>
       <c r="BW5">
-        <v>18.967199999999998</v>
+        <v>18.777000000000001</v>
       </c>
       <c r="BX5">
-        <v>18.923300000000001</v>
+        <v>18.7211</v>
       </c>
       <c r="BY5">
-        <v>18.883199999999999</v>
+        <v>18.669599999999999</v>
       </c>
       <c r="BZ5">
-        <v>18.88</v>
+        <v>18.662099999999999</v>
       </c>
       <c r="CA5">
-        <v>18.8444</v>
+        <v>18.636399999999998</v>
       </c>
     </row>
     <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>18.06714487179487</v>
+        <v>19.243364102564112</v>
       </c>
       <c r="B6">
-        <v>23.427900000000001</v>
+        <v>30.145199999999999</v>
       </c>
       <c r="C6">
-        <v>25.451499999999999</v>
+        <v>24.9495</v>
       </c>
       <c r="D6">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E6">
-        <v>22.647600000000001</v>
+        <v>24.787400000000002</v>
       </c>
       <c r="F6">
-        <v>23.665199999999999</v>
+        <v>23.5702</v>
       </c>
       <c r="G6">
-        <v>20.213999999999999</v>
+        <v>24.539899999999999</v>
       </c>
       <c r="H6">
-        <v>22.392499999999998</v>
+        <v>21.593800000000002</v>
       </c>
       <c r="I6">
+        <v>23.241499999999998</v>
+      </c>
+      <c r="J6">
         <v>20.122499999999999</v>
       </c>
-      <c r="J6">
-        <v>18.430199999999999</v>
-      </c>
       <c r="K6">
-        <v>21.492699999999999</v>
+        <v>21.8688</v>
       </c>
       <c r="L6">
-        <v>17.2453</v>
+        <v>18.1707</v>
       </c>
       <c r="M6">
-        <v>19.9649</v>
+        <v>19.314299999999999</v>
       </c>
       <c r="N6">
-        <v>19.1859</v>
+        <v>20.786100000000001</v>
       </c>
       <c r="O6">
-        <v>18.648900000000001</v>
+        <v>18.008500000000002</v>
       </c>
       <c r="P6">
-        <v>18.2075</v>
+        <v>19.101700000000001</v>
       </c>
       <c r="Q6">
-        <v>17.936800000000002</v>
+        <v>21.255600000000001</v>
       </c>
       <c r="R6">
-        <v>21.033200000000001</v>
+        <v>20.6097</v>
       </c>
       <c r="S6">
-        <v>20.223700000000001</v>
+        <v>21.293199999999999</v>
       </c>
       <c r="T6">
-        <v>16.5792</v>
+        <v>17.6951</v>
       </c>
       <c r="U6">
-        <v>16.4193</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="V6">
-        <v>19.269200000000001</v>
+        <v>18.740400000000001</v>
       </c>
       <c r="W6">
-        <v>18.961300000000001</v>
+        <v>18.4541</v>
       </c>
       <c r="X6">
-        <v>18.720800000000001</v>
+        <v>20.809899999999999</v>
       </c>
       <c r="Y6">
-        <v>18.317299999999999</v>
+        <v>20.232700000000001</v>
       </c>
       <c r="Z6">
-        <v>18.075700000000001</v>
+        <v>19.8566</v>
       </c>
       <c r="AA6">
-        <v>17.748000000000001</v>
+        <v>21.325800000000001</v>
       </c>
       <c r="AB6">
-        <v>15.334899999999999</v>
+        <v>17.288</v>
       </c>
       <c r="AC6">
-        <v>17.7227</v>
+        <v>17.1448</v>
       </c>
       <c r="AD6">
-        <v>17.654</v>
+        <v>17.11</v>
       </c>
       <c r="AE6">
-        <v>17.545000000000002</v>
+        <v>18.7883</v>
       </c>
       <c r="AF6">
-        <v>17.440999999999999</v>
+        <v>18.661200000000001</v>
       </c>
       <c r="AG6">
-        <v>17.296600000000002</v>
+        <v>18.484999999999999</v>
       </c>
       <c r="AH6">
-        <v>17.272200000000002</v>
+        <v>18.4589</v>
       </c>
       <c r="AI6">
-        <v>17.138999999999999</v>
+        <v>18.298300000000001</v>
       </c>
       <c r="AJ6">
-        <v>17.084199999999999</v>
+        <v>18.234500000000001</v>
       </c>
       <c r="AK6">
-        <v>17.001000000000001</v>
+        <v>20.1309</v>
       </c>
       <c r="AL6">
-        <v>16.839500000000001</v>
+        <v>19.8612</v>
       </c>
       <c r="AM6">
-        <v>16.758800000000001</v>
+        <v>19.716200000000001</v>
       </c>
       <c r="AN6">
-        <v>16.6784</v>
+        <v>19.5517</v>
       </c>
       <c r="AO6">
-        <v>20.110600000000002</v>
+        <v>19.3459</v>
       </c>
       <c r="AP6">
-        <v>19.9192</v>
+        <v>19.135400000000001</v>
       </c>
       <c r="AQ6">
-        <v>19.8446</v>
+        <v>19.033300000000001</v>
       </c>
       <c r="AR6">
-        <v>19.741199999999999</v>
+        <v>18.9389</v>
       </c>
       <c r="AS6">
-        <v>19.566099999999999</v>
+        <v>18.761399999999998</v>
       </c>
       <c r="AT6">
-        <v>16.279499999999999</v>
+        <v>17.1995</v>
       </c>
       <c r="AU6">
-        <v>16.259699999999999</v>
+        <v>17.165099999999999</v>
       </c>
       <c r="AV6">
-        <v>16.2605</v>
+        <v>17.167200000000001</v>
       </c>
       <c r="AW6">
-        <v>16.2075</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AX6">
-        <v>16.1539</v>
+        <v>17.033100000000001</v>
       </c>
       <c r="AY6">
-        <v>16.11</v>
+        <v>16.964300000000001</v>
       </c>
       <c r="AZ6">
-        <v>16.078600000000002</v>
+        <v>16.933599999999998</v>
       </c>
       <c r="BA6">
-        <v>16.078700000000001</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="BB6">
-        <v>16.047899999999998</v>
+        <v>16.901</v>
       </c>
       <c r="BC6">
-        <v>16.0334</v>
+        <v>16.884</v>
       </c>
       <c r="BD6">
-        <v>15.989699999999999</v>
+        <v>16.849599999999999</v>
       </c>
       <c r="BE6">
-        <v>15.944599999999999</v>
+        <v>16.8018</v>
       </c>
       <c r="BF6">
-        <v>15.894399999999999</v>
+        <v>16.744800000000001</v>
       </c>
       <c r="BG6">
-        <v>15.8767</v>
+        <v>19.0562</v>
       </c>
       <c r="BH6">
-        <v>15.8262</v>
+        <v>18.968</v>
       </c>
       <c r="BI6">
-        <v>15.7841</v>
+        <v>18.877300000000002</v>
       </c>
       <c r="BJ6">
-        <v>15.775600000000001</v>
+        <v>18.8828</v>
       </c>
       <c r="BK6">
-        <v>15.7423</v>
+        <v>18.814499999999999</v>
       </c>
       <c r="BL6">
-        <v>15.7013</v>
+        <v>18.7454</v>
       </c>
       <c r="BM6">
-        <v>15.679399999999999</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="BN6">
-        <v>15.6632</v>
+        <v>18.624500000000001</v>
       </c>
       <c r="BO6">
-        <v>15.6244</v>
+        <v>18.535599999999999</v>
       </c>
       <c r="BP6">
-        <v>15.625400000000001</v>
+        <v>18.534099999999999</v>
       </c>
       <c r="BQ6">
-        <v>15.5915</v>
+        <v>18.4589</v>
       </c>
       <c r="BR6">
-        <v>18.8902</v>
+        <v>18.411799999999999</v>
       </c>
       <c r="BS6">
-        <v>18.861599999999999</v>
+        <v>18.3749</v>
       </c>
       <c r="BT6">
-        <v>18.815899999999999</v>
+        <v>18.330500000000001</v>
       </c>
       <c r="BU6">
-        <v>18.732700000000001</v>
+        <v>18.257899999999999</v>
       </c>
       <c r="BV6">
-        <v>18.669499999999999</v>
+        <v>18.194700000000001</v>
       </c>
       <c r="BW6">
-        <v>18.636700000000001</v>
+        <v>18.162600000000001</v>
       </c>
       <c r="BX6">
-        <v>18.595500000000001</v>
+        <v>18.115300000000001</v>
       </c>
       <c r="BY6">
-        <v>18.557600000000001</v>
+        <v>18.076699999999999</v>
       </c>
       <c r="BZ6">
-        <v>18.556999999999999</v>
+        <v>18.073599999999999</v>
       </c>
       <c r="CA6">
-        <v>18.526199999999999</v>
+        <v>18.056899999999999</v>
       </c>
     </row>
     <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>18.046176923076917</v>
+        <v>19.072744871794871</v>
       </c>
       <c r="B7">
-        <v>28.5959</v>
+        <v>30.163599999999999</v>
       </c>
       <c r="C7">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D7">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E7">
-        <v>19.723600000000001</v>
+        <v>21.459199999999999</v>
       </c>
       <c r="F7">
-        <v>21.4054</v>
+        <v>20.806000000000001</v>
       </c>
       <c r="G7">
-        <v>19.711300000000001</v>
+        <v>23.552199999999999</v>
       </c>
       <c r="H7">
-        <v>21.999099999999999</v>
+        <v>21.039300000000001</v>
       </c>
       <c r="I7">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J7">
-        <v>19.308599999999998</v>
+        <v>20.790299999999998</v>
       </c>
       <c r="K7">
-        <v>22.282800000000002</v>
+        <v>22.0671</v>
       </c>
       <c r="L7">
-        <v>17.838999999999999</v>
+        <v>19.094100000000001</v>
       </c>
       <c r="M7">
-        <v>20.570900000000002</v>
+        <v>20.479600000000001</v>
       </c>
       <c r="N7">
-        <v>16.994700000000002</v>
+        <v>18.232199999999999</v>
       </c>
       <c r="O7">
-        <v>19.619900000000001</v>
+        <v>19.4909</v>
       </c>
       <c r="P7">
-        <v>18.952200000000001</v>
+        <v>20.842300000000002</v>
       </c>
       <c r="Q7">
-        <v>16.077500000000001</v>
+        <v>18.573499999999999</v>
       </c>
       <c r="R7">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S7">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T7">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U7">
-        <v>17.623999999999999</v>
+        <v>21.237300000000001</v>
       </c>
       <c r="V7">
-        <v>17.662400000000002</v>
+        <v>17.420200000000001</v>
       </c>
       <c r="W7">
-        <v>17.519600000000001</v>
+        <v>17.325500000000002</v>
       </c>
       <c r="X7">
-        <v>17.403500000000001</v>
+        <v>18.607600000000001</v>
       </c>
       <c r="Y7">
-        <v>17.146000000000001</v>
+        <v>18.257200000000001</v>
       </c>
       <c r="Z7">
-        <v>17.002700000000001</v>
+        <v>18.0931</v>
       </c>
       <c r="AA7">
-        <v>16.807300000000001</v>
+        <v>20.4069</v>
       </c>
       <c r="AB7">
-        <v>16.677900000000001</v>
+        <v>20.106100000000001</v>
       </c>
       <c r="AC7">
-        <v>19.9802</v>
+        <v>19.675699999999999</v>
       </c>
       <c r="AD7">
-        <v>19.804500000000001</v>
+        <v>19.459399999999999</v>
       </c>
       <c r="AE7">
-        <v>19.543500000000002</v>
+        <v>20.927</v>
       </c>
       <c r="AF7">
-        <v>16.8398</v>
+        <v>17.729199999999999</v>
       </c>
       <c r="AG7">
-        <v>16.739699999999999</v>
+        <v>17.601299999999998</v>
       </c>
       <c r="AH7">
-        <v>16.737500000000001</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="AI7">
-        <v>16.637599999999999</v>
+        <v>17.494199999999999</v>
       </c>
       <c r="AJ7">
-        <v>16.604600000000001</v>
+        <v>17.468599999999999</v>
       </c>
       <c r="AK7">
-        <v>16.5488</v>
+        <v>18.963699999999999</v>
       </c>
       <c r="AL7">
-        <v>16.4162</v>
+        <v>18.745200000000001</v>
       </c>
       <c r="AM7">
-        <v>16.358599999999999</v>
+        <v>18.630299999999998</v>
       </c>
       <c r="AN7">
-        <v>16.294699999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="AO7">
-        <v>19.332799999999999</v>
+        <v>18.364999999999998</v>
       </c>
       <c r="AP7">
-        <v>19.155999999999999</v>
+        <v>18.186299999999999</v>
       </c>
       <c r="AQ7">
-        <v>19.1112</v>
+        <v>18.110900000000001</v>
       </c>
       <c r="AR7">
-        <v>19.0246</v>
+        <v>18.047799999999999</v>
       </c>
       <c r="AS7">
-        <v>18.879300000000001</v>
+        <v>17.903600000000001</v>
       </c>
       <c r="AT7">
-        <v>18.796299999999999</v>
+        <v>20.6114</v>
       </c>
       <c r="AU7">
-        <v>18.705300000000001</v>
+        <v>20.4621</v>
       </c>
       <c r="AV7">
-        <v>18.660599999999999</v>
+        <v>20.390999999999998</v>
       </c>
       <c r="AW7">
-        <v>18.543800000000001</v>
+        <v>20.235199999999999</v>
       </c>
       <c r="AX7">
-        <v>18.437799999999999</v>
+        <v>20.0534</v>
       </c>
       <c r="AY7">
-        <v>18.291899999999998</v>
+        <v>19.905799999999999</v>
       </c>
       <c r="AZ7">
-        <v>18.222799999999999</v>
+        <v>19.796500000000002</v>
       </c>
       <c r="BA7">
-        <v>15.7715</v>
+        <v>16.470600000000001</v>
       </c>
       <c r="BB7">
-        <v>15.748200000000001</v>
+        <v>16.443000000000001</v>
       </c>
       <c r="BC7">
-        <v>15.7372</v>
+        <v>16.435600000000001</v>
       </c>
       <c r="BD7">
-        <v>15.7006</v>
+        <v>16.410799999999998</v>
       </c>
       <c r="BE7">
-        <v>15.6607</v>
+        <v>16.374099999999999</v>
       </c>
       <c r="BF7">
-        <v>15.6167</v>
+        <v>16.3306</v>
       </c>
       <c r="BG7">
-        <v>15.6036</v>
+        <v>18.0932</v>
       </c>
       <c r="BH7">
-        <v>15.5565</v>
+        <v>18.029499999999999</v>
       </c>
       <c r="BI7">
-        <v>15.519600000000001</v>
+        <v>17.952100000000002</v>
       </c>
       <c r="BJ7">
-        <v>15.514900000000001</v>
+        <v>17.965</v>
       </c>
       <c r="BK7">
-        <v>15.4857</v>
+        <v>17.917200000000001</v>
       </c>
       <c r="BL7">
-        <v>15.4498</v>
+        <v>17.865300000000001</v>
       </c>
       <c r="BM7">
-        <v>15.4315</v>
+        <v>17.8232</v>
       </c>
       <c r="BN7">
-        <v>15.4221</v>
+        <v>17.765599999999999</v>
       </c>
       <c r="BO7">
-        <v>15.3893</v>
+        <v>17.690300000000001</v>
       </c>
       <c r="BP7">
-        <v>15.392099999999999</v>
+        <v>17.693100000000001</v>
       </c>
       <c r="BQ7">
-        <v>15.361599999999999</v>
+        <v>17.632200000000001</v>
       </c>
       <c r="BR7">
-        <v>18.3521</v>
+        <v>17.6022</v>
       </c>
       <c r="BS7">
-        <v>18.329000000000001</v>
+        <v>17.5916</v>
       </c>
       <c r="BT7">
-        <v>18.2928</v>
+        <v>17.555399999999999</v>
       </c>
       <c r="BU7">
-        <v>18.226500000000001</v>
+        <v>17.490500000000001</v>
       </c>
       <c r="BV7">
-        <v>18.175799999999999</v>
+        <v>17.4451</v>
       </c>
       <c r="BW7">
-        <v>18.1462</v>
+        <v>17.421299999999999</v>
       </c>
       <c r="BX7">
-        <v>18.113099999999999</v>
+        <v>17.398399999999999</v>
       </c>
       <c r="BY7">
-        <v>18.0808</v>
+        <v>17.369</v>
       </c>
       <c r="BZ7">
-        <v>18.0824</v>
+        <v>17.371400000000001</v>
       </c>
       <c r="CA7">
-        <v>18.0565</v>
+        <v>17.367899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>18.006620512820511</v>
+        <v>19.282091025641023</v>
       </c>
       <c r="B8">
-        <v>25.929099999999998</v>
+        <v>32.878599999999999</v>
       </c>
       <c r="C8">
-        <v>26.31</v>
+        <v>25.6767</v>
       </c>
       <c r="D8">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E8">
-        <v>21.8325</v>
+        <v>23.165199999999999</v>
       </c>
       <c r="F8">
-        <v>24.016400000000001</v>
+        <v>23.991800000000001</v>
       </c>
       <c r="G8">
-        <v>18.987400000000001</v>
+        <v>22.313099999999999</v>
       </c>
       <c r="H8">
-        <v>21.542200000000001</v>
+        <v>20.624199999999998</v>
       </c>
       <c r="I8">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J8">
-        <v>19.869199999999999</v>
+        <v>21.596299999999999</v>
       </c>
       <c r="K8">
-        <v>22.4163</v>
+        <v>22.226299999999998</v>
       </c>
       <c r="L8">
-        <v>18.725200000000001</v>
+        <v>20.026499999999999</v>
       </c>
       <c r="M8">
-        <v>18.3368</v>
+        <v>17.617000000000001</v>
       </c>
       <c r="N8">
-        <v>18.0075</v>
+        <v>19.439499999999999</v>
       </c>
       <c r="O8">
-        <v>21.057200000000002</v>
+        <v>20.084199999999999</v>
       </c>
       <c r="P8">
-        <v>17.540400000000002</v>
+        <v>18.733799999999999</v>
       </c>
       <c r="Q8">
-        <v>17.373899999999999</v>
+        <v>20.322099999999999</v>
       </c>
       <c r="R8">
-        <v>20.452500000000001</v>
+        <v>19.781400000000001</v>
       </c>
       <c r="S8">
-        <v>19.636199999999999</v>
+        <v>21.454699999999999</v>
       </c>
       <c r="T8">
-        <v>17.0748</v>
+        <v>18.0151</v>
       </c>
       <c r="U8">
-        <v>16.844899999999999</v>
+        <v>19.258500000000002</v>
       </c>
       <c r="V8">
-        <v>19.935300000000002</v>
+        <v>19.024100000000001</v>
       </c>
       <c r="W8">
-        <v>19.563500000000001</v>
+        <v>18.689800000000002</v>
       </c>
       <c r="X8">
-        <v>19.248999999999999</v>
+        <v>20.934999999999999</v>
       </c>
       <c r="Y8">
-        <v>16.4086</v>
+        <v>17.632899999999999</v>
       </c>
       <c r="Z8">
-        <v>16.327100000000002</v>
+        <v>17.523099999999999</v>
       </c>
       <c r="AA8">
-        <v>16.199300000000001</v>
+        <v>19.265899999999998</v>
       </c>
       <c r="AB8">
-        <v>16.118500000000001</v>
+        <v>19.075700000000001</v>
       </c>
       <c r="AC8">
-        <v>19.013400000000001</v>
+        <v>18.754200000000001</v>
       </c>
       <c r="AD8">
-        <v>18.888200000000001</v>
+        <v>18.5991</v>
       </c>
       <c r="AE8">
-        <v>18.696100000000001</v>
+        <v>20.636600000000001</v>
       </c>
       <c r="AF8">
-        <v>18.508500000000002</v>
+        <v>20.366800000000001</v>
       </c>
       <c r="AG8">
-        <v>18.296700000000001</v>
+        <v>20.0349</v>
       </c>
       <c r="AH8">
-        <v>18.232500000000002</v>
+        <v>19.905200000000001</v>
       </c>
       <c r="AI8">
-        <v>18.046600000000002</v>
+        <v>19.605899999999998</v>
       </c>
       <c r="AJ8">
-        <v>15.9704</v>
+        <v>16.929099999999998</v>
       </c>
       <c r="AK8">
-        <v>15.9383</v>
+        <v>17.959599999999998</v>
       </c>
       <c r="AL8">
-        <v>15.834199999999999</v>
+        <v>17.8247</v>
       </c>
       <c r="AM8">
-        <v>15.797599999999999</v>
+        <v>17.739599999999999</v>
       </c>
       <c r="AN8">
-        <v>15.7576</v>
+        <v>17.6738</v>
       </c>
       <c r="AO8">
-        <v>18.2683</v>
+        <v>17.567599999999999</v>
       </c>
       <c r="AP8">
-        <v>18.106300000000001</v>
+        <v>17.427099999999999</v>
       </c>
       <c r="AQ8">
-        <v>18.074000000000002</v>
+        <v>17.385300000000001</v>
       </c>
       <c r="AR8">
-        <v>18.0182</v>
+        <v>17.345300000000002</v>
       </c>
       <c r="AS8">
-        <v>17.905200000000001</v>
+        <v>17.236999999999998</v>
       </c>
       <c r="AT8">
-        <v>17.838200000000001</v>
+        <v>19.7578</v>
       </c>
       <c r="AU8">
-        <v>17.773099999999999</v>
+        <v>19.6676</v>
       </c>
       <c r="AV8">
-        <v>17.744800000000001</v>
+        <v>19.630099999999999</v>
       </c>
       <c r="AW8">
-        <v>17.642399999999999</v>
+        <v>19.509</v>
       </c>
       <c r="AX8">
-        <v>17.546700000000001</v>
+        <v>19.378799999999998</v>
       </c>
       <c r="AY8">
-        <v>17.439800000000002</v>
+        <v>19.222200000000001</v>
       </c>
       <c r="AZ8">
-        <v>17.3918</v>
+        <v>19.104299999999999</v>
       </c>
       <c r="BA8">
-        <v>17.3719</v>
+        <v>19.065799999999999</v>
       </c>
       <c r="BB8">
-        <v>17.322099999999999</v>
+        <v>18.970400000000001</v>
       </c>
       <c r="BC8">
-        <v>17.287299999999998</v>
+        <v>18.918299999999999</v>
       </c>
       <c r="BD8">
-        <v>17.202100000000002</v>
+        <v>18.811</v>
       </c>
       <c r="BE8">
-        <v>17.132000000000001</v>
+        <v>18.711300000000001</v>
       </c>
       <c r="BF8">
-        <v>17.042000000000002</v>
+        <v>18.5823</v>
       </c>
       <c r="BG8">
-        <v>16.999099999999999</v>
+        <v>20.592500000000001</v>
       </c>
       <c r="BH8">
-        <v>15.222</v>
+        <v>18.0059</v>
       </c>
       <c r="BI8">
-        <v>15.1889</v>
+        <v>17.930099999999999</v>
       </c>
       <c r="BJ8">
-        <v>15.1876</v>
+        <v>17.945</v>
       </c>
       <c r="BK8">
-        <v>15.1638</v>
+        <v>17.8993</v>
       </c>
       <c r="BL8">
-        <v>15.133100000000001</v>
+        <v>17.849299999999999</v>
       </c>
       <c r="BM8">
-        <v>15.117000000000001</v>
+        <v>17.808900000000001</v>
       </c>
       <c r="BN8">
-        <v>15.1137</v>
+        <v>17.753499999999999</v>
       </c>
       <c r="BO8">
-        <v>15.0862</v>
+        <v>17.680700000000002</v>
       </c>
       <c r="BP8">
-        <v>15.0906</v>
+        <v>17.685199999999998</v>
       </c>
       <c r="BQ8">
-        <v>15.0616</v>
+        <v>17.625399999999999</v>
       </c>
       <c r="BR8">
-        <v>17.6663</v>
+        <v>17.597100000000001</v>
       </c>
       <c r="BS8">
-        <v>17.648900000000001</v>
+        <v>17.587599999999998</v>
       </c>
       <c r="BT8">
-        <v>17.6218</v>
+        <v>17.552600000000002</v>
       </c>
       <c r="BU8">
-        <v>17.564699999999998</v>
+        <v>17.488499999999998</v>
       </c>
       <c r="BV8">
-        <v>17.521100000000001</v>
+        <v>17.445399999999999</v>
       </c>
       <c r="BW8">
-        <v>17.4985</v>
+        <v>17.4221</v>
       </c>
       <c r="BX8">
-        <v>17.475200000000001</v>
+        <v>17.401399999999999</v>
       </c>
       <c r="BY8">
-        <v>17.4559</v>
+        <v>17.372699999999998</v>
       </c>
       <c r="BZ8">
-        <v>17.459</v>
+        <v>17.375800000000002</v>
       </c>
       <c r="CA8">
-        <v>17.443000000000001</v>
+        <v>17.371300000000002</v>
       </c>
     </row>
     <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>17.801108974358975</v>
+        <v>19.408920512820515</v>
       </c>
       <c r="B9">
-        <v>24.838999999999999</v>
+        <v>31.212</v>
       </c>
       <c r="C9">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D9">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E9">
-        <v>22.2499</v>
+        <v>24.585999999999999</v>
       </c>
       <c r="F9">
-        <v>22.5352</v>
+        <v>21.454699999999999</v>
       </c>
       <c r="G9">
-        <v>20.852900000000002</v>
+        <v>24.3142</v>
       </c>
       <c r="H9">
-        <v>20.996400000000001</v>
+        <v>20.614699999999999</v>
       </c>
       <c r="I9">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J9">
-        <v>20.373699999999999</v>
+        <v>22.3947</v>
       </c>
       <c r="K9">
-        <v>20.429500000000001</v>
+        <v>19.688400000000001</v>
       </c>
       <c r="L9">
-        <v>19.454599999999999</v>
+        <v>20.767900000000001</v>
       </c>
       <c r="M9">
-        <v>19.6035</v>
+        <v>18.873200000000001</v>
       </c>
       <c r="N9">
-        <v>18.9405</v>
+        <v>20.387899999999998</v>
       </c>
       <c r="O9">
-        <v>18.927199999999999</v>
+        <v>18.793700000000001</v>
       </c>
       <c r="P9">
-        <v>18.4238</v>
+        <v>20.234400000000001</v>
       </c>
       <c r="Q9">
-        <v>18.095400000000001</v>
+        <v>21.791499999999999</v>
       </c>
       <c r="R9">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S9">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T9">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U9">
-        <v>17.623999999999999</v>
+        <v>21.237300000000001</v>
       </c>
       <c r="V9">
-        <v>18.2499</v>
+        <v>18.095300000000002</v>
       </c>
       <c r="W9">
-        <v>18.052299999999999</v>
+        <v>17.913</v>
       </c>
       <c r="X9">
-        <v>17.8948</v>
+        <v>19.188700000000001</v>
       </c>
       <c r="Y9">
-        <v>17.589300000000001</v>
+        <v>18.767099999999999</v>
       </c>
       <c r="Z9">
-        <v>17.407299999999999</v>
+        <v>18.538</v>
       </c>
       <c r="AA9">
-        <v>17.1645</v>
+        <v>21.097300000000001</v>
       </c>
       <c r="AB9">
-        <v>15.469900000000001</v>
+        <v>17.857199999999999</v>
       </c>
       <c r="AC9">
-        <v>18.0046</v>
+        <v>17.661899999999999</v>
       </c>
       <c r="AD9">
-        <v>17.926100000000002</v>
+        <v>17.5976</v>
       </c>
       <c r="AE9">
-        <v>17.799900000000001</v>
+        <v>19.1511</v>
       </c>
       <c r="AF9">
-        <v>17.684899999999999</v>
+        <v>18.995200000000001</v>
       </c>
       <c r="AG9">
-        <v>17.525300000000001</v>
+        <v>18.7927</v>
       </c>
       <c r="AH9">
-        <v>17.493200000000002</v>
+        <v>18.746600000000001</v>
       </c>
       <c r="AI9">
-        <v>17.351299999999998</v>
+        <v>18.5611</v>
       </c>
       <c r="AJ9">
-        <v>17.2895</v>
+        <v>18.481000000000002</v>
       </c>
       <c r="AK9">
-        <v>17.196899999999999</v>
+        <v>20.764399999999998</v>
       </c>
       <c r="AL9">
-        <v>17.024999999999999</v>
+        <v>20.470400000000001</v>
       </c>
       <c r="AM9">
-        <v>16.9359</v>
+        <v>20.268799999999999</v>
       </c>
       <c r="AN9">
-        <v>15.1343</v>
+        <v>17.459900000000001</v>
       </c>
       <c r="AO9">
-        <v>17.412099999999999</v>
+        <v>17.365100000000002</v>
       </c>
       <c r="AP9">
-        <v>17.29</v>
+        <v>17.233899999999998</v>
       </c>
       <c r="AQ9">
-        <v>17.2729</v>
+        <v>17.2057</v>
       </c>
       <c r="AR9">
-        <v>17.237200000000001</v>
+        <v>17.171800000000001</v>
       </c>
       <c r="AS9">
-        <v>17.142199999999999</v>
+        <v>17.073599999999999</v>
       </c>
       <c r="AT9">
-        <v>17.101800000000001</v>
+        <v>19.300599999999999</v>
       </c>
       <c r="AU9">
-        <v>17.052299999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="AV9">
-        <v>17.039100000000001</v>
+        <v>19.199400000000001</v>
       </c>
       <c r="AW9">
-        <v>16.954899999999999</v>
+        <v>19.079599999999999</v>
       </c>
       <c r="AX9">
-        <v>16.877199999999998</v>
+        <v>18.963200000000001</v>
       </c>
       <c r="AY9">
-        <v>16.802800000000001</v>
+        <v>18.829499999999999</v>
       </c>
       <c r="AZ9">
-        <v>16.764700000000001</v>
+        <v>18.722999999999999</v>
       </c>
       <c r="BA9">
-        <v>16.755199999999999</v>
+        <v>18.6982</v>
       </c>
       <c r="BB9">
-        <v>16.7151</v>
+        <v>18.617100000000001</v>
       </c>
       <c r="BC9">
-        <v>16.691500000000001</v>
+        <v>18.571200000000001</v>
       </c>
       <c r="BD9">
-        <v>16.628299999999999</v>
+        <v>18.489699999999999</v>
       </c>
       <c r="BE9">
-        <v>16.568899999999999</v>
+        <v>18.395299999999999</v>
       </c>
       <c r="BF9">
-        <v>16.5017</v>
+        <v>18.275600000000001</v>
       </c>
       <c r="BG9">
-        <v>16.469799999999999</v>
+        <v>20.356200000000001</v>
       </c>
       <c r="BH9">
-        <v>16.412400000000002</v>
+        <v>20.238900000000001</v>
       </c>
       <c r="BI9">
-        <v>16.359100000000002</v>
+        <v>20.1221</v>
       </c>
       <c r="BJ9">
-        <v>16.3415</v>
+        <v>20.101800000000001</v>
       </c>
       <c r="BK9">
-        <v>16.297000000000001</v>
+        <v>20.0183</v>
       </c>
       <c r="BL9">
-        <v>16.239999999999998</v>
+        <v>19.9267</v>
       </c>
       <c r="BM9">
-        <v>16.211400000000001</v>
+        <v>19.836500000000001</v>
       </c>
       <c r="BN9">
-        <v>14.7416</v>
+        <v>17.541699999999999</v>
       </c>
       <c r="BO9">
-        <v>14.7189</v>
+        <v>17.4846</v>
       </c>
       <c r="BP9">
-        <v>14.724600000000001</v>
+        <v>17.491499999999998</v>
       </c>
       <c r="BQ9">
-        <v>14.6974</v>
+        <v>17.4374</v>
       </c>
       <c r="BR9">
-        <v>17.214300000000001</v>
+        <v>17.412700000000001</v>
       </c>
       <c r="BS9">
-        <v>17.208500000000001</v>
+        <v>17.406400000000001</v>
       </c>
       <c r="BT9">
-        <v>17.1846</v>
+        <v>17.374099999999999</v>
       </c>
       <c r="BU9">
-        <v>17.1312</v>
+        <v>17.315200000000001</v>
       </c>
       <c r="BV9">
-        <v>17.0989</v>
+        <v>17.275200000000002</v>
       </c>
       <c r="BW9">
-        <v>17.0794</v>
+        <v>17.2562</v>
       </c>
       <c r="BX9">
-        <v>17.067</v>
+        <v>17.238</v>
       </c>
       <c r="BY9">
-        <v>17.049600000000002</v>
+        <v>17.2178</v>
       </c>
       <c r="BZ9">
-        <v>17.054400000000001</v>
+        <v>17.222999999999999</v>
       </c>
       <c r="CA9">
-        <v>17.043900000000001</v>
+        <v>17.218599999999999</v>
       </c>
     </row>
     <row r="10" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>18.055803846153847</v>
+        <v>19.355810256410255</v>
       </c>
       <c r="B10">
-        <v>27.564800000000002</v>
+        <v>31.042400000000001</v>
       </c>
       <c r="C10">
-        <v>26.31</v>
+        <v>27.180900000000001</v>
       </c>
       <c r="D10">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E10">
-        <v>20.484300000000001</v>
+        <v>22.424099999999999</v>
       </c>
       <c r="F10">
-        <v>24.016400000000001</v>
+        <v>24.428100000000001</v>
       </c>
       <c r="G10">
-        <v>19.906700000000001</v>
+        <v>24.2165</v>
       </c>
       <c r="H10">
-        <v>20.446300000000001</v>
+        <v>19.831199999999999</v>
       </c>
       <c r="I10">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J10">
-        <v>20.967099999999999</v>
+        <v>22.398900000000001</v>
       </c>
       <c r="K10">
-        <v>20.884499999999999</v>
+        <v>19.959499999999998</v>
       </c>
       <c r="L10">
-        <v>17.501300000000001</v>
+        <v>18.668399999999998</v>
       </c>
       <c r="M10">
-        <v>20.276599999999998</v>
+        <v>19.625399999999999</v>
       </c>
       <c r="N10">
-        <v>17.355499999999999</v>
+        <v>18.296199999999999</v>
       </c>
       <c r="O10">
-        <v>20.4358</v>
+        <v>20.168700000000001</v>
       </c>
       <c r="P10">
-        <v>17.304400000000001</v>
+        <v>18.4649</v>
       </c>
       <c r="Q10">
-        <v>17.1828</v>
+        <v>20.313099999999999</v>
       </c>
       <c r="R10">
-        <v>20.202200000000001</v>
+        <v>19.817699999999999</v>
       </c>
       <c r="S10">
-        <v>19.437799999999999</v>
+        <v>21.104099999999999</v>
       </c>
       <c r="T10">
-        <v>17.365500000000001</v>
+        <v>18.313800000000001</v>
       </c>
       <c r="U10">
-        <v>17.104399999999998</v>
+        <v>19.5608</v>
       </c>
       <c r="V10">
-        <v>20.404</v>
+        <v>19.2653</v>
       </c>
       <c r="W10">
-        <v>20.002400000000002</v>
+        <v>18.881799999999998</v>
       </c>
       <c r="X10">
-        <v>17.403500000000001</v>
+        <v>18.148099999999999</v>
       </c>
       <c r="Y10">
-        <v>17.146000000000001</v>
+        <v>17.8687</v>
       </c>
       <c r="Z10">
-        <v>17.002700000000001</v>
+        <v>17.731200000000001</v>
       </c>
       <c r="AA10">
-        <v>16.807300000000001</v>
+        <v>19.884499999999999</v>
       </c>
       <c r="AB10">
-        <v>16.677900000000001</v>
+        <v>19.648</v>
       </c>
       <c r="AC10">
-        <v>19.9802</v>
+        <v>19.258900000000001</v>
       </c>
       <c r="AD10">
-        <v>19.804500000000001</v>
+        <v>19.069199999999999</v>
       </c>
       <c r="AE10">
-        <v>17.330500000000001</v>
+        <v>18.252099999999999</v>
       </c>
       <c r="AF10">
-        <v>17.238399999999999</v>
+        <v>18.155000000000001</v>
       </c>
       <c r="AG10">
-        <v>17.109100000000002</v>
+        <v>17.992799999999999</v>
       </c>
       <c r="AH10">
-        <v>17.093699999999998</v>
+        <v>17.977399999999999</v>
       </c>
       <c r="AI10">
-        <v>16.9679</v>
+        <v>17.829499999999999</v>
       </c>
       <c r="AJ10">
-        <v>16.919499999999999</v>
+        <v>17.784600000000001</v>
       </c>
       <c r="AK10">
-        <v>16.847799999999999</v>
+        <v>20.173100000000002</v>
       </c>
       <c r="AL10">
-        <v>16.694299999999998</v>
+        <v>19.916599999999999</v>
       </c>
       <c r="AM10">
-        <v>16.619499999999999</v>
+        <v>19.778500000000001</v>
       </c>
       <c r="AN10">
-        <v>16.544599999999999</v>
+        <v>19.628499999999999</v>
       </c>
       <c r="AO10">
-        <v>19.947500000000002</v>
+        <v>19.430800000000001</v>
       </c>
       <c r="AP10">
-        <v>19.775200000000002</v>
+        <v>19.228200000000001</v>
       </c>
       <c r="AQ10">
-        <v>19.711099999999998</v>
+        <v>19.134799999999998</v>
       </c>
       <c r="AR10">
-        <v>16.975100000000001</v>
+        <v>16.7242</v>
       </c>
       <c r="AS10">
-        <v>16.889199999999999</v>
+        <v>16.6434</v>
       </c>
       <c r="AT10">
-        <v>16.8599</v>
+        <v>18.1831</v>
       </c>
       <c r="AU10">
-        <v>16.817</v>
+        <v>18.126999999999999</v>
       </c>
       <c r="AV10">
-        <v>16.806100000000001</v>
+        <v>18.1099</v>
       </c>
       <c r="AW10">
-        <v>16.729700000000001</v>
+        <v>18.021000000000001</v>
       </c>
       <c r="AX10">
-        <v>16.661200000000001</v>
+        <v>17.936299999999999</v>
       </c>
       <c r="AY10">
-        <v>16.598600000000001</v>
+        <v>17.8291</v>
       </c>
       <c r="AZ10">
-        <v>16.561900000000001</v>
+        <v>17.770600000000002</v>
       </c>
       <c r="BA10">
-        <v>16.5547</v>
+        <v>17.764800000000001</v>
       </c>
       <c r="BB10">
-        <v>16.516500000000001</v>
+        <v>17.7087</v>
       </c>
       <c r="BC10">
-        <v>16.4953</v>
+        <v>17.6753</v>
       </c>
       <c r="BD10">
-        <v>16.439499999999999</v>
+        <v>17.619800000000001</v>
       </c>
       <c r="BE10">
-        <v>16.383299999999998</v>
+        <v>17.552099999999999</v>
       </c>
       <c r="BF10">
-        <v>16.321000000000002</v>
+        <v>17.4678</v>
       </c>
       <c r="BG10">
-        <v>16.292899999999999</v>
+        <v>20.092199999999998</v>
       </c>
       <c r="BH10">
-        <v>16.237200000000001</v>
+        <v>19.9892</v>
       </c>
       <c r="BI10">
-        <v>16.188199999999998</v>
+        <v>19.884699999999999</v>
       </c>
       <c r="BJ10">
-        <v>16.172699999999999</v>
+        <v>19.877400000000002</v>
       </c>
       <c r="BK10">
-        <v>16.1342</v>
+        <v>19.788499999999999</v>
       </c>
       <c r="BL10">
-        <v>16.082999999999998</v>
+        <v>19.706800000000001</v>
       </c>
       <c r="BM10">
-        <v>16.0565</v>
+        <v>19.6311</v>
       </c>
       <c r="BN10">
-        <v>16.036100000000001</v>
+        <v>19.524799999999999</v>
       </c>
       <c r="BO10">
-        <v>15.988099999999999</v>
+        <v>19.401199999999999</v>
       </c>
       <c r="BP10">
-        <v>15.9863</v>
+        <v>19.3917</v>
       </c>
       <c r="BQ10">
-        <v>15.95</v>
+        <v>19.316400000000002</v>
       </c>
       <c r="BR10">
-        <v>19.497900000000001</v>
+        <v>19.254799999999999</v>
       </c>
       <c r="BS10">
-        <v>19.4604</v>
+        <v>19.210599999999999</v>
       </c>
       <c r="BT10">
-        <v>19.403500000000001</v>
+        <v>19.144500000000001</v>
       </c>
       <c r="BU10">
-        <v>17.1312</v>
+        <v>17.2928</v>
       </c>
       <c r="BV10">
-        <v>17.0989</v>
+        <v>17.254799999999999</v>
       </c>
       <c r="BW10">
-        <v>17.0794</v>
+        <v>17.2362</v>
       </c>
       <c r="BX10">
-        <v>17.067</v>
+        <v>17.219799999999999</v>
       </c>
       <c r="BY10">
-        <v>17.049600000000002</v>
+        <v>17.200900000000001</v>
       </c>
       <c r="BZ10">
-        <v>17.054400000000001</v>
+        <v>17.206499999999998</v>
       </c>
       <c r="CA10">
-        <v>17.043900000000001</v>
+        <v>17.202300000000001</v>
       </c>
     </row>
     <row r="11" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>18.222778205128204</v>
+        <v>19.514329487179488</v>
       </c>
       <c r="B11">
-        <v>25.929099999999998</v>
+        <v>32.878599999999999</v>
       </c>
       <c r="C11">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D11">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E11">
-        <v>21.8325</v>
+        <v>23.165199999999999</v>
       </c>
       <c r="F11">
-        <v>23.011299999999999</v>
+        <v>22.360399999999998</v>
       </c>
       <c r="G11">
-        <v>19.711300000000001</v>
+        <v>23.552199999999999</v>
       </c>
       <c r="H11">
-        <v>20.446300000000001</v>
+        <v>19.8002</v>
       </c>
       <c r="I11">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J11">
-        <v>21.428999999999998</v>
+        <v>22.9359</v>
       </c>
       <c r="K11">
-        <v>21.232500000000002</v>
+        <v>21.066800000000001</v>
       </c>
       <c r="L11">
-        <v>17.838999999999999</v>
+        <v>19.094100000000001</v>
       </c>
       <c r="M11">
-        <v>20.570900000000002</v>
+        <v>20.479600000000001</v>
       </c>
       <c r="N11">
-        <v>18.0075</v>
+        <v>19.439499999999999</v>
       </c>
       <c r="O11">
-        <v>21.057200000000002</v>
+        <v>20.084199999999999</v>
       </c>
       <c r="P11">
-        <v>18.2075</v>
+        <v>19.4619</v>
       </c>
       <c r="Q11">
-        <v>17.936800000000002</v>
+        <v>21.563400000000001</v>
       </c>
       <c r="R11">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S11">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T11">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U11">
-        <v>16.235900000000001</v>
+        <v>18.522200000000002</v>
       </c>
       <c r="V11">
-        <v>18.808599999999998</v>
+        <v>18.364899999999999</v>
       </c>
       <c r="W11">
-        <v>18.5548</v>
+        <v>18.135200000000001</v>
       </c>
       <c r="X11">
-        <v>18.348500000000001</v>
+        <v>20.3108</v>
       </c>
       <c r="Y11">
-        <v>18.0063</v>
+        <v>19.7987</v>
       </c>
       <c r="Z11">
-        <v>16.327100000000002</v>
+        <v>17.523099999999999</v>
       </c>
       <c r="AA11">
-        <v>16.199300000000001</v>
+        <v>19.265899999999998</v>
       </c>
       <c r="AB11">
-        <v>16.118500000000001</v>
+        <v>19.075700000000001</v>
       </c>
       <c r="AC11">
-        <v>19.013400000000001</v>
+        <v>18.754200000000001</v>
       </c>
       <c r="AD11">
-        <v>18.888200000000001</v>
+        <v>18.5991</v>
       </c>
       <c r="AE11">
-        <v>18.696100000000001</v>
+        <v>20.636600000000001</v>
       </c>
       <c r="AF11">
-        <v>18.508500000000002</v>
+        <v>20.366800000000001</v>
       </c>
       <c r="AG11">
-        <v>18.296700000000001</v>
+        <v>20.0349</v>
       </c>
       <c r="AH11">
-        <v>16.737500000000001</v>
+        <v>17.611999999999998</v>
       </c>
       <c r="AI11">
-        <v>16.637599999999999</v>
+        <v>17.494199999999999</v>
       </c>
       <c r="AJ11">
-        <v>16.604600000000001</v>
+        <v>17.468599999999999</v>
       </c>
       <c r="AK11">
-        <v>16.5488</v>
+        <v>18.963699999999999</v>
       </c>
       <c r="AL11">
-        <v>16.4162</v>
+        <v>18.745200000000001</v>
       </c>
       <c r="AM11">
-        <v>16.358599999999999</v>
+        <v>18.630299999999998</v>
       </c>
       <c r="AN11">
-        <v>16.294699999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="AO11">
-        <v>19.332799999999999</v>
+        <v>18.364999999999998</v>
       </c>
       <c r="AP11">
-        <v>19.155999999999999</v>
+        <v>18.186299999999999</v>
       </c>
       <c r="AQ11">
-        <v>19.1112</v>
+        <v>18.110900000000001</v>
       </c>
       <c r="AR11">
-        <v>19.0246</v>
+        <v>18.047799999999999</v>
       </c>
       <c r="AS11">
-        <v>18.879300000000001</v>
+        <v>17.903600000000001</v>
       </c>
       <c r="AT11">
-        <v>18.796299999999999</v>
+        <v>20.6114</v>
       </c>
       <c r="AU11">
-        <v>18.705300000000001</v>
+        <v>20.4621</v>
       </c>
       <c r="AV11">
-        <v>16.646899999999999</v>
+        <v>17.546299999999999</v>
       </c>
       <c r="AW11">
-        <v>16.580500000000001</v>
+        <v>17.466999999999999</v>
       </c>
       <c r="AX11">
-        <v>16.520099999999999</v>
+        <v>17.392399999999999</v>
       </c>
       <c r="AY11">
-        <v>16.463799999999999</v>
+        <v>17.2971</v>
       </c>
       <c r="AZ11">
-        <v>16.428699999999999</v>
+        <v>17.257300000000001</v>
       </c>
       <c r="BA11">
-        <v>16.4238</v>
+        <v>17.2592</v>
       </c>
       <c r="BB11">
-        <v>16.3874</v>
+        <v>17.213100000000001</v>
       </c>
       <c r="BC11">
-        <v>16.368400000000001</v>
+        <v>17.186800000000002</v>
       </c>
       <c r="BD11">
-        <v>16.317</v>
+        <v>17.141100000000002</v>
       </c>
       <c r="BE11">
-        <v>16.263100000000001</v>
+        <v>17.085799999999999</v>
       </c>
       <c r="BF11">
-        <v>16.205300000000001</v>
+        <v>17.016999999999999</v>
       </c>
       <c r="BG11">
-        <v>16.180499999999999</v>
+        <v>19.863199999999999</v>
       </c>
       <c r="BH11">
-        <v>16.126200000000001</v>
+        <v>19.741499999999998</v>
       </c>
       <c r="BI11">
-        <v>16.0806</v>
+        <v>19.643999999999998</v>
       </c>
       <c r="BJ11">
-        <v>16.0686</v>
+        <v>19.645</v>
       </c>
       <c r="BK11">
-        <v>16.032800000000002</v>
+        <v>19.5566</v>
       </c>
       <c r="BL11">
-        <v>15.9861</v>
+        <v>19.484000000000002</v>
       </c>
       <c r="BM11">
-        <v>15.9612</v>
+        <v>19.4147</v>
       </c>
       <c r="BN11">
-        <v>15.9415</v>
+        <v>19.337900000000001</v>
       </c>
       <c r="BO11">
-        <v>15.895899999999999</v>
+        <v>19.2333</v>
       </c>
       <c r="BP11">
-        <v>15.895099999999999</v>
+        <v>19.229299999999999</v>
       </c>
       <c r="BQ11">
-        <v>15.859400000000001</v>
+        <v>19.150400000000001</v>
       </c>
       <c r="BR11">
-        <v>19.229600000000001</v>
+        <v>19.096499999999999</v>
       </c>
       <c r="BS11">
-        <v>19.195599999999999</v>
+        <v>19.058299999999999</v>
       </c>
       <c r="BT11">
-        <v>19.145600000000002</v>
+        <v>18.997699999999998</v>
       </c>
       <c r="BU11">
-        <v>19.059899999999999</v>
+        <v>18.8901</v>
       </c>
       <c r="BV11">
-        <v>19.0061</v>
+        <v>18.8246</v>
       </c>
       <c r="BW11">
-        <v>18.967199999999998</v>
+        <v>18.777000000000001</v>
       </c>
       <c r="BX11">
-        <v>18.923300000000001</v>
+        <v>18.7211</v>
       </c>
       <c r="BY11">
-        <v>18.883199999999999</v>
+        <v>18.669599999999999</v>
       </c>
       <c r="BZ11">
-        <v>18.88</v>
+        <v>18.662099999999999</v>
       </c>
       <c r="CA11">
-        <v>18.8444</v>
+        <v>18.636399999999998</v>
       </c>
     </row>
     <row r="12" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>18.212056410256412</v>
+        <v>19.45446282051282</v>
       </c>
       <c r="B12">
-        <v>24.838999999999999</v>
+        <v>31.212</v>
       </c>
       <c r="C12">
-        <v>26.864100000000001</v>
+        <v>27.363299999999999</v>
       </c>
       <c r="D12">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E12">
-        <v>22.327100000000002</v>
+        <v>24.6432</v>
       </c>
       <c r="F12">
-        <v>23.914300000000001</v>
+        <v>24.3459</v>
       </c>
       <c r="G12">
-        <v>18.987400000000001</v>
+        <v>22.38</v>
       </c>
       <c r="H12">
-        <v>20.010300000000001</v>
+        <v>19.703499999999998</v>
       </c>
       <c r="I12">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J12">
-        <v>21.428999999999998</v>
+        <v>22.939699999999998</v>
       </c>
       <c r="K12">
-        <v>21.492699999999999</v>
+        <v>21.527200000000001</v>
       </c>
       <c r="L12">
-        <v>18.725200000000001</v>
+        <v>20.032299999999999</v>
       </c>
       <c r="M12">
-        <v>19.5915</v>
+        <v>18.855599999999999</v>
       </c>
       <c r="N12">
-        <v>18.935199999999998</v>
+        <v>20.086300000000001</v>
       </c>
       <c r="O12">
-        <v>19.619900000000001</v>
+        <v>19.221299999999999</v>
       </c>
       <c r="P12">
-        <v>18.952200000000001</v>
+        <v>20.472899999999999</v>
       </c>
       <c r="Q12">
-        <v>17.1828</v>
+        <v>20.0334</v>
       </c>
       <c r="R12">
-        <v>20.202200000000001</v>
+        <v>19.5822</v>
       </c>
       <c r="S12">
-        <v>19.437799999999999</v>
+        <v>21.1525</v>
       </c>
       <c r="T12">
-        <v>17.365500000000001</v>
+        <v>18.328399999999998</v>
       </c>
       <c r="U12">
-        <v>17.104399999999998</v>
+        <v>19.903600000000001</v>
       </c>
       <c r="V12">
-        <v>20.404</v>
+        <v>19.573799999999999</v>
       </c>
       <c r="W12">
-        <v>18.052299999999999</v>
+        <v>17.383700000000001</v>
       </c>
       <c r="X12">
-        <v>17.8948</v>
+        <v>19.1647</v>
       </c>
       <c r="Y12">
-        <v>17.589300000000001</v>
+        <v>18.7727</v>
       </c>
       <c r="Z12">
-        <v>17.407299999999999</v>
+        <v>18.565000000000001</v>
       </c>
       <c r="AA12">
-        <v>17.1645</v>
+        <v>20.5214</v>
       </c>
       <c r="AB12">
-        <v>15.697699999999999</v>
+        <v>17.884799999999998</v>
       </c>
       <c r="AC12">
-        <v>18.441299999999998</v>
+        <v>17.680800000000001</v>
       </c>
       <c r="AD12">
-        <v>18.344100000000001</v>
+        <v>17.610900000000001</v>
       </c>
       <c r="AE12">
-        <v>18.177</v>
+        <v>19.378299999999999</v>
       </c>
       <c r="AF12">
-        <v>18.027699999999999</v>
+        <v>19.212599999999998</v>
       </c>
       <c r="AG12">
-        <v>17.8429</v>
+        <v>19.0059</v>
       </c>
       <c r="AH12">
-        <v>17.7989</v>
+        <v>18.951599999999999</v>
       </c>
       <c r="AI12">
-        <v>17.6357</v>
+        <v>18.758099999999999</v>
       </c>
       <c r="AJ12">
-        <v>17.5593</v>
+        <v>18.6737</v>
       </c>
       <c r="AK12">
-        <v>16.1525</v>
+        <v>18.266999999999999</v>
       </c>
       <c r="AL12">
-        <v>16.040700000000001</v>
+        <v>18.115300000000001</v>
       </c>
       <c r="AM12">
-        <v>15.999700000000001</v>
+        <v>18.018799999999999</v>
       </c>
       <c r="AN12">
-        <v>15.953099999999999</v>
+        <v>17.9392</v>
       </c>
       <c r="AO12">
-        <v>18.649799999999999</v>
+        <v>17.813800000000001</v>
       </c>
       <c r="AP12">
-        <v>18.473099999999999</v>
+        <v>17.655999999999999</v>
       </c>
       <c r="AQ12">
-        <v>18.432400000000001</v>
+        <v>17.6006</v>
       </c>
       <c r="AR12">
-        <v>18.358799999999999</v>
+        <v>17.550999999999998</v>
       </c>
       <c r="AS12">
-        <v>18.238600000000002</v>
+        <v>17.4283</v>
       </c>
       <c r="AT12">
-        <v>18.162400000000002</v>
+        <v>20.458400000000001</v>
       </c>
       <c r="AU12">
-        <v>18.0898</v>
+        <v>20.3218</v>
       </c>
       <c r="AV12">
-        <v>18.057300000000001</v>
+        <v>20.267800000000001</v>
       </c>
       <c r="AW12">
-        <v>17.9453</v>
+        <v>20.134799999999998</v>
       </c>
       <c r="AX12">
-        <v>17.845800000000001</v>
+        <v>19.9603</v>
       </c>
       <c r="AY12">
-        <v>17.727799999999998</v>
+        <v>19.795400000000001</v>
       </c>
       <c r="AZ12">
-        <v>16.273599999999998</v>
+        <v>16.954999999999998</v>
       </c>
       <c r="BA12">
-        <v>16.2715</v>
+        <v>16.959900000000001</v>
       </c>
       <c r="BB12">
-        <v>16.237200000000001</v>
+        <v>16.918099999999999</v>
       </c>
       <c r="BC12">
-        <v>16.220300000000002</v>
+        <v>16.898399999999999</v>
       </c>
       <c r="BD12">
-        <v>16.172799999999999</v>
+        <v>16.863</v>
       </c>
       <c r="BE12">
-        <v>16.122599999999998</v>
+        <v>16.814699999999998</v>
       </c>
       <c r="BF12">
-        <v>16.0688</v>
+        <v>16.755700000000001</v>
       </c>
       <c r="BG12">
-        <v>16.0471</v>
+        <v>19.473500000000001</v>
       </c>
       <c r="BH12">
-        <v>15.9946</v>
+        <v>19.3752</v>
       </c>
       <c r="BI12">
-        <v>15.9511</v>
+        <v>19.282800000000002</v>
       </c>
       <c r="BJ12">
-        <v>15.941700000000001</v>
+        <v>19.287500000000001</v>
       </c>
       <c r="BK12">
-        <v>15.907400000000001</v>
+        <v>19.2072</v>
       </c>
       <c r="BL12">
-        <v>15.864599999999999</v>
+        <v>19.1401</v>
       </c>
       <c r="BM12">
-        <v>15.840999999999999</v>
+        <v>19.0763</v>
       </c>
       <c r="BN12">
-        <v>15.8225</v>
+        <v>19.0093</v>
       </c>
       <c r="BO12">
-        <v>15.7803</v>
+        <v>18.908799999999999</v>
       </c>
       <c r="BP12">
-        <v>15.7804</v>
+        <v>18.907</v>
       </c>
       <c r="BQ12">
-        <v>15.7455</v>
+        <v>18.831299999999999</v>
       </c>
       <c r="BR12">
-        <v>19.056799999999999</v>
+        <v>18.782499999999999</v>
       </c>
       <c r="BS12">
-        <v>19.025300000000001</v>
+        <v>18.748100000000001</v>
       </c>
       <c r="BT12">
-        <v>18.978100000000001</v>
+        <v>18.697399999999998</v>
       </c>
       <c r="BU12">
-        <v>18.885400000000001</v>
+        <v>18.614999999999998</v>
       </c>
       <c r="BV12">
-        <v>18.8261</v>
+        <v>18.552399999999999</v>
       </c>
       <c r="BW12">
-        <v>18.790400000000002</v>
+        <v>18.514199999999999</v>
       </c>
       <c r="BX12">
-        <v>18.7468</v>
+        <v>18.465699999999998</v>
       </c>
       <c r="BY12">
-        <v>18.707699999999999</v>
+        <v>18.417200000000001</v>
       </c>
       <c r="BZ12">
-        <v>18.7056</v>
+        <v>18.412700000000001</v>
       </c>
       <c r="CA12">
-        <v>18.6724</v>
+        <v>18.3887</v>
       </c>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>18.165137179487175</v>
+        <v>19.469625641025655</v>
       </c>
       <c r="B13">
-        <v>27.564800000000002</v>
+        <v>31.4282</v>
       </c>
       <c r="C13">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D13">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E13">
-        <v>21.084700000000002</v>
+        <v>22.424099999999999</v>
       </c>
       <c r="F13">
-        <v>23.665199999999999</v>
+        <v>23.5702</v>
       </c>
       <c r="G13">
-        <v>20.213999999999999</v>
+        <v>24.539899999999999</v>
       </c>
       <c r="H13">
-        <v>22.392499999999998</v>
+        <v>21.593800000000002</v>
       </c>
       <c r="I13">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J13">
-        <v>21.428999999999998</v>
+        <v>23.104399999999998</v>
       </c>
       <c r="K13">
-        <v>21.492699999999999</v>
+        <v>21.8688</v>
       </c>
       <c r="L13">
-        <v>18.725200000000001</v>
+        <v>20.057200000000002</v>
       </c>
       <c r="M13">
-        <v>19.9649</v>
+        <v>19.314299999999999</v>
       </c>
       <c r="N13">
-        <v>17.6372</v>
+        <v>18.317499999999999</v>
       </c>
       <c r="O13">
-        <v>20.646799999999999</v>
+        <v>20.159300000000002</v>
       </c>
       <c r="P13">
-        <v>18.2075</v>
+        <v>19.101700000000001</v>
       </c>
       <c r="Q13">
-        <v>17.936800000000002</v>
+        <v>21.255600000000001</v>
       </c>
       <c r="R13">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S13">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T13">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U13">
-        <v>16.4193</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="V13">
-        <v>19.269200000000001</v>
+        <v>18.740400000000001</v>
       </c>
       <c r="W13">
-        <v>18.961300000000001</v>
+        <v>18.4541</v>
       </c>
       <c r="X13">
-        <v>18.720800000000001</v>
+        <v>20.809899999999999</v>
       </c>
       <c r="Y13">
-        <v>16.919599999999999</v>
+        <v>17.8687</v>
       </c>
       <c r="Z13">
-        <v>16.802499999999998</v>
+        <v>17.731200000000001</v>
       </c>
       <c r="AA13">
-        <v>16.635899999999999</v>
+        <v>19.884499999999999</v>
       </c>
       <c r="AB13">
-        <v>16.525600000000001</v>
+        <v>19.648</v>
       </c>
       <c r="AC13">
-        <v>19.672000000000001</v>
+        <v>19.258900000000001</v>
       </c>
       <c r="AD13">
-        <v>19.5029</v>
+        <v>19.069199999999999</v>
       </c>
       <c r="AE13">
-        <v>17.545000000000002</v>
+        <v>18.7883</v>
       </c>
       <c r="AF13">
-        <v>17.440999999999999</v>
+        <v>18.661200000000001</v>
       </c>
       <c r="AG13">
-        <v>17.296600000000002</v>
+        <v>18.484999999999999</v>
       </c>
       <c r="AH13">
-        <v>17.272200000000002</v>
+        <v>18.4589</v>
       </c>
       <c r="AI13">
-        <v>17.138999999999999</v>
+        <v>18.298300000000001</v>
       </c>
       <c r="AJ13">
-        <v>17.084199999999999</v>
+        <v>18.234500000000001</v>
       </c>
       <c r="AK13">
-        <v>17.001000000000001</v>
+        <v>20.1309</v>
       </c>
       <c r="AL13">
-        <v>16.839500000000001</v>
+        <v>19.8612</v>
       </c>
       <c r="AM13">
-        <v>16.758800000000001</v>
+        <v>19.716200000000001</v>
       </c>
       <c r="AN13">
-        <v>15.533099999999999</v>
+        <v>17.480699999999999</v>
       </c>
       <c r="AO13">
-        <v>17.988700000000001</v>
+        <v>17.380500000000001</v>
       </c>
       <c r="AP13">
-        <v>17.838000000000001</v>
+        <v>17.244</v>
       </c>
       <c r="AQ13">
-        <v>17.8108</v>
+        <v>17.210899999999999</v>
       </c>
       <c r="AR13">
-        <v>17.7637</v>
+        <v>17.1753</v>
       </c>
       <c r="AS13">
-        <v>17.6585</v>
+        <v>17.0748</v>
       </c>
       <c r="AT13">
-        <v>17.5961</v>
+        <v>19.7591</v>
       </c>
       <c r="AU13">
-        <v>17.535699999999999</v>
+        <v>19.672699999999999</v>
       </c>
       <c r="AV13">
-        <v>17.511800000000001</v>
+        <v>19.642099999999999</v>
       </c>
       <c r="AW13">
-        <v>17.4148</v>
+        <v>19.525600000000001</v>
       </c>
       <c r="AX13">
-        <v>17.3264</v>
+        <v>19.398900000000001</v>
       </c>
       <c r="AY13">
-        <v>17.226600000000001</v>
+        <v>19.246200000000002</v>
       </c>
       <c r="AZ13">
-        <v>17.181799999999999</v>
+        <v>19.1311</v>
       </c>
       <c r="BA13">
-        <v>17.165600000000001</v>
+        <v>19.0946</v>
       </c>
       <c r="BB13">
-        <v>17.119299999999999</v>
+        <v>19.0016</v>
       </c>
       <c r="BC13">
-        <v>17.087800000000001</v>
+        <v>18.953399999999998</v>
       </c>
       <c r="BD13">
-        <v>15.989699999999999</v>
+        <v>16.849599999999999</v>
       </c>
       <c r="BE13">
-        <v>15.944599999999999</v>
+        <v>16.8018</v>
       </c>
       <c r="BF13">
-        <v>15.894399999999999</v>
+        <v>16.744800000000001</v>
       </c>
       <c r="BG13">
-        <v>15.8767</v>
+        <v>19.0562</v>
       </c>
       <c r="BH13">
-        <v>15.8262</v>
+        <v>18.968</v>
       </c>
       <c r="BI13">
-        <v>15.7841</v>
+        <v>18.877300000000002</v>
       </c>
       <c r="BJ13">
-        <v>15.775600000000001</v>
+        <v>18.8828</v>
       </c>
       <c r="BK13">
-        <v>15.7423</v>
+        <v>18.814499999999999</v>
       </c>
       <c r="BL13">
-        <v>15.7013</v>
+        <v>18.7454</v>
       </c>
       <c r="BM13">
-        <v>15.679399999999999</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="BN13">
-        <v>15.6632</v>
+        <v>18.624500000000001</v>
       </c>
       <c r="BO13">
-        <v>15.6244</v>
+        <v>18.535599999999999</v>
       </c>
       <c r="BP13">
-        <v>15.625400000000001</v>
+        <v>18.534099999999999</v>
       </c>
       <c r="BQ13">
-        <v>15.5915</v>
+        <v>18.4589</v>
       </c>
       <c r="BR13">
-        <v>18.8902</v>
+        <v>18.411799999999999</v>
       </c>
       <c r="BS13">
-        <v>18.861599999999999</v>
+        <v>18.3749</v>
       </c>
       <c r="BT13">
-        <v>18.815899999999999</v>
+        <v>18.330500000000001</v>
       </c>
       <c r="BU13">
-        <v>18.732700000000001</v>
+        <v>18.257899999999999</v>
       </c>
       <c r="BV13">
-        <v>18.669499999999999</v>
+        <v>18.194700000000001</v>
       </c>
       <c r="BW13">
-        <v>18.636700000000001</v>
+        <v>18.162600000000001</v>
       </c>
       <c r="BX13">
-        <v>18.595500000000001</v>
+        <v>18.115300000000001</v>
       </c>
       <c r="BY13">
-        <v>18.557600000000001</v>
+        <v>18.076699999999999</v>
       </c>
       <c r="BZ13">
-        <v>18.556999999999999</v>
+        <v>18.073599999999999</v>
       </c>
       <c r="CA13">
-        <v>18.526199999999999</v>
+        <v>18.056899999999999</v>
       </c>
     </row>
     <row r="14" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>18.085296153846155</v>
+        <v>19.384665384615385</v>
       </c>
       <c r="B14">
-        <v>25.929099999999998</v>
+        <v>32.878599999999999</v>
       </c>
       <c r="C14">
-        <v>26.864100000000001</v>
+        <v>27.616700000000002</v>
       </c>
       <c r="D14">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E14">
-        <v>21.8325</v>
+        <v>23.165199999999999</v>
       </c>
       <c r="F14">
-        <v>22.571300000000001</v>
+        <v>21.454699999999999</v>
       </c>
       <c r="G14">
-        <v>19.7058</v>
+        <v>24.2165</v>
       </c>
       <c r="H14">
-        <v>21.985299999999999</v>
+        <v>21.6251</v>
       </c>
       <c r="I14">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J14">
-        <v>21.3856</v>
+        <v>23.253399999999999</v>
       </c>
       <c r="K14">
-        <v>22.282800000000002</v>
+        <v>21.796299999999999</v>
       </c>
       <c r="L14">
-        <v>19.454599999999999</v>
+        <v>20.767900000000001</v>
       </c>
       <c r="M14">
-        <v>20.276599999999998</v>
+        <v>20.149699999999999</v>
       </c>
       <c r="N14">
-        <v>18.0075</v>
+        <v>19.439499999999999</v>
       </c>
       <c r="O14">
-        <v>18.927199999999999</v>
+        <v>18.793700000000001</v>
       </c>
       <c r="P14">
-        <v>18.4238</v>
+        <v>20.234400000000001</v>
       </c>
       <c r="Q14">
-        <v>16.866099999999999</v>
+        <v>19.629899999999999</v>
       </c>
       <c r="R14">
-        <v>19.830300000000001</v>
+        <v>19.25</v>
       </c>
       <c r="S14">
-        <v>19.1631</v>
+        <v>20.744299999999999</v>
       </c>
       <c r="T14">
-        <v>17.377500000000001</v>
+        <v>18.384499999999999</v>
       </c>
       <c r="U14">
-        <v>17.100200000000001</v>
+        <v>19.904599999999999</v>
       </c>
       <c r="V14">
-        <v>20.3689</v>
+        <v>19.556899999999999</v>
       </c>
       <c r="W14">
-        <v>18.052299999999999</v>
+        <v>17.913</v>
       </c>
       <c r="X14">
-        <v>17.8948</v>
+        <v>19.188700000000001</v>
       </c>
       <c r="Y14">
-        <v>17.589300000000001</v>
+        <v>18.767099999999999</v>
       </c>
       <c r="Z14">
-        <v>17.407299999999999</v>
+        <v>18.538</v>
       </c>
       <c r="AA14">
-        <v>16.199300000000001</v>
+        <v>19.265899999999998</v>
       </c>
       <c r="AB14">
-        <v>16.118500000000001</v>
+        <v>19.075700000000001</v>
       </c>
       <c r="AC14">
-        <v>19.013400000000001</v>
+        <v>18.754200000000001</v>
       </c>
       <c r="AD14">
-        <v>18.888200000000001</v>
+        <v>18.5991</v>
       </c>
       <c r="AE14">
-        <v>18.696100000000001</v>
+        <v>20.636600000000001</v>
       </c>
       <c r="AF14">
-        <v>18.508500000000002</v>
+        <v>20.366800000000001</v>
       </c>
       <c r="AG14">
-        <v>17.109100000000002</v>
+        <v>17.921500000000002</v>
       </c>
       <c r="AH14">
-        <v>17.093699999999998</v>
+        <v>17.916</v>
       </c>
       <c r="AI14">
-        <v>16.9679</v>
+        <v>17.779800000000002</v>
       </c>
       <c r="AJ14">
-        <v>16.919499999999999</v>
+        <v>17.742000000000001</v>
       </c>
       <c r="AK14">
-        <v>16.847799999999999</v>
+        <v>19.773099999999999</v>
       </c>
       <c r="AL14">
-        <v>16.694299999999998</v>
+        <v>19.537800000000001</v>
       </c>
       <c r="AM14">
-        <v>16.619499999999999</v>
+        <v>19.409099999999999</v>
       </c>
       <c r="AN14">
-        <v>16.544599999999999</v>
+        <v>19.276399999999999</v>
       </c>
       <c r="AO14">
-        <v>19.947500000000002</v>
+        <v>19.0777</v>
       </c>
       <c r="AP14">
-        <v>17.29</v>
+        <v>17.233899999999998</v>
       </c>
       <c r="AQ14">
-        <v>17.2729</v>
+        <v>17.2057</v>
       </c>
       <c r="AR14">
-        <v>17.237200000000001</v>
+        <v>17.171800000000001</v>
       </c>
       <c r="AS14">
-        <v>17.142199999999999</v>
+        <v>17.073599999999999</v>
       </c>
       <c r="AT14">
-        <v>17.101800000000001</v>
+        <v>19.300599999999999</v>
       </c>
       <c r="AU14">
-        <v>17.052299999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="AV14">
-        <v>17.039100000000001</v>
+        <v>19.199400000000001</v>
       </c>
       <c r="AW14">
-        <v>16.954899999999999</v>
+        <v>19.079599999999999</v>
       </c>
       <c r="AX14">
-        <v>16.877199999999998</v>
+        <v>18.963200000000001</v>
       </c>
       <c r="AY14">
-        <v>16.802800000000001</v>
+        <v>18.829499999999999</v>
       </c>
       <c r="AZ14">
-        <v>16.764700000000001</v>
+        <v>18.722999999999999</v>
       </c>
       <c r="BA14">
-        <v>16.755199999999999</v>
+        <v>18.6982</v>
       </c>
       <c r="BB14">
-        <v>16.7151</v>
+        <v>18.617100000000001</v>
       </c>
       <c r="BC14">
-        <v>16.691500000000001</v>
+        <v>18.571200000000001</v>
       </c>
       <c r="BD14">
-        <v>16.628299999999999</v>
+        <v>18.489699999999999</v>
       </c>
       <c r="BE14">
-        <v>16.568899999999999</v>
+        <v>18.395299999999999</v>
       </c>
       <c r="BF14">
-        <v>16.5017</v>
+        <v>18.275600000000001</v>
       </c>
       <c r="BG14">
-        <v>16.469799999999999</v>
+        <v>20.356200000000001</v>
       </c>
       <c r="BH14">
-        <v>15.681699999999999</v>
+        <v>18.284700000000001</v>
       </c>
       <c r="BI14">
-        <v>15.641999999999999</v>
+        <v>18.2027</v>
       </c>
       <c r="BJ14">
-        <v>15.635400000000001</v>
+        <v>18.212599999999998</v>
       </c>
       <c r="BK14">
-        <v>15.603899999999999</v>
+        <v>18.1616</v>
       </c>
       <c r="BL14">
-        <v>15.564399999999999</v>
+        <v>18.104900000000001</v>
       </c>
       <c r="BM14">
-        <v>15.544700000000001</v>
+        <v>18.060400000000001</v>
       </c>
       <c r="BN14">
-        <v>15.530799999999999</v>
+        <v>17.999099999999999</v>
       </c>
       <c r="BO14">
-        <v>15.4946</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="BP14">
-        <v>15.496499999999999</v>
+        <v>17.921299999999999</v>
       </c>
       <c r="BQ14">
-        <v>15.4651</v>
+        <v>17.849399999999999</v>
       </c>
       <c r="BR14">
-        <v>18.664999999999999</v>
+        <v>17.8125</v>
       </c>
       <c r="BS14">
-        <v>18.639600000000002</v>
+        <v>17.7956</v>
       </c>
       <c r="BT14">
-        <v>18.5962</v>
+        <v>17.7575</v>
       </c>
       <c r="BU14">
-        <v>18.512499999999999</v>
+        <v>17.689699999999998</v>
       </c>
       <c r="BV14">
-        <v>18.459299999999999</v>
+        <v>17.639099999999999</v>
       </c>
       <c r="BW14">
-        <v>18.4238</v>
+        <v>17.613299999999999</v>
       </c>
       <c r="BX14">
-        <v>18.385300000000001</v>
+        <v>17.582899999999999</v>
       </c>
       <c r="BY14">
-        <v>18.350200000000001</v>
+        <v>17.5504</v>
       </c>
       <c r="BZ14">
-        <v>18.350999999999999</v>
+        <v>17.550999999999998</v>
       </c>
       <c r="CA14">
-        <v>18.3233</v>
+        <v>17.544599999999999</v>
       </c>
     </row>
     <row r="15" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>17.997696153846153</v>
+        <v>19.196042307692306</v>
       </c>
       <c r="B15">
-        <v>24.838999999999999</v>
+        <v>31.212</v>
       </c>
       <c r="C15">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D15">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E15">
-        <v>22.327100000000002</v>
+        <v>23.725899999999999</v>
       </c>
       <c r="F15">
-        <v>23.665199999999999</v>
+        <v>23.5596</v>
       </c>
       <c r="G15">
-        <v>19.711300000000001</v>
+        <v>23.552199999999999</v>
       </c>
       <c r="H15">
-        <v>21.999099999999999</v>
+        <v>21.039300000000001</v>
       </c>
       <c r="I15">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J15">
-        <v>21.384799999999998</v>
+        <v>23.210899999999999</v>
       </c>
       <c r="K15">
-        <v>20.429500000000001</v>
+        <v>19.959499999999998</v>
       </c>
       <c r="L15">
-        <v>17.838999999999999</v>
+        <v>19.094100000000001</v>
       </c>
       <c r="M15">
-        <v>19.073499999999999</v>
+        <v>18.834099999999999</v>
       </c>
       <c r="N15">
-        <v>18.587299999999999</v>
+        <v>19.761700000000001</v>
       </c>
       <c r="O15">
-        <v>19.619900000000001</v>
+        <v>19.4909</v>
       </c>
       <c r="P15">
-        <v>17.540400000000002</v>
+        <v>18.753599999999999</v>
       </c>
       <c r="Q15">
-        <v>17.373899999999999</v>
+        <v>20.803599999999999</v>
       </c>
       <c r="R15">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S15">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T15">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U15">
-        <v>16.7011</v>
+        <v>19.258500000000002</v>
       </c>
       <c r="V15">
-        <v>19.579599999999999</v>
+        <v>19.024100000000001</v>
       </c>
       <c r="W15">
-        <v>19.241900000000001</v>
+        <v>18.689800000000002</v>
       </c>
       <c r="X15">
-        <v>17.403500000000001</v>
+        <v>18.607600000000001</v>
       </c>
       <c r="Y15">
-        <v>17.146000000000001</v>
+        <v>18.257200000000001</v>
       </c>
       <c r="Z15">
-        <v>17.002700000000001</v>
+        <v>18.0931</v>
       </c>
       <c r="AA15">
-        <v>16.807300000000001</v>
+        <v>20.4069</v>
       </c>
       <c r="AB15">
-        <v>16.677900000000001</v>
+        <v>20.106100000000001</v>
       </c>
       <c r="AC15">
-        <v>18.441299999999998</v>
+        <v>17.9237</v>
       </c>
       <c r="AD15">
-        <v>18.344100000000001</v>
+        <v>17.837499999999999</v>
       </c>
       <c r="AE15">
-        <v>18.177</v>
+        <v>19.843699999999998</v>
       </c>
       <c r="AF15">
-        <v>18.027699999999999</v>
+        <v>19.6586</v>
       </c>
       <c r="AG15">
-        <v>17.8429</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AH15">
-        <v>17.7989</v>
+        <v>19.346</v>
       </c>
       <c r="AI15">
-        <v>16.637599999999999</v>
+        <v>17.494199999999999</v>
       </c>
       <c r="AJ15">
-        <v>16.604600000000001</v>
+        <v>17.468599999999999</v>
       </c>
       <c r="AK15">
-        <v>16.5488</v>
+        <v>18.963699999999999</v>
       </c>
       <c r="AL15">
-        <v>16.4162</v>
+        <v>18.745200000000001</v>
       </c>
       <c r="AM15">
-        <v>16.358599999999999</v>
+        <v>18.630299999999998</v>
       </c>
       <c r="AN15">
-        <v>16.294699999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="AO15">
-        <v>19.332799999999999</v>
+        <v>18.364999999999998</v>
       </c>
       <c r="AP15">
-        <v>19.155999999999999</v>
+        <v>18.186299999999999</v>
       </c>
       <c r="AQ15">
-        <v>19.1112</v>
+        <v>18.110900000000001</v>
       </c>
       <c r="AR15">
-        <v>19.0246</v>
+        <v>18.047799999999999</v>
       </c>
       <c r="AS15">
-        <v>16.889199999999999</v>
+        <v>16.855799999999999</v>
       </c>
       <c r="AT15">
-        <v>16.8599</v>
+        <v>18.202300000000001</v>
       </c>
       <c r="AU15">
-        <v>16.817</v>
+        <v>18.143799999999999</v>
       </c>
       <c r="AV15">
-        <v>16.806100000000001</v>
+        <v>18.123200000000001</v>
       </c>
       <c r="AW15">
-        <v>16.729700000000001</v>
+        <v>18.029599999999999</v>
       </c>
       <c r="AX15">
-        <v>16.661200000000001</v>
+        <v>17.9419</v>
       </c>
       <c r="AY15">
-        <v>16.598600000000001</v>
+        <v>17.833200000000001</v>
       </c>
       <c r="AZ15">
-        <v>16.561900000000001</v>
+        <v>17.772400000000001</v>
       </c>
       <c r="BA15">
-        <v>16.5547</v>
+        <v>17.764600000000002</v>
       </c>
       <c r="BB15">
-        <v>16.516500000000001</v>
+        <v>17.705200000000001</v>
       </c>
       <c r="BC15">
-        <v>16.4953</v>
+        <v>17.668900000000001</v>
       </c>
       <c r="BD15">
-        <v>16.439499999999999</v>
+        <v>17.612300000000001</v>
       </c>
       <c r="BE15">
-        <v>16.383299999999998</v>
+        <v>17.543199999999999</v>
       </c>
       <c r="BF15">
-        <v>16.321000000000002</v>
+        <v>17.457599999999999</v>
       </c>
       <c r="BG15">
-        <v>16.292899999999999</v>
+        <v>20.235600000000002</v>
       </c>
       <c r="BH15">
-        <v>16.237200000000001</v>
+        <v>20.1294</v>
       </c>
       <c r="BI15">
-        <v>16.188199999999998</v>
+        <v>20.017600000000002</v>
       </c>
       <c r="BJ15">
-        <v>16.172699999999999</v>
+        <v>20.007300000000001</v>
       </c>
       <c r="BK15">
-        <v>16.1342</v>
+        <v>19.932600000000001</v>
       </c>
       <c r="BL15">
-        <v>15.4498</v>
+        <v>17.865300000000001</v>
       </c>
       <c r="BM15">
-        <v>15.4315</v>
+        <v>17.8232</v>
       </c>
       <c r="BN15">
-        <v>15.4221</v>
+        <v>17.765599999999999</v>
       </c>
       <c r="BO15">
-        <v>15.3893</v>
+        <v>17.690300000000001</v>
       </c>
       <c r="BP15">
-        <v>15.392099999999999</v>
+        <v>17.693100000000001</v>
       </c>
       <c r="BQ15">
-        <v>15.361599999999999</v>
+        <v>17.632200000000001</v>
       </c>
       <c r="BR15">
-        <v>18.3521</v>
+        <v>17.6022</v>
       </c>
       <c r="BS15">
-        <v>18.329000000000001</v>
+        <v>17.5916</v>
       </c>
       <c r="BT15">
-        <v>18.2928</v>
+        <v>17.555399999999999</v>
       </c>
       <c r="BU15">
-        <v>18.226500000000001</v>
+        <v>17.490500000000001</v>
       </c>
       <c r="BV15">
-        <v>18.175799999999999</v>
+        <v>17.4451</v>
       </c>
       <c r="BW15">
-        <v>18.1462</v>
+        <v>17.421299999999999</v>
       </c>
       <c r="BX15">
-        <v>18.113099999999999</v>
+        <v>17.398399999999999</v>
       </c>
       <c r="BY15">
-        <v>18.0808</v>
+        <v>17.369</v>
       </c>
       <c r="BZ15">
-        <v>18.0824</v>
+        <v>17.371400000000001</v>
       </c>
       <c r="CA15">
-        <v>18.0565</v>
+        <v>17.367899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>18.050688461538467</v>
+        <v>19.193970512820517</v>
       </c>
       <c r="B16">
-        <v>25.8766</v>
+        <v>31.4282</v>
       </c>
       <c r="C16">
-        <v>26.864100000000001</v>
+        <v>27.616700000000002</v>
       </c>
       <c r="D16">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E16">
-        <v>21.084700000000002</v>
+        <v>22.424099999999999</v>
       </c>
       <c r="F16">
-        <v>23.011299999999999</v>
+        <v>22.345400000000001</v>
       </c>
       <c r="G16">
-        <v>19.427700000000002</v>
+        <v>23.005299999999998</v>
       </c>
       <c r="H16">
-        <v>21.542200000000001</v>
+        <v>21.054200000000002</v>
       </c>
       <c r="I16">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J16">
-        <v>19.869199999999999</v>
+        <v>21.534099999999999</v>
       </c>
       <c r="K16">
-        <v>21.232500000000002</v>
+        <v>20.541899999999998</v>
       </c>
       <c r="L16">
-        <v>18.398700000000002</v>
+        <v>19.537500000000001</v>
       </c>
       <c r="M16">
-        <v>19.626100000000001</v>
+        <v>18.873200000000001</v>
       </c>
       <c r="N16">
-        <v>18.0075</v>
+        <v>18.712499999999999</v>
       </c>
       <c r="O16">
-        <v>21.057200000000002</v>
+        <v>20.1341</v>
       </c>
       <c r="P16">
-        <v>18.4238</v>
+        <v>19.8005</v>
       </c>
       <c r="Q16">
-        <v>16.866099999999999</v>
+        <v>19.629899999999999</v>
       </c>
       <c r="R16">
-        <v>19.830300000000001</v>
+        <v>19.25</v>
       </c>
       <c r="S16">
-        <v>19.1631</v>
+        <v>20.744299999999999</v>
       </c>
       <c r="T16">
-        <v>17.502500000000001</v>
+        <v>18.381499999999999</v>
       </c>
       <c r="U16">
-        <v>17.213699999999999</v>
+        <v>20.424600000000002</v>
       </c>
       <c r="V16">
-        <v>18.808599999999998</v>
+        <v>18.158000000000001</v>
       </c>
       <c r="W16">
-        <v>18.5548</v>
+        <v>17.945699999999999</v>
       </c>
       <c r="X16">
-        <v>18.348500000000001</v>
+        <v>20.3233</v>
       </c>
       <c r="Y16">
-        <v>18.0063</v>
+        <v>19.825399999999998</v>
       </c>
       <c r="Z16">
-        <v>16.802499999999998</v>
+        <v>17.727799999999998</v>
       </c>
       <c r="AA16">
-        <v>16.635899999999999</v>
+        <v>19.6005</v>
       </c>
       <c r="AB16">
-        <v>16.525600000000001</v>
+        <v>19.375900000000001</v>
       </c>
       <c r="AC16">
-        <v>19.672000000000001</v>
+        <v>19.031099999999999</v>
       </c>
       <c r="AD16">
-        <v>17.926100000000002</v>
+        <v>17.577100000000002</v>
       </c>
       <c r="AE16">
-        <v>17.799900000000001</v>
+        <v>18.823399999999999</v>
       </c>
       <c r="AF16">
-        <v>17.684899999999999</v>
+        <v>18.680900000000001</v>
       </c>
       <c r="AG16">
-        <v>17.525300000000001</v>
+        <v>18.489000000000001</v>
       </c>
       <c r="AH16">
-        <v>17.493200000000002</v>
+        <v>18.451000000000001</v>
       </c>
       <c r="AI16">
-        <v>17.351299999999998</v>
+        <v>18.2761</v>
       </c>
       <c r="AJ16">
-        <v>17.2895</v>
+        <v>18.2059</v>
       </c>
       <c r="AK16">
-        <v>16.3749</v>
+        <v>18.266999999999999</v>
       </c>
       <c r="AL16">
-        <v>16.2514</v>
+        <v>18.115300000000001</v>
       </c>
       <c r="AM16">
-        <v>16.202300000000001</v>
+        <v>18.018799999999999</v>
       </c>
       <c r="AN16">
-        <v>16.146999999999998</v>
+        <v>17.9392</v>
       </c>
       <c r="AO16">
-        <v>18.9663</v>
+        <v>17.813800000000001</v>
       </c>
       <c r="AP16">
-        <v>18.7791</v>
+        <v>17.655999999999999</v>
       </c>
       <c r="AQ16">
-        <v>18.731000000000002</v>
+        <v>17.6006</v>
       </c>
       <c r="AR16">
-        <v>18.6478</v>
+        <v>17.550999999999998</v>
       </c>
       <c r="AS16">
-        <v>18.5185</v>
+        <v>17.4283</v>
       </c>
       <c r="AT16">
-        <v>18.450800000000001</v>
+        <v>20.458400000000001</v>
       </c>
       <c r="AU16">
-        <v>18.370799999999999</v>
+        <v>20.3218</v>
       </c>
       <c r="AV16">
-        <v>16.806100000000001</v>
+        <v>17.879200000000001</v>
       </c>
       <c r="AW16">
-        <v>16.729700000000001</v>
+        <v>17.793700000000001</v>
       </c>
       <c r="AX16">
-        <v>16.661200000000001</v>
+        <v>17.715699999999998</v>
       </c>
       <c r="AY16">
-        <v>16.598600000000001</v>
+        <v>17.6098</v>
       </c>
       <c r="AZ16">
-        <v>16.561900000000001</v>
+        <v>17.553799999999999</v>
       </c>
       <c r="BA16">
-        <v>16.5547</v>
+        <v>17.55</v>
       </c>
       <c r="BB16">
-        <v>16.516500000000001</v>
+        <v>17.4953</v>
       </c>
       <c r="BC16">
-        <v>16.4953</v>
+        <v>17.463799999999999</v>
       </c>
       <c r="BD16">
-        <v>16.439499999999999</v>
+        <v>17.415400000000002</v>
       </c>
       <c r="BE16">
-        <v>16.383299999999998</v>
+        <v>17.350100000000001</v>
       </c>
       <c r="BF16">
-        <v>16.321000000000002</v>
+        <v>17.271899999999999</v>
       </c>
       <c r="BG16">
-        <v>16.292899999999999</v>
+        <v>20.102599999999999</v>
       </c>
       <c r="BH16">
-        <v>16.237200000000001</v>
+        <v>20.002700000000001</v>
       </c>
       <c r="BI16">
-        <v>16.188199999999998</v>
+        <v>19.8996</v>
       </c>
       <c r="BJ16">
-        <v>16.172699999999999</v>
+        <v>19.8948</v>
       </c>
       <c r="BK16">
-        <v>16.1342</v>
+        <v>19.8079</v>
       </c>
       <c r="BL16">
-        <v>16.082999999999998</v>
+        <v>19.728000000000002</v>
       </c>
       <c r="BM16">
-        <v>16.0565</v>
+        <v>19.6538</v>
       </c>
       <c r="BN16">
-        <v>16.036100000000001</v>
+        <v>19.549399999999999</v>
       </c>
       <c r="BO16">
-        <v>15.988099999999999</v>
+        <v>19.427199999999999</v>
       </c>
       <c r="BP16">
-        <v>15.258800000000001</v>
+        <v>17.685199999999998</v>
       </c>
       <c r="BQ16">
-        <v>15.228899999999999</v>
+        <v>17.625399999999999</v>
       </c>
       <c r="BR16">
-        <v>17.988800000000001</v>
+        <v>17.597100000000001</v>
       </c>
       <c r="BS16">
-        <v>17.965499999999999</v>
+        <v>17.587599999999998</v>
       </c>
       <c r="BT16">
-        <v>17.935400000000001</v>
+        <v>17.552600000000002</v>
       </c>
       <c r="BU16">
-        <v>17.876300000000001</v>
+        <v>17.488499999999998</v>
       </c>
       <c r="BV16">
-        <v>17.826799999999999</v>
+        <v>17.445399999999999</v>
       </c>
       <c r="BW16">
-        <v>17.8018</v>
+        <v>17.4221</v>
       </c>
       <c r="BX16">
-        <v>17.770499999999998</v>
+        <v>17.401399999999999</v>
       </c>
       <c r="BY16">
-        <v>17.7468</v>
+        <v>17.372699999999998</v>
       </c>
       <c r="BZ16">
-        <v>17.748999999999999</v>
+        <v>17.375800000000002</v>
       </c>
       <c r="CA16">
-        <v>17.7285</v>
+        <v>17.371300000000002</v>
       </c>
     </row>
     <row r="17" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>18.065179487179481</v>
+        <v>19.413967948717946</v>
       </c>
       <c r="B17">
-        <v>25.929099999999998</v>
+        <v>32.878599999999999</v>
       </c>
       <c r="C17">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D17">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E17">
-        <v>21.8325</v>
+        <v>23.165199999999999</v>
       </c>
       <c r="F17">
-        <v>24.016400000000001</v>
+        <v>23.991800000000001</v>
       </c>
       <c r="G17">
-        <v>19.906700000000001</v>
+        <v>24.610900000000001</v>
       </c>
       <c r="H17">
-        <v>21.542200000000001</v>
+        <v>20.624199999999998</v>
       </c>
       <c r="I17">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J17">
-        <v>19.869199999999999</v>
+        <v>21.596299999999999</v>
       </c>
       <c r="K17">
-        <v>21.232500000000002</v>
+        <v>21.066800000000001</v>
       </c>
       <c r="L17">
-        <v>18.725200000000001</v>
+        <v>20.026499999999999</v>
       </c>
       <c r="M17">
-        <v>20.276599999999998</v>
+        <v>19.630500000000001</v>
       </c>
       <c r="N17">
-        <v>18.0075</v>
+        <v>19.439499999999999</v>
       </c>
       <c r="O17">
-        <v>19.619900000000001</v>
+        <v>18.8139</v>
       </c>
       <c r="P17">
-        <v>18.952200000000001</v>
+        <v>20.505800000000001</v>
       </c>
       <c r="Q17">
-        <v>17.373899999999999</v>
+        <v>20.322099999999999</v>
       </c>
       <c r="R17">
-        <v>18.7578</v>
+        <v>18.398900000000001</v>
       </c>
       <c r="S17">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T17">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U17">
-        <v>16.844899999999999</v>
+        <v>19.258500000000002</v>
       </c>
       <c r="V17">
-        <v>19.935300000000002</v>
+        <v>19.024100000000001</v>
       </c>
       <c r="W17">
-        <v>19.563500000000001</v>
+        <v>18.689800000000002</v>
       </c>
       <c r="X17">
-        <v>17.8948</v>
+        <v>19.174800000000001</v>
       </c>
       <c r="Y17">
-        <v>17.589300000000001</v>
+        <v>18.7699</v>
       </c>
       <c r="Z17">
-        <v>17.407299999999999</v>
+        <v>18.552800000000001</v>
       </c>
       <c r="AA17">
-        <v>16.199300000000001</v>
+        <v>19.265899999999998</v>
       </c>
       <c r="AB17">
-        <v>16.118500000000001</v>
+        <v>19.075700000000001</v>
       </c>
       <c r="AC17">
-        <v>19.013400000000001</v>
+        <v>18.754200000000001</v>
       </c>
       <c r="AD17">
-        <v>18.888200000000001</v>
+        <v>18.5991</v>
       </c>
       <c r="AE17">
-        <v>18.696100000000001</v>
+        <v>20.636600000000001</v>
       </c>
       <c r="AF17">
-        <v>17.440999999999999</v>
+        <v>18.401800000000001</v>
       </c>
       <c r="AG17">
-        <v>17.296600000000002</v>
+        <v>18.230599999999999</v>
       </c>
       <c r="AH17">
-        <v>17.272200000000002</v>
+        <v>18.209900000000001</v>
       </c>
       <c r="AI17">
-        <v>17.138999999999999</v>
+        <v>18.0564</v>
       </c>
       <c r="AJ17">
-        <v>17.084199999999999</v>
+        <v>18.000900000000001</v>
       </c>
       <c r="AK17">
-        <v>17.001000000000001</v>
+        <v>20.1464</v>
       </c>
       <c r="AL17">
-        <v>16.839500000000001</v>
+        <v>19.881900000000002</v>
       </c>
       <c r="AM17">
-        <v>16.758800000000001</v>
+        <v>19.740300000000001</v>
       </c>
       <c r="AN17">
-        <v>15.7576</v>
+        <v>17.6738</v>
       </c>
       <c r="AO17">
-        <v>18.2683</v>
+        <v>17.567599999999999</v>
       </c>
       <c r="AP17">
-        <v>18.106300000000001</v>
+        <v>17.427099999999999</v>
       </c>
       <c r="AQ17">
-        <v>18.074000000000002</v>
+        <v>17.385300000000001</v>
       </c>
       <c r="AR17">
-        <v>18.0182</v>
+        <v>17.345300000000002</v>
       </c>
       <c r="AS17">
-        <v>17.905200000000001</v>
+        <v>17.236999999999998</v>
       </c>
       <c r="AT17">
-        <v>17.838200000000001</v>
+        <v>19.7578</v>
       </c>
       <c r="AU17">
-        <v>17.773099999999999</v>
+        <v>19.6676</v>
       </c>
       <c r="AV17">
-        <v>17.744800000000001</v>
+        <v>19.630099999999999</v>
       </c>
       <c r="AW17">
-        <v>17.642399999999999</v>
+        <v>19.509</v>
       </c>
       <c r="AX17">
-        <v>17.546700000000001</v>
+        <v>19.378799999999998</v>
       </c>
       <c r="AY17">
-        <v>16.463799999999999</v>
+        <v>17.2971</v>
       </c>
       <c r="AZ17">
-        <v>16.428699999999999</v>
+        <v>17.257300000000001</v>
       </c>
       <c r="BA17">
-        <v>16.4238</v>
+        <v>17.2592</v>
       </c>
       <c r="BB17">
-        <v>16.3874</v>
+        <v>17.213100000000001</v>
       </c>
       <c r="BC17">
-        <v>16.368400000000001</v>
+        <v>17.186800000000002</v>
       </c>
       <c r="BD17">
-        <v>16.317</v>
+        <v>17.141100000000002</v>
       </c>
       <c r="BE17">
-        <v>16.263100000000001</v>
+        <v>17.085799999999999</v>
       </c>
       <c r="BF17">
-        <v>16.205300000000001</v>
+        <v>17.016999999999999</v>
       </c>
       <c r="BG17">
-        <v>16.180499999999999</v>
+        <v>19.863199999999999</v>
       </c>
       <c r="BH17">
-        <v>16.126200000000001</v>
+        <v>19.741499999999998</v>
       </c>
       <c r="BI17">
-        <v>16.0806</v>
+        <v>19.643999999999998</v>
       </c>
       <c r="BJ17">
-        <v>16.0686</v>
+        <v>19.645</v>
       </c>
       <c r="BK17">
-        <v>16.032800000000002</v>
+        <v>19.5566</v>
       </c>
       <c r="BL17">
-        <v>15.9861</v>
+        <v>19.484000000000002</v>
       </c>
       <c r="BM17">
-        <v>15.9612</v>
+        <v>19.4147</v>
       </c>
       <c r="BN17">
-        <v>15.9415</v>
+        <v>19.337900000000001</v>
       </c>
       <c r="BO17">
-        <v>15.895899999999999</v>
+        <v>19.2333</v>
       </c>
       <c r="BP17">
-        <v>15.895099999999999</v>
+        <v>19.229299999999999</v>
       </c>
       <c r="BQ17">
-        <v>15.859400000000001</v>
+        <v>19.150400000000001</v>
       </c>
       <c r="BR17">
-        <v>19.229600000000001</v>
+        <v>19.096499999999999</v>
       </c>
       <c r="BS17">
-        <v>19.195599999999999</v>
+        <v>19.058299999999999</v>
       </c>
       <c r="BT17">
-        <v>17.6218</v>
+        <v>17.552600000000002</v>
       </c>
       <c r="BU17">
-        <v>17.564699999999998</v>
+        <v>17.488499999999998</v>
       </c>
       <c r="BV17">
-        <v>17.521100000000001</v>
+        <v>17.445399999999999</v>
       </c>
       <c r="BW17">
-        <v>17.4985</v>
+        <v>17.4221</v>
       </c>
       <c r="BX17">
-        <v>17.475200000000001</v>
+        <v>17.401399999999999</v>
       </c>
       <c r="BY17">
-        <v>17.4559</v>
+        <v>17.372699999999998</v>
       </c>
       <c r="BZ17">
-        <v>17.459</v>
+        <v>17.375800000000002</v>
       </c>
       <c r="CA17">
-        <v>17.443000000000001</v>
+        <v>17.371300000000002</v>
       </c>
     </row>
     <row r="18" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>18.094097435897435</v>
+        <v>19.545728205128203</v>
       </c>
       <c r="B18">
-        <v>24.838999999999999</v>
+        <v>32.4998</v>
       </c>
       <c r="C18">
-        <v>26.864100000000001</v>
+        <v>28.3371</v>
       </c>
       <c r="D18">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E18">
-        <v>22.327100000000002</v>
+        <v>23.725899999999999</v>
       </c>
       <c r="F18">
-        <v>23.011299999999999</v>
+        <v>23.5505</v>
       </c>
       <c r="G18">
-        <v>19.7058</v>
+        <v>23.511800000000001</v>
       </c>
       <c r="H18">
-        <v>20.996400000000001</v>
+        <v>20.628699999999998</v>
       </c>
       <c r="I18">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J18">
-        <v>19.869199999999999</v>
+        <v>22.140899999999998</v>
       </c>
       <c r="K18">
-        <v>21.492699999999999</v>
+        <v>21.5335</v>
       </c>
       <c r="L18">
-        <v>18.725200000000001</v>
+        <v>20.798400000000001</v>
       </c>
       <c r="M18">
-        <v>20.570900000000002</v>
+        <v>20.136700000000001</v>
       </c>
       <c r="N18">
-        <v>18.587299999999999</v>
+        <v>19.433900000000001</v>
       </c>
       <c r="O18">
-        <v>19.9513</v>
+        <v>19.850200000000001</v>
       </c>
       <c r="P18">
-        <v>18.2075</v>
+        <v>19.451799999999999</v>
       </c>
       <c r="Q18">
-        <v>17.936800000000002</v>
+        <v>21.234200000000001</v>
       </c>
       <c r="R18">
-        <v>19.801600000000001</v>
+        <v>19.25</v>
       </c>
       <c r="S18">
-        <v>19.14</v>
+        <v>20.744299999999999</v>
       </c>
       <c r="T18">
-        <v>17.502500000000001</v>
+        <v>18.381499999999999</v>
       </c>
       <c r="U18">
-        <v>17.213699999999999</v>
+        <v>20.424600000000002</v>
       </c>
       <c r="V18">
-        <v>19.269200000000001</v>
+        <v>18.364899999999999</v>
       </c>
       <c r="W18">
-        <v>18.961300000000001</v>
+        <v>18.135200000000001</v>
       </c>
       <c r="X18">
-        <v>18.720800000000001</v>
+        <v>20.3108</v>
       </c>
       <c r="Y18">
-        <v>17.146000000000001</v>
+        <v>18.257200000000001</v>
       </c>
       <c r="Z18">
-        <v>17.002700000000001</v>
+        <v>18.0931</v>
       </c>
       <c r="AA18">
-        <v>16.807300000000001</v>
+        <v>20.4069</v>
       </c>
       <c r="AB18">
-        <v>16.677900000000001</v>
+        <v>20.106100000000001</v>
       </c>
       <c r="AC18">
-        <v>18.441299999999998</v>
+        <v>17.9237</v>
       </c>
       <c r="AD18">
-        <v>18.344100000000001</v>
+        <v>17.837499999999999</v>
       </c>
       <c r="AE18">
-        <v>18.177</v>
+        <v>19.843699999999998</v>
       </c>
       <c r="AF18">
-        <v>18.027699999999999</v>
+        <v>19.6586</v>
       </c>
       <c r="AG18">
-        <v>17.8429</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AH18">
-        <v>16.8962</v>
+        <v>17.916</v>
       </c>
       <c r="AI18">
-        <v>16.789400000000001</v>
+        <v>17.779800000000002</v>
       </c>
       <c r="AJ18">
-        <v>16.750900000000001</v>
+        <v>17.742000000000001</v>
       </c>
       <c r="AK18">
-        <v>16.687000000000001</v>
+        <v>19.773099999999999</v>
       </c>
       <c r="AL18">
-        <v>16.546600000000002</v>
+        <v>19.537800000000001</v>
       </c>
       <c r="AM18">
-        <v>16.481000000000002</v>
+        <v>19.409099999999999</v>
       </c>
       <c r="AN18">
-        <v>16.411200000000001</v>
+        <v>19.276399999999999</v>
       </c>
       <c r="AO18">
-        <v>19.577100000000002</v>
+        <v>19.0777</v>
       </c>
       <c r="AP18">
-        <v>17.838000000000001</v>
+        <v>17.244</v>
       </c>
       <c r="AQ18">
-        <v>17.8108</v>
+        <v>17.210899999999999</v>
       </c>
       <c r="AR18">
-        <v>17.7637</v>
+        <v>17.1753</v>
       </c>
       <c r="AS18">
-        <v>17.6585</v>
+        <v>17.0748</v>
       </c>
       <c r="AT18">
-        <v>17.5961</v>
+        <v>19.7591</v>
       </c>
       <c r="AU18">
-        <v>17.535699999999999</v>
+        <v>19.672699999999999</v>
       </c>
       <c r="AV18">
-        <v>17.511800000000001</v>
+        <v>19.642099999999999</v>
       </c>
       <c r="AW18">
-        <v>17.4148</v>
+        <v>19.525600000000001</v>
       </c>
       <c r="AX18">
-        <v>17.3264</v>
+        <v>19.398900000000001</v>
       </c>
       <c r="AY18">
-        <v>17.226600000000001</v>
+        <v>19.246200000000002</v>
       </c>
       <c r="AZ18">
-        <v>17.181799999999999</v>
+        <v>19.1311</v>
       </c>
       <c r="BA18">
-        <v>17.165600000000001</v>
+        <v>19.0946</v>
       </c>
       <c r="BB18">
-        <v>16.237200000000001</v>
+        <v>17.196200000000001</v>
       </c>
       <c r="BC18">
-        <v>16.220300000000002</v>
+        <v>17.172899999999998</v>
       </c>
       <c r="BD18">
-        <v>16.172799999999999</v>
+        <v>17.128900000000002</v>
       </c>
       <c r="BE18">
-        <v>16.122599999999998</v>
+        <v>17.074999999999999</v>
       </c>
       <c r="BF18">
-        <v>16.0688</v>
+        <v>17.0078</v>
       </c>
       <c r="BG18">
-        <v>16.0471</v>
+        <v>19.4894</v>
       </c>
       <c r="BH18">
-        <v>15.9946</v>
+        <v>19.388999999999999</v>
       </c>
       <c r="BI18">
-        <v>15.9511</v>
+        <v>19.2941</v>
       </c>
       <c r="BJ18">
-        <v>15.941700000000001</v>
+        <v>19.296600000000002</v>
       </c>
       <c r="BK18">
-        <v>15.907400000000001</v>
+        <v>19.213899999999999</v>
       </c>
       <c r="BL18">
-        <v>15.864599999999999</v>
+        <v>19.145499999999998</v>
       </c>
       <c r="BM18">
-        <v>15.840999999999999</v>
+        <v>19.0791</v>
       </c>
       <c r="BN18">
-        <v>15.8225</v>
+        <v>19.0106</v>
       </c>
       <c r="BO18">
-        <v>15.7803</v>
+        <v>18.907699999999998</v>
       </c>
       <c r="BP18">
-        <v>15.7804</v>
+        <v>18.904299999999999</v>
       </c>
       <c r="BQ18">
-        <v>15.7455</v>
+        <v>18.827999999999999</v>
       </c>
       <c r="BR18">
-        <v>19.056799999999999</v>
+        <v>18.776900000000001</v>
       </c>
       <c r="BS18">
-        <v>19.025300000000001</v>
+        <v>18.741900000000001</v>
       </c>
       <c r="BT18">
-        <v>18.978100000000001</v>
+        <v>18.688800000000001</v>
       </c>
       <c r="BU18">
-        <v>18.885400000000001</v>
+        <v>18.605699999999999</v>
       </c>
       <c r="BV18">
-        <v>18.8261</v>
+        <v>18.541</v>
       </c>
       <c r="BW18">
-        <v>18.790400000000002</v>
+        <v>18.501799999999999</v>
       </c>
       <c r="BX18">
-        <v>17.262899999999998</v>
+        <v>17.252700000000001</v>
       </c>
       <c r="BY18">
-        <v>17.244499999999999</v>
+        <v>17.2315</v>
       </c>
       <c r="BZ18">
-        <v>17.2485</v>
+        <v>17.236000000000001</v>
       </c>
       <c r="CA18">
-        <v>17.235600000000002</v>
+        <v>17.232199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>18.140352564102564</v>
+        <v>19.419193589743596</v>
       </c>
       <c r="B19">
-        <v>25.8766</v>
+        <v>32.641800000000003</v>
       </c>
       <c r="C19">
-        <v>26.788900000000002</v>
+        <v>28.906300000000002</v>
       </c>
       <c r="D19">
-        <v>24.835799999999999</v>
+        <v>25.699100000000001</v>
       </c>
       <c r="E19">
-        <v>21.084700000000002</v>
+        <v>22.424099999999999</v>
       </c>
       <c r="F19">
-        <v>24.016400000000001</v>
+        <v>24.428100000000001</v>
       </c>
       <c r="G19">
-        <v>19.711300000000001</v>
+        <v>23.552199999999999</v>
       </c>
       <c r="H19">
-        <v>20.996400000000001</v>
+        <v>20.614699999999999</v>
       </c>
       <c r="I19">
-        <v>20.122499999999999</v>
+        <v>23.241499999999998</v>
       </c>
       <c r="J19">
-        <v>20.373699999999999</v>
+        <v>22.3947</v>
       </c>
       <c r="K19">
-        <v>21.492699999999999</v>
+        <v>21.527200000000001</v>
       </c>
       <c r="L19">
-        <v>17.838999999999999</v>
+        <v>19.094100000000001</v>
       </c>
       <c r="M19">
-        <v>19.626300000000001</v>
+        <v>18.873200000000001</v>
       </c>
       <c r="N19">
-        <v>18.0075</v>
+        <v>19.009799999999998</v>
       </c>
       <c r="O19">
-        <v>21.057200000000002</v>
+        <v>20.1083</v>
       </c>
       <c r="P19">
-        <v>18.4238</v>
+        <v>20.234400000000001</v>
       </c>
       <c r="Q19">
-        <v>17.373899999999999</v>
+        <v>20.313099999999999</v>
       </c>
       <c r="R19">
-        <v>20.452500000000001</v>
+        <v>19.817699999999999</v>
       </c>
       <c r="S19">
-        <v>18.2926</v>
+        <v>19.707599999999999</v>
       </c>
       <c r="T19">
-        <v>17.995000000000001</v>
+        <v>19.273099999999999</v>
       </c>
       <c r="U19">
-        <v>16.844899999999999</v>
+        <v>19.551500000000001</v>
       </c>
       <c r="V19">
-        <v>19.935300000000002</v>
+        <v>19.287800000000001</v>
       </c>
       <c r="W19">
-        <v>18.052299999999999</v>
+        <v>17.913</v>
       </c>
       <c r="X19">
-        <v>17.8948</v>
+        <v>19.188700000000001</v>
       </c>
       <c r="Y19">
-        <v>17.589300000000001</v>
+        <v>18.767099999999999</v>
       </c>
       <c r="Z19">
-        <v>16.802499999999998</v>
+        <v>17.5381</v>
       </c>
       <c r="AA19">
-        <v>16.635899999999999</v>
+        <v>19.592300000000002</v>
       </c>
       <c r="AB19">
-        <v>16.525600000000001</v>
+        <v>19.380700000000001</v>
       </c>
       <c r="AC19">
-        <v>19.672000000000001</v>
+        <v>19.0473</v>
       </c>
       <c r="AD19">
-        <v>17.926100000000002</v>
+        <v>17.5976</v>
       </c>
       <c r="AE19">
-        <v>17.799900000000001</v>
+        <v>19.1511</v>
       </c>
       <c r="AF19">
-        <v>17.684899999999999</v>
+        <v>18.995200000000001</v>
       </c>
       <c r="AG19">
-        <v>17.525300000000001</v>
+        <v>18.7927</v>
       </c>
       <c r="AH19">
-        <v>17.493200000000002</v>
+        <v>18.746600000000001</v>
       </c>
       <c r="AI19">
-        <v>17.351299999999998</v>
+        <v>18.5611</v>
       </c>
       <c r="AJ19">
-        <v>16.604600000000001</v>
+        <v>17.468599999999999</v>
       </c>
       <c r="AK19">
-        <v>16.5488</v>
+        <v>18.963699999999999</v>
       </c>
       <c r="AL19">
-        <v>16.4162</v>
+        <v>18.745200000000001</v>
       </c>
       <c r="AM19">
-        <v>16.358599999999999</v>
+        <v>18.630299999999998</v>
       </c>
       <c r="AN19">
-        <v>16.294699999999999</v>
+        <v>18.523599999999998</v>
       </c>
       <c r="AO19">
-        <v>19.332799999999999</v>
+        <v>18.364999999999998</v>
       </c>
       <c r="AP19">
-        <v>19.155999999999999</v>
+        <v>18.186299999999999</v>
       </c>
       <c r="AQ19">
-        <v>19.1112</v>
+        <v>18.110900000000001</v>
       </c>
       <c r="AR19">
-        <v>17.237200000000001</v>
+        <v>17.171800000000001</v>
       </c>
       <c r="AS19">
-        <v>17.142199999999999</v>
+        <v>17.073599999999999</v>
       </c>
       <c r="AT19">
-        <v>17.101800000000001</v>
+        <v>19.300599999999999</v>
       </c>
       <c r="AU19">
-        <v>17.052299999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="AV19">
-        <v>17.039100000000001</v>
+        <v>19.199400000000001</v>
       </c>
       <c r="AW19">
-        <v>16.954899999999999</v>
+        <v>19.079599999999999</v>
       </c>
       <c r="AX19">
-        <v>16.877199999999998</v>
+        <v>18.963200000000001</v>
       </c>
       <c r="AY19">
-        <v>16.802800000000001</v>
+        <v>18.829499999999999</v>
       </c>
       <c r="AZ19">
-        <v>16.764700000000001</v>
+        <v>18.722999999999999</v>
       </c>
       <c r="BA19">
-        <v>16.755199999999999</v>
+        <v>18.6982</v>
       </c>
       <c r="BB19">
-        <v>16.7151</v>
+        <v>18.617100000000001</v>
       </c>
       <c r="BC19">
-        <v>16.691500000000001</v>
+        <v>18.571200000000001</v>
       </c>
       <c r="BD19">
-        <v>16.628299999999999</v>
+        <v>18.489699999999999</v>
       </c>
       <c r="BE19">
-        <v>16.122599999999998</v>
+        <v>16.8018</v>
       </c>
       <c r="BF19">
-        <v>16.0688</v>
+        <v>16.744800000000001</v>
       </c>
       <c r="BG19">
-        <v>16.0471</v>
+        <v>19.0562</v>
       </c>
       <c r="BH19">
-        <v>15.9946</v>
+        <v>18.968</v>
       </c>
       <c r="BI19">
-        <v>15.9511</v>
+        <v>18.877300000000002</v>
       </c>
       <c r="BJ19">
-        <v>15.941700000000001</v>
+        <v>18.8828</v>
       </c>
       <c r="BK19">
-        <v>15.907400000000001</v>
+        <v>18.814499999999999</v>
       </c>
       <c r="BL19">
-        <v>15.864599999999999</v>
+        <v>18.7454</v>
       </c>
       <c r="BM19">
-        <v>15.840999999999999</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="BN19">
-        <v>15.8225</v>
+        <v>18.624500000000001</v>
       </c>
       <c r="BO19">
-        <v>15.7803</v>
+        <v>18.535599999999999</v>
       </c>
       <c r="BP19">
-        <v>15.7804</v>
+        <v>18.534099999999999</v>
       </c>
       <c r="BQ19">
-        <v>15.7455</v>
+        <v>18.4589</v>
       </c>
       <c r="BR19">
-        <v>19.056799999999999</v>
+        <v>18.411799999999999</v>
       </c>
       <c r="BS19">
-        <v>19.025300000000001</v>
+        <v>18.3749</v>
       </c>
       <c r="BT19">
-        <v>18.978100000000001</v>
+        <v>18.330500000000001</v>
       </c>
       <c r="BU19">
-        <v>18.885400000000001</v>
+        <v>18.257899999999999</v>
       </c>
       <c r="BV19">
-        <v>18.8261</v>
+        <v>18.194700000000001</v>
       </c>
       <c r="BW19">
-        <v>18.790400000000002</v>
+        <v>18.162600000000001</v>
       </c>
       <c r="BX19">
-        <v>18.7468</v>
+        <v>18.115300000000001</v>
       </c>
       <c r="BY19">
-        <v>18.707699999999999</v>
+        <v>18.076699999999999</v>
       </c>
       <c r="BZ19">
-        <v>18.7056</v>
+        <v>18.073599999999999</v>
       </c>
       <c r="CA19">
-        <v>18.6724</v>
+        <v>18.056899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>16.451092307692313</v>
+        <v>16.630251282051276</v>
       </c>
     </row>
     <row r="22" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>17.6672217948718</v>
+        <v>18.335106410256412</v>
       </c>
     </row>
     <row r="23" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>18.473569230769233</v>
+        <v>19.60694358974359</v>
       </c>
     </row>
     <row r="24" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>17.965979487179482</v>
+        <v>19.429933333333334</v>
       </c>
     </row>
     <row r="25" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>17.953652564102558</v>
+        <v>19.51100641025641</v>
       </c>
     </row>
     <row r="26" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>17.846566666666664</v>
+        <v>19.243364102564112</v>
       </c>
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>17.728480769230771</v>
+        <v>19.072744871794871</v>
       </c>
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>17.730793589743591</v>
+        <v>19.282091025641023</v>
       </c>
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>17.437882051282045</v>
+        <v>19.408920512820515</v>
       </c>
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>17.79831153846154</v>
+        <v>19.355810256410255</v>
       </c>
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>17.947329487179484</v>
+        <v>19.514329487179488</v>
       </c>
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>17.970358974358973</v>
+        <v>19.45446282051282</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>17.887287179487178</v>
+        <v>19.469625641025655</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>17.803370512820518</v>
+        <v>19.384665384615385</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>17.655957692307691</v>
+        <v>19.196042307692306</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>17.752114102564107</v>
+        <v>19.193970512820517</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>17.764289743589739</v>
+        <v>19.413967948717946</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>17.808523076923077</v>
+        <v>19.545728205128203</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>17.858871794871796</v>
+        <v>19.419193589743596</v>
       </c>
     </row>
   </sheetData>
@@ -7822,7 +7804,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17.542819230769226</v>
+        <v>17.062002564102567</v>
       </c>
       <c r="C2">
         <v>18.71011025641026</v>
@@ -7835,7 +7817,7 @@
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.745355448717952</v>
+        <v>17.625151282051284</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7843,7 +7825,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>19.088925641025639</v>
+        <v>18.666967948717947</v>
       </c>
       <c r="C3">
         <v>20.230378205128201</v>
@@ -7856,7 +7838,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>19.244929807692305</v>
+        <v>19.13944038461538</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7864,7 +7846,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>20.601171794871796</v>
+        <v>20.600471794871794</v>
       </c>
       <c r="C4">
         <v>21.55700384615384</v>
@@ -7877,7 +7859,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>20.681311538461539</v>
+        <v>20.681136538461537</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7885,7 +7867,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>21.087708974358979</v>
+        <v>21.431702564102569</v>
       </c>
       <c r="C5">
         <v>21.975912820512821</v>
@@ -7898,7 +7880,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>21.207922435897434</v>
+        <v>21.293920833333335</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7906,7 +7888,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>21.618415384615378</v>
+        <v>22.05834358974359</v>
       </c>
       <c r="C6">
         <v>22.494923076923076</v>
@@ -7919,7 +7901,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>21.726686538461536</v>
+        <v>21.836668589743589</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7927,7 +7909,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>21.568687179487178</v>
+        <v>22.367576923076914</v>
       </c>
       <c r="C7">
         <v>22.52087564102564</v>
@@ -7940,7 +7922,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>21.711074038461536</v>
+        <v>21.910796474358971</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7948,7 +7930,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>21.538402564102558</v>
+        <v>22.457907692307693</v>
       </c>
       <c r="C8">
         <v>22.506449999999994</v>
@@ -7961,7 +7943,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>21.700908012820513</v>
+        <v>21.930784294871799</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7969,7 +7951,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>21.56033333333334</v>
+        <v>22.605321794871788</v>
       </c>
       <c r="C9">
         <v>22.561367948717937</v>
@@ -7982,7 +7964,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>21.738418269230763</v>
+        <v>21.999665384615376</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7990,7 +7972,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>22.238162820512819</v>
+        <v>22.533843589743594</v>
       </c>
       <c r="C10">
         <v>22.991923076923069</v>
@@ -8003,7 +7985,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>22.271766666666664</v>
+        <v>22.345686858974361</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8011,7 +7993,7 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>21.983534615384617</v>
+        <v>22.605837179487178</v>
       </c>
       <c r="C11">
         <v>22.838315384615377</v>
@@ -8024,7 +8006,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>22.090238461538462</v>
+        <v>22.245814102564104</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8032,7 +8014,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>21.962226923076916</v>
+        <v>22.769288461538455</v>
       </c>
       <c r="C12">
         <v>22.928392307692306</v>
@@ -8045,7 +8027,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>22.134112820512819</v>
+        <v>22.335878205128203</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8053,7 +8035,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>21.978962820512816</v>
+        <v>22.7254282051282</v>
       </c>
       <c r="C13">
         <v>22.945411538461535</v>
@@ -8066,7 +8048,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>22.140826282051279</v>
+        <v>22.327442628205127</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8074,7 +8056,7 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>22.077992307692302</v>
+        <v>22.853789743589743</v>
       </c>
       <c r="C14">
         <v>23.009396153846154</v>
@@ -8087,7 +8069,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>22.222066987179481</v>
+        <v>22.416016346153846</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8095,7 +8077,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>22.119991025641028</v>
+        <v>22.873143589743595</v>
       </c>
       <c r="C15">
         <v>23.014714102564099</v>
@@ -8108,7 +8090,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>22.247664743589745</v>
+        <v>22.435952884615386</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8116,7 +8098,7 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>22.151648717948717</v>
+        <v>22.975564102564103</v>
       </c>
       <c r="C16">
         <v>23.051033333333329</v>
@@ -8129,7 +8111,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>22.287827884615389</v>
+        <v>22.493806730769229</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8137,7 +8119,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>22.219306410256408</v>
+        <v>22.967002564102565</v>
       </c>
       <c r="C17">
         <v>23.113273076923086</v>
@@ -8150,7 +8132,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>22.350217307692311</v>
+        <v>22.537141346153849</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8158,7 +8140,7 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>22.236825641025646</v>
+        <v>22.984969230769217</v>
       </c>
       <c r="C18">
         <v>23.145735897435898</v>
@@ -8171,7 +8153,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>22.371274038461536</v>
+        <v>22.558309935897434</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8179,7 +8161,7 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>22.213949999999993</v>
+        <v>22.874271794871795</v>
       </c>
       <c r="C19">
         <v>23.125800000000005</v>
@@ -8192,7 +8174,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>22.346842948717946</v>
+        <v>22.511923397435897</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8200,7 +8182,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>22.090337179487175</v>
+        <v>22.978502564102566</v>
       </c>
       <c r="C20">
         <v>23.024325641025644</v>
@@ -8213,7 +8195,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>22.248155128205127</v>
+        <v>22.470196474358975</v>
       </c>
     </row>
   </sheetData>
@@ -8254,7 +8236,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.451092307692313</v>
+        <v>17.116773076923071</v>
       </c>
       <c r="C2">
         <v>17.83108076923077</v>
@@ -8267,7 +8249,7 @@
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.743303205128207</v>
+        <v>16.909723397435897</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8275,7 +8257,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>17.6672217948718</v>
+        <v>19.239364102564089</v>
       </c>
       <c r="C3">
         <v>19.130451282051286</v>
@@ -8288,7 +8270,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>17.976538782051286</v>
+        <v>18.369574358974358</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8296,7 +8278,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>18.473569230769233</v>
+        <v>21.121852564102571</v>
       </c>
       <c r="C4">
         <v>19.924389743589739</v>
@@ -8309,7 +8291,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>18.788336858974361</v>
+        <v>19.450407692307692</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8317,7 +8299,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>17.965979487179482</v>
+        <v>21.38314487179488</v>
       </c>
       <c r="C5">
         <v>19.479488461538459</v>
@@ -8330,7 +8312,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>18.327548397435894</v>
+        <v>19.181839743589745</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8338,7 +8320,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>17.953652564102558</v>
+        <v>21.583246153846158</v>
       </c>
       <c r="C6">
         <v>19.474808974358975</v>
@@ -8351,7 +8333,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>18.327696153846155</v>
+        <v>19.235094551282053</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8359,7 +8341,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>17.846566666666664</v>
+        <v>21.633671794871791</v>
       </c>
       <c r="C7">
         <v>19.367552564102557</v>
@@ -8372,7 +8354,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>18.21871282051282</v>
+        <v>19.165489102564102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8380,7 +8362,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>17.728480769230771</v>
+        <v>21.270264102564116</v>
       </c>
       <c r="C8">
         <v>19.212474358974369</v>
@@ -8393,7 +8375,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>18.088488141025643</v>
+        <v>18.973933974358978</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8401,7 +8383,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>17.730793589743591</v>
+        <v>21.659507692307685</v>
       </c>
       <c r="C9">
         <v>19.268508974358969</v>
@@ -8414,7 +8396,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>18.116096794871801</v>
+        <v>19.098275320512819</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8422,7 +8404,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>17.437882051282045</v>
+        <v>21.651053846153847</v>
       </c>
       <c r="C10">
         <v>18.969262820512824</v>
@@ -8435,7 +8417,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>17.835055448717949</v>
+        <v>18.888348397435898</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8443,7 +8425,7 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>17.79831153846154</v>
+        <v>21.760361538461535</v>
       </c>
       <c r="C11">
         <v>19.327643589743591</v>
@@ -8456,7 +8438,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>18.182268589743593</v>
+        <v>19.172781089743591</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8464,7 +8446,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>17.947329487179484</v>
+        <v>22.004571794871797</v>
       </c>
       <c r="C12">
         <v>19.465053846153847</v>
@@ -8477,7 +8459,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>18.318065384615387</v>
+        <v>19.33237596153846</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8485,7 +8467,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>17.970358974358973</v>
+        <v>21.988553846153842</v>
       </c>
       <c r="C13">
         <v>19.491047435897432</v>
@@ -8498,7 +8480,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>18.342460576923077</v>
+        <v>19.347009294871796</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8506,7 +8488,7 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>17.887287179487178</v>
+        <v>21.984574358974356</v>
       </c>
       <c r="C14">
         <v>19.399730769230761</v>
@@ -8519,7 +8501,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>18.259008333333334</v>
+        <v>19.283330128205126</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8527,7 +8509,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>17.803370512820518</v>
+        <v>22.013798717948717</v>
       </c>
       <c r="C15">
         <v>19.314882051282055</v>
@@ -8540,7 +8522,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>18.180731089743592</v>
+        <v>19.233338141025641</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8548,7 +8530,7 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>17.655957692307691</v>
+        <v>21.849776923076931</v>
       </c>
       <c r="C16">
         <v>19.172696153846157</v>
@@ -8561,7 +8543,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>18.037893910256408</v>
+        <v>19.08634871794872</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8569,7 +8551,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>17.752114102564107</v>
+        <v>21.808628205128205</v>
       </c>
       <c r="C17">
         <v>19.288298717948731</v>
@@ -8582,7 +8564,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>18.142483012820517</v>
+        <v>19.15661153846154</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8590,7 +8572,7 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>17.764289743589739</v>
+        <v>21.951398717948724</v>
       </c>
       <c r="C18">
         <v>19.302517948717952</v>
@@ -8603,7 +8585,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>18.157295512820514</v>
+        <v>19.204072756410259</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8611,7 +8593,7 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>17.808523076923077</v>
+        <v>22.069108974358976</v>
       </c>
       <c r="C19">
         <v>19.336151282051286</v>
@@ -8624,7 +8606,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>18.192557371794873</v>
+        <v>19.257703846153845</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8632,7 +8614,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>17.858871794871796</v>
+        <v>21.996229487179491</v>
       </c>
       <c r="C20">
         <v>19.378803846153847</v>
@@ -8645,7 +8627,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>18.234574679487181</v>
+        <v>19.268914102564104</v>
       </c>
     </row>
   </sheetData>
@@ -8659,7 +8641,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8686,7 +8668,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.630935897435904</v>
+        <v>17.36446282051282</v>
       </c>
       <c r="C2">
         <v>18.032955128205135</v>
@@ -8699,7 +8681,7 @@
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.943236538461541</v>
+        <v>17.126618269230772</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8707,7 +8689,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>17.717806410256404</v>
+        <v>19.408871794871803</v>
       </c>
       <c r="C3">
         <v>19.093741025641023</v>
@@ -8720,7 +8702,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>17.994659615384613</v>
+        <v>18.417425961538463</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8728,7 +8710,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>18.507498717948717</v>
+        <v>21.181608974358976</v>
       </c>
       <c r="C4">
         <v>19.795489743589751</v>
@@ -8741,7 +8723,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>18.743520833333335</v>
+        <v>19.4120483974359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8749,7 +8731,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>18.078084615384618</v>
+        <v>21.49552692307693</v>
       </c>
       <c r="C5">
         <v>19.478237179487191</v>
@@ -8762,7 +8744,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>18.386546794871794</v>
+        <v>19.240907371794872</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8770,7 +8752,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>18.151408974358969</v>
+        <v>21.829561538461537</v>
       </c>
       <c r="C6">
         <v>19.579694871794874</v>
@@ -8783,7 +8765,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>18.483408333333333</v>
+        <v>19.402946474358977</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8791,7 +8773,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>18.06714487179487</v>
+        <v>21.952897435897441</v>
       </c>
       <c r="C7">
         <v>19.534098717948726</v>
@@ -8804,7 +8786,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>18.409875961538461</v>
+        <v>19.381314102564104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8812,7 +8794,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>18.046176923076917</v>
+        <v>21.711543589743584</v>
       </c>
       <c r="C8">
         <v>19.502125641025646</v>
@@ -8825,7 +8807,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>18.388379166666667</v>
+        <v>19.304720833333334</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8833,7 +8815,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>18.006620512820511</v>
+        <v>22.046105128205127</v>
       </c>
       <c r="C9">
         <v>19.499544871794878</v>
@@ -8846,7 +8828,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>18.373928205128205</v>
+        <v>19.383799358974361</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8854,7 +8836,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>17.801108974358975</v>
+        <v>22.005094871794878</v>
       </c>
       <c r="C10">
         <v>19.311312820512825</v>
@@ -8867,7 +8849,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>18.195134615384617</v>
+        <v>19.246131089743592</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8875,7 +8857,7 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>18.055803846153847</v>
+        <v>22.107349999999993</v>
       </c>
       <c r="C11">
         <v>19.515412820512818</v>
@@ -8888,7 +8870,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>18.411099358974358</v>
+        <v>19.423985897435895</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8896,7 +8878,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>18.222778205128204</v>
+        <v>22.384643589743593</v>
       </c>
       <c r="C12">
         <v>19.666198717948721</v>
@@ -8909,7 +8891,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>18.562668910256413</v>
+        <v>19.603135256410258</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8917,7 +8899,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>18.212056410256412</v>
+        <v>22.355374358974352</v>
       </c>
       <c r="C13">
         <v>19.667855128205129</v>
@@ -8930,7 +8912,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>18.55516762820513</v>
+        <v>19.590997115384614</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8938,7 +8920,7 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>18.165137179487175</v>
+        <v>22.346210256410259</v>
       </c>
       <c r="C14">
         <v>19.623806410256421</v>
@@ -8951,7 +8933,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>18.514002243589744</v>
+        <v>19.559270512820515</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8959,7 +8941,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>18.085296153846155</v>
+        <v>22.394005128205134</v>
       </c>
       <c r="C15">
         <v>19.551907692307701</v>
@@ -8972,7 +8954,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>18.442147435897439</v>
+        <v>19.519324679487184</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8980,7 +8962,7 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>17.997696153846153</v>
+        <v>22.34097564102564</v>
       </c>
       <c r="C16">
         <v>19.487165384615384</v>
@@ -8993,7 +8975,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>18.368893589743589</v>
+        <v>19.454713461538461</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9001,7 +8983,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>18.050688461538467</v>
+        <v>22.292557692307689</v>
       </c>
       <c r="C17">
         <v>19.545928205128206</v>
@@ -9014,7 +8996,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>18.424491025641029</v>
+        <v>19.484958333333331</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9022,7 +9004,7 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>18.065179487179481</v>
+        <v>22.387271794871801</v>
       </c>
       <c r="C18">
         <v>19.553228205128217</v>
@@ -9035,7 +9017,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>18.439344551282051</v>
+        <v>19.51986762820513</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9043,7 +9025,7 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>18.094097435897435</v>
+        <v>22.457821794871794</v>
       </c>
       <c r="C19">
         <v>19.573771794871792</v>
@@ -9056,7 +9038,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>18.459444230769229</v>
+        <v>19.550375320512821</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9064,7 +9046,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>18.140352564102564</v>
+        <v>22.415662820512825</v>
       </c>
       <c r="C20">
         <v>19.60569615384615</v>
@@ -9077,7 +9059,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>18.494235576923074</v>
+        <v>19.563063141025641</v>
       </c>
     </row>
   </sheetData>
@@ -9091,7 +9073,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9118,7 +9100,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>15.032434615384618</v>
+        <v>16.620806410256414</v>
       </c>
       <c r="C2">
         <v>16.684660256410261</v>
@@ -9131,7 +9113,7 @@
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>15.493210897435898</v>
+        <v>15.890303846153845</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9139,7 +9121,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>15.443041025641028</v>
+        <v>18.478314102564099</v>
       </c>
       <c r="C3">
         <v>17.217047435897438</v>
@@ -9152,7 +9134,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>15.942716025641026</v>
+        <v>16.701534294871795</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9160,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>15.792361538461536</v>
+        <v>19.867766666666665</v>
       </c>
       <c r="C4">
         <v>17.588855128205115</v>
@@ -9173,7 +9155,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>16.29380961538461</v>
+        <v>17.312660897435894</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9181,7 +9163,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>15.411505128205127</v>
+        <v>19.683694871794867</v>
       </c>
       <c r="C5">
         <v>17.288406410256414</v>
@@ -9194,7 +9176,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>15.96266794871795</v>
+        <v>17.030715384615384</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9202,7 +9184,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>15.307093589743582</v>
+        <v>19.67264102564102</v>
       </c>
       <c r="C6">
         <v>17.218420512820515</v>
@@ -9215,7 +9197,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>15.875989423076923</v>
+        <v>16.967376282051283</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9223,7 +9205,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>15.275760256410255</v>
+        <v>19.363658974358973</v>
       </c>
       <c r="C7">
         <v>17.177815384615382</v>
@@ -9236,7 +9218,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>15.840034935897433</v>
+        <v>16.862009615384615</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9244,7 +9226,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>15.212800000000007</v>
+        <v>19.150549999999996</v>
       </c>
       <c r="C8">
         <v>17.103538461538459</v>
@@ -9257,7 +9239,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>15.778014102564107</v>
+        <v>16.762451602564106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9265,7 +9247,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>15.289115384615387</v>
+        <v>19.388148717948713</v>
       </c>
       <c r="C9">
         <v>17.177524358974356</v>
@@ -9278,7 +9260,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>15.851864743589745</v>
+        <v>16.876623076923075</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9286,7 +9268,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>15.076906410256406</v>
+        <v>19.515066666666673</v>
       </c>
       <c r="C10">
         <v>17.012524358974364</v>
@@ -9299,7 +9281,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>15.668561858974357</v>
+        <v>16.778101923076925</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9307,7 +9289,7 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>15.262862820512815</v>
+        <v>19.496346153846144</v>
       </c>
       <c r="C11">
         <v>17.181910256410259</v>
@@ -9320,7 +9302,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>15.839379487179485</v>
+        <v>16.89775032051282</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9328,7 +9310,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>15.314601282051276</v>
+        <v>19.616611538461534</v>
       </c>
       <c r="C12">
         <v>17.231365384615383</v>
@@ -9341,7 +9323,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>15.885191346153846</v>
+        <v>16.96069391025641</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9349,7 +9331,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>15.331356410256404</v>
+        <v>19.575960256410252</v>
       </c>
       <c r="C13">
         <v>17.240614102564102</v>
@@ -9362,7 +9344,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>15.897615384615383</v>
+        <v>16.95876634615384</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9370,7 +9352,7 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>15.287638461538458</v>
+        <v>19.597192307692303</v>
       </c>
       <c r="C14">
         <v>17.205155128205124</v>
@@ -9383,7 +9365,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>15.86151987179487</v>
+        <v>16.93890833333333</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9391,7 +9373,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>15.243825641025634</v>
+        <v>19.496832051282045</v>
       </c>
       <c r="C15">
         <v>17.163291025641026</v>
@@ -9404,7 +9386,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>15.820579166666665</v>
+        <v>16.883830769230766</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9412,7 +9394,7 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>15.182202564102564</v>
+        <v>19.247412820512825</v>
       </c>
       <c r="C16">
         <v>17.105619230769232</v>
@@ -9425,7 +9407,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>15.761293269230775</v>
+        <v>16.77759583333334</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9433,7 +9415,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>15.252107692307691</v>
+        <v>19.278058974358974</v>
       </c>
       <c r="C17">
         <v>17.172837179487175</v>
@@ -9446,7 +9428,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>15.829912179487177</v>
+        <v>16.836399999999998</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9454,7 +9436,7 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>15.251917948717942</v>
+        <v>19.500446153846159</v>
       </c>
       <c r="C18">
         <v>17.178092307692314</v>
@@ -9467,7 +9449,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>15.831118589743591</v>
+        <v>16.893250641025645</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9475,7 +9457,7 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>15.259280769230768</v>
+        <v>19.653365384615384</v>
       </c>
       <c r="C19">
         <v>17.181950000000001</v>
@@ -9488,7 +9470,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>15.836114423076921</v>
+        <v>16.934635576923075</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9496,7 +9478,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>15.27246538461538</v>
+        <v>19.509762820512808</v>
       </c>
       <c r="C20">
         <v>17.196919230769229</v>
@@ -9509,7 +9491,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>15.848484615384614</v>
+        <v>16.907808974358968</v>
       </c>
     </row>
   </sheetData>
@@ -9523,7 +9505,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9550,7 +9532,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>14.922942307692301</v>
+        <v>16.630251282051276</v>
       </c>
       <c r="C2">
         <v>16.610961538461535</v>
@@ -9563,7 +9545,7 @@
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>15.373280769230766</v>
+        <v>15.800108012820511</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9571,7 +9553,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>15.290392307692306</v>
+        <v>18.335106410256412</v>
       </c>
       <c r="C3">
         <v>17.056135897435905</v>
@@ -9584,7 +9566,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>15.759990384615385</v>
+        <v>16.521168910256414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9592,7 +9574,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>15.614188461538461</v>
+        <v>19.60694358974359</v>
       </c>
       <c r="C4">
         <v>17.385602564102562</v>
@@ -9605,7 +9587,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>16.073246153846156</v>
+        <v>17.071434935897436</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9613,7 +9595,7 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>15.260996153846149</v>
+        <v>19.429933333333334</v>
       </c>
       <c r="C5">
         <v>17.108825641025632</v>
@@ -9626,7 +9608,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>15.763779166666662</v>
+        <v>16.806013461538459</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9634,7 +9616,7 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>15.181743589743579</v>
+        <v>19.51100641025641</v>
       </c>
       <c r="C6">
         <v>17.064541025641045</v>
@@ -9647,7 +9629,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>15.701545512820514</v>
+        <v>16.783861217948722</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9655,7 +9637,7 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>15.154584615384616</v>
+        <v>19.243364102564112</v>
       </c>
       <c r="C7">
         <v>17.036182051282051</v>
@@ -9668,7 +9650,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>15.672171794871794</v>
+        <v>16.694366666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9676,7 +9658,7 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>15.113529487179493</v>
+        <v>19.072744871794871</v>
       </c>
       <c r="C8">
         <v>16.990988461538464</v>
@@ -9689,7 +9671,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>15.635272435897436</v>
+        <v>16.625076282051282</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9697,7 +9679,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>15.175220512820507</v>
+        <v>19.282091025641023</v>
       </c>
       <c r="C9">
         <v>17.042378205128212</v>
@@ -9710,7 +9692,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>15.690964743589744</v>
+        <v>16.717682371794872</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9718,7 +9700,7 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>14.989152564102564</v>
+        <v>19.408920512820515</v>
       </c>
       <c r="C10">
         <v>16.906071794871796</v>
@@ -9731,7 +9713,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>15.537355128205128</v>
+        <v>16.642297115384615</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9739,7 +9721,7 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>15.144575641025648</v>
+        <v>19.355810256410255</v>
       </c>
       <c r="C11">
         <v>17.03533205128204</v>
@@ -9752,7 +9734,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>15.671507371794871</v>
+        <v>16.724316025641023</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9760,7 +9742,7 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>15.199497435897429</v>
+        <v>19.514329487179488</v>
       </c>
       <c r="C12">
         <v>17.087752564102576</v>
@@ -9773,7 +9755,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>15.720994230769232</v>
+        <v>16.799702243589749</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9781,7 +9763,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>15.209182051282051</v>
+        <v>19.45446282051282</v>
       </c>
       <c r="C13">
         <v>17.091519230769233</v>
@@ -9794,7 +9776,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>15.7262</v>
+        <v>16.787520192307692</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9802,7 +9784,7 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>15.171212820512823</v>
+        <v>19.469625641025655</v>
       </c>
       <c r="C14">
         <v>17.059835897435896</v>
@@ -9815,7 +9797,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>15.694997756410254</v>
+        <v>16.769600961538462</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9823,7 +9805,7 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>15.131587179487179</v>
+        <v>19.384665384615385</v>
       </c>
       <c r="C15">
         <v>17.025419230769234</v>
@@ -9836,7 +9818,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>15.65953044871795</v>
+        <v>16.722799999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9844,7 +9826,7 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>15.085725641025643</v>
+        <v>19.196042307692306</v>
       </c>
       <c r="C16">
         <v>16.990106410256406</v>
@@ -9857,7 +9839,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>15.619240384615381</v>
+        <v>16.646819551282046</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9865,7 +9847,7 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>15.142769230769236</v>
+        <v>19.193970512820517</v>
       </c>
       <c r="C17">
         <v>17.038064102564096</v>
@@ -9878,7 +9860,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>15.671842628205129</v>
+        <v>16.684642948717951</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9886,7 +9868,7 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>15.14261666666666</v>
+        <v>19.413967948717946</v>
       </c>
       <c r="C18">
         <v>17.0412717948718</v>
@@ -9899,7 +9881,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>15.672391666666664</v>
+        <v>16.740229487179484</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9907,7 +9889,7 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>15.146910256410257</v>
+        <v>19.545728205128203</v>
       </c>
       <c r="C19">
         <v>17.044283333333336</v>
@@ -9920,7 +9902,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>15.675287820512818</v>
+        <v>16.774992307692305</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9928,7 +9910,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>15.159515384615387</v>
+        <v>19.419193589743596</v>
       </c>
       <c r="C20">
         <v>17.055311538461542</v>
@@ -9941,7 +9923,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>15.685991666666668</v>
+        <v>16.750911217948719</v>
       </c>
     </row>
   </sheetData>

--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy200_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy200_ptAll-nph_tileExpand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434DFA32-E160-4C46-909D-25C5F7FCB8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1B1AC-632D-43E2-8732-E3D27BC51E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -729,13 +729,26 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11091426071741033"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.85341907261592309"/>
+          <c:h val="0.78185987168270632"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>N=1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -833,61 +846,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.062002564102567</c:v>
+                  <c:v>17.348929166666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.666967948717947</c:v>
+                  <c:v>18.925329166666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.600471794871794</c:v>
+                  <c:v>20.800672435897436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.431702564102569</c:v>
+                  <c:v>21.622057371794874</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.05834358974359</c:v>
+                  <c:v>22.254512179487179</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.367576923076914</c:v>
+                  <c:v>22.579670192307692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.457907692307693</c:v>
+                  <c:v>22.666132371794873</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.605321794871788</c:v>
+                  <c:v>22.817145833333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.533843589743594</c:v>
+                  <c:v>22.775694551282047</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.605837179487178</c:v>
+                  <c:v>22.868147756410256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.769288461538455</c:v>
+                  <c:v>23.032584935897436</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.7254282051282</c:v>
+                  <c:v>22.996943910256412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.853789743589743</c:v>
+                  <c:v>23.134950320512822</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.873143589743595</c:v>
+                  <c:v>23.133729807692305</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.975564102564103</c:v>
+                  <c:v>23.240940705128207</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.967002564102565</c:v>
+                  <c:v>23.223070192307691</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.984969230769217</c:v>
+                  <c:v>23.26942275641025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.874271794871795</c:v>
+                  <c:v>23.169808333333332</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.978502564102566</c:v>
+                  <c:v>23.265629166666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +908,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000000-BF0C-4940-BAC2-0F11D3CE1EA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>N=2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -999,61 +1015,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.116773076923071</c:v>
+                  <c:v>17.357048397435893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.239364102564089</c:v>
+                  <c:v>19.402359615384611</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.121852564102571</c:v>
+                  <c:v>21.251036858974359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.38314487179488</c:v>
+                  <c:v>21.543266987179486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.583246153846158</c:v>
+                  <c:v>21.734109615384618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.633671794871791</c:v>
+                  <c:v>21.7872907051282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.270264102564116</c:v>
+                  <c:v>21.433270192307692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.659507692307685</c:v>
+                  <c:v>21.808005769230768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.651053846153847</c:v>
+                  <c:v>21.825481089743587</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.760361538461535</c:v>
+                  <c:v>21.921575320512819</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.004571794871797</c:v>
+                  <c:v>22.150834615384618</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.988553846153842</c:v>
+                  <c:v>22.147420192307695</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.984574358974356</c:v>
+                  <c:v>22.158493589743589</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.013798717948717</c:v>
+                  <c:v>22.172805448717948</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.849776923076931</c:v>
+                  <c:v>21.99142435897436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.808628205128205</c:v>
+                  <c:v>21.934440384615382</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21.951398717948724</c:v>
+                  <c:v>22.101866987179495</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.069108974358976</c:v>
+                  <c:v>22.236562820512816</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.996229487179491</c:v>
+                  <c:v>22.159632051282045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,13 +1077,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000001-BF0C-4940-BAC2-0F11D3CE1EA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>N=3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1165,61 +1184,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.36446282051282</c:v>
+                  <c:v>17.617576602564103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.408871794871803</c:v>
+                  <c:v>19.559397115384616</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.181608974358976</c:v>
+                  <c:v>21.281700320512822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.49552692307693</c:v>
+                  <c:v>21.628537820512822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.829561538461537</c:v>
+                  <c:v>21.996016987179495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.952897435897441</c:v>
+                  <c:v>22.132721153846155</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.711543589743584</c:v>
+                  <c:v>21.938094230769224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.046105128205127</c:v>
+                  <c:v>22.236307692307694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.005094871794878</c:v>
+                  <c:v>22.218897115384614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.107349999999993</c:v>
+                  <c:v>22.314984935897428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.384643589743593</c:v>
+                  <c:v>22.585435576923086</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.355374358974352</c:v>
+                  <c:v>22.549841666666666</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.346210256410259</c:v>
+                  <c:v>22.55994358974359</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.394005128205134</c:v>
+                  <c:v>22.589431089743588</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.34097564102564</c:v>
+                  <c:v>22.560416987179483</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.292557692307689</c:v>
+                  <c:v>22.499604487179489</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.387271794871801</c:v>
+                  <c:v>22.603863141025645</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.457821794871794</c:v>
+                  <c:v>22.670394230769229</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.415662820512825</c:v>
+                  <c:v>22.634447115384617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,13 +1246,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000002-BF0C-4940-BAC2-0F11D3CE1EA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>N=4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1331,61 +1353,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.620806410256414</c:v>
+                  <c:v>16.94596858974359</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.478314102564099</c:v>
+                  <c:v>18.728868589743591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.867766666666665</c:v>
+                  <c:v>20.08705320512821</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.683694871794867</c:v>
+                  <c:v>19.967110256410258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.67264102564102</c:v>
+                  <c:v>19.969902884615387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.363658974358973</c:v>
+                  <c:v>19.714283653846156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.150549999999996</c:v>
+                  <c:v>19.51035576923077</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.388148717948713</c:v>
+                  <c:v>19.735700000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.515066666666673</c:v>
+                  <c:v>19.852883333333335</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.496346153846144</c:v>
+                  <c:v>19.845791987179485</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.616611538461534</c:v>
+                  <c:v>19.951287499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.575960256410252</c:v>
+                  <c:v>19.926195833333331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.597192307692303</c:v>
+                  <c:v>19.955229166666665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.496832051282045</c:v>
+                  <c:v>19.872091346153852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.247412820512825</c:v>
+                  <c:v>19.629624999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.278058974358974</c:v>
+                  <c:v>19.653273717948721</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.500446153846159</c:v>
+                  <c:v>19.852703525641029</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.653365384615384</c:v>
+                  <c:v>19.998756410256416</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.509762820512808</c:v>
+                  <c:v>19.883151602564102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,13 +1415,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000003-BF0C-4940-BAC2-0F11D3CE1EA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>N=5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1497,61 +1522,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.630251282051276</c:v>
+                  <c:v>16.972517948717947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.335106410256412</c:v>
+                  <c:v>18.582532371794873</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.60694358974359</c:v>
+                  <c:v>19.789895512820515</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.429933333333334</c:v>
+                  <c:v>19.670749679487177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.51100641025641</c:v>
+                  <c:v>19.776786858974361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.243364102564112</c:v>
+                  <c:v>19.561076602564107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.072744871794871</c:v>
+                  <c:v>19.418238782051279</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.282091025641023</c:v>
+                  <c:v>19.605293589743592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.408920512820515</c:v>
+                  <c:v>19.721783653846156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.355810256410255</c:v>
+                  <c:v>19.67370833333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.514329487179488</c:v>
+                  <c:v>19.825484294871796</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.45446282051282</c:v>
+                  <c:v>19.771608653846151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.469625641025655</c:v>
+                  <c:v>19.794339743589745</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.384665384615385</c:v>
+                  <c:v>19.726841025641029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.196042307692306</c:v>
+                  <c:v>19.56098974358974</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.193970512820517</c:v>
+                  <c:v>19.549684615384614</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.413967948717946</c:v>
+                  <c:v>19.742524358974361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.545728205128203</c:v>
+                  <c:v>19.859153205128205</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.419193589743596</c:v>
+                  <c:v>19.764846474358979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000004-BF0C-4940-BAC2-0F11D3CE1EA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,18 +1620,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                  <a:t> of layers</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42227424150652498"/>
+              <c:y val="0.91274509803921566"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1617,16 +1707,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1640,7 +1730,8 @@
         <c:axId val="653846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16"/>
+          <c:max val="25"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1658,18 +1749,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>PSNR[dB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1680,16 +1824,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1702,18 +1846,34 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83958661417322833"/>
+          <c:y val="0.45038340795635839"/>
+          <c:w val="0.10404190297891087"/>
+          <c:h val="0.31546446400082345"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1722,16 +1882,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -1747,12 +1907,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1762,7 +1917,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2335,27 +2493,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B191ED-D1DD-5076-4405-B273E9EABC43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0995A28C-4F32-41A6-BA87-F416F4F56102}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2692,7 +2852,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2719,19 +2879,24 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17.062002564102567</v>
+        <f>'N=1'!F2</f>
+        <v>17.348929166666665</v>
       </c>
       <c r="C2">
-        <v>17.116773076923071</v>
+        <f>'N=2'!F2</f>
+        <v>17.357048397435893</v>
       </c>
       <c r="D2">
-        <v>17.36446282051282</v>
+        <f>'N=3'!F2</f>
+        <v>17.617576602564103</v>
       </c>
       <c r="E2">
-        <v>16.620806410256414</v>
+        <f>'N=4'!F2</f>
+        <v>16.94596858974359</v>
       </c>
       <c r="F2">
-        <v>16.630251282051276</v>
+        <f>'N=5'!F2</f>
+        <v>16.972517948717947</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2739,19 +2904,24 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>18.666967948717947</v>
+        <f>'N=1'!F3</f>
+        <v>18.925329166666668</v>
       </c>
       <c r="C3">
-        <v>19.239364102564089</v>
+        <f>'N=2'!F3</f>
+        <v>19.402359615384611</v>
       </c>
       <c r="D3">
-        <v>19.408871794871803</v>
+        <f>'N=3'!F3</f>
+        <v>19.559397115384616</v>
       </c>
       <c r="E3">
-        <v>18.478314102564099</v>
+        <f>'N=4'!F3</f>
+        <v>18.728868589743591</v>
       </c>
       <c r="F3">
-        <v>18.335106410256412</v>
+        <f>'N=5'!F3</f>
+        <v>18.582532371794873</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2759,19 +2929,24 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>20.600471794871794</v>
+        <f>'N=1'!F4</f>
+        <v>20.800672435897436</v>
       </c>
       <c r="C4">
-        <v>21.121852564102571</v>
+        <f>'N=2'!F4</f>
+        <v>21.251036858974359</v>
       </c>
       <c r="D4">
-        <v>21.181608974358976</v>
+        <f>'N=3'!F4</f>
+        <v>21.281700320512822</v>
       </c>
       <c r="E4">
-        <v>19.867766666666665</v>
+        <f>'N=4'!F4</f>
+        <v>20.08705320512821</v>
       </c>
       <c r="F4">
-        <v>19.60694358974359</v>
+        <f>'N=5'!F4</f>
+        <v>19.789895512820515</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2779,19 +2954,24 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>21.431702564102569</v>
+        <f>'N=1'!F5</f>
+        <v>21.622057371794874</v>
       </c>
       <c r="C5">
-        <v>21.38314487179488</v>
+        <f>'N=2'!F5</f>
+        <v>21.543266987179486</v>
       </c>
       <c r="D5">
-        <v>21.49552692307693</v>
+        <f>'N=3'!F5</f>
+        <v>21.628537820512822</v>
       </c>
       <c r="E5">
-        <v>19.683694871794867</v>
+        <f>'N=4'!F5</f>
+        <v>19.967110256410258</v>
       </c>
       <c r="F5">
-        <v>19.429933333333334</v>
+        <f>'N=5'!F5</f>
+        <v>19.670749679487177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2799,19 +2979,24 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>22.05834358974359</v>
+        <f>'N=1'!F6</f>
+        <v>22.254512179487179</v>
       </c>
       <c r="C6">
-        <v>21.583246153846158</v>
+        <f>'N=2'!F6</f>
+        <v>21.734109615384618</v>
       </c>
       <c r="D6">
-        <v>21.829561538461537</v>
+        <f>'N=3'!F6</f>
+        <v>21.996016987179495</v>
       </c>
       <c r="E6">
-        <v>19.67264102564102</v>
+        <f>'N=4'!F6</f>
+        <v>19.969902884615387</v>
       </c>
       <c r="F6">
-        <v>19.51100641025641</v>
+        <f>'N=5'!F6</f>
+        <v>19.776786858974361</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2819,19 +3004,24 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>22.367576923076914</v>
+        <f>'N=1'!F7</f>
+        <v>22.579670192307692</v>
       </c>
       <c r="C7">
-        <v>21.633671794871791</v>
+        <f>'N=2'!F7</f>
+        <v>21.7872907051282</v>
       </c>
       <c r="D7">
-        <v>21.952897435897441</v>
+        <f>'N=3'!F7</f>
+        <v>22.132721153846155</v>
       </c>
       <c r="E7">
-        <v>19.363658974358973</v>
+        <f>'N=4'!F7</f>
+        <v>19.714283653846156</v>
       </c>
       <c r="F7">
-        <v>19.243364102564112</v>
+        <f>'N=5'!F7</f>
+        <v>19.561076602564107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2839,19 +3029,24 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>22.457907692307693</v>
+        <f>'N=1'!F8</f>
+        <v>22.666132371794873</v>
       </c>
       <c r="C8">
-        <v>21.270264102564116</v>
+        <f>'N=2'!F8</f>
+        <v>21.433270192307692</v>
       </c>
       <c r="D8">
-        <v>21.711543589743584</v>
+        <f>'N=3'!F8</f>
+        <v>21.938094230769224</v>
       </c>
       <c r="E8">
-        <v>19.150549999999996</v>
+        <f>'N=4'!F8</f>
+        <v>19.51035576923077</v>
       </c>
       <c r="F8">
-        <v>19.072744871794871</v>
+        <f>'N=5'!F8</f>
+        <v>19.418238782051279</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2859,19 +3054,24 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>22.605321794871788</v>
+        <f>'N=1'!F9</f>
+        <v>22.817145833333331</v>
       </c>
       <c r="C9">
-        <v>21.659507692307685</v>
+        <f>'N=2'!F9</f>
+        <v>21.808005769230768</v>
       </c>
       <c r="D9">
-        <v>22.046105128205127</v>
+        <f>'N=3'!F9</f>
+        <v>22.236307692307694</v>
       </c>
       <c r="E9">
-        <v>19.388148717948713</v>
+        <f>'N=4'!F9</f>
+        <v>19.735700000000001</v>
       </c>
       <c r="F9">
-        <v>19.282091025641023</v>
+        <f>'N=5'!F9</f>
+        <v>19.605293589743592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2879,19 +3079,24 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>22.533843589743594</v>
+        <f>'N=1'!F10</f>
+        <v>22.775694551282047</v>
       </c>
       <c r="C10">
-        <v>21.651053846153847</v>
+        <f>'N=2'!F10</f>
+        <v>21.825481089743587</v>
       </c>
       <c r="D10">
-        <v>22.005094871794878</v>
+        <f>'N=3'!F10</f>
+        <v>22.218897115384614</v>
       </c>
       <c r="E10">
-        <v>19.515066666666673</v>
+        <f>'N=4'!F10</f>
+        <v>19.852883333333335</v>
       </c>
       <c r="F10">
-        <v>19.408920512820515</v>
+        <f>'N=5'!F10</f>
+        <v>19.721783653846156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2899,19 +3104,24 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>22.605837179487178</v>
+        <f>'N=1'!F11</f>
+        <v>22.868147756410256</v>
       </c>
       <c r="C11">
-        <v>21.760361538461535</v>
+        <f>'N=2'!F11</f>
+        <v>21.921575320512819</v>
       </c>
       <c r="D11">
-        <v>22.107349999999993</v>
+        <f>'N=3'!F11</f>
+        <v>22.314984935897428</v>
       </c>
       <c r="E11">
-        <v>19.496346153846144</v>
+        <f>'N=4'!F11</f>
+        <v>19.845791987179485</v>
       </c>
       <c r="F11">
-        <v>19.355810256410255</v>
+        <f>'N=5'!F11</f>
+        <v>19.67370833333333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2919,19 +3129,24 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>22.769288461538455</v>
+        <f>'N=1'!F12</f>
+        <v>23.032584935897436</v>
       </c>
       <c r="C12">
-        <v>22.004571794871797</v>
+        <f>'N=2'!F12</f>
+        <v>22.150834615384618</v>
       </c>
       <c r="D12">
-        <v>22.384643589743593</v>
+        <f>'N=3'!F12</f>
+        <v>22.585435576923086</v>
       </c>
       <c r="E12">
-        <v>19.616611538461534</v>
+        <f>'N=4'!F12</f>
+        <v>19.951287499999999</v>
       </c>
       <c r="F12">
-        <v>19.514329487179488</v>
+        <f>'N=5'!F12</f>
+        <v>19.825484294871796</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2939,19 +3154,24 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>22.7254282051282</v>
+        <f>'N=1'!F13</f>
+        <v>22.996943910256412</v>
       </c>
       <c r="C13">
-        <v>21.988553846153842</v>
+        <f>'N=2'!F13</f>
+        <v>22.147420192307695</v>
       </c>
       <c r="D13">
-        <v>22.355374358974352</v>
+        <f>'N=3'!F13</f>
+        <v>22.549841666666666</v>
       </c>
       <c r="E13">
-        <v>19.575960256410252</v>
+        <f>'N=4'!F13</f>
+        <v>19.926195833333331</v>
       </c>
       <c r="F13">
-        <v>19.45446282051282</v>
+        <f>'N=5'!F13</f>
+        <v>19.771608653846151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2959,19 +3179,24 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>22.853789743589743</v>
+        <f>'N=1'!F14</f>
+        <v>23.134950320512822</v>
       </c>
       <c r="C14">
-        <v>21.984574358974356</v>
+        <f>'N=2'!F14</f>
+        <v>22.158493589743589</v>
       </c>
       <c r="D14">
-        <v>22.346210256410259</v>
+        <f>'N=3'!F14</f>
+        <v>22.55994358974359</v>
       </c>
       <c r="E14">
-        <v>19.597192307692303</v>
+        <f>'N=4'!F14</f>
+        <v>19.955229166666665</v>
       </c>
       <c r="F14">
-        <v>19.469625641025655</v>
+        <f>'N=5'!F14</f>
+        <v>19.794339743589745</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2979,19 +3204,24 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>22.873143589743595</v>
+        <f>'N=1'!F15</f>
+        <v>23.133729807692305</v>
       </c>
       <c r="C15">
-        <v>22.013798717948717</v>
+        <f>'N=2'!F15</f>
+        <v>22.172805448717948</v>
       </c>
       <c r="D15">
-        <v>22.394005128205134</v>
+        <f>'N=3'!F15</f>
+        <v>22.589431089743588</v>
       </c>
       <c r="E15">
-        <v>19.496832051282045</v>
+        <f>'N=4'!F15</f>
+        <v>19.872091346153852</v>
       </c>
       <c r="F15">
-        <v>19.384665384615385</v>
+        <f>'N=5'!F15</f>
+        <v>19.726841025641029</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2999,19 +3229,24 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>22.975564102564103</v>
+        <f>'N=1'!F16</f>
+        <v>23.240940705128207</v>
       </c>
       <c r="C16">
-        <v>21.849776923076931</v>
+        <f>'N=2'!F16</f>
+        <v>21.99142435897436</v>
       </c>
       <c r="D16">
-        <v>22.34097564102564</v>
+        <f>'N=3'!F16</f>
+        <v>22.560416987179483</v>
       </c>
       <c r="E16">
-        <v>19.247412820512825</v>
+        <f>'N=4'!F16</f>
+        <v>19.629624999999997</v>
       </c>
       <c r="F16">
-        <v>19.196042307692306</v>
+        <f>'N=5'!F16</f>
+        <v>19.56098974358974</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3019,19 +3254,24 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>22.967002564102565</v>
+        <f>'N=1'!F17</f>
+        <v>23.223070192307691</v>
       </c>
       <c r="C17">
-        <v>21.808628205128205</v>
+        <f>'N=2'!F17</f>
+        <v>21.934440384615382</v>
       </c>
       <c r="D17">
-        <v>22.292557692307689</v>
+        <f>'N=3'!F17</f>
+        <v>22.499604487179489</v>
       </c>
       <c r="E17">
-        <v>19.278058974358974</v>
+        <f>'N=4'!F17</f>
+        <v>19.653273717948721</v>
       </c>
       <c r="F17">
-        <v>19.193970512820517</v>
+        <f>'N=5'!F17</f>
+        <v>19.549684615384614</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3039,19 +3279,24 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>22.984969230769217</v>
+        <f>'N=1'!F18</f>
+        <v>23.26942275641025</v>
       </c>
       <c r="C18">
-        <v>21.951398717948724</v>
+        <f>'N=2'!F18</f>
+        <v>22.101866987179495</v>
       </c>
       <c r="D18">
-        <v>22.387271794871801</v>
+        <f>'N=3'!F18</f>
+        <v>22.603863141025645</v>
       </c>
       <c r="E18">
-        <v>19.500446153846159</v>
+        <f>'N=4'!F18</f>
+        <v>19.852703525641029</v>
       </c>
       <c r="F18">
-        <v>19.413967948717946</v>
+        <f>'N=5'!F18</f>
+        <v>19.742524358974361</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3059,19 +3304,24 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>22.874271794871795</v>
+        <f>'N=1'!F19</f>
+        <v>23.169808333333332</v>
       </c>
       <c r="C19">
-        <v>22.069108974358976</v>
+        <f>'N=2'!F19</f>
+        <v>22.236562820512816</v>
       </c>
       <c r="D19">
-        <v>22.457821794871794</v>
+        <f>'N=3'!F19</f>
+        <v>22.670394230769229</v>
       </c>
       <c r="E19">
-        <v>19.653365384615384</v>
+        <f>'N=4'!F19</f>
+        <v>19.998756410256416</v>
       </c>
       <c r="F19">
-        <v>19.545728205128203</v>
+        <f>'N=5'!F19</f>
+        <v>19.859153205128205</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3079,19 +3329,24 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>22.978502564102566</v>
+        <f>'N=1'!F20</f>
+        <v>23.265629166666667</v>
       </c>
       <c r="C20">
-        <v>21.996229487179491</v>
+        <f>'N=2'!F20</f>
+        <v>22.159632051282045</v>
       </c>
       <c r="D20">
-        <v>22.415662820512825</v>
+        <f>'N=3'!F20</f>
+        <v>22.634447115384617</v>
       </c>
       <c r="E20">
-        <v>19.509762820512808</v>
+        <f>'N=4'!F20</f>
+        <v>19.883151602564102</v>
       </c>
       <c r="F20">
-        <v>19.419193589743596</v>
+        <f>'N=5'!F20</f>
+        <v>19.764846474358979</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F5954-E7CD-4758-8230-9A4C512CB0F4}">
-  <dimension ref="A1:CA39"/>
+  <dimension ref="A1:CB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A39"/>
@@ -3111,4659 +3366,4659 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <f>AVERAGE(B1:CA1)</f>
-        <v>16.630251282051276</v>
-      </c>
-      <c r="B1">
-        <v>20.488600000000002</v>
+        <f>AVERAGE(C1:CB1)</f>
+        <v>18.046897435897439</v>
       </c>
       <c r="C1">
-        <v>28.906300000000002</v>
+        <v>20.747199999999999</v>
       </c>
       <c r="D1">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E1">
-        <v>17.018699999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F1">
-        <v>24.584299999999999</v>
+        <v>17.7865</v>
       </c>
       <c r="G1">
-        <v>17.024100000000001</v>
+        <v>24.5654</v>
       </c>
       <c r="H1">
-        <v>18.048400000000001</v>
+        <v>17.392399999999999</v>
       </c>
       <c r="I1">
-        <v>23.241499999999998</v>
+        <v>19.3931</v>
       </c>
       <c r="J1">
-        <v>21.135100000000001</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K1">
-        <v>18.541699999999999</v>
+        <v>21.447700000000001</v>
       </c>
       <c r="L1">
-        <v>16.871400000000001</v>
+        <v>18.907699999999998</v>
       </c>
       <c r="M1">
-        <v>14.408099999999999</v>
+        <v>17.289400000000001</v>
       </c>
       <c r="N1">
-        <v>15.202</v>
+        <v>15.9033</v>
       </c>
       <c r="O1">
-        <v>15.9396</v>
+        <v>16.7178</v>
       </c>
       <c r="P1">
-        <v>16.954999999999998</v>
+        <v>17.515699999999999</v>
       </c>
       <c r="Q1">
-        <v>18.573499999999999</v>
+        <v>18.4971</v>
       </c>
       <c r="R1">
-        <v>18.398900000000001</v>
+        <v>19.858799999999999</v>
       </c>
       <c r="S1">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T1">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U1">
-        <v>21.237300000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V1">
-        <v>20.7363</v>
+        <v>21.925599999999999</v>
       </c>
       <c r="W1">
-        <v>20.152699999999999</v>
+        <v>21.524699999999999</v>
       </c>
       <c r="X1">
-        <v>20.983899999999998</v>
+        <v>21.081399999999999</v>
       </c>
       <c r="Y1">
-        <v>20.4863</v>
+        <v>21.629799999999999</v>
       </c>
       <c r="Z1">
-        <v>20.110700000000001</v>
+        <v>21.187100000000001</v>
       </c>
       <c r="AA1">
-        <v>19.768699999999999</v>
+        <v>20.789100000000001</v>
       </c>
       <c r="AB1">
-        <v>19.483899999999998</v>
+        <v>20.5396</v>
       </c>
       <c r="AC1">
-        <v>19.184999999999999</v>
+        <v>20.264099999999999</v>
       </c>
       <c r="AD1">
-        <v>18.963000000000001</v>
+        <v>19.956199999999999</v>
       </c>
       <c r="AE1">
-        <v>18.071100000000001</v>
+        <v>19.680900000000001</v>
       </c>
       <c r="AF1">
-        <v>17.9177</v>
+        <v>19.105899999999998</v>
       </c>
       <c r="AG1">
-        <v>17.822099999999999</v>
+        <v>18.9636</v>
       </c>
       <c r="AH1">
-        <v>17.722200000000001</v>
+        <v>18.866800000000001</v>
       </c>
       <c r="AI1">
-        <v>17.5837</v>
+        <v>18.774699999999999</v>
       </c>
       <c r="AJ1">
-        <v>17.493300000000001</v>
+        <v>18.627600000000001</v>
       </c>
       <c r="AK1">
-        <v>16.666399999999999</v>
+        <v>18.519500000000001</v>
       </c>
       <c r="AL1">
-        <v>16.689699999999998</v>
+        <v>18.005299999999998</v>
       </c>
       <c r="AM1">
-        <v>16.678899999999999</v>
+        <v>18.020299999999999</v>
       </c>
       <c r="AN1">
-        <v>13.1264</v>
+        <v>18.011600000000001</v>
       </c>
       <c r="AO1">
-        <v>13.116</v>
+        <v>15.0168</v>
       </c>
       <c r="AP1">
-        <v>13.096</v>
+        <v>15.0284</v>
       </c>
       <c r="AQ1">
-        <v>13.112</v>
+        <v>15.0427</v>
       </c>
       <c r="AR1">
-        <v>13.1303</v>
+        <v>15.1227</v>
       </c>
       <c r="AS1">
-        <v>13.1175</v>
+        <v>15.107699999999999</v>
       </c>
       <c r="AT1">
-        <v>14.4747</v>
+        <v>15.0883</v>
       </c>
       <c r="AU1">
-        <v>14.4823</v>
+        <v>16.217500000000001</v>
       </c>
       <c r="AV1">
-        <v>14.5025</v>
+        <v>16.1983</v>
       </c>
       <c r="AW1">
-        <v>14.4915</v>
+        <v>16.1843</v>
       </c>
       <c r="AX1">
-        <v>14.481999999999999</v>
+        <v>16.172999999999998</v>
       </c>
       <c r="AY1">
-        <v>14.4701</v>
+        <v>16.182200000000002</v>
       </c>
       <c r="AZ1">
-        <v>14.466900000000001</v>
+        <v>16.1721</v>
       </c>
       <c r="BA1">
-        <v>14.4887</v>
+        <v>16.1875</v>
       </c>
       <c r="BB1">
-        <v>14.495200000000001</v>
+        <v>16.216999999999999</v>
       </c>
       <c r="BC1">
-        <v>14.503399999999999</v>
+        <v>16.242599999999999</v>
       </c>
       <c r="BD1">
-        <v>14.491099999999999</v>
+        <v>16.269600000000001</v>
       </c>
       <c r="BE1">
-        <v>14.4781</v>
+        <v>16.270600000000002</v>
       </c>
       <c r="BF1">
-        <v>14.4635</v>
+        <v>16.274100000000001</v>
       </c>
       <c r="BG1">
-        <v>14.4701</v>
+        <v>16.275300000000001</v>
       </c>
       <c r="BH1">
-        <v>14.450699999999999</v>
+        <v>16.296700000000001</v>
       </c>
       <c r="BI1">
-        <v>14.436299999999999</v>
+        <v>16.299900000000001</v>
       </c>
       <c r="BJ1">
-        <v>14.4497</v>
+        <v>16.290400000000002</v>
       </c>
       <c r="BK1">
-        <v>14.441599999999999</v>
+        <v>16.3216</v>
       </c>
       <c r="BL1">
-        <v>14.4338</v>
+        <v>16.322399999999998</v>
       </c>
       <c r="BM1">
-        <v>14.4298</v>
+        <v>16.3444</v>
       </c>
       <c r="BN1">
-        <v>14.417</v>
+        <v>16.350999999999999</v>
       </c>
       <c r="BO1">
-        <v>14.4078</v>
+        <v>16.3566</v>
       </c>
       <c r="BP1">
-        <v>14.411199999999999</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="BQ1">
-        <v>14.390700000000001</v>
+        <v>16.376100000000001</v>
       </c>
       <c r="BR1">
-        <v>14.3904</v>
+        <v>16.365400000000001</v>
       </c>
       <c r="BS1">
-        <v>14.399800000000001</v>
+        <v>16.397099999999998</v>
       </c>
       <c r="BT1">
-        <v>14.391</v>
+        <v>16.404299999999999</v>
       </c>
       <c r="BU1">
-        <v>14.3743</v>
+        <v>16.411100000000001</v>
       </c>
       <c r="BV1">
-        <v>14.354900000000001</v>
+        <v>16.4072</v>
       </c>
       <c r="BW1">
-        <v>14.3566</v>
+        <v>16.432200000000002</v>
       </c>
       <c r="BX1">
-        <v>14.343999999999999</v>
+        <v>16.4267</v>
       </c>
       <c r="BY1">
-        <v>14.338800000000001</v>
+        <v>16.533100000000001</v>
       </c>
       <c r="BZ1">
-        <v>14.3499</v>
+        <v>16.527799999999999</v>
       </c>
       <c r="CA1">
-        <v>14.363099999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>16.543099999999999</v>
+      </c>
+      <c r="CB1">
+        <v>16.517600000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <f t="shared" ref="A2:A19" si="0">AVERAGE(B2:CA2)</f>
-        <v>18.335106410256412</v>
-      </c>
-      <c r="B2">
-        <v>32.878599999999999</v>
+        <f t="shared" ref="A2:A19" si="0">AVERAGE(C2:CB2)</f>
+        <v>19.609302564102567</v>
       </c>
       <c r="C2">
-        <v>19.617599999999999</v>
+        <v>33.244700000000002</v>
       </c>
       <c r="D2">
-        <v>25.699100000000001</v>
+        <v>20.0413</v>
       </c>
       <c r="E2">
-        <v>23.165199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F2">
-        <v>18.977900000000002</v>
+        <v>24.278199999999998</v>
       </c>
       <c r="G2">
-        <v>23.649100000000001</v>
+        <v>19.979299999999999</v>
       </c>
       <c r="H2">
-        <v>18.048400000000001</v>
+        <v>23.5791</v>
       </c>
       <c r="I2">
-        <v>23.241499999999998</v>
+        <v>19.3931</v>
       </c>
       <c r="J2">
-        <v>21.135100000000001</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K2">
-        <v>18.541699999999999</v>
+        <v>21.447700000000001</v>
       </c>
       <c r="L2">
-        <v>16.8306</v>
+        <v>18.907699999999998</v>
       </c>
       <c r="M2">
-        <v>17.617000000000001</v>
+        <v>18.312100000000001</v>
       </c>
       <c r="N2">
-        <v>19.439499999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="O2">
-        <v>20.084199999999999</v>
+        <v>20.645600000000002</v>
       </c>
       <c r="P2">
-        <v>21.818100000000001</v>
+        <v>21.2392</v>
       </c>
       <c r="Q2">
-        <v>21.095300000000002</v>
+        <v>22.287600000000001</v>
       </c>
       <c r="R2">
-        <v>20.4391</v>
+        <v>21.587599999999998</v>
       </c>
       <c r="S2">
-        <v>19.272400000000001</v>
+        <v>20.9361</v>
       </c>
       <c r="T2">
-        <v>15.569599999999999</v>
+        <v>19.979099999999999</v>
       </c>
       <c r="U2">
-        <v>16.483899999999998</v>
+        <v>17.294699999999999</v>
       </c>
       <c r="V2">
-        <v>16.507200000000001</v>
+        <v>18.053799999999999</v>
       </c>
       <c r="W2">
-        <v>16.462800000000001</v>
+        <v>18.1526</v>
       </c>
       <c r="X2">
-        <v>17.879100000000001</v>
+        <v>18.1767</v>
       </c>
       <c r="Y2">
-        <v>17.632899999999999</v>
+        <v>19.311900000000001</v>
       </c>
       <c r="Z2">
-        <v>17.523099999999999</v>
+        <v>19.230499999999999</v>
       </c>
       <c r="AA2">
-        <v>19.265899999999998</v>
+        <v>19.1708</v>
       </c>
       <c r="AB2">
-        <v>19.075700000000001</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AC2">
-        <v>18.754200000000001</v>
+        <v>20.342300000000002</v>
       </c>
       <c r="AD2">
-        <v>18.5991</v>
+        <v>20.1432</v>
       </c>
       <c r="AE2">
-        <v>20.636600000000001</v>
+        <v>20.077300000000001</v>
       </c>
       <c r="AF2">
-        <v>20.366800000000001</v>
+        <v>21.523399999999999</v>
       </c>
       <c r="AG2">
-        <v>20.0349</v>
+        <v>21.300599999999999</v>
       </c>
       <c r="AH2">
-        <v>19.905200000000001</v>
+        <v>21.077999999999999</v>
       </c>
       <c r="AI2">
-        <v>19.605899999999998</v>
+        <v>20.965399999999999</v>
       </c>
       <c r="AJ2">
-        <v>19.4621</v>
+        <v>20.8279</v>
       </c>
       <c r="AK2">
-        <v>20.877600000000001</v>
+        <v>20.667999999999999</v>
       </c>
       <c r="AL2">
-        <v>20.614999999999998</v>
+        <v>21.703900000000001</v>
       </c>
       <c r="AM2">
-        <v>20.422000000000001</v>
+        <v>21.486599999999999</v>
       </c>
       <c r="AN2">
-        <v>20.158999999999999</v>
+        <v>21.314699999999998</v>
       </c>
       <c r="AO2">
-        <v>19.9407</v>
+        <v>21.116</v>
       </c>
       <c r="AP2">
-        <v>19.7331</v>
+        <v>20.915700000000001</v>
       </c>
       <c r="AQ2">
-        <v>19.620100000000001</v>
+        <v>20.715</v>
       </c>
       <c r="AR2">
-        <v>19.4892</v>
+        <v>20.689699999999998</v>
       </c>
       <c r="AS2">
-        <v>19.264399999999998</v>
+        <v>20.53</v>
       </c>
       <c r="AT2">
-        <v>19.674099999999999</v>
+        <v>20.334</v>
       </c>
       <c r="AU2">
-        <v>19.623000000000001</v>
+        <v>20.6035</v>
       </c>
       <c r="AV2">
-        <v>19.536799999999999</v>
+        <v>20.5688</v>
       </c>
       <c r="AW2">
-        <v>19.462</v>
+        <v>20.492999999999999</v>
       </c>
       <c r="AX2">
-        <v>19.316400000000002</v>
+        <v>20.441600000000001</v>
       </c>
       <c r="AY2">
-        <v>19.221</v>
+        <v>20.3352</v>
       </c>
       <c r="AZ2">
-        <v>19.1004</v>
+        <v>20.2163</v>
       </c>
       <c r="BA2">
-        <v>19.0273</v>
+        <v>20.121700000000001</v>
       </c>
       <c r="BB2">
-        <v>18.936599999999999</v>
+        <v>20.049800000000001</v>
       </c>
       <c r="BC2">
-        <v>18.8611</v>
+        <v>19.982800000000001</v>
       </c>
       <c r="BD2">
-        <v>18.778300000000002</v>
+        <v>19.906099999999999</v>
       </c>
       <c r="BE2">
-        <v>18.6751</v>
+        <v>19.816199999999998</v>
       </c>
       <c r="BF2">
-        <v>18.570900000000002</v>
+        <v>19.720099999999999</v>
       </c>
       <c r="BG2">
-        <v>17.987400000000001</v>
+        <v>19.635899999999999</v>
       </c>
       <c r="BH2">
-        <v>14.450699999999999</v>
+        <v>19.214400000000001</v>
       </c>
       <c r="BI2">
-        <v>14.436299999999999</v>
+        <v>16.299900000000001</v>
       </c>
       <c r="BJ2">
-        <v>14.4497</v>
+        <v>16.290400000000002</v>
       </c>
       <c r="BK2">
-        <v>14.441599999999999</v>
+        <v>16.3216</v>
       </c>
       <c r="BL2">
-        <v>14.4338</v>
+        <v>16.322399999999998</v>
       </c>
       <c r="BM2">
-        <v>14.4298</v>
+        <v>16.3444</v>
       </c>
       <c r="BN2">
-        <v>14.417</v>
+        <v>16.350999999999999</v>
       </c>
       <c r="BO2">
-        <v>14.4078</v>
+        <v>16.3566</v>
       </c>
       <c r="BP2">
-        <v>14.411199999999999</v>
+        <v>16.356000000000002</v>
       </c>
       <c r="BQ2">
-        <v>14.390700000000001</v>
+        <v>16.376100000000001</v>
       </c>
       <c r="BR2">
-        <v>14.3904</v>
+        <v>16.365400000000001</v>
       </c>
       <c r="BS2">
-        <v>14.399800000000001</v>
+        <v>16.397099999999998</v>
       </c>
       <c r="BT2">
-        <v>14.391</v>
+        <v>16.404299999999999</v>
       </c>
       <c r="BU2">
-        <v>14.3743</v>
+        <v>16.411100000000001</v>
       </c>
       <c r="BV2">
-        <v>14.354900000000001</v>
+        <v>16.4072</v>
       </c>
       <c r="BW2">
-        <v>14.3566</v>
+        <v>16.432200000000002</v>
       </c>
       <c r="BX2">
-        <v>14.343999999999999</v>
+        <v>16.4267</v>
       </c>
       <c r="BY2">
-        <v>14.338800000000001</v>
+        <v>16.533100000000001</v>
       </c>
       <c r="BZ2">
-        <v>14.3499</v>
+        <v>16.527799999999999</v>
       </c>
       <c r="CA2">
-        <v>14.363099999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>16.543099999999999</v>
+      </c>
+      <c r="CB2">
+        <v>16.517600000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>19.60694358974359</v>
-      </c>
-      <c r="B3">
-        <v>25.421500000000002</v>
+        <v>20.728838461538459</v>
       </c>
       <c r="C3">
-        <v>28.906300000000002</v>
+        <v>25.5669</v>
       </c>
       <c r="D3">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E3">
-        <v>24.724900000000002</v>
+        <v>26.1221</v>
       </c>
       <c r="F3">
-        <v>24.584299999999999</v>
+        <v>24.305700000000002</v>
       </c>
       <c r="G3">
-        <v>23.552199999999999</v>
+        <v>24.5654</v>
       </c>
       <c r="H3">
-        <v>18.048400000000001</v>
+        <v>24.061900000000001</v>
       </c>
       <c r="I3">
-        <v>23.241499999999998</v>
+        <v>19.3931</v>
       </c>
       <c r="J3">
-        <v>21.135100000000001</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K3">
-        <v>17.8123</v>
+        <v>21.447700000000001</v>
       </c>
       <c r="L3">
-        <v>19.094100000000001</v>
+        <v>19.1462</v>
       </c>
       <c r="M3">
-        <v>20.479600000000001</v>
+        <v>20.476500000000001</v>
       </c>
       <c r="N3">
-        <v>21.0746</v>
+        <v>21.528700000000001</v>
       </c>
       <c r="O3">
-        <v>21.021899999999999</v>
+        <v>21.693000000000001</v>
       </c>
       <c r="P3">
-        <v>16.954999999999998</v>
+        <v>21.299199999999999</v>
       </c>
       <c r="Q3">
-        <v>18.573499999999999</v>
+        <v>18.4971</v>
       </c>
       <c r="R3">
-        <v>18.398900000000001</v>
+        <v>19.858799999999999</v>
       </c>
       <c r="S3">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T3">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U3">
-        <v>21.237300000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V3">
-        <v>20.7363</v>
+        <v>21.925599999999999</v>
       </c>
       <c r="W3">
-        <v>20.152699999999999</v>
+        <v>21.524699999999999</v>
       </c>
       <c r="X3">
-        <v>20.983899999999998</v>
+        <v>21.081399999999999</v>
       </c>
       <c r="Y3">
-        <v>20.4863</v>
+        <v>21.629799999999999</v>
       </c>
       <c r="Z3">
-        <v>15.348000000000001</v>
+        <v>21.187100000000001</v>
       </c>
       <c r="AA3">
-        <v>16.415400000000002</v>
+        <v>17.184200000000001</v>
       </c>
       <c r="AB3">
-        <v>16.3857</v>
+        <v>18.096800000000002</v>
       </c>
       <c r="AC3">
-        <v>16.3081</v>
+        <v>18.108499999999999</v>
       </c>
       <c r="AD3">
-        <v>16.3064</v>
+        <v>18.092300000000002</v>
       </c>
       <c r="AE3">
-        <v>17.798200000000001</v>
+        <v>18.137699999999999</v>
       </c>
       <c r="AF3">
-        <v>17.729199999999999</v>
+        <v>19.2958</v>
       </c>
       <c r="AG3">
-        <v>17.601299999999998</v>
+        <v>19.209700000000002</v>
       </c>
       <c r="AH3">
-        <v>17.611999999999998</v>
+        <v>19.151299999999999</v>
       </c>
       <c r="AI3">
-        <v>17.494199999999999</v>
+        <v>19.1661</v>
       </c>
       <c r="AJ3">
-        <v>17.468599999999999</v>
+        <v>19.194600000000001</v>
       </c>
       <c r="AK3">
-        <v>18.963699999999999</v>
+        <v>19.155200000000001</v>
       </c>
       <c r="AL3">
-        <v>18.745200000000001</v>
+        <v>20.339600000000001</v>
       </c>
       <c r="AM3">
-        <v>18.630299999999998</v>
+        <v>20.167999999999999</v>
       </c>
       <c r="AN3">
-        <v>18.523599999999998</v>
+        <v>20.080400000000001</v>
       </c>
       <c r="AO3">
-        <v>18.364999999999998</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="AP3">
-        <v>18.186299999999999</v>
+        <v>19.887699999999999</v>
       </c>
       <c r="AQ3">
-        <v>18.110900000000001</v>
+        <v>19.762599999999999</v>
       </c>
       <c r="AR3">
-        <v>18.047799999999999</v>
+        <v>19.801100000000002</v>
       </c>
       <c r="AS3">
-        <v>17.903600000000001</v>
+        <v>19.692499999999999</v>
       </c>
       <c r="AT3">
-        <v>20.6114</v>
+        <v>19.569400000000002</v>
       </c>
       <c r="AU3">
-        <v>20.4621</v>
+        <v>21.5335</v>
       </c>
       <c r="AV3">
-        <v>20.390999999999998</v>
+        <v>21.424299999999999</v>
       </c>
       <c r="AW3">
-        <v>20.235199999999999</v>
+        <v>21.355599999999999</v>
       </c>
       <c r="AX3">
-        <v>20.0534</v>
+        <v>21.226600000000001</v>
       </c>
       <c r="AY3">
-        <v>19.905799999999999</v>
+        <v>21.131900000000002</v>
       </c>
       <c r="AZ3">
-        <v>19.796500000000002</v>
+        <v>20.9697</v>
       </c>
       <c r="BA3">
-        <v>19.747</v>
+        <v>20.8947</v>
       </c>
       <c r="BB3">
-        <v>19.625699999999998</v>
+        <v>20.829499999999999</v>
       </c>
       <c r="BC3">
-        <v>19.547699999999999</v>
+        <v>20.771100000000001</v>
       </c>
       <c r="BD3">
-        <v>19.432300000000001</v>
+        <v>20.7562</v>
       </c>
       <c r="BE3">
-        <v>19.305399999999999</v>
+        <v>20.645800000000001</v>
       </c>
       <c r="BF3">
-        <v>19.148499999999999</v>
+        <v>20.524799999999999</v>
       </c>
       <c r="BG3">
-        <v>20.240600000000001</v>
+        <v>20.409199999999998</v>
       </c>
       <c r="BH3">
-        <v>20.137599999999999</v>
+        <v>21.179400000000001</v>
       </c>
       <c r="BI3">
-        <v>20.0212</v>
+        <v>21.072700000000001</v>
       </c>
       <c r="BJ3">
-        <v>19.985600000000002</v>
+        <v>20.972799999999999</v>
       </c>
       <c r="BK3">
-        <v>19.8901</v>
+        <v>20.932200000000002</v>
       </c>
       <c r="BL3">
-        <v>19.796900000000001</v>
+        <v>20.841200000000001</v>
       </c>
       <c r="BM3">
-        <v>19.6983</v>
+        <v>20.802299999999999</v>
       </c>
       <c r="BN3">
-        <v>19.602799999999998</v>
+        <v>20.724599999999999</v>
       </c>
       <c r="BO3">
-        <v>19.494199999999999</v>
+        <v>20.630700000000001</v>
       </c>
       <c r="BP3">
-        <v>19.47</v>
+        <v>20.508099999999999</v>
       </c>
       <c r="BQ3">
-        <v>19.386800000000001</v>
+        <v>20.491299999999999</v>
       </c>
       <c r="BR3">
-        <v>19.304400000000001</v>
+        <v>20.441500000000001</v>
       </c>
       <c r="BS3">
-        <v>19.237500000000001</v>
+        <v>20.363099999999999</v>
       </c>
       <c r="BT3">
-        <v>19.156500000000001</v>
+        <v>20.328099999999999</v>
       </c>
       <c r="BU3">
-        <v>19.043500000000002</v>
+        <v>20.264299999999999</v>
       </c>
       <c r="BV3">
-        <v>18.985800000000001</v>
+        <v>20.177099999999999</v>
       </c>
       <c r="BW3">
-        <v>18.951799999999999</v>
+        <v>20.159700000000001</v>
       </c>
       <c r="BX3">
-        <v>18.926500000000001</v>
+        <v>20.134799999999998</v>
       </c>
       <c r="BY3">
-        <v>18.866399999999999</v>
+        <v>20.179400000000001</v>
       </c>
       <c r="BZ3">
-        <v>18.841799999999999</v>
+        <v>20.131399999999999</v>
       </c>
       <c r="CA3">
-        <v>18.7974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.107299999999999</v>
+      </c>
+      <c r="CB3">
+        <v>20.0366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>19.429933333333334</v>
-      </c>
-      <c r="B4">
-        <v>26.513100000000001</v>
+        <v>20.630148717948721</v>
       </c>
       <c r="C4">
-        <v>23.628900000000002</v>
+        <v>26.7986</v>
       </c>
       <c r="D4">
-        <v>25.699100000000001</v>
+        <v>23.728999999999999</v>
       </c>
       <c r="E4">
-        <v>19.9069</v>
+        <v>26.1221</v>
       </c>
       <c r="F4">
-        <v>21.454699999999999</v>
+        <v>21.102399999999999</v>
       </c>
       <c r="G4">
-        <v>20.499700000000001</v>
+        <v>22.690799999999999</v>
       </c>
       <c r="H4">
-        <v>22.882899999999999</v>
+        <v>21.543800000000001</v>
       </c>
       <c r="I4">
-        <v>23.241499999999998</v>
+        <v>22.932400000000001</v>
       </c>
       <c r="J4">
-        <v>21.135100000000001</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K4">
-        <v>19.688400000000001</v>
+        <v>21.447700000000001</v>
       </c>
       <c r="L4">
-        <v>20.767900000000001</v>
+        <v>20.853300000000001</v>
       </c>
       <c r="M4">
-        <v>21.2012</v>
+        <v>21.711200000000002</v>
       </c>
       <c r="N4">
-        <v>17.485499999999998</v>
+        <v>21.7272</v>
       </c>
       <c r="O4">
-        <v>18.793700000000001</v>
+        <v>19.016100000000002</v>
       </c>
       <c r="P4">
-        <v>20.234400000000001</v>
+        <v>20.108599999999999</v>
       </c>
       <c r="Q4">
-        <v>21.791499999999999</v>
+        <v>21.319500000000001</v>
       </c>
       <c r="R4">
-        <v>20.977399999999999</v>
+        <v>22.393899999999999</v>
       </c>
       <c r="S4">
-        <v>21.056799999999999</v>
+        <v>21.7333</v>
       </c>
       <c r="T4">
-        <v>16.650500000000001</v>
+        <v>21.496600000000001</v>
       </c>
       <c r="U4">
-        <v>18.177399999999999</v>
+        <v>18.3813</v>
       </c>
       <c r="V4">
-        <v>18.095300000000002</v>
+        <v>19.5336</v>
       </c>
       <c r="W4">
-        <v>17.913</v>
+        <v>19.543700000000001</v>
       </c>
       <c r="X4">
-        <v>19.188700000000001</v>
+        <v>19.456499999999998</v>
       </c>
       <c r="Y4">
-        <v>18.767099999999999</v>
+        <v>20.479700000000001</v>
       </c>
       <c r="Z4">
-        <v>18.538</v>
+        <v>20.227499999999999</v>
       </c>
       <c r="AA4">
-        <v>21.097300000000001</v>
+        <v>20.070799999999998</v>
       </c>
       <c r="AB4">
-        <v>20.770800000000001</v>
+        <v>21.848099999999999</v>
       </c>
       <c r="AC4">
-        <v>20.314699999999998</v>
+        <v>21.5549</v>
       </c>
       <c r="AD4">
-        <v>20.0108</v>
+        <v>21.229900000000001</v>
       </c>
       <c r="AE4">
-        <v>20.704000000000001</v>
+        <v>20.992599999999999</v>
       </c>
       <c r="AF4">
-        <v>20.404800000000002</v>
+        <v>21.453299999999999</v>
       </c>
       <c r="AG4">
-        <v>16.7395</v>
+        <v>21.221299999999999</v>
       </c>
       <c r="AH4">
-        <v>16.7774</v>
+        <v>18.4068</v>
       </c>
       <c r="AI4">
-        <v>16.7057</v>
+        <v>18.4498</v>
       </c>
       <c r="AJ4">
-        <v>16.708200000000001</v>
+        <v>18.4679</v>
       </c>
       <c r="AK4">
-        <v>17.700800000000001</v>
+        <v>18.4725</v>
       </c>
       <c r="AL4">
-        <v>17.581399999999999</v>
+        <v>19.215900000000001</v>
       </c>
       <c r="AM4">
-        <v>17.505700000000001</v>
+        <v>19.1143</v>
       </c>
       <c r="AN4">
-        <v>17.459900000000001</v>
+        <v>19.055199999999999</v>
       </c>
       <c r="AO4">
-        <v>17.365100000000002</v>
+        <v>19.0427</v>
       </c>
       <c r="AP4">
-        <v>17.233899999999998</v>
+        <v>18.989699999999999</v>
       </c>
       <c r="AQ4">
-        <v>17.2057</v>
+        <v>18.926400000000001</v>
       </c>
       <c r="AR4">
-        <v>17.171800000000001</v>
+        <v>18.998200000000001</v>
       </c>
       <c r="AS4">
-        <v>17.073599999999999</v>
+        <v>18.921500000000002</v>
       </c>
       <c r="AT4">
-        <v>19.300599999999999</v>
+        <v>18.8459</v>
       </c>
       <c r="AU4">
-        <v>19.225999999999999</v>
+        <v>20.6021</v>
       </c>
       <c r="AV4">
-        <v>19.199400000000001</v>
+        <v>20.533999999999999</v>
       </c>
       <c r="AW4">
-        <v>19.079599999999999</v>
+        <v>20.490600000000001</v>
       </c>
       <c r="AX4">
-        <v>18.963200000000001</v>
+        <v>20.3889</v>
       </c>
       <c r="AY4">
-        <v>18.829499999999999</v>
+        <v>20.344999999999999</v>
       </c>
       <c r="AZ4">
-        <v>18.722999999999999</v>
+        <v>20.2193</v>
       </c>
       <c r="BA4">
-        <v>18.6982</v>
+        <v>20.1568</v>
       </c>
       <c r="BB4">
-        <v>18.617100000000001</v>
+        <v>20.124300000000002</v>
       </c>
       <c r="BC4">
-        <v>18.571200000000001</v>
+        <v>20.0915</v>
       </c>
       <c r="BD4">
-        <v>18.489699999999999</v>
+        <v>20.130400000000002</v>
       </c>
       <c r="BE4">
-        <v>18.395299999999999</v>
+        <v>20.0472</v>
       </c>
       <c r="BF4">
-        <v>18.275600000000001</v>
+        <v>19.9544</v>
       </c>
       <c r="BG4">
-        <v>20.356200000000001</v>
+        <v>19.863900000000001</v>
       </c>
       <c r="BH4">
-        <v>20.238900000000001</v>
+        <v>21.3584</v>
       </c>
       <c r="BI4">
-        <v>20.1221</v>
+        <v>21.2637</v>
       </c>
       <c r="BJ4">
-        <v>20.101800000000001</v>
+        <v>21.17</v>
       </c>
       <c r="BK4">
-        <v>20.0183</v>
+        <v>21.133700000000001</v>
       </c>
       <c r="BL4">
-        <v>19.9267</v>
+        <v>21.0609</v>
       </c>
       <c r="BM4">
-        <v>19.836500000000001</v>
+        <v>21.020800000000001</v>
       </c>
       <c r="BN4">
-        <v>19.718900000000001</v>
+        <v>20.958300000000001</v>
       </c>
       <c r="BO4">
-        <v>19.602</v>
+        <v>20.8371</v>
       </c>
       <c r="BP4">
-        <v>19.584800000000001</v>
+        <v>20.709800000000001</v>
       </c>
       <c r="BQ4">
-        <v>19.5031</v>
+        <v>20.6965</v>
       </c>
       <c r="BR4">
-        <v>19.4313</v>
+        <v>20.6553</v>
       </c>
       <c r="BS4">
-        <v>19.378499999999999</v>
+        <v>20.5837</v>
       </c>
       <c r="BT4">
-        <v>19.305700000000002</v>
+        <v>20.549900000000001</v>
       </c>
       <c r="BU4">
-        <v>19.197700000000001</v>
+        <v>20.4956</v>
       </c>
       <c r="BV4">
-        <v>19.130700000000001</v>
+        <v>20.4147</v>
       </c>
       <c r="BW4">
-        <v>19.0794</v>
+        <v>20.4039</v>
       </c>
       <c r="BX4">
-        <v>19.013400000000001</v>
+        <v>20.373200000000001</v>
       </c>
       <c r="BY4">
-        <v>18.957599999999999</v>
+        <v>20.379100000000001</v>
       </c>
       <c r="BZ4">
-        <v>18.9391</v>
+        <v>20.332799999999999</v>
       </c>
       <c r="CA4">
-        <v>18.9039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.3157</v>
+      </c>
+      <c r="CB4">
+        <v>20.2578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>19.51100641025641</v>
-      </c>
-      <c r="B5">
-        <v>32.878599999999999</v>
+        <v>20.730376923076918</v>
       </c>
       <c r="C5">
-        <v>28.906300000000002</v>
+        <v>33.244700000000002</v>
       </c>
       <c r="D5">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E5">
-        <v>23.165199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F5">
-        <v>24.584299999999999</v>
+        <v>24.278199999999998</v>
       </c>
       <c r="G5">
-        <v>23.649100000000001</v>
+        <v>24.5654</v>
       </c>
       <c r="H5">
-        <v>23.0152</v>
+        <v>23.5791</v>
       </c>
       <c r="I5">
-        <v>23.241499999999998</v>
+        <v>23.4605</v>
       </c>
       <c r="J5">
-        <v>19.392199999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K5">
-        <v>21.066800000000001</v>
+        <v>20.4252</v>
       </c>
       <c r="L5">
-        <v>21.663900000000002</v>
+        <v>21.9452</v>
       </c>
       <c r="M5">
-        <v>17.617000000000001</v>
+        <v>22.308499999999999</v>
       </c>
       <c r="N5">
-        <v>19.439499999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="O5">
-        <v>20.084199999999999</v>
+        <v>20.645600000000002</v>
       </c>
       <c r="P5">
-        <v>21.818100000000001</v>
+        <v>21.2392</v>
       </c>
       <c r="Q5">
-        <v>18.573499999999999</v>
+        <v>22.287600000000001</v>
       </c>
       <c r="R5">
-        <v>18.398900000000001</v>
+        <v>19.858799999999999</v>
       </c>
       <c r="S5">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T5">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U5">
-        <v>21.237300000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V5">
-        <v>20.7363</v>
+        <v>21.925599999999999</v>
       </c>
       <c r="W5">
-        <v>20.152699999999999</v>
+        <v>21.524699999999999</v>
       </c>
       <c r="X5">
-        <v>17.879100000000001</v>
+        <v>21.081399999999999</v>
       </c>
       <c r="Y5">
-        <v>17.632899999999999</v>
+        <v>19.311900000000001</v>
       </c>
       <c r="Z5">
-        <v>17.523099999999999</v>
+        <v>19.230499999999999</v>
       </c>
       <c r="AA5">
-        <v>19.265899999999998</v>
+        <v>19.1708</v>
       </c>
       <c r="AB5">
-        <v>19.075700000000001</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AC5">
-        <v>18.754200000000001</v>
+        <v>20.342300000000002</v>
       </c>
       <c r="AD5">
-        <v>18.5991</v>
+        <v>20.1432</v>
       </c>
       <c r="AE5">
-        <v>20.636600000000001</v>
+        <v>20.077300000000001</v>
       </c>
       <c r="AF5">
-        <v>20.366800000000001</v>
+        <v>21.523399999999999</v>
       </c>
       <c r="AG5">
-        <v>20.0349</v>
+        <v>21.300599999999999</v>
       </c>
       <c r="AH5">
-        <v>19.905200000000001</v>
+        <v>21.077999999999999</v>
       </c>
       <c r="AI5">
-        <v>19.605899999999998</v>
+        <v>20.965399999999999</v>
       </c>
       <c r="AJ5">
-        <v>19.4621</v>
+        <v>20.8279</v>
       </c>
       <c r="AK5">
-        <v>20.877600000000001</v>
+        <v>20.667999999999999</v>
       </c>
       <c r="AL5">
-        <v>20.614999999999998</v>
+        <v>21.703900000000001</v>
       </c>
       <c r="AM5">
-        <v>20.422000000000001</v>
+        <v>21.486599999999999</v>
       </c>
       <c r="AN5">
-        <v>16.662199999999999</v>
+        <v>21.314699999999998</v>
       </c>
       <c r="AO5">
-        <v>16.596599999999999</v>
+        <v>18.294899999999998</v>
       </c>
       <c r="AP5">
-        <v>16.527999999999999</v>
+        <v>18.269100000000002</v>
       </c>
       <c r="AQ5">
-        <v>16.525200000000002</v>
+        <v>18.247900000000001</v>
       </c>
       <c r="AR5">
-        <v>16.508600000000001</v>
+        <v>18.301400000000001</v>
       </c>
       <c r="AS5">
-        <v>16.434899999999999</v>
+        <v>18.268999999999998</v>
       </c>
       <c r="AT5">
-        <v>17.598199999999999</v>
+        <v>18.2258</v>
       </c>
       <c r="AU5">
-        <v>17.5519</v>
+        <v>19.1221</v>
       </c>
       <c r="AV5">
-        <v>17.546299999999999</v>
+        <v>19.083500000000001</v>
       </c>
       <c r="AW5">
-        <v>17.466999999999999</v>
+        <v>19.071400000000001</v>
       </c>
       <c r="AX5">
-        <v>17.392399999999999</v>
+        <v>19.013300000000001</v>
       </c>
       <c r="AY5">
-        <v>17.2971</v>
+        <v>19.0002</v>
       </c>
       <c r="AZ5">
-        <v>17.257300000000001</v>
+        <v>18.936399999999999</v>
       </c>
       <c r="BA5">
-        <v>17.2592</v>
+        <v>18.931899999999999</v>
       </c>
       <c r="BB5">
-        <v>17.213100000000001</v>
+        <v>18.923500000000001</v>
       </c>
       <c r="BC5">
-        <v>17.186800000000002</v>
+        <v>18.9269</v>
       </c>
       <c r="BD5">
-        <v>17.141100000000002</v>
+        <v>19.0166</v>
       </c>
       <c r="BE5">
-        <v>17.085799999999999</v>
+        <v>18.952000000000002</v>
       </c>
       <c r="BF5">
-        <v>17.016999999999999</v>
+        <v>18.886399999999998</v>
       </c>
       <c r="BG5">
-        <v>19.863199999999999</v>
+        <v>18.839600000000001</v>
       </c>
       <c r="BH5">
-        <v>19.741499999999998</v>
+        <v>21.003799999999998</v>
       </c>
       <c r="BI5">
-        <v>19.643999999999998</v>
+        <v>20.9024</v>
       </c>
       <c r="BJ5">
-        <v>19.645</v>
+        <v>20.829899999999999</v>
       </c>
       <c r="BK5">
-        <v>19.5566</v>
+        <v>20.795200000000001</v>
       </c>
       <c r="BL5">
-        <v>19.484000000000002</v>
+        <v>20.7348</v>
       </c>
       <c r="BM5">
-        <v>19.4147</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="BN5">
-        <v>19.337900000000001</v>
+        <v>20.656500000000001</v>
       </c>
       <c r="BO5">
-        <v>19.2333</v>
+        <v>20.538399999999999</v>
       </c>
       <c r="BP5">
-        <v>19.229299999999999</v>
+        <v>20.4269</v>
       </c>
       <c r="BQ5">
-        <v>19.150400000000001</v>
+        <v>20.409700000000001</v>
       </c>
       <c r="BR5">
-        <v>19.096499999999999</v>
+        <v>20.37</v>
       </c>
       <c r="BS5">
-        <v>19.058299999999999</v>
+        <v>20.3125</v>
       </c>
       <c r="BT5">
-        <v>18.997699999999998</v>
+        <v>20.286999999999999</v>
       </c>
       <c r="BU5">
-        <v>18.8901</v>
+        <v>20.233699999999999</v>
       </c>
       <c r="BV5">
-        <v>18.8246</v>
+        <v>20.155200000000001</v>
       </c>
       <c r="BW5">
-        <v>18.777000000000001</v>
+        <v>20.125599999999999</v>
       </c>
       <c r="BX5">
-        <v>18.7211</v>
+        <v>20.109100000000002</v>
       </c>
       <c r="BY5">
-        <v>18.669599999999999</v>
+        <v>20.092300000000002</v>
       </c>
       <c r="BZ5">
-        <v>18.662099999999999</v>
+        <v>20.058900000000001</v>
       </c>
       <c r="CA5">
-        <v>18.636399999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.055900000000001</v>
+      </c>
+      <c r="CB5">
+        <v>20.0166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>19.243364102564112</v>
-      </c>
-      <c r="B6">
-        <v>30.145199999999999</v>
+        <v>20.540107692307686</v>
       </c>
       <c r="C6">
-        <v>24.9495</v>
+        <v>29.789300000000001</v>
       </c>
       <c r="D6">
-        <v>25.699100000000001</v>
+        <v>25.402000000000001</v>
       </c>
       <c r="E6">
-        <v>24.787400000000002</v>
+        <v>26.1221</v>
       </c>
       <c r="F6">
-        <v>23.5702</v>
+        <v>24.924299999999999</v>
       </c>
       <c r="G6">
-        <v>24.539899999999999</v>
+        <v>24.262</v>
       </c>
       <c r="H6">
-        <v>21.593800000000002</v>
+        <v>24.668099999999999</v>
       </c>
       <c r="I6">
-        <v>23.241499999999998</v>
+        <v>22.653400000000001</v>
       </c>
       <c r="J6">
-        <v>20.122499999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K6">
-        <v>21.8688</v>
+        <v>21.122</v>
       </c>
       <c r="L6">
-        <v>18.1707</v>
+        <v>22.4621</v>
       </c>
       <c r="M6">
-        <v>19.314299999999999</v>
+        <v>19.623899999999999</v>
       </c>
       <c r="N6">
-        <v>20.786100000000001</v>
+        <v>20.6569</v>
       </c>
       <c r="O6">
-        <v>18.008500000000002</v>
+        <v>21.652899999999999</v>
       </c>
       <c r="P6">
-        <v>19.101700000000001</v>
+        <v>19.429400000000001</v>
       </c>
       <c r="Q6">
-        <v>21.255600000000001</v>
+        <v>20.3841</v>
       </c>
       <c r="R6">
-        <v>20.6097</v>
+        <v>22.056100000000001</v>
       </c>
       <c r="S6">
-        <v>21.293199999999999</v>
+        <v>21.6496</v>
       </c>
       <c r="T6">
-        <v>17.6951</v>
+        <v>21.768599999999999</v>
       </c>
       <c r="U6">
-        <v>18.940000000000001</v>
+        <v>19.281500000000001</v>
       </c>
       <c r="V6">
-        <v>18.740400000000001</v>
+        <v>20.221699999999998</v>
       </c>
       <c r="W6">
-        <v>18.4541</v>
+        <v>20.134</v>
       </c>
       <c r="X6">
-        <v>20.809899999999999</v>
+        <v>19.961099999999998</v>
       </c>
       <c r="Y6">
-        <v>20.232700000000001</v>
+        <v>21.646699999999999</v>
       </c>
       <c r="Z6">
-        <v>19.8566</v>
+        <v>21.253499999999999</v>
       </c>
       <c r="AA6">
-        <v>21.325800000000001</v>
+        <v>20.981000000000002</v>
       </c>
       <c r="AB6">
-        <v>17.288</v>
+        <v>21.985900000000001</v>
       </c>
       <c r="AC6">
-        <v>17.1448</v>
+        <v>18.863299999999999</v>
       </c>
       <c r="AD6">
-        <v>17.11</v>
+        <v>18.8002</v>
       </c>
       <c r="AE6">
-        <v>18.7883</v>
+        <v>18.817900000000002</v>
       </c>
       <c r="AF6">
-        <v>18.661200000000001</v>
+        <v>20.076499999999999</v>
       </c>
       <c r="AG6">
-        <v>18.484999999999999</v>
+        <v>19.9588</v>
       </c>
       <c r="AH6">
-        <v>18.4589</v>
+        <v>19.8657</v>
       </c>
       <c r="AI6">
-        <v>18.298300000000001</v>
+        <v>19.840800000000002</v>
       </c>
       <c r="AJ6">
-        <v>18.234500000000001</v>
+        <v>19.8597</v>
       </c>
       <c r="AK6">
-        <v>20.1309</v>
+        <v>19.773499999999999</v>
       </c>
       <c r="AL6">
-        <v>19.8612</v>
+        <v>21.235700000000001</v>
       </c>
       <c r="AM6">
-        <v>19.716200000000001</v>
+        <v>21.032299999999999</v>
       </c>
       <c r="AN6">
-        <v>19.5517</v>
+        <v>20.915299999999998</v>
       </c>
       <c r="AO6">
-        <v>19.3459</v>
+        <v>20.791399999999999</v>
       </c>
       <c r="AP6">
-        <v>19.135400000000001</v>
+        <v>20.6248</v>
       </c>
       <c r="AQ6">
-        <v>19.033300000000001</v>
+        <v>20.449400000000001</v>
       </c>
       <c r="AR6">
-        <v>18.9389</v>
+        <v>20.435600000000001</v>
       </c>
       <c r="AS6">
-        <v>18.761399999999998</v>
+        <v>20.306999999999999</v>
       </c>
       <c r="AT6">
-        <v>17.1995</v>
+        <v>20.155799999999999</v>
       </c>
       <c r="AU6">
-        <v>17.165099999999999</v>
+        <v>18.805199999999999</v>
       </c>
       <c r="AV6">
-        <v>17.167200000000001</v>
+        <v>18.773099999999999</v>
       </c>
       <c r="AW6">
-        <v>17.100000000000001</v>
+        <v>18.765499999999999</v>
       </c>
       <c r="AX6">
-        <v>17.033100000000001</v>
+        <v>18.7166</v>
       </c>
       <c r="AY6">
-        <v>16.964300000000001</v>
+        <v>18.708600000000001</v>
       </c>
       <c r="AZ6">
-        <v>16.933599999999998</v>
+        <v>18.6614</v>
       </c>
       <c r="BA6">
-        <v>16.940000000000001</v>
+        <v>18.668800000000001</v>
       </c>
       <c r="BB6">
-        <v>16.901</v>
+        <v>18.667899999999999</v>
       </c>
       <c r="BC6">
-        <v>16.884</v>
+        <v>18.680800000000001</v>
       </c>
       <c r="BD6">
-        <v>16.849599999999999</v>
+        <v>18.7637</v>
       </c>
       <c r="BE6">
-        <v>16.8018</v>
+        <v>18.7119</v>
       </c>
       <c r="BF6">
-        <v>16.744800000000001</v>
+        <v>18.655100000000001</v>
       </c>
       <c r="BG6">
-        <v>19.0562</v>
+        <v>18.622199999999999</v>
       </c>
       <c r="BH6">
-        <v>18.968</v>
+        <v>20.459199999999999</v>
       </c>
       <c r="BI6">
-        <v>18.877300000000002</v>
+        <v>20.376999999999999</v>
       </c>
       <c r="BJ6">
-        <v>18.8828</v>
+        <v>20.3093</v>
       </c>
       <c r="BK6">
-        <v>18.814499999999999</v>
+        <v>20.2819</v>
       </c>
       <c r="BL6">
-        <v>18.7454</v>
+        <v>20.233899999999998</v>
       </c>
       <c r="BM6">
-        <v>18.690000000000001</v>
+        <v>20.192</v>
       </c>
       <c r="BN6">
-        <v>18.624500000000001</v>
+        <v>20.165099999999999</v>
       </c>
       <c r="BO6">
-        <v>18.535599999999999</v>
+        <v>20.061</v>
       </c>
       <c r="BP6">
-        <v>18.534099999999999</v>
+        <v>19.965399999999999</v>
       </c>
       <c r="BQ6">
-        <v>18.4589</v>
+        <v>19.9528</v>
       </c>
       <c r="BR6">
-        <v>18.411799999999999</v>
+        <v>19.915099999999999</v>
       </c>
       <c r="BS6">
-        <v>18.3749</v>
+        <v>19.8703</v>
       </c>
       <c r="BT6">
-        <v>18.330500000000001</v>
+        <v>19.851600000000001</v>
       </c>
       <c r="BU6">
-        <v>18.257899999999999</v>
+        <v>19.8093</v>
       </c>
       <c r="BV6">
-        <v>18.194700000000001</v>
+        <v>19.7469</v>
       </c>
       <c r="BW6">
-        <v>18.162600000000001</v>
+        <v>19.720199999999998</v>
       </c>
       <c r="BX6">
-        <v>18.115300000000001</v>
+        <v>19.7118</v>
       </c>
       <c r="BY6">
-        <v>18.076699999999999</v>
+        <v>19.728100000000001</v>
       </c>
       <c r="BZ6">
-        <v>18.073599999999999</v>
+        <v>19.702100000000002</v>
       </c>
       <c r="CA6">
-        <v>18.056899999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.704499999999999</v>
+      </c>
+      <c r="CB6">
+        <v>19.668399999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>19.072744871794871</v>
-      </c>
-      <c r="B7">
-        <v>30.163599999999999</v>
+        <v>20.41751153846154</v>
       </c>
       <c r="C7">
-        <v>28.906300000000002</v>
+        <v>30.229399999999998</v>
       </c>
       <c r="D7">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E7">
-        <v>21.459199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F7">
-        <v>20.806000000000001</v>
+        <v>22.5059</v>
       </c>
       <c r="G7">
-        <v>23.552199999999999</v>
+        <v>21.889800000000001</v>
       </c>
       <c r="H7">
-        <v>21.039300000000001</v>
+        <v>24.061900000000001</v>
       </c>
       <c r="I7">
-        <v>23.241499999999998</v>
+        <v>22.232399999999998</v>
       </c>
       <c r="J7">
-        <v>20.790299999999998</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K7">
-        <v>22.0671</v>
+        <v>21.626799999999999</v>
       </c>
       <c r="L7">
-        <v>19.094100000000001</v>
+        <v>22.575299999999999</v>
       </c>
       <c r="M7">
-        <v>20.479600000000001</v>
+        <v>20.476500000000001</v>
       </c>
       <c r="N7">
-        <v>18.232199999999999</v>
+        <v>21.528700000000001</v>
       </c>
       <c r="O7">
-        <v>19.4909</v>
+        <v>19.699100000000001</v>
       </c>
       <c r="P7">
-        <v>20.842300000000002</v>
+        <v>20.6965</v>
       </c>
       <c r="Q7">
-        <v>18.573499999999999</v>
+        <v>21.7987</v>
       </c>
       <c r="R7">
-        <v>18.398900000000001</v>
+        <v>19.858799999999999</v>
       </c>
       <c r="S7">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T7">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U7">
-        <v>21.237300000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V7">
-        <v>17.420200000000001</v>
+        <v>21.925599999999999</v>
       </c>
       <c r="W7">
-        <v>17.325500000000002</v>
+        <v>18.958300000000001</v>
       </c>
       <c r="X7">
-        <v>18.607600000000001</v>
+        <v>18.935600000000001</v>
       </c>
       <c r="Y7">
-        <v>18.257200000000001</v>
+        <v>19.956</v>
       </c>
       <c r="Z7">
-        <v>18.0931</v>
+        <v>19.779699999999998</v>
       </c>
       <c r="AA7">
-        <v>20.4069</v>
+        <v>19.6753</v>
       </c>
       <c r="AB7">
-        <v>20.106100000000001</v>
+        <v>21.407800000000002</v>
       </c>
       <c r="AC7">
-        <v>19.675699999999999</v>
+        <v>21.162199999999999</v>
       </c>
       <c r="AD7">
-        <v>19.459399999999999</v>
+        <v>20.866399999999999</v>
       </c>
       <c r="AE7">
-        <v>20.927</v>
+        <v>20.729299999999999</v>
       </c>
       <c r="AF7">
-        <v>17.729199999999999</v>
+        <v>21.711300000000001</v>
       </c>
       <c r="AG7">
-        <v>17.601299999999998</v>
+        <v>19.209700000000002</v>
       </c>
       <c r="AH7">
-        <v>17.611999999999998</v>
+        <v>19.151299999999999</v>
       </c>
       <c r="AI7">
-        <v>17.494199999999999</v>
+        <v>19.1661</v>
       </c>
       <c r="AJ7">
-        <v>17.468599999999999</v>
+        <v>19.194600000000001</v>
       </c>
       <c r="AK7">
-        <v>18.963699999999999</v>
+        <v>19.155200000000001</v>
       </c>
       <c r="AL7">
-        <v>18.745200000000001</v>
+        <v>20.339600000000001</v>
       </c>
       <c r="AM7">
-        <v>18.630299999999998</v>
+        <v>20.167999999999999</v>
       </c>
       <c r="AN7">
-        <v>18.523599999999998</v>
+        <v>20.080400000000001</v>
       </c>
       <c r="AO7">
-        <v>18.364999999999998</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="AP7">
-        <v>18.186299999999999</v>
+        <v>19.887699999999999</v>
       </c>
       <c r="AQ7">
-        <v>18.110900000000001</v>
+        <v>19.762599999999999</v>
       </c>
       <c r="AR7">
-        <v>18.047799999999999</v>
+        <v>19.801100000000002</v>
       </c>
       <c r="AS7">
-        <v>17.903600000000001</v>
+        <v>19.692499999999999</v>
       </c>
       <c r="AT7">
-        <v>20.6114</v>
+        <v>19.569400000000002</v>
       </c>
       <c r="AU7">
-        <v>20.4621</v>
+        <v>21.5335</v>
       </c>
       <c r="AV7">
-        <v>20.390999999999998</v>
+        <v>21.424299999999999</v>
       </c>
       <c r="AW7">
-        <v>20.235199999999999</v>
+        <v>21.355599999999999</v>
       </c>
       <c r="AX7">
-        <v>20.0534</v>
+        <v>21.226600000000001</v>
       </c>
       <c r="AY7">
-        <v>19.905799999999999</v>
+        <v>21.131900000000002</v>
       </c>
       <c r="AZ7">
-        <v>19.796500000000002</v>
+        <v>20.9697</v>
       </c>
       <c r="BA7">
-        <v>16.470600000000001</v>
+        <v>20.8947</v>
       </c>
       <c r="BB7">
-        <v>16.443000000000001</v>
+        <v>18.203499999999998</v>
       </c>
       <c r="BC7">
-        <v>16.435600000000001</v>
+        <v>18.225300000000001</v>
       </c>
       <c r="BD7">
-        <v>16.410799999999998</v>
+        <v>18.304500000000001</v>
       </c>
       <c r="BE7">
-        <v>16.374099999999999</v>
+        <v>18.2684</v>
       </c>
       <c r="BF7">
-        <v>16.3306</v>
+        <v>18.229900000000001</v>
       </c>
       <c r="BG7">
-        <v>18.0932</v>
+        <v>18.210699999999999</v>
       </c>
       <c r="BH7">
-        <v>18.029499999999999</v>
+        <v>19.614000000000001</v>
       </c>
       <c r="BI7">
-        <v>17.952100000000002</v>
+        <v>19.5487</v>
       </c>
       <c r="BJ7">
-        <v>17.965</v>
+        <v>19.490300000000001</v>
       </c>
       <c r="BK7">
-        <v>17.917200000000001</v>
+        <v>19.477799999999998</v>
       </c>
       <c r="BL7">
-        <v>17.865300000000001</v>
+        <v>19.443000000000001</v>
       </c>
       <c r="BM7">
-        <v>17.8232</v>
+        <v>19.412800000000001</v>
       </c>
       <c r="BN7">
-        <v>17.765599999999999</v>
+        <v>19.394200000000001</v>
       </c>
       <c r="BO7">
-        <v>17.690300000000001</v>
+        <v>19.3078</v>
       </c>
       <c r="BP7">
-        <v>17.693100000000001</v>
+        <v>19.229099999999999</v>
       </c>
       <c r="BQ7">
-        <v>17.632200000000001</v>
+        <v>19.225000000000001</v>
       </c>
       <c r="BR7">
-        <v>17.6022</v>
+        <v>19.194199999999999</v>
       </c>
       <c r="BS7">
-        <v>17.5916</v>
+        <v>19.1709</v>
       </c>
       <c r="BT7">
-        <v>17.555399999999999</v>
+        <v>19.164400000000001</v>
       </c>
       <c r="BU7">
-        <v>17.490500000000001</v>
+        <v>19.1325</v>
       </c>
       <c r="BV7">
-        <v>17.4451</v>
+        <v>19.0824</v>
       </c>
       <c r="BW7">
-        <v>17.421299999999999</v>
+        <v>19.074100000000001</v>
       </c>
       <c r="BX7">
-        <v>17.398399999999999</v>
+        <v>19.071000000000002</v>
       </c>
       <c r="BY7">
-        <v>17.369</v>
+        <v>19.133800000000001</v>
       </c>
       <c r="BZ7">
-        <v>17.371400000000001</v>
+        <v>19.119</v>
       </c>
       <c r="CA7">
-        <v>17.367899999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.126999999999999</v>
+      </c>
+      <c r="CB7">
+        <v>19.094200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>19.282091025641023</v>
-      </c>
-      <c r="B8">
-        <v>32.878599999999999</v>
+        <v>20.580829487179493</v>
       </c>
       <c r="C8">
-        <v>25.6767</v>
+        <v>33.244700000000002</v>
       </c>
       <c r="D8">
-        <v>25.699100000000001</v>
+        <v>26.3155</v>
       </c>
       <c r="E8">
-        <v>23.165199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F8">
-        <v>23.991800000000001</v>
+        <v>24.278199999999998</v>
       </c>
       <c r="G8">
-        <v>22.313099999999999</v>
+        <v>24.550599999999999</v>
       </c>
       <c r="H8">
-        <v>20.624199999999998</v>
+        <v>23.029499999999999</v>
       </c>
       <c r="I8">
-        <v>23.241499999999998</v>
+        <v>21.9389</v>
       </c>
       <c r="J8">
-        <v>21.596299999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K8">
-        <v>22.226299999999998</v>
+        <v>22.2302</v>
       </c>
       <c r="L8">
-        <v>20.026499999999999</v>
+        <v>22.571899999999999</v>
       </c>
       <c r="M8">
-        <v>17.617000000000001</v>
+        <v>21.2057</v>
       </c>
       <c r="N8">
-        <v>19.439499999999999</v>
+        <v>19.225999999999999</v>
       </c>
       <c r="O8">
-        <v>20.084199999999999</v>
+        <v>20.645600000000002</v>
       </c>
       <c r="P8">
-        <v>18.733799999999999</v>
+        <v>21.2392</v>
       </c>
       <c r="Q8">
-        <v>20.322099999999999</v>
+        <v>20.0823</v>
       </c>
       <c r="R8">
-        <v>19.781400000000001</v>
+        <v>21.342400000000001</v>
       </c>
       <c r="S8">
-        <v>21.454699999999999</v>
+        <v>21.064800000000002</v>
       </c>
       <c r="T8">
-        <v>18.0151</v>
+        <v>21.997599999999998</v>
       </c>
       <c r="U8">
-        <v>19.258500000000002</v>
+        <v>19.5535</v>
       </c>
       <c r="V8">
-        <v>19.024100000000001</v>
+        <v>20.498799999999999</v>
       </c>
       <c r="W8">
-        <v>18.689800000000002</v>
+        <v>20.365600000000001</v>
       </c>
       <c r="X8">
-        <v>20.934999999999999</v>
+        <v>20.154199999999999</v>
       </c>
       <c r="Y8">
-        <v>17.632899999999999</v>
+        <v>21.690799999999999</v>
       </c>
       <c r="Z8">
-        <v>17.523099999999999</v>
+        <v>19.230499999999999</v>
       </c>
       <c r="AA8">
-        <v>19.265899999999998</v>
+        <v>19.1708</v>
       </c>
       <c r="AB8">
-        <v>19.075700000000001</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AC8">
-        <v>18.754200000000001</v>
+        <v>20.342300000000002</v>
       </c>
       <c r="AD8">
-        <v>18.5991</v>
+        <v>20.1432</v>
       </c>
       <c r="AE8">
-        <v>20.636600000000001</v>
+        <v>20.077300000000001</v>
       </c>
       <c r="AF8">
-        <v>20.366800000000001</v>
+        <v>21.523399999999999</v>
       </c>
       <c r="AG8">
-        <v>20.0349</v>
+        <v>21.300599999999999</v>
       </c>
       <c r="AH8">
-        <v>19.905200000000001</v>
+        <v>21.077999999999999</v>
       </c>
       <c r="AI8">
-        <v>19.605899999999998</v>
+        <v>20.965399999999999</v>
       </c>
       <c r="AJ8">
-        <v>16.929099999999998</v>
+        <v>20.8279</v>
       </c>
       <c r="AK8">
-        <v>17.959599999999998</v>
+        <v>18.647500000000001</v>
       </c>
       <c r="AL8">
-        <v>17.8247</v>
+        <v>19.4253</v>
       </c>
       <c r="AM8">
-        <v>17.739599999999999</v>
+        <v>19.313600000000001</v>
       </c>
       <c r="AN8">
-        <v>17.6738</v>
+        <v>19.247699999999998</v>
       </c>
       <c r="AO8">
-        <v>17.567599999999999</v>
+        <v>19.218699999999998</v>
       </c>
       <c r="AP8">
-        <v>17.427099999999999</v>
+        <v>19.1525</v>
       </c>
       <c r="AQ8">
-        <v>17.385300000000001</v>
+        <v>19.074300000000001</v>
       </c>
       <c r="AR8">
-        <v>17.345300000000002</v>
+        <v>19.1431</v>
       </c>
       <c r="AS8">
-        <v>17.236999999999998</v>
+        <v>19.055399999999999</v>
       </c>
       <c r="AT8">
-        <v>19.7578</v>
+        <v>18.968299999999999</v>
       </c>
       <c r="AU8">
-        <v>19.6676</v>
+        <v>20.9068</v>
       </c>
       <c r="AV8">
-        <v>19.630099999999999</v>
+        <v>20.8264</v>
       </c>
       <c r="AW8">
-        <v>19.509</v>
+        <v>20.773700000000002</v>
       </c>
       <c r="AX8">
-        <v>19.378799999999998</v>
+        <v>20.6722</v>
       </c>
       <c r="AY8">
-        <v>19.222200000000001</v>
+        <v>20.6158</v>
       </c>
       <c r="AZ8">
-        <v>19.104299999999999</v>
+        <v>20.473600000000001</v>
       </c>
       <c r="BA8">
-        <v>19.065799999999999</v>
+        <v>20.396999999999998</v>
       </c>
       <c r="BB8">
-        <v>18.970400000000001</v>
+        <v>20.3507</v>
       </c>
       <c r="BC8">
-        <v>18.918299999999999</v>
+        <v>20.302800000000001</v>
       </c>
       <c r="BD8">
-        <v>18.811</v>
+        <v>20.325900000000001</v>
       </c>
       <c r="BE8">
-        <v>18.711300000000001</v>
+        <v>20.230699999999999</v>
       </c>
       <c r="BF8">
-        <v>18.5823</v>
+        <v>20.132899999999999</v>
       </c>
       <c r="BG8">
-        <v>20.592500000000001</v>
+        <v>20.034500000000001</v>
       </c>
       <c r="BH8">
-        <v>18.0059</v>
+        <v>21.4437</v>
       </c>
       <c r="BI8">
-        <v>17.930099999999999</v>
+        <v>19.529499999999999</v>
       </c>
       <c r="BJ8">
-        <v>17.945</v>
+        <v>19.472100000000001</v>
       </c>
       <c r="BK8">
-        <v>17.8993</v>
+        <v>19.458100000000002</v>
       </c>
       <c r="BL8">
-        <v>17.849299999999999</v>
+        <v>19.424600000000002</v>
       </c>
       <c r="BM8">
-        <v>17.808900000000001</v>
+        <v>19.392800000000001</v>
       </c>
       <c r="BN8">
-        <v>17.753499999999999</v>
+        <v>19.374300000000002</v>
       </c>
       <c r="BO8">
-        <v>17.680700000000002</v>
+        <v>19.285399999999999</v>
       </c>
       <c r="BP8">
-        <v>17.685199999999998</v>
+        <v>19.2088</v>
       </c>
       <c r="BQ8">
-        <v>17.625399999999999</v>
+        <v>19.203399999999998</v>
       </c>
       <c r="BR8">
-        <v>17.597100000000001</v>
+        <v>19.172599999999999</v>
       </c>
       <c r="BS8">
-        <v>17.587599999999998</v>
+        <v>19.148900000000001</v>
       </c>
       <c r="BT8">
-        <v>17.552600000000002</v>
+        <v>19.1432</v>
       </c>
       <c r="BU8">
-        <v>17.488499999999998</v>
+        <v>19.110299999999999</v>
       </c>
       <c r="BV8">
-        <v>17.445399999999999</v>
+        <v>19.061499999999999</v>
       </c>
       <c r="BW8">
-        <v>17.4221</v>
+        <v>19.052700000000002</v>
       </c>
       <c r="BX8">
-        <v>17.401399999999999</v>
+        <v>19.0501</v>
       </c>
       <c r="BY8">
-        <v>17.372699999999998</v>
+        <v>19.105599999999999</v>
       </c>
       <c r="BZ8">
-        <v>17.375800000000002</v>
+        <v>19.091899999999999</v>
       </c>
       <c r="CA8">
-        <v>17.371300000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.100899999999999</v>
+      </c>
+      <c r="CB8">
+        <v>19.070399999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>19.408920512820515</v>
-      </c>
-      <c r="B9">
-        <v>31.212</v>
+        <v>20.695884615384621</v>
       </c>
       <c r="C9">
-        <v>28.906300000000002</v>
+        <v>31.296099999999999</v>
       </c>
       <c r="D9">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E9">
-        <v>24.585999999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F9">
-        <v>21.454699999999999</v>
+        <v>25.116599999999998</v>
       </c>
       <c r="G9">
-        <v>24.3142</v>
+        <v>22.690799999999999</v>
       </c>
       <c r="H9">
-        <v>20.614699999999999</v>
+        <v>24.3901</v>
       </c>
       <c r="I9">
-        <v>23.241499999999998</v>
+        <v>21.942299999999999</v>
       </c>
       <c r="J9">
-        <v>22.3947</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K9">
-        <v>19.688400000000001</v>
+        <v>22.8428</v>
       </c>
       <c r="L9">
-        <v>20.767900000000001</v>
+        <v>20.853300000000001</v>
       </c>
       <c r="M9">
-        <v>18.873200000000001</v>
+        <v>21.711200000000002</v>
       </c>
       <c r="N9">
-        <v>20.387899999999998</v>
+        <v>20.302800000000001</v>
       </c>
       <c r="O9">
-        <v>18.793700000000001</v>
+        <v>21.334599999999998</v>
       </c>
       <c r="P9">
-        <v>20.234400000000001</v>
+        <v>20.108599999999999</v>
       </c>
       <c r="Q9">
-        <v>21.791499999999999</v>
+        <v>21.319500000000001</v>
       </c>
       <c r="R9">
-        <v>18.398900000000001</v>
+        <v>22.393899999999999</v>
       </c>
       <c r="S9">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T9">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U9">
-        <v>21.237300000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V9">
-        <v>18.095300000000002</v>
+        <v>21.925599999999999</v>
       </c>
       <c r="W9">
-        <v>17.913</v>
+        <v>19.543700000000001</v>
       </c>
       <c r="X9">
-        <v>19.188700000000001</v>
+        <v>19.456499999999998</v>
       </c>
       <c r="Y9">
-        <v>18.767099999999999</v>
+        <v>20.479700000000001</v>
       </c>
       <c r="Z9">
-        <v>18.538</v>
+        <v>20.227499999999999</v>
       </c>
       <c r="AA9">
-        <v>21.097300000000001</v>
+        <v>20.070799999999998</v>
       </c>
       <c r="AB9">
-        <v>17.857199999999999</v>
+        <v>21.848099999999999</v>
       </c>
       <c r="AC9">
-        <v>17.661899999999999</v>
+        <v>19.3461</v>
       </c>
       <c r="AD9">
-        <v>17.5976</v>
+        <v>19.238</v>
       </c>
       <c r="AE9">
-        <v>19.1511</v>
+        <v>19.227799999999998</v>
       </c>
       <c r="AF9">
-        <v>18.995200000000001</v>
+        <v>20.4175</v>
       </c>
       <c r="AG9">
-        <v>18.7927</v>
+        <v>20.2836</v>
       </c>
       <c r="AH9">
-        <v>18.746600000000001</v>
+        <v>20.165800000000001</v>
       </c>
       <c r="AI9">
-        <v>18.5611</v>
+        <v>20.1235</v>
       </c>
       <c r="AJ9">
-        <v>18.481000000000002</v>
+        <v>20.1297</v>
       </c>
       <c r="AK9">
-        <v>20.764399999999998</v>
+        <v>20.020600000000002</v>
       </c>
       <c r="AL9">
-        <v>20.470400000000001</v>
+        <v>21.6891</v>
       </c>
       <c r="AM9">
-        <v>20.268799999999999</v>
+        <v>21.462499999999999</v>
       </c>
       <c r="AN9">
-        <v>17.459900000000001</v>
+        <v>21.3066</v>
       </c>
       <c r="AO9">
-        <v>17.365100000000002</v>
+        <v>19.0427</v>
       </c>
       <c r="AP9">
-        <v>17.233899999999998</v>
+        <v>18.989699999999999</v>
       </c>
       <c r="AQ9">
-        <v>17.2057</v>
+        <v>18.926400000000001</v>
       </c>
       <c r="AR9">
-        <v>17.171800000000001</v>
+        <v>18.998200000000001</v>
       </c>
       <c r="AS9">
-        <v>17.073599999999999</v>
+        <v>18.921500000000002</v>
       </c>
       <c r="AT9">
-        <v>19.300599999999999</v>
+        <v>18.8459</v>
       </c>
       <c r="AU9">
-        <v>19.225999999999999</v>
+        <v>20.6021</v>
       </c>
       <c r="AV9">
-        <v>19.199400000000001</v>
+        <v>20.533999999999999</v>
       </c>
       <c r="AW9">
-        <v>19.079599999999999</v>
+        <v>20.490600000000001</v>
       </c>
       <c r="AX9">
-        <v>18.963200000000001</v>
+        <v>20.3889</v>
       </c>
       <c r="AY9">
-        <v>18.829499999999999</v>
+        <v>20.344999999999999</v>
       </c>
       <c r="AZ9">
-        <v>18.722999999999999</v>
+        <v>20.2193</v>
       </c>
       <c r="BA9">
-        <v>18.6982</v>
+        <v>20.1568</v>
       </c>
       <c r="BB9">
-        <v>18.617100000000001</v>
+        <v>20.124300000000002</v>
       </c>
       <c r="BC9">
-        <v>18.571200000000001</v>
+        <v>20.0915</v>
       </c>
       <c r="BD9">
-        <v>18.489699999999999</v>
+        <v>20.130400000000002</v>
       </c>
       <c r="BE9">
-        <v>18.395299999999999</v>
+        <v>20.0472</v>
       </c>
       <c r="BF9">
-        <v>18.275600000000001</v>
+        <v>19.9544</v>
       </c>
       <c r="BG9">
-        <v>20.356200000000001</v>
+        <v>19.863900000000001</v>
       </c>
       <c r="BH9">
-        <v>20.238900000000001</v>
+        <v>21.3584</v>
       </c>
       <c r="BI9">
-        <v>20.1221</v>
+        <v>21.2637</v>
       </c>
       <c r="BJ9">
-        <v>20.101800000000001</v>
+        <v>21.17</v>
       </c>
       <c r="BK9">
-        <v>20.0183</v>
+        <v>21.133700000000001</v>
       </c>
       <c r="BL9">
-        <v>19.9267</v>
+        <v>21.0609</v>
       </c>
       <c r="BM9">
-        <v>19.836500000000001</v>
+        <v>21.020800000000001</v>
       </c>
       <c r="BN9">
-        <v>17.541699999999999</v>
+        <v>20.958300000000001</v>
       </c>
       <c r="BO9">
-        <v>17.4846</v>
+        <v>19.099599999999999</v>
       </c>
       <c r="BP9">
-        <v>17.491499999999998</v>
+        <v>19.0444</v>
       </c>
       <c r="BQ9">
-        <v>17.4374</v>
+        <v>19.042300000000001</v>
       </c>
       <c r="BR9">
-        <v>17.412700000000001</v>
+        <v>19.0185</v>
       </c>
       <c r="BS9">
-        <v>17.406400000000001</v>
+        <v>19.0014</v>
       </c>
       <c r="BT9">
-        <v>17.374099999999999</v>
+        <v>18.998699999999999</v>
       </c>
       <c r="BU9">
-        <v>17.315200000000001</v>
+        <v>18.969100000000001</v>
       </c>
       <c r="BV9">
-        <v>17.275200000000002</v>
+        <v>18.924600000000002</v>
       </c>
       <c r="BW9">
-        <v>17.2562</v>
+        <v>18.919</v>
       </c>
       <c r="BX9">
-        <v>17.238</v>
+        <v>18.917300000000001</v>
       </c>
       <c r="BY9">
-        <v>17.2178</v>
+        <v>18.967099999999999</v>
       </c>
       <c r="BZ9">
-        <v>17.222999999999999</v>
+        <v>18.953099999999999</v>
       </c>
       <c r="CA9">
-        <v>17.218599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.965699999999998</v>
+      </c>
+      <c r="CB9">
+        <v>18.9436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>19.355810256410255</v>
-      </c>
-      <c r="B10">
-        <v>31.042400000000001</v>
+        <v>20.648717948717952</v>
       </c>
       <c r="C10">
-        <v>27.180900000000001</v>
+        <v>31.3767</v>
       </c>
       <c r="D10">
-        <v>25.699100000000001</v>
+        <v>27.761099999999999</v>
       </c>
       <c r="E10">
-        <v>22.424099999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F10">
-        <v>24.428100000000001</v>
+        <v>23.474</v>
       </c>
       <c r="G10">
-        <v>24.2165</v>
+        <v>24.784099999999999</v>
       </c>
       <c r="H10">
-        <v>19.831199999999999</v>
+        <v>24.607099999999999</v>
       </c>
       <c r="I10">
-        <v>23.241499999999998</v>
+        <v>21.2729</v>
       </c>
       <c r="J10">
-        <v>22.398900000000001</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K10">
-        <v>19.959499999999998</v>
+        <v>22.886199999999999</v>
       </c>
       <c r="L10">
-        <v>18.668399999999998</v>
+        <v>21.096399999999999</v>
       </c>
       <c r="M10">
-        <v>19.625399999999999</v>
+        <v>20.068200000000001</v>
       </c>
       <c r="N10">
-        <v>18.296199999999999</v>
+        <v>20.878399999999999</v>
       </c>
       <c r="O10">
-        <v>20.168700000000001</v>
+        <v>19.787299999999998</v>
       </c>
       <c r="P10">
-        <v>18.4649</v>
+        <v>21.173200000000001</v>
       </c>
       <c r="Q10">
-        <v>20.313099999999999</v>
+        <v>19.8659</v>
       </c>
       <c r="R10">
-        <v>19.817699999999999</v>
+        <v>21.340299999999999</v>
       </c>
       <c r="S10">
-        <v>21.104099999999999</v>
+        <v>21.100300000000001</v>
       </c>
       <c r="T10">
-        <v>18.313800000000001</v>
+        <v>21.849799999999998</v>
       </c>
       <c r="U10">
-        <v>19.5608</v>
+        <v>19.8033</v>
       </c>
       <c r="V10">
-        <v>19.2653</v>
+        <v>20.735399999999998</v>
       </c>
       <c r="W10">
-        <v>18.881799999999998</v>
+        <v>20.549900000000001</v>
       </c>
       <c r="X10">
-        <v>18.148099999999999</v>
+        <v>20.285</v>
       </c>
       <c r="Y10">
-        <v>17.8687</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="Z10">
-        <v>17.731200000000001</v>
+        <v>19.456299999999999</v>
       </c>
       <c r="AA10">
-        <v>19.884499999999999</v>
+        <v>19.369700000000002</v>
       </c>
       <c r="AB10">
-        <v>19.648</v>
+        <v>21.001100000000001</v>
       </c>
       <c r="AC10">
-        <v>19.258900000000001</v>
+        <v>20.797899999999998</v>
       </c>
       <c r="AD10">
-        <v>19.069199999999999</v>
+        <v>20.5319</v>
       </c>
       <c r="AE10">
-        <v>18.252099999999999</v>
+        <v>20.425799999999999</v>
       </c>
       <c r="AF10">
-        <v>18.155000000000001</v>
+        <v>19.637699999999999</v>
       </c>
       <c r="AG10">
-        <v>17.992799999999999</v>
+        <v>19.552</v>
       </c>
       <c r="AH10">
-        <v>17.977399999999999</v>
+        <v>19.4785</v>
       </c>
       <c r="AI10">
-        <v>17.829499999999999</v>
+        <v>19.471900000000002</v>
       </c>
       <c r="AJ10">
-        <v>17.784600000000001</v>
+        <v>19.524799999999999</v>
       </c>
       <c r="AK10">
-        <v>20.173100000000002</v>
+        <v>19.444500000000001</v>
       </c>
       <c r="AL10">
-        <v>19.916599999999999</v>
+        <v>21.281600000000001</v>
       </c>
       <c r="AM10">
-        <v>19.778500000000001</v>
+        <v>21.079799999999999</v>
       </c>
       <c r="AN10">
-        <v>19.628499999999999</v>
+        <v>20.966100000000001</v>
       </c>
       <c r="AO10">
-        <v>19.430800000000001</v>
+        <v>20.840499999999999</v>
       </c>
       <c r="AP10">
-        <v>19.228200000000001</v>
+        <v>20.681799999999999</v>
       </c>
       <c r="AQ10">
-        <v>19.134799999999998</v>
+        <v>20.5105</v>
       </c>
       <c r="AR10">
-        <v>16.7242</v>
+        <v>20.498699999999999</v>
       </c>
       <c r="AS10">
-        <v>16.6434</v>
+        <v>18.500499999999999</v>
       </c>
       <c r="AT10">
-        <v>18.1831</v>
+        <v>18.447500000000002</v>
       </c>
       <c r="AU10">
-        <v>18.126999999999999</v>
+        <v>19.6509</v>
       </c>
       <c r="AV10">
-        <v>18.1099</v>
+        <v>19.597899999999999</v>
       </c>
       <c r="AW10">
-        <v>18.021000000000001</v>
+        <v>19.570599999999999</v>
       </c>
       <c r="AX10">
-        <v>17.936299999999999</v>
+        <v>19.502300000000002</v>
       </c>
       <c r="AY10">
-        <v>17.8291</v>
+        <v>19.482399999999998</v>
       </c>
       <c r="AZ10">
-        <v>17.770600000000002</v>
+        <v>19.393899999999999</v>
       </c>
       <c r="BA10">
-        <v>17.764800000000001</v>
+        <v>19.37</v>
       </c>
       <c r="BB10">
-        <v>17.7087</v>
+        <v>19.356400000000001</v>
       </c>
       <c r="BC10">
-        <v>17.6753</v>
+        <v>19.345099999999999</v>
       </c>
       <c r="BD10">
-        <v>17.619800000000001</v>
+        <v>19.415700000000001</v>
       </c>
       <c r="BE10">
-        <v>17.552099999999999</v>
+        <v>19.343699999999998</v>
       </c>
       <c r="BF10">
-        <v>17.4678</v>
+        <v>19.270499999999998</v>
       </c>
       <c r="BG10">
-        <v>20.092199999999998</v>
+        <v>19.2089</v>
       </c>
       <c r="BH10">
-        <v>19.9892</v>
+        <v>21.161799999999999</v>
       </c>
       <c r="BI10">
-        <v>19.884699999999999</v>
+        <v>21.075900000000001</v>
       </c>
       <c r="BJ10">
-        <v>19.877400000000002</v>
+        <v>20.996500000000001</v>
       </c>
       <c r="BK10">
-        <v>19.788499999999999</v>
+        <v>20.961099999999998</v>
       </c>
       <c r="BL10">
-        <v>19.706800000000001</v>
+        <v>20.894600000000001</v>
       </c>
       <c r="BM10">
-        <v>19.6311</v>
+        <v>20.851900000000001</v>
       </c>
       <c r="BN10">
-        <v>19.524799999999999</v>
+        <v>20.809799999999999</v>
       </c>
       <c r="BO10">
-        <v>19.401199999999999</v>
+        <v>20.6816</v>
       </c>
       <c r="BP10">
-        <v>19.3917</v>
+        <v>20.553000000000001</v>
       </c>
       <c r="BQ10">
-        <v>19.316400000000002</v>
+        <v>20.539200000000001</v>
       </c>
       <c r="BR10">
-        <v>19.254799999999999</v>
+        <v>20.500599999999999</v>
       </c>
       <c r="BS10">
-        <v>19.210599999999999</v>
+        <v>20.4434</v>
       </c>
       <c r="BT10">
-        <v>19.144500000000001</v>
+        <v>20.4146</v>
       </c>
       <c r="BU10">
-        <v>17.2928</v>
+        <v>20.3642</v>
       </c>
       <c r="BV10">
-        <v>17.254799999999999</v>
+        <v>18.891100000000002</v>
       </c>
       <c r="BW10">
-        <v>17.2362</v>
+        <v>18.8855</v>
       </c>
       <c r="BX10">
-        <v>17.219799999999999</v>
+        <v>18.885999999999999</v>
       </c>
       <c r="BY10">
-        <v>17.200900000000001</v>
+        <v>18.925599999999999</v>
       </c>
       <c r="BZ10">
-        <v>17.206499999999998</v>
+        <v>18.913499999999999</v>
       </c>
       <c r="CA10">
-        <v>17.202300000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.928100000000001</v>
+      </c>
+      <c r="CB10">
+        <v>18.911200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>19.514329487179488</v>
-      </c>
-      <c r="B11">
-        <v>32.878599999999999</v>
+        <v>20.793706410256412</v>
       </c>
       <c r="C11">
-        <v>28.906300000000002</v>
+        <v>33.244700000000002</v>
       </c>
       <c r="D11">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E11">
-        <v>23.165199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F11">
-        <v>22.360399999999998</v>
+        <v>24.278199999999998</v>
       </c>
       <c r="G11">
-        <v>23.552199999999999</v>
+        <v>23.4758</v>
       </c>
       <c r="H11">
-        <v>19.8002</v>
+        <v>24.061900000000001</v>
       </c>
       <c r="I11">
-        <v>23.241499999999998</v>
+        <v>21.241099999999999</v>
       </c>
       <c r="J11">
-        <v>22.9359</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K11">
-        <v>21.066800000000001</v>
+        <v>23.287700000000001</v>
       </c>
       <c r="L11">
-        <v>19.094100000000001</v>
+        <v>21.9452</v>
       </c>
       <c r="M11">
-        <v>20.479600000000001</v>
+        <v>20.476500000000001</v>
       </c>
       <c r="N11">
-        <v>19.439499999999999</v>
+        <v>21.528700000000001</v>
       </c>
       <c r="O11">
-        <v>20.084199999999999</v>
+        <v>20.645600000000002</v>
       </c>
       <c r="P11">
-        <v>19.4619</v>
+        <v>21.2392</v>
       </c>
       <c r="Q11">
-        <v>21.563400000000001</v>
+        <v>20.698499999999999</v>
       </c>
       <c r="R11">
-        <v>18.398900000000001</v>
+        <v>22.247699999999998</v>
       </c>
       <c r="S11">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T11">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U11">
-        <v>18.522200000000002</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V11">
-        <v>18.364899999999999</v>
+        <v>19.8842</v>
       </c>
       <c r="W11">
-        <v>18.135200000000001</v>
+        <v>19.832699999999999</v>
       </c>
       <c r="X11">
-        <v>20.3108</v>
+        <v>19.6952</v>
       </c>
       <c r="Y11">
-        <v>19.7987</v>
+        <v>21.316199999999998</v>
       </c>
       <c r="Z11">
-        <v>17.523099999999999</v>
+        <v>20.978999999999999</v>
       </c>
       <c r="AA11">
-        <v>19.265899999999998</v>
+        <v>19.1708</v>
       </c>
       <c r="AB11">
-        <v>19.075700000000001</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AC11">
-        <v>18.754200000000001</v>
+        <v>20.342300000000002</v>
       </c>
       <c r="AD11">
-        <v>18.5991</v>
+        <v>20.1432</v>
       </c>
       <c r="AE11">
-        <v>20.636600000000001</v>
+        <v>20.077300000000001</v>
       </c>
       <c r="AF11">
-        <v>20.366800000000001</v>
+        <v>21.523399999999999</v>
       </c>
       <c r="AG11">
-        <v>20.0349</v>
+        <v>21.300599999999999</v>
       </c>
       <c r="AH11">
-        <v>17.611999999999998</v>
+        <v>21.077999999999999</v>
       </c>
       <c r="AI11">
-        <v>17.494199999999999</v>
+        <v>19.1661</v>
       </c>
       <c r="AJ11">
-        <v>17.468599999999999</v>
+        <v>19.194600000000001</v>
       </c>
       <c r="AK11">
-        <v>18.963699999999999</v>
+        <v>19.155200000000001</v>
       </c>
       <c r="AL11">
-        <v>18.745200000000001</v>
+        <v>20.339600000000001</v>
       </c>
       <c r="AM11">
-        <v>18.630299999999998</v>
+        <v>20.167999999999999</v>
       </c>
       <c r="AN11">
-        <v>18.523599999999998</v>
+        <v>20.080400000000001</v>
       </c>
       <c r="AO11">
-        <v>18.364999999999998</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="AP11">
-        <v>18.186299999999999</v>
+        <v>19.887699999999999</v>
       </c>
       <c r="AQ11">
-        <v>18.110900000000001</v>
+        <v>19.762599999999999</v>
       </c>
       <c r="AR11">
-        <v>18.047799999999999</v>
+        <v>19.801100000000002</v>
       </c>
       <c r="AS11">
-        <v>17.903600000000001</v>
+        <v>19.692499999999999</v>
       </c>
       <c r="AT11">
-        <v>20.6114</v>
+        <v>19.569400000000002</v>
       </c>
       <c r="AU11">
-        <v>20.4621</v>
+        <v>21.5335</v>
       </c>
       <c r="AV11">
-        <v>17.546299999999999</v>
+        <v>21.424299999999999</v>
       </c>
       <c r="AW11">
-        <v>17.466999999999999</v>
+        <v>19.071400000000001</v>
       </c>
       <c r="AX11">
-        <v>17.392399999999999</v>
+        <v>19.013300000000001</v>
       </c>
       <c r="AY11">
-        <v>17.2971</v>
+        <v>19.0002</v>
       </c>
       <c r="AZ11">
-        <v>17.257300000000001</v>
+        <v>18.936399999999999</v>
       </c>
       <c r="BA11">
-        <v>17.2592</v>
+        <v>18.931899999999999</v>
       </c>
       <c r="BB11">
-        <v>17.213100000000001</v>
+        <v>18.923500000000001</v>
       </c>
       <c r="BC11">
-        <v>17.186800000000002</v>
+        <v>18.9269</v>
       </c>
       <c r="BD11">
-        <v>17.141100000000002</v>
+        <v>19.0166</v>
       </c>
       <c r="BE11">
-        <v>17.085799999999999</v>
+        <v>18.952000000000002</v>
       </c>
       <c r="BF11">
-        <v>17.016999999999999</v>
+        <v>18.886399999999998</v>
       </c>
       <c r="BG11">
-        <v>19.863199999999999</v>
+        <v>18.839600000000001</v>
       </c>
       <c r="BH11">
-        <v>19.741499999999998</v>
+        <v>21.003799999999998</v>
       </c>
       <c r="BI11">
-        <v>19.643999999999998</v>
+        <v>20.9024</v>
       </c>
       <c r="BJ11">
-        <v>19.645</v>
+        <v>20.829899999999999</v>
       </c>
       <c r="BK11">
-        <v>19.5566</v>
+        <v>20.795200000000001</v>
       </c>
       <c r="BL11">
-        <v>19.484000000000002</v>
+        <v>20.7348</v>
       </c>
       <c r="BM11">
-        <v>19.4147</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="BN11">
-        <v>19.337900000000001</v>
+        <v>20.656500000000001</v>
       </c>
       <c r="BO11">
-        <v>19.2333</v>
+        <v>20.538399999999999</v>
       </c>
       <c r="BP11">
-        <v>19.229299999999999</v>
+        <v>20.4269</v>
       </c>
       <c r="BQ11">
-        <v>19.150400000000001</v>
+        <v>20.409700000000001</v>
       </c>
       <c r="BR11">
-        <v>19.096499999999999</v>
+        <v>20.37</v>
       </c>
       <c r="BS11">
-        <v>19.058299999999999</v>
+        <v>20.3125</v>
       </c>
       <c r="BT11">
-        <v>18.997699999999998</v>
+        <v>20.286999999999999</v>
       </c>
       <c r="BU11">
-        <v>18.8901</v>
+        <v>20.233699999999999</v>
       </c>
       <c r="BV11">
-        <v>18.8246</v>
+        <v>20.155200000000001</v>
       </c>
       <c r="BW11">
-        <v>18.777000000000001</v>
+        <v>20.125599999999999</v>
       </c>
       <c r="BX11">
-        <v>18.7211</v>
+        <v>20.109100000000002</v>
       </c>
       <c r="BY11">
-        <v>18.669599999999999</v>
+        <v>20.092300000000002</v>
       </c>
       <c r="BZ11">
-        <v>18.662099999999999</v>
+        <v>20.058900000000001</v>
       </c>
       <c r="CA11">
-        <v>18.636399999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.055900000000001</v>
+      </c>
+      <c r="CB11">
+        <v>20.0166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>19.45446282051282</v>
-      </c>
-      <c r="B12">
-        <v>31.212</v>
+        <v>20.742897435897437</v>
       </c>
       <c r="C12">
-        <v>27.363299999999999</v>
+        <v>31.296099999999999</v>
       </c>
       <c r="D12">
-        <v>25.699100000000001</v>
+        <v>27.9681</v>
       </c>
       <c r="E12">
-        <v>24.6432</v>
+        <v>26.1221</v>
       </c>
       <c r="F12">
-        <v>24.3459</v>
+        <v>25.195900000000002</v>
       </c>
       <c r="G12">
-        <v>22.38</v>
+        <v>24.7333</v>
       </c>
       <c r="H12">
-        <v>19.703499999999998</v>
+        <v>23.156300000000002</v>
       </c>
       <c r="I12">
-        <v>23.241499999999998</v>
+        <v>21.139500000000002</v>
       </c>
       <c r="J12">
-        <v>22.939699999999998</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K12">
-        <v>21.527200000000001</v>
+        <v>23.279900000000001</v>
       </c>
       <c r="L12">
-        <v>20.032299999999999</v>
+        <v>22.2926</v>
       </c>
       <c r="M12">
-        <v>18.855599999999999</v>
+        <v>21.1755</v>
       </c>
       <c r="N12">
-        <v>20.086300000000001</v>
+        <v>20.270800000000001</v>
       </c>
       <c r="O12">
-        <v>19.221299999999999</v>
+        <v>21.178999999999998</v>
       </c>
       <c r="P12">
-        <v>20.472899999999999</v>
+        <v>20.486999999999998</v>
       </c>
       <c r="Q12">
-        <v>20.0334</v>
+        <v>21.550799999999999</v>
       </c>
       <c r="R12">
-        <v>19.5822</v>
+        <v>21.108699999999999</v>
       </c>
       <c r="S12">
-        <v>21.1525</v>
+        <v>20.914899999999999</v>
       </c>
       <c r="T12">
-        <v>18.328399999999998</v>
+        <v>21.877300000000002</v>
       </c>
       <c r="U12">
-        <v>19.903600000000001</v>
+        <v>19.8477</v>
       </c>
       <c r="V12">
-        <v>19.573799999999999</v>
+        <v>21.042400000000001</v>
       </c>
       <c r="W12">
-        <v>17.383700000000001</v>
+        <v>20.806999999999999</v>
       </c>
       <c r="X12">
-        <v>19.1647</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="Y12">
-        <v>18.7727</v>
+        <v>20.459800000000001</v>
       </c>
       <c r="Z12">
-        <v>18.565000000000001</v>
+        <v>20.2302</v>
       </c>
       <c r="AA12">
-        <v>20.5214</v>
+        <v>20.075500000000002</v>
       </c>
       <c r="AB12">
-        <v>17.884799999999998</v>
+        <v>21.463000000000001</v>
       </c>
       <c r="AC12">
-        <v>17.680800000000001</v>
+        <v>19.3718</v>
       </c>
       <c r="AD12">
-        <v>17.610900000000001</v>
+        <v>19.254200000000001</v>
       </c>
       <c r="AE12">
-        <v>19.378299999999999</v>
+        <v>19.241800000000001</v>
       </c>
       <c r="AF12">
-        <v>19.212599999999998</v>
+        <v>20.591799999999999</v>
       </c>
       <c r="AG12">
-        <v>19.0059</v>
+        <v>20.444600000000001</v>
       </c>
       <c r="AH12">
-        <v>18.951599999999999</v>
+        <v>20.316299999999998</v>
       </c>
       <c r="AI12">
-        <v>18.758099999999999</v>
+        <v>20.267700000000001</v>
       </c>
       <c r="AJ12">
-        <v>18.6737</v>
+        <v>20.255199999999999</v>
       </c>
       <c r="AK12">
-        <v>18.266999999999999</v>
+        <v>20.148</v>
       </c>
       <c r="AL12">
-        <v>18.115300000000001</v>
+        <v>19.7133</v>
       </c>
       <c r="AM12">
-        <v>18.018799999999999</v>
+        <v>19.597899999999999</v>
       </c>
       <c r="AN12">
-        <v>17.9392</v>
+        <v>19.5273</v>
       </c>
       <c r="AO12">
-        <v>17.813800000000001</v>
+        <v>19.488399999999999</v>
       </c>
       <c r="AP12">
-        <v>17.655999999999999</v>
+        <v>19.405200000000001</v>
       </c>
       <c r="AQ12">
-        <v>17.6006</v>
+        <v>19.311699999999998</v>
       </c>
       <c r="AR12">
-        <v>17.550999999999998</v>
+        <v>19.388000000000002</v>
       </c>
       <c r="AS12">
-        <v>17.4283</v>
+        <v>19.2849</v>
       </c>
       <c r="AT12">
-        <v>20.458400000000001</v>
+        <v>19.180700000000002</v>
       </c>
       <c r="AU12">
-        <v>20.3218</v>
+        <v>21.422799999999999</v>
       </c>
       <c r="AV12">
-        <v>20.267800000000001</v>
+        <v>21.320799999999998</v>
       </c>
       <c r="AW12">
-        <v>20.134799999999998</v>
+        <v>21.258099999999999</v>
       </c>
       <c r="AX12">
-        <v>19.9603</v>
+        <v>21.143899999999999</v>
       </c>
       <c r="AY12">
-        <v>19.795400000000001</v>
+        <v>21.055499999999999</v>
       </c>
       <c r="AZ12">
-        <v>16.954999999999998</v>
+        <v>20.887699999999999</v>
       </c>
       <c r="BA12">
-        <v>16.959900000000001</v>
+        <v>18.697700000000001</v>
       </c>
       <c r="BB12">
-        <v>16.918099999999999</v>
+        <v>18.6922</v>
       </c>
       <c r="BC12">
-        <v>16.898399999999999</v>
+        <v>18.703199999999999</v>
       </c>
       <c r="BD12">
-        <v>16.863</v>
+        <v>18.797699999999999</v>
       </c>
       <c r="BE12">
-        <v>16.814699999999998</v>
+        <v>18.738399999999999</v>
       </c>
       <c r="BF12">
-        <v>16.755700000000001</v>
+        <v>18.677800000000001</v>
       </c>
       <c r="BG12">
-        <v>19.473500000000001</v>
+        <v>18.6418</v>
       </c>
       <c r="BH12">
-        <v>19.3752</v>
+        <v>20.773800000000001</v>
       </c>
       <c r="BI12">
-        <v>19.282800000000002</v>
+        <v>20.684100000000001</v>
       </c>
       <c r="BJ12">
-        <v>19.287500000000001</v>
+        <v>20.614000000000001</v>
       </c>
       <c r="BK12">
-        <v>19.2072</v>
+        <v>20.580100000000002</v>
       </c>
       <c r="BL12">
-        <v>19.1401</v>
+        <v>20.520700000000001</v>
       </c>
       <c r="BM12">
-        <v>19.0763</v>
+        <v>20.477599999999999</v>
       </c>
       <c r="BN12">
-        <v>19.0093</v>
+        <v>20.4466</v>
       </c>
       <c r="BO12">
-        <v>18.908799999999999</v>
+        <v>20.334099999999999</v>
       </c>
       <c r="BP12">
-        <v>18.907</v>
+        <v>20.227399999999999</v>
       </c>
       <c r="BQ12">
-        <v>18.831299999999999</v>
+        <v>20.2103</v>
       </c>
       <c r="BR12">
-        <v>18.782499999999999</v>
+        <v>20.171800000000001</v>
       </c>
       <c r="BS12">
-        <v>18.748100000000001</v>
+        <v>20.119299999999999</v>
       </c>
       <c r="BT12">
-        <v>18.697399999999998</v>
+        <v>20.099399999999999</v>
       </c>
       <c r="BU12">
-        <v>18.614999999999998</v>
+        <v>20.0505</v>
       </c>
       <c r="BV12">
-        <v>18.552399999999999</v>
+        <v>19.982299999999999</v>
       </c>
       <c r="BW12">
-        <v>18.514199999999999</v>
+        <v>19.952500000000001</v>
       </c>
       <c r="BX12">
-        <v>18.465699999999998</v>
+        <v>19.942</v>
       </c>
       <c r="BY12">
-        <v>18.417200000000001</v>
+        <v>19.932700000000001</v>
       </c>
       <c r="BZ12">
-        <v>18.412700000000001</v>
+        <v>19.9009</v>
       </c>
       <c r="CA12">
-        <v>18.3887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.901599999999998</v>
+      </c>
+      <c r="CB12">
+        <v>19.864699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>19.469625641025655</v>
-      </c>
-      <c r="B13">
-        <v>31.4282</v>
+        <v>20.769576923076919</v>
       </c>
       <c r="C13">
-        <v>28.906300000000002</v>
+        <v>31.895900000000001</v>
       </c>
       <c r="D13">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E13">
-        <v>22.424099999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F13">
-        <v>23.5702</v>
+        <v>23.474</v>
       </c>
       <c r="G13">
-        <v>24.539899999999999</v>
+        <v>24.262</v>
       </c>
       <c r="H13">
-        <v>21.593800000000002</v>
+        <v>24.668099999999999</v>
       </c>
       <c r="I13">
-        <v>23.241499999999998</v>
+        <v>22.653400000000001</v>
       </c>
       <c r="J13">
-        <v>23.104399999999998</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K13">
-        <v>21.8688</v>
+        <v>23.389500000000002</v>
       </c>
       <c r="L13">
-        <v>20.057200000000002</v>
+        <v>22.4621</v>
       </c>
       <c r="M13">
-        <v>19.314299999999999</v>
+        <v>21.221800000000002</v>
       </c>
       <c r="N13">
-        <v>18.317499999999999</v>
+        <v>20.6569</v>
       </c>
       <c r="O13">
-        <v>20.159300000000002</v>
+        <v>19.8154</v>
       </c>
       <c r="P13">
-        <v>19.101700000000001</v>
+        <v>21.173200000000001</v>
       </c>
       <c r="Q13">
-        <v>21.255600000000001</v>
+        <v>20.3841</v>
       </c>
       <c r="R13">
-        <v>18.398900000000001</v>
+        <v>22.056100000000001</v>
       </c>
       <c r="S13">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T13">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U13">
-        <v>18.940000000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V13">
-        <v>18.740400000000001</v>
+        <v>20.221699999999998</v>
       </c>
       <c r="W13">
-        <v>18.4541</v>
+        <v>20.134</v>
       </c>
       <c r="X13">
-        <v>20.809899999999999</v>
+        <v>19.961099999999998</v>
       </c>
       <c r="Y13">
-        <v>17.8687</v>
+        <v>21.646699999999999</v>
       </c>
       <c r="Z13">
-        <v>17.731200000000001</v>
+        <v>19.456299999999999</v>
       </c>
       <c r="AA13">
-        <v>19.884499999999999</v>
+        <v>19.369700000000002</v>
       </c>
       <c r="AB13">
-        <v>19.648</v>
+        <v>21.001100000000001</v>
       </c>
       <c r="AC13">
-        <v>19.258900000000001</v>
+        <v>20.797899999999998</v>
       </c>
       <c r="AD13">
-        <v>19.069199999999999</v>
+        <v>20.5319</v>
       </c>
       <c r="AE13">
-        <v>18.7883</v>
+        <v>20.425799999999999</v>
       </c>
       <c r="AF13">
-        <v>18.661200000000001</v>
+        <v>20.076499999999999</v>
       </c>
       <c r="AG13">
-        <v>18.484999999999999</v>
+        <v>19.9588</v>
       </c>
       <c r="AH13">
-        <v>18.4589</v>
+        <v>19.8657</v>
       </c>
       <c r="AI13">
-        <v>18.298300000000001</v>
+        <v>19.840800000000002</v>
       </c>
       <c r="AJ13">
-        <v>18.234500000000001</v>
+        <v>19.8597</v>
       </c>
       <c r="AK13">
-        <v>20.1309</v>
+        <v>19.773499999999999</v>
       </c>
       <c r="AL13">
-        <v>19.8612</v>
+        <v>21.235700000000001</v>
       </c>
       <c r="AM13">
-        <v>19.716200000000001</v>
+        <v>21.032299999999999</v>
       </c>
       <c r="AN13">
-        <v>17.480699999999999</v>
+        <v>20.915299999999998</v>
       </c>
       <c r="AO13">
-        <v>17.380500000000001</v>
+        <v>19.0733</v>
       </c>
       <c r="AP13">
-        <v>17.244</v>
+        <v>19.014099999999999</v>
       </c>
       <c r="AQ13">
-        <v>17.210899999999999</v>
+        <v>18.946100000000001</v>
       </c>
       <c r="AR13">
-        <v>17.1753</v>
+        <v>19.030200000000001</v>
       </c>
       <c r="AS13">
-        <v>17.0748</v>
+        <v>18.941700000000001</v>
       </c>
       <c r="AT13">
-        <v>19.7591</v>
+        <v>18.858899999999998</v>
       </c>
       <c r="AU13">
-        <v>19.672699999999999</v>
+        <v>20.9254</v>
       </c>
       <c r="AV13">
-        <v>19.642099999999999</v>
+        <v>20.8461</v>
       </c>
       <c r="AW13">
-        <v>19.525600000000001</v>
+        <v>20.794</v>
       </c>
       <c r="AX13">
-        <v>19.398900000000001</v>
+        <v>20.695599999999999</v>
       </c>
       <c r="AY13">
-        <v>19.246200000000002</v>
+        <v>20.640899999999998</v>
       </c>
       <c r="AZ13">
-        <v>19.1311</v>
+        <v>20.5017</v>
       </c>
       <c r="BA13">
-        <v>19.0946</v>
+        <v>20.429200000000002</v>
       </c>
       <c r="BB13">
-        <v>19.0016</v>
+        <v>20.385300000000001</v>
       </c>
       <c r="BC13">
-        <v>18.953399999999998</v>
+        <v>20.3413</v>
       </c>
       <c r="BD13">
-        <v>16.849599999999999</v>
+        <v>20.360399999999998</v>
       </c>
       <c r="BE13">
-        <v>16.8018</v>
+        <v>18.7119</v>
       </c>
       <c r="BF13">
-        <v>16.744800000000001</v>
+        <v>18.655100000000001</v>
       </c>
       <c r="BG13">
-        <v>19.0562</v>
+        <v>18.622199999999999</v>
       </c>
       <c r="BH13">
-        <v>18.968</v>
+        <v>20.459199999999999</v>
       </c>
       <c r="BI13">
-        <v>18.877300000000002</v>
+        <v>20.376999999999999</v>
       </c>
       <c r="BJ13">
-        <v>18.8828</v>
+        <v>20.3093</v>
       </c>
       <c r="BK13">
-        <v>18.814499999999999</v>
+        <v>20.2819</v>
       </c>
       <c r="BL13">
-        <v>18.7454</v>
+        <v>20.233899999999998</v>
       </c>
       <c r="BM13">
-        <v>18.690000000000001</v>
+        <v>20.192</v>
       </c>
       <c r="BN13">
-        <v>18.624500000000001</v>
+        <v>20.165099999999999</v>
       </c>
       <c r="BO13">
-        <v>18.535599999999999</v>
+        <v>20.061</v>
       </c>
       <c r="BP13">
-        <v>18.534099999999999</v>
+        <v>19.965399999999999</v>
       </c>
       <c r="BQ13">
-        <v>18.4589</v>
+        <v>19.9528</v>
       </c>
       <c r="BR13">
-        <v>18.411799999999999</v>
+        <v>19.915099999999999</v>
       </c>
       <c r="BS13">
-        <v>18.3749</v>
+        <v>19.8703</v>
       </c>
       <c r="BT13">
-        <v>18.330500000000001</v>
+        <v>19.851600000000001</v>
       </c>
       <c r="BU13">
-        <v>18.257899999999999</v>
+        <v>19.8093</v>
       </c>
       <c r="BV13">
-        <v>18.194700000000001</v>
+        <v>19.7469</v>
       </c>
       <c r="BW13">
-        <v>18.162600000000001</v>
+        <v>19.720199999999998</v>
       </c>
       <c r="BX13">
-        <v>18.115300000000001</v>
+        <v>19.7118</v>
       </c>
       <c r="BY13">
-        <v>18.076699999999999</v>
+        <v>19.728100000000001</v>
       </c>
       <c r="BZ13">
-        <v>18.073599999999999</v>
+        <v>19.702100000000002</v>
       </c>
       <c r="CA13">
-        <v>18.056899999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.704499999999999</v>
+      </c>
+      <c r="CB13">
+        <v>19.668399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>19.384665384615385</v>
-      </c>
-      <c r="B14">
-        <v>32.878599999999999</v>
+        <v>20.712617948717956</v>
       </c>
       <c r="C14">
-        <v>27.616700000000002</v>
+        <v>33.244700000000002</v>
       </c>
       <c r="D14">
-        <v>25.699100000000001</v>
+        <v>28.303999999999998</v>
       </c>
       <c r="E14">
-        <v>23.165199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F14">
-        <v>21.454699999999999</v>
+        <v>24.278199999999998</v>
       </c>
       <c r="G14">
-        <v>24.2165</v>
+        <v>22.690799999999999</v>
       </c>
       <c r="H14">
-        <v>21.6251</v>
+        <v>24.607099999999999</v>
       </c>
       <c r="I14">
-        <v>23.241499999999998</v>
+        <v>22.635200000000001</v>
       </c>
       <c r="J14">
-        <v>23.253399999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K14">
-        <v>21.796299999999999</v>
+        <v>23.512899999999998</v>
       </c>
       <c r="L14">
-        <v>20.767900000000001</v>
+        <v>22.403700000000001</v>
       </c>
       <c r="M14">
-        <v>20.149699999999999</v>
+        <v>21.711200000000002</v>
       </c>
       <c r="N14">
-        <v>19.439499999999999</v>
+        <v>21.264800000000001</v>
       </c>
       <c r="O14">
-        <v>18.793700000000001</v>
+        <v>20.645600000000002</v>
       </c>
       <c r="P14">
-        <v>20.234400000000001</v>
+        <v>20.108599999999999</v>
       </c>
       <c r="Q14">
-        <v>19.629899999999999</v>
+        <v>21.319500000000001</v>
       </c>
       <c r="R14">
-        <v>19.25</v>
+        <v>20.741199999999999</v>
       </c>
       <c r="S14">
-        <v>20.744299999999999</v>
+        <v>20.602900000000002</v>
       </c>
       <c r="T14">
-        <v>18.384499999999999</v>
+        <v>21.625299999999999</v>
       </c>
       <c r="U14">
-        <v>19.904599999999999</v>
+        <v>19.873999999999999</v>
       </c>
       <c r="V14">
-        <v>19.556899999999999</v>
+        <v>21.034300000000002</v>
       </c>
       <c r="W14">
-        <v>17.913</v>
+        <v>20.7974</v>
       </c>
       <c r="X14">
-        <v>19.188700000000001</v>
+        <v>19.456499999999998</v>
       </c>
       <c r="Y14">
-        <v>18.767099999999999</v>
+        <v>20.479700000000001</v>
       </c>
       <c r="Z14">
-        <v>18.538</v>
+        <v>20.227499999999999</v>
       </c>
       <c r="AA14">
-        <v>19.265899999999998</v>
+        <v>20.070799999999998</v>
       </c>
       <c r="AB14">
-        <v>19.075700000000001</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AC14">
-        <v>18.754200000000001</v>
+        <v>20.342300000000002</v>
       </c>
       <c r="AD14">
-        <v>18.5991</v>
+        <v>20.1432</v>
       </c>
       <c r="AE14">
-        <v>20.636600000000001</v>
+        <v>20.077300000000001</v>
       </c>
       <c r="AF14">
-        <v>20.366800000000001</v>
+        <v>21.523399999999999</v>
       </c>
       <c r="AG14">
-        <v>17.921500000000002</v>
+        <v>21.300599999999999</v>
       </c>
       <c r="AH14">
-        <v>17.916</v>
+        <v>19.428899999999999</v>
       </c>
       <c r="AI14">
-        <v>17.779800000000002</v>
+        <v>19.432099999999998</v>
       </c>
       <c r="AJ14">
-        <v>17.742000000000001</v>
+        <v>19.482700000000001</v>
       </c>
       <c r="AK14">
-        <v>19.773099999999999</v>
+        <v>19.416599999999999</v>
       </c>
       <c r="AL14">
-        <v>19.537800000000001</v>
+        <v>21.006499999999999</v>
       </c>
       <c r="AM14">
-        <v>19.409099999999999</v>
+        <v>20.809799999999999</v>
       </c>
       <c r="AN14">
-        <v>19.276399999999999</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="AO14">
-        <v>19.0777</v>
+        <v>20.590399999999999</v>
       </c>
       <c r="AP14">
-        <v>17.233899999999998</v>
+        <v>20.440300000000001</v>
       </c>
       <c r="AQ14">
-        <v>17.2057</v>
+        <v>18.926400000000001</v>
       </c>
       <c r="AR14">
-        <v>17.171800000000001</v>
+        <v>18.998200000000001</v>
       </c>
       <c r="AS14">
-        <v>17.073599999999999</v>
+        <v>18.921500000000002</v>
       </c>
       <c r="AT14">
-        <v>19.300599999999999</v>
+        <v>18.8459</v>
       </c>
       <c r="AU14">
-        <v>19.225999999999999</v>
+        <v>20.6021</v>
       </c>
       <c r="AV14">
-        <v>19.199400000000001</v>
+        <v>20.533999999999999</v>
       </c>
       <c r="AW14">
-        <v>19.079599999999999</v>
+        <v>20.490600000000001</v>
       </c>
       <c r="AX14">
-        <v>18.963200000000001</v>
+        <v>20.3889</v>
       </c>
       <c r="AY14">
-        <v>18.829499999999999</v>
+        <v>20.344999999999999</v>
       </c>
       <c r="AZ14">
-        <v>18.722999999999999</v>
+        <v>20.2193</v>
       </c>
       <c r="BA14">
-        <v>18.6982</v>
+        <v>20.1568</v>
       </c>
       <c r="BB14">
-        <v>18.617100000000001</v>
+        <v>20.124300000000002</v>
       </c>
       <c r="BC14">
-        <v>18.571200000000001</v>
+        <v>20.0915</v>
       </c>
       <c r="BD14">
-        <v>18.489699999999999</v>
+        <v>20.130400000000002</v>
       </c>
       <c r="BE14">
-        <v>18.395299999999999</v>
+        <v>20.0472</v>
       </c>
       <c r="BF14">
-        <v>18.275600000000001</v>
+        <v>19.9544</v>
       </c>
       <c r="BG14">
-        <v>20.356200000000001</v>
+        <v>19.863900000000001</v>
       </c>
       <c r="BH14">
-        <v>18.284700000000001</v>
+        <v>21.3584</v>
       </c>
       <c r="BI14">
-        <v>18.2027</v>
+        <v>19.791799999999999</v>
       </c>
       <c r="BJ14">
-        <v>18.212599999999998</v>
+        <v>19.7285</v>
       </c>
       <c r="BK14">
-        <v>18.1616</v>
+        <v>19.7133</v>
       </c>
       <c r="BL14">
-        <v>18.104900000000001</v>
+        <v>19.675999999999998</v>
       </c>
       <c r="BM14">
-        <v>18.060400000000001</v>
+        <v>19.641100000000002</v>
       </c>
       <c r="BN14">
-        <v>17.999099999999999</v>
+        <v>19.621300000000002</v>
       </c>
       <c r="BO14">
-        <v>17.920000000000002</v>
+        <v>19.5304</v>
       </c>
       <c r="BP14">
-        <v>17.921299999999999</v>
+        <v>19.446400000000001</v>
       </c>
       <c r="BQ14">
-        <v>17.849399999999999</v>
+        <v>19.4407</v>
       </c>
       <c r="BR14">
-        <v>17.8125</v>
+        <v>19.4057</v>
       </c>
       <c r="BS14">
-        <v>17.7956</v>
+        <v>19.375699999999998</v>
       </c>
       <c r="BT14">
-        <v>17.7575</v>
+        <v>19.364799999999999</v>
       </c>
       <c r="BU14">
-        <v>17.689699999999998</v>
+        <v>19.3293</v>
       </c>
       <c r="BV14">
-        <v>17.639099999999999</v>
+        <v>19.274999999999999</v>
       </c>
       <c r="BW14">
-        <v>17.613299999999999</v>
+        <v>19.2605</v>
       </c>
       <c r="BX14">
-        <v>17.582899999999999</v>
+        <v>19.256499999999999</v>
       </c>
       <c r="BY14">
-        <v>17.5504</v>
+        <v>19.3096</v>
       </c>
       <c r="BZ14">
-        <v>17.550999999999998</v>
+        <v>19.293399999999998</v>
       </c>
       <c r="CA14">
-        <v>17.544599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.299299999999999</v>
+      </c>
+      <c r="CB14">
+        <v>19.263999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>19.196042307692306</v>
-      </c>
-      <c r="B15">
-        <v>31.212</v>
+        <v>20.55253974358974</v>
       </c>
       <c r="C15">
-        <v>28.906300000000002</v>
+        <v>31.296099999999999</v>
       </c>
       <c r="D15">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E15">
-        <v>23.725899999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F15">
-        <v>23.5596</v>
+        <v>24.631599999999999</v>
       </c>
       <c r="G15">
-        <v>23.552199999999999</v>
+        <v>24.316800000000001</v>
       </c>
       <c r="H15">
-        <v>21.039300000000001</v>
+        <v>24.061900000000001</v>
       </c>
       <c r="I15">
-        <v>23.241499999999998</v>
+        <v>22.232399999999998</v>
       </c>
       <c r="J15">
-        <v>23.210899999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K15">
-        <v>19.959499999999998</v>
+        <v>23.4862</v>
       </c>
       <c r="L15">
-        <v>19.094100000000001</v>
+        <v>21.096399999999999</v>
       </c>
       <c r="M15">
-        <v>18.834099999999999</v>
+        <v>20.476500000000001</v>
       </c>
       <c r="N15">
-        <v>19.761700000000001</v>
+        <v>20.248200000000001</v>
       </c>
       <c r="O15">
-        <v>19.4909</v>
+        <v>20.9651</v>
       </c>
       <c r="P15">
-        <v>18.753599999999999</v>
+        <v>20.6965</v>
       </c>
       <c r="Q15">
-        <v>20.803599999999999</v>
+        <v>20.1264</v>
       </c>
       <c r="R15">
-        <v>18.398900000000001</v>
+        <v>21.708200000000001</v>
       </c>
       <c r="S15">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T15">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U15">
-        <v>19.258500000000002</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V15">
-        <v>19.024100000000001</v>
+        <v>20.498799999999999</v>
       </c>
       <c r="W15">
-        <v>18.689800000000002</v>
+        <v>20.365600000000001</v>
       </c>
       <c r="X15">
-        <v>18.607600000000001</v>
+        <v>20.154199999999999</v>
       </c>
       <c r="Y15">
-        <v>18.257200000000001</v>
+        <v>19.956</v>
       </c>
       <c r="Z15">
-        <v>18.0931</v>
+        <v>19.779699999999998</v>
       </c>
       <c r="AA15">
-        <v>20.4069</v>
+        <v>19.6753</v>
       </c>
       <c r="AB15">
-        <v>20.106100000000001</v>
+        <v>21.407800000000002</v>
       </c>
       <c r="AC15">
-        <v>17.9237</v>
+        <v>21.162199999999999</v>
       </c>
       <c r="AD15">
-        <v>17.837499999999999</v>
+        <v>19.4771</v>
       </c>
       <c r="AE15">
-        <v>19.843699999999998</v>
+        <v>19.453099999999999</v>
       </c>
       <c r="AF15">
-        <v>19.6586</v>
+        <v>20.9846</v>
       </c>
       <c r="AG15">
-        <v>19.420000000000002</v>
+        <v>20.811900000000001</v>
       </c>
       <c r="AH15">
-        <v>19.346</v>
+        <v>20.6525</v>
       </c>
       <c r="AI15">
-        <v>17.494199999999999</v>
+        <v>20.580200000000001</v>
       </c>
       <c r="AJ15">
-        <v>17.468599999999999</v>
+        <v>19.194600000000001</v>
       </c>
       <c r="AK15">
-        <v>18.963699999999999</v>
+        <v>19.155200000000001</v>
       </c>
       <c r="AL15">
-        <v>18.745200000000001</v>
+        <v>20.339600000000001</v>
       </c>
       <c r="AM15">
-        <v>18.630299999999998</v>
+        <v>20.167999999999999</v>
       </c>
       <c r="AN15">
-        <v>18.523599999999998</v>
+        <v>20.080400000000001</v>
       </c>
       <c r="AO15">
-        <v>18.364999999999998</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="AP15">
-        <v>18.186299999999999</v>
+        <v>19.887699999999999</v>
       </c>
       <c r="AQ15">
-        <v>18.110900000000001</v>
+        <v>19.762599999999999</v>
       </c>
       <c r="AR15">
-        <v>18.047799999999999</v>
+        <v>19.801100000000002</v>
       </c>
       <c r="AS15">
-        <v>16.855799999999999</v>
+        <v>19.692499999999999</v>
       </c>
       <c r="AT15">
-        <v>18.202300000000001</v>
+        <v>18.6174</v>
       </c>
       <c r="AU15">
-        <v>18.143799999999999</v>
+        <v>19.68</v>
       </c>
       <c r="AV15">
-        <v>18.123200000000001</v>
+        <v>19.627300000000002</v>
       </c>
       <c r="AW15">
-        <v>18.029599999999999</v>
+        <v>19.601099999999999</v>
       </c>
       <c r="AX15">
-        <v>17.9419</v>
+        <v>19.531099999999999</v>
       </c>
       <c r="AY15">
-        <v>17.833200000000001</v>
+        <v>19.510100000000001</v>
       </c>
       <c r="AZ15">
-        <v>17.772400000000001</v>
+        <v>19.420500000000001</v>
       </c>
       <c r="BA15">
-        <v>17.764600000000002</v>
+        <v>19.393999999999998</v>
       </c>
       <c r="BB15">
-        <v>17.705200000000001</v>
+        <v>19.378</v>
       </c>
       <c r="BC15">
-        <v>17.668900000000001</v>
+        <v>19.365400000000001</v>
       </c>
       <c r="BD15">
-        <v>17.612300000000001</v>
+        <v>19.441600000000001</v>
       </c>
       <c r="BE15">
-        <v>17.543199999999999</v>
+        <v>19.365200000000002</v>
       </c>
       <c r="BF15">
-        <v>17.457599999999999</v>
+        <v>19.290500000000002</v>
       </c>
       <c r="BG15">
-        <v>20.235600000000002</v>
+        <v>19.2257</v>
       </c>
       <c r="BH15">
-        <v>20.1294</v>
+        <v>21.293600000000001</v>
       </c>
       <c r="BI15">
-        <v>20.017600000000002</v>
+        <v>21.203900000000001</v>
       </c>
       <c r="BJ15">
-        <v>20.007300000000001</v>
+        <v>21.121400000000001</v>
       </c>
       <c r="BK15">
-        <v>19.932600000000001</v>
+        <v>21.082000000000001</v>
       </c>
       <c r="BL15">
-        <v>17.865300000000001</v>
+        <v>21.0183</v>
       </c>
       <c r="BM15">
-        <v>17.8232</v>
+        <v>19.412800000000001</v>
       </c>
       <c r="BN15">
-        <v>17.765599999999999</v>
+        <v>19.394200000000001</v>
       </c>
       <c r="BO15">
-        <v>17.690300000000001</v>
+        <v>19.3078</v>
       </c>
       <c r="BP15">
-        <v>17.693100000000001</v>
+        <v>19.229099999999999</v>
       </c>
       <c r="BQ15">
-        <v>17.632200000000001</v>
+        <v>19.225000000000001</v>
       </c>
       <c r="BR15">
-        <v>17.6022</v>
+        <v>19.194199999999999</v>
       </c>
       <c r="BS15">
-        <v>17.5916</v>
+        <v>19.1709</v>
       </c>
       <c r="BT15">
-        <v>17.555399999999999</v>
+        <v>19.164400000000001</v>
       </c>
       <c r="BU15">
-        <v>17.490500000000001</v>
+        <v>19.1325</v>
       </c>
       <c r="BV15">
-        <v>17.4451</v>
+        <v>19.0824</v>
       </c>
       <c r="BW15">
-        <v>17.421299999999999</v>
+        <v>19.074100000000001</v>
       </c>
       <c r="BX15">
-        <v>17.398399999999999</v>
+        <v>19.071000000000002</v>
       </c>
       <c r="BY15">
-        <v>17.369</v>
+        <v>19.133800000000001</v>
       </c>
       <c r="BZ15">
-        <v>17.371400000000001</v>
+        <v>19.119</v>
       </c>
       <c r="CA15">
-        <v>17.367899999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.126999999999999</v>
+      </c>
+      <c r="CB15">
+        <v>19.094200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>19.193970512820517</v>
-      </c>
-      <c r="B16">
-        <v>31.4282</v>
+        <v>20.53386282051282</v>
       </c>
       <c r="C16">
-        <v>27.616700000000002</v>
+        <v>31.895900000000001</v>
       </c>
       <c r="D16">
-        <v>25.699100000000001</v>
+        <v>28.303999999999998</v>
       </c>
       <c r="E16">
-        <v>22.424099999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F16">
-        <v>22.345400000000001</v>
+        <v>23.474</v>
       </c>
       <c r="G16">
-        <v>23.005299999999998</v>
+        <v>23.349699999999999</v>
       </c>
       <c r="H16">
-        <v>21.054200000000002</v>
+        <v>23.615400000000001</v>
       </c>
       <c r="I16">
-        <v>23.241499999999998</v>
+        <v>22.263999999999999</v>
       </c>
       <c r="J16">
-        <v>21.534099999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K16">
-        <v>20.541899999999998</v>
+        <v>22.116599999999998</v>
       </c>
       <c r="L16">
-        <v>19.537500000000001</v>
+        <v>21.531199999999998</v>
       </c>
       <c r="M16">
-        <v>18.873200000000001</v>
+        <v>20.842400000000001</v>
       </c>
       <c r="N16">
-        <v>18.712499999999999</v>
+        <v>20.302800000000001</v>
       </c>
       <c r="O16">
-        <v>20.1341</v>
+        <v>20.1389</v>
       </c>
       <c r="P16">
-        <v>19.8005</v>
+        <v>21.209700000000002</v>
       </c>
       <c r="Q16">
-        <v>19.629899999999999</v>
+        <v>20.984300000000001</v>
       </c>
       <c r="R16">
-        <v>19.25</v>
+        <v>20.741199999999999</v>
       </c>
       <c r="S16">
-        <v>20.744299999999999</v>
+        <v>20.602900000000002</v>
       </c>
       <c r="T16">
-        <v>18.381499999999999</v>
+        <v>21.625299999999999</v>
       </c>
       <c r="U16">
-        <v>20.424600000000002</v>
+        <v>19.9116</v>
       </c>
       <c r="V16">
-        <v>18.158000000000001</v>
+        <v>21.428000000000001</v>
       </c>
       <c r="W16">
-        <v>17.945699999999999</v>
+        <v>19.6556</v>
       </c>
       <c r="X16">
-        <v>20.3233</v>
+        <v>19.5335</v>
       </c>
       <c r="Y16">
-        <v>19.825399999999998</v>
+        <v>21.3093</v>
       </c>
       <c r="Z16">
-        <v>17.727799999999998</v>
+        <v>20.987400000000001</v>
       </c>
       <c r="AA16">
-        <v>19.6005</v>
+        <v>19.3599</v>
       </c>
       <c r="AB16">
-        <v>19.375900000000001</v>
+        <v>20.818000000000001</v>
       </c>
       <c r="AC16">
-        <v>19.031099999999999</v>
+        <v>20.626999999999999</v>
       </c>
       <c r="AD16">
-        <v>17.577100000000002</v>
+        <v>20.401900000000001</v>
       </c>
       <c r="AE16">
-        <v>18.823399999999999</v>
+        <v>19.1876</v>
       </c>
       <c r="AF16">
-        <v>18.680900000000001</v>
+        <v>20.1203</v>
       </c>
       <c r="AG16">
-        <v>18.489000000000001</v>
+        <v>20.006499999999999</v>
       </c>
       <c r="AH16">
-        <v>18.451000000000001</v>
+        <v>19.902200000000001</v>
       </c>
       <c r="AI16">
-        <v>18.2761</v>
+        <v>19.868500000000001</v>
       </c>
       <c r="AJ16">
-        <v>18.2059</v>
+        <v>19.9008</v>
       </c>
       <c r="AK16">
-        <v>18.266999999999999</v>
+        <v>19.792100000000001</v>
       </c>
       <c r="AL16">
-        <v>18.115300000000001</v>
+        <v>19.7133</v>
       </c>
       <c r="AM16">
-        <v>18.018799999999999</v>
+        <v>19.597899999999999</v>
       </c>
       <c r="AN16">
-        <v>17.9392</v>
+        <v>19.5273</v>
       </c>
       <c r="AO16">
-        <v>17.813800000000001</v>
+        <v>19.488399999999999</v>
       </c>
       <c r="AP16">
-        <v>17.655999999999999</v>
+        <v>19.405200000000001</v>
       </c>
       <c r="AQ16">
-        <v>17.6006</v>
+        <v>19.311699999999998</v>
       </c>
       <c r="AR16">
-        <v>17.550999999999998</v>
+        <v>19.388000000000002</v>
       </c>
       <c r="AS16">
-        <v>17.4283</v>
+        <v>19.2849</v>
       </c>
       <c r="AT16">
-        <v>20.458400000000001</v>
+        <v>19.180700000000002</v>
       </c>
       <c r="AU16">
-        <v>20.3218</v>
+        <v>21.422799999999999</v>
       </c>
       <c r="AV16">
-        <v>17.879200000000001</v>
+        <v>21.320799999999998</v>
       </c>
       <c r="AW16">
-        <v>17.793700000000001</v>
+        <v>19.349499999999999</v>
       </c>
       <c r="AX16">
-        <v>17.715699999999998</v>
+        <v>19.285299999999999</v>
       </c>
       <c r="AY16">
-        <v>17.6098</v>
+        <v>19.270600000000002</v>
       </c>
       <c r="AZ16">
-        <v>17.553799999999999</v>
+        <v>19.1875</v>
       </c>
       <c r="BA16">
-        <v>17.55</v>
+        <v>19.168099999999999</v>
       </c>
       <c r="BB16">
-        <v>17.4953</v>
+        <v>19.1555</v>
       </c>
       <c r="BC16">
-        <v>17.463799999999999</v>
+        <v>19.151599999999998</v>
       </c>
       <c r="BD16">
-        <v>17.415400000000002</v>
+        <v>19.2332</v>
       </c>
       <c r="BE16">
-        <v>17.350100000000001</v>
+        <v>19.163699999999999</v>
       </c>
       <c r="BF16">
-        <v>17.271899999999999</v>
+        <v>19.091999999999999</v>
       </c>
       <c r="BG16">
-        <v>20.102599999999999</v>
+        <v>19.034300000000002</v>
       </c>
       <c r="BH16">
-        <v>20.002700000000001</v>
+        <v>21.167100000000001</v>
       </c>
       <c r="BI16">
-        <v>19.8996</v>
+        <v>21.080500000000001</v>
       </c>
       <c r="BJ16">
-        <v>19.8948</v>
+        <v>21.0044</v>
       </c>
       <c r="BK16">
-        <v>19.8079</v>
+        <v>20.968299999999999</v>
       </c>
       <c r="BL16">
-        <v>19.728000000000002</v>
+        <v>20.904399999999999</v>
       </c>
       <c r="BM16">
-        <v>19.6538</v>
+        <v>20.8612</v>
       </c>
       <c r="BN16">
-        <v>19.549399999999999</v>
+        <v>20.821200000000001</v>
       </c>
       <c r="BO16">
-        <v>19.427199999999999</v>
+        <v>20.690300000000001</v>
       </c>
       <c r="BP16">
-        <v>17.685199999999998</v>
+        <v>20.563700000000001</v>
       </c>
       <c r="BQ16">
-        <v>17.625399999999999</v>
+        <v>19.203399999999998</v>
       </c>
       <c r="BR16">
-        <v>17.597100000000001</v>
+        <v>19.172599999999999</v>
       </c>
       <c r="BS16">
-        <v>17.587599999999998</v>
+        <v>19.148900000000001</v>
       </c>
       <c r="BT16">
-        <v>17.552600000000002</v>
+        <v>19.1432</v>
       </c>
       <c r="BU16">
-        <v>17.488499999999998</v>
+        <v>19.110299999999999</v>
       </c>
       <c r="BV16">
-        <v>17.445399999999999</v>
+        <v>19.061499999999999</v>
       </c>
       <c r="BW16">
-        <v>17.4221</v>
+        <v>19.052700000000002</v>
       </c>
       <c r="BX16">
-        <v>17.401399999999999</v>
+        <v>19.0501</v>
       </c>
       <c r="BY16">
-        <v>17.372699999999998</v>
+        <v>19.105599999999999</v>
       </c>
       <c r="BZ16">
-        <v>17.375800000000002</v>
+        <v>19.091899999999999</v>
       </c>
       <c r="CA16">
-        <v>17.371300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.100899999999999</v>
+      </c>
+      <c r="CB16">
+        <v>19.070399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>19.413967948717946</v>
-      </c>
-      <c r="B17">
-        <v>32.878599999999999</v>
+        <v>20.712293589743584</v>
       </c>
       <c r="C17">
-        <v>28.906300000000002</v>
+        <v>33.244700000000002</v>
       </c>
       <c r="D17">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E17">
-        <v>23.165199999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F17">
-        <v>23.991800000000001</v>
+        <v>24.278199999999998</v>
       </c>
       <c r="G17">
-        <v>24.610900000000001</v>
+        <v>24.550599999999999</v>
       </c>
       <c r="H17">
-        <v>20.624199999999998</v>
+        <v>24.759699999999999</v>
       </c>
       <c r="I17">
-        <v>23.241499999999998</v>
+        <v>21.9389</v>
       </c>
       <c r="J17">
-        <v>21.596299999999999</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K17">
-        <v>21.066800000000001</v>
+        <v>22.2302</v>
       </c>
       <c r="L17">
-        <v>20.026499999999999</v>
+        <v>21.9452</v>
       </c>
       <c r="M17">
-        <v>19.630500000000001</v>
+        <v>21.2057</v>
       </c>
       <c r="N17">
-        <v>19.439499999999999</v>
+        <v>20.866499999999998</v>
       </c>
       <c r="O17">
-        <v>18.8139</v>
+        <v>20.645600000000002</v>
       </c>
       <c r="P17">
-        <v>20.505800000000001</v>
+        <v>20.1645</v>
       </c>
       <c r="Q17">
-        <v>20.322099999999999</v>
+        <v>21.527000000000001</v>
       </c>
       <c r="R17">
-        <v>18.398900000000001</v>
+        <v>21.342400000000001</v>
       </c>
       <c r="S17">
-        <v>19.707599999999999</v>
+        <v>19.891400000000001</v>
       </c>
       <c r="T17">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U17">
-        <v>19.258500000000002</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V17">
-        <v>19.024100000000001</v>
+        <v>20.498799999999999</v>
       </c>
       <c r="W17">
-        <v>18.689800000000002</v>
+        <v>20.365600000000001</v>
       </c>
       <c r="X17">
-        <v>19.174800000000001</v>
+        <v>20.154199999999999</v>
       </c>
       <c r="Y17">
-        <v>18.7699</v>
+        <v>20.473700000000001</v>
       </c>
       <c r="Z17">
-        <v>18.552800000000001</v>
+        <v>20.234000000000002</v>
       </c>
       <c r="AA17">
-        <v>19.265899999999998</v>
+        <v>20.078199999999999</v>
       </c>
       <c r="AB17">
-        <v>19.075700000000001</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AC17">
-        <v>18.754200000000001</v>
+        <v>20.342300000000002</v>
       </c>
       <c r="AD17">
-        <v>18.5991</v>
+        <v>20.1432</v>
       </c>
       <c r="AE17">
-        <v>20.636600000000001</v>
+        <v>20.077300000000001</v>
       </c>
       <c r="AF17">
-        <v>18.401800000000001</v>
+        <v>21.523399999999999</v>
       </c>
       <c r="AG17">
-        <v>18.230599999999999</v>
+        <v>19.717600000000001</v>
       </c>
       <c r="AH17">
-        <v>18.209900000000001</v>
+        <v>19.635100000000001</v>
       </c>
       <c r="AI17">
-        <v>18.0564</v>
+        <v>19.618300000000001</v>
       </c>
       <c r="AJ17">
-        <v>18.000900000000001</v>
+        <v>19.6586</v>
       </c>
       <c r="AK17">
-        <v>20.1464</v>
+        <v>19.574300000000001</v>
       </c>
       <c r="AL17">
-        <v>19.881900000000002</v>
+        <v>21.250900000000001</v>
       </c>
       <c r="AM17">
-        <v>19.740300000000001</v>
+        <v>21.047699999999999</v>
       </c>
       <c r="AN17">
-        <v>17.6738</v>
+        <v>20.932600000000001</v>
       </c>
       <c r="AO17">
-        <v>17.567599999999999</v>
+        <v>19.218699999999998</v>
       </c>
       <c r="AP17">
-        <v>17.427099999999999</v>
+        <v>19.1525</v>
       </c>
       <c r="AQ17">
-        <v>17.385300000000001</v>
+        <v>19.074300000000001</v>
       </c>
       <c r="AR17">
-        <v>17.345300000000002</v>
+        <v>19.1431</v>
       </c>
       <c r="AS17">
-        <v>17.236999999999998</v>
+        <v>19.055399999999999</v>
       </c>
       <c r="AT17">
-        <v>19.7578</v>
+        <v>18.968299999999999</v>
       </c>
       <c r="AU17">
-        <v>19.6676</v>
+        <v>20.9068</v>
       </c>
       <c r="AV17">
-        <v>19.630099999999999</v>
+        <v>20.8264</v>
       </c>
       <c r="AW17">
-        <v>19.509</v>
+        <v>20.773700000000002</v>
       </c>
       <c r="AX17">
-        <v>19.378799999999998</v>
+        <v>20.6722</v>
       </c>
       <c r="AY17">
-        <v>17.2971</v>
+        <v>20.6158</v>
       </c>
       <c r="AZ17">
-        <v>17.257300000000001</v>
+        <v>18.936399999999999</v>
       </c>
       <c r="BA17">
-        <v>17.2592</v>
+        <v>18.931899999999999</v>
       </c>
       <c r="BB17">
-        <v>17.213100000000001</v>
+        <v>18.923500000000001</v>
       </c>
       <c r="BC17">
-        <v>17.186800000000002</v>
+        <v>18.9269</v>
       </c>
       <c r="BD17">
-        <v>17.141100000000002</v>
+        <v>19.0166</v>
       </c>
       <c r="BE17">
-        <v>17.085799999999999</v>
+        <v>18.952000000000002</v>
       </c>
       <c r="BF17">
-        <v>17.016999999999999</v>
+        <v>18.886399999999998</v>
       </c>
       <c r="BG17">
-        <v>19.863199999999999</v>
+        <v>18.839600000000001</v>
       </c>
       <c r="BH17">
-        <v>19.741499999999998</v>
+        <v>21.003799999999998</v>
       </c>
       <c r="BI17">
-        <v>19.643999999999998</v>
+        <v>20.9024</v>
       </c>
       <c r="BJ17">
-        <v>19.645</v>
+        <v>20.829899999999999</v>
       </c>
       <c r="BK17">
-        <v>19.5566</v>
+        <v>20.795200000000001</v>
       </c>
       <c r="BL17">
-        <v>19.484000000000002</v>
+        <v>20.7348</v>
       </c>
       <c r="BM17">
-        <v>19.4147</v>
+        <v>20.690999999999999</v>
       </c>
       <c r="BN17">
-        <v>19.337900000000001</v>
+        <v>20.656500000000001</v>
       </c>
       <c r="BO17">
-        <v>19.2333</v>
+        <v>20.538399999999999</v>
       </c>
       <c r="BP17">
-        <v>19.229299999999999</v>
+        <v>20.4269</v>
       </c>
       <c r="BQ17">
-        <v>19.150400000000001</v>
+        <v>20.409700000000001</v>
       </c>
       <c r="BR17">
-        <v>19.096499999999999</v>
+        <v>20.37</v>
       </c>
       <c r="BS17">
-        <v>19.058299999999999</v>
+        <v>20.3125</v>
       </c>
       <c r="BT17">
-        <v>17.552600000000002</v>
+        <v>20.286999999999999</v>
       </c>
       <c r="BU17">
-        <v>17.488499999999998</v>
+        <v>19.110299999999999</v>
       </c>
       <c r="BV17">
-        <v>17.445399999999999</v>
+        <v>19.061499999999999</v>
       </c>
       <c r="BW17">
-        <v>17.4221</v>
+        <v>19.052700000000002</v>
       </c>
       <c r="BX17">
-        <v>17.401399999999999</v>
+        <v>19.0501</v>
       </c>
       <c r="BY17">
-        <v>17.372699999999998</v>
+        <v>19.105599999999999</v>
       </c>
       <c r="BZ17">
-        <v>17.375800000000002</v>
+        <v>19.091899999999999</v>
       </c>
       <c r="CA17">
-        <v>17.371300000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.100899999999999</v>
+      </c>
+      <c r="CB17">
+        <v>19.070399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>19.545728205128203</v>
-      </c>
-      <c r="B18">
-        <v>32.4998</v>
+        <v>20.828561538461535</v>
       </c>
       <c r="C18">
-        <v>28.3371</v>
+        <v>32.482399999999998</v>
       </c>
       <c r="D18">
-        <v>25.699100000000001</v>
+        <v>28.9315</v>
       </c>
       <c r="E18">
-        <v>23.725899999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F18">
-        <v>23.5505</v>
+        <v>24.631599999999999</v>
       </c>
       <c r="G18">
-        <v>23.511800000000001</v>
+        <v>24.2271</v>
       </c>
       <c r="H18">
-        <v>20.628699999999998</v>
+        <v>24.070599999999999</v>
       </c>
       <c r="I18">
-        <v>23.241499999999998</v>
+        <v>21.9542</v>
       </c>
       <c r="J18">
-        <v>22.140899999999998</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K18">
-        <v>21.5335</v>
+        <v>22.680399999999999</v>
       </c>
       <c r="L18">
-        <v>20.798400000000001</v>
+        <v>22.303100000000001</v>
       </c>
       <c r="M18">
-        <v>20.136700000000001</v>
+        <v>21.7361</v>
       </c>
       <c r="N18">
-        <v>19.433900000000001</v>
+        <v>21.270600000000002</v>
       </c>
       <c r="O18">
-        <v>19.850200000000001</v>
+        <v>20.723500000000001</v>
       </c>
       <c r="P18">
-        <v>19.451799999999999</v>
+        <v>20.919</v>
       </c>
       <c r="Q18">
-        <v>21.234200000000001</v>
+        <v>20.6541</v>
       </c>
       <c r="R18">
-        <v>19.25</v>
+        <v>22.0517</v>
       </c>
       <c r="S18">
-        <v>20.744299999999999</v>
+        <v>20.602900000000002</v>
       </c>
       <c r="T18">
-        <v>18.381499999999999</v>
+        <v>21.625299999999999</v>
       </c>
       <c r="U18">
-        <v>20.424600000000002</v>
+        <v>19.9116</v>
       </c>
       <c r="V18">
-        <v>18.364899999999999</v>
+        <v>21.428000000000001</v>
       </c>
       <c r="W18">
-        <v>18.135200000000001</v>
+        <v>19.832699999999999</v>
       </c>
       <c r="X18">
-        <v>20.3108</v>
+        <v>19.6952</v>
       </c>
       <c r="Y18">
-        <v>18.257200000000001</v>
+        <v>21.316199999999998</v>
       </c>
       <c r="Z18">
-        <v>18.0931</v>
+        <v>19.779699999999998</v>
       </c>
       <c r="AA18">
-        <v>20.4069</v>
+        <v>19.6753</v>
       </c>
       <c r="AB18">
-        <v>20.106100000000001</v>
+        <v>21.407800000000002</v>
       </c>
       <c r="AC18">
-        <v>17.9237</v>
+        <v>21.162199999999999</v>
       </c>
       <c r="AD18">
-        <v>17.837499999999999</v>
+        <v>19.4771</v>
       </c>
       <c r="AE18">
-        <v>19.843699999999998</v>
+        <v>19.453099999999999</v>
       </c>
       <c r="AF18">
-        <v>19.6586</v>
+        <v>20.9846</v>
       </c>
       <c r="AG18">
-        <v>19.420000000000002</v>
+        <v>20.811900000000001</v>
       </c>
       <c r="AH18">
-        <v>17.916</v>
+        <v>20.6525</v>
       </c>
       <c r="AI18">
-        <v>17.779800000000002</v>
+        <v>19.432099999999998</v>
       </c>
       <c r="AJ18">
-        <v>17.742000000000001</v>
+        <v>19.482700000000001</v>
       </c>
       <c r="AK18">
-        <v>19.773099999999999</v>
+        <v>19.416599999999999</v>
       </c>
       <c r="AL18">
-        <v>19.537800000000001</v>
+        <v>21.006499999999999</v>
       </c>
       <c r="AM18">
-        <v>19.409099999999999</v>
+        <v>20.809799999999999</v>
       </c>
       <c r="AN18">
-        <v>19.276399999999999</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="AO18">
-        <v>19.0777</v>
+        <v>20.590399999999999</v>
       </c>
       <c r="AP18">
-        <v>17.244</v>
+        <v>20.440300000000001</v>
       </c>
       <c r="AQ18">
-        <v>17.210899999999999</v>
+        <v>18.946100000000001</v>
       </c>
       <c r="AR18">
-        <v>17.1753</v>
+        <v>19.030200000000001</v>
       </c>
       <c r="AS18">
-        <v>17.0748</v>
+        <v>18.941700000000001</v>
       </c>
       <c r="AT18">
-        <v>19.7591</v>
+        <v>18.858899999999998</v>
       </c>
       <c r="AU18">
-        <v>19.672699999999999</v>
+        <v>20.9254</v>
       </c>
       <c r="AV18">
-        <v>19.642099999999999</v>
+        <v>20.8461</v>
       </c>
       <c r="AW18">
-        <v>19.525600000000001</v>
+        <v>20.794</v>
       </c>
       <c r="AX18">
-        <v>19.398900000000001</v>
+        <v>20.695599999999999</v>
       </c>
       <c r="AY18">
-        <v>19.246200000000002</v>
+        <v>20.640899999999998</v>
       </c>
       <c r="AZ18">
-        <v>19.1311</v>
+        <v>20.5017</v>
       </c>
       <c r="BA18">
-        <v>19.0946</v>
+        <v>20.429200000000002</v>
       </c>
       <c r="BB18">
-        <v>17.196200000000001</v>
+        <v>20.385300000000001</v>
       </c>
       <c r="BC18">
-        <v>17.172899999999998</v>
+        <v>18.9053</v>
       </c>
       <c r="BD18">
-        <v>17.128900000000002</v>
+        <v>18.985800000000001</v>
       </c>
       <c r="BE18">
-        <v>17.074999999999999</v>
+        <v>18.9283</v>
       </c>
       <c r="BF18">
-        <v>17.0078</v>
+        <v>18.866099999999999</v>
       </c>
       <c r="BG18">
-        <v>19.4894</v>
+        <v>18.822600000000001</v>
       </c>
       <c r="BH18">
-        <v>19.388999999999999</v>
+        <v>20.752800000000001</v>
       </c>
       <c r="BI18">
-        <v>19.2941</v>
+        <v>20.6675</v>
       </c>
       <c r="BJ18">
-        <v>19.296600000000002</v>
+        <v>20.5974</v>
       </c>
       <c r="BK18">
-        <v>19.213899999999999</v>
+        <v>20.568999999999999</v>
       </c>
       <c r="BL18">
-        <v>19.145499999999998</v>
+        <v>20.508800000000001</v>
       </c>
       <c r="BM18">
-        <v>19.0791</v>
+        <v>20.470500000000001</v>
       </c>
       <c r="BN18">
-        <v>19.0106</v>
+        <v>20.438800000000001</v>
       </c>
       <c r="BO18">
-        <v>18.907699999999998</v>
+        <v>20.332999999999998</v>
       </c>
       <c r="BP18">
-        <v>18.904299999999999</v>
+        <v>20.223700000000001</v>
       </c>
       <c r="BQ18">
-        <v>18.827999999999999</v>
+        <v>20.210699999999999</v>
       </c>
       <c r="BR18">
-        <v>18.776900000000001</v>
+        <v>20.1722</v>
       </c>
       <c r="BS18">
-        <v>18.741900000000001</v>
+        <v>20.122</v>
       </c>
       <c r="BT18">
-        <v>18.688800000000001</v>
+        <v>20.099</v>
       </c>
       <c r="BU18">
-        <v>18.605699999999999</v>
+        <v>20.049700000000001</v>
       </c>
       <c r="BV18">
-        <v>18.541</v>
+        <v>19.981100000000001</v>
       </c>
       <c r="BW18">
-        <v>18.501799999999999</v>
+        <v>19.953600000000002</v>
       </c>
       <c r="BX18">
-        <v>17.252700000000001</v>
+        <v>19.941600000000001</v>
       </c>
       <c r="BY18">
-        <v>17.2315</v>
+        <v>19.005500000000001</v>
       </c>
       <c r="BZ18">
-        <v>17.236000000000001</v>
+        <v>18.990400000000001</v>
       </c>
       <c r="CA18">
-        <v>17.232199999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.0014</v>
+      </c>
+      <c r="CB18">
+        <v>18.974599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>19.419193589743596</v>
-      </c>
-      <c r="B19">
-        <v>32.641800000000003</v>
+        <v>20.755271794871792</v>
       </c>
       <c r="C19">
-        <v>28.906300000000002</v>
+        <v>33.059399999999997</v>
       </c>
       <c r="D19">
-        <v>25.699100000000001</v>
+        <v>29.518799999999999</v>
       </c>
       <c r="E19">
-        <v>22.424099999999999</v>
+        <v>26.1221</v>
       </c>
       <c r="F19">
-        <v>24.428100000000001</v>
+        <v>23.474</v>
       </c>
       <c r="G19">
-        <v>23.552199999999999</v>
+        <v>24.784099999999999</v>
       </c>
       <c r="H19">
-        <v>20.614699999999999</v>
+        <v>24.061900000000001</v>
       </c>
       <c r="I19">
-        <v>23.241499999999998</v>
+        <v>21.942299999999999</v>
       </c>
       <c r="J19">
-        <v>22.3947</v>
+        <v>23.605799999999999</v>
       </c>
       <c r="K19">
-        <v>21.527200000000001</v>
+        <v>22.8428</v>
       </c>
       <c r="L19">
-        <v>19.094100000000001</v>
+        <v>22.2926</v>
       </c>
       <c r="M19">
-        <v>18.873200000000001</v>
+        <v>20.476500000000001</v>
       </c>
       <c r="N19">
-        <v>19.009799999999998</v>
+        <v>20.302800000000001</v>
       </c>
       <c r="O19">
-        <v>20.1083</v>
+        <v>20.348800000000001</v>
       </c>
       <c r="P19">
-        <v>20.234400000000001</v>
+        <v>21.218499999999999</v>
       </c>
       <c r="Q19">
-        <v>20.313099999999999</v>
+        <v>21.319500000000001</v>
       </c>
       <c r="R19">
-        <v>19.817699999999999</v>
+        <v>21.340299999999999</v>
       </c>
       <c r="S19">
-        <v>19.707599999999999</v>
+        <v>21.100300000000001</v>
       </c>
       <c r="T19">
-        <v>19.273099999999999</v>
+        <v>20.825800000000001</v>
       </c>
       <c r="U19">
-        <v>19.551500000000001</v>
+        <v>20.646799999999999</v>
       </c>
       <c r="V19">
-        <v>19.287800000000001</v>
+        <v>20.734500000000001</v>
       </c>
       <c r="W19">
-        <v>17.913</v>
+        <v>20.5671</v>
       </c>
       <c r="X19">
-        <v>19.188700000000001</v>
+        <v>19.456499999999998</v>
       </c>
       <c r="Y19">
-        <v>18.767099999999999</v>
+        <v>20.479700000000001</v>
       </c>
       <c r="Z19">
-        <v>17.5381</v>
+        <v>20.227499999999999</v>
       </c>
       <c r="AA19">
-        <v>19.592300000000002</v>
+        <v>19.206399999999999</v>
       </c>
       <c r="AB19">
-        <v>19.380700000000001</v>
+        <v>20.796299999999999</v>
       </c>
       <c r="AC19">
-        <v>19.0473</v>
+        <v>20.613499999999998</v>
       </c>
       <c r="AD19">
-        <v>17.5976</v>
+        <v>20.398499999999999</v>
       </c>
       <c r="AE19">
-        <v>19.1511</v>
+        <v>19.227799999999998</v>
       </c>
       <c r="AF19">
-        <v>18.995200000000001</v>
+        <v>20.4175</v>
       </c>
       <c r="AG19">
-        <v>18.7927</v>
+        <v>20.2836</v>
       </c>
       <c r="AH19">
-        <v>18.746600000000001</v>
+        <v>20.165800000000001</v>
       </c>
       <c r="AI19">
-        <v>18.5611</v>
+        <v>20.1235</v>
       </c>
       <c r="AJ19">
-        <v>17.468599999999999</v>
+        <v>20.1297</v>
       </c>
       <c r="AK19">
-        <v>18.963699999999999</v>
+        <v>19.155200000000001</v>
       </c>
       <c r="AL19">
-        <v>18.745200000000001</v>
+        <v>20.339600000000001</v>
       </c>
       <c r="AM19">
-        <v>18.630299999999998</v>
+        <v>20.167999999999999</v>
       </c>
       <c r="AN19">
-        <v>18.523599999999998</v>
+        <v>20.080400000000001</v>
       </c>
       <c r="AO19">
-        <v>18.364999999999998</v>
+        <v>20.004899999999999</v>
       </c>
       <c r="AP19">
-        <v>18.186299999999999</v>
+        <v>19.887699999999999</v>
       </c>
       <c r="AQ19">
-        <v>18.110900000000001</v>
+        <v>19.762599999999999</v>
       </c>
       <c r="AR19">
-        <v>17.171800000000001</v>
+        <v>19.801100000000002</v>
       </c>
       <c r="AS19">
-        <v>17.073599999999999</v>
+        <v>18.921500000000002</v>
       </c>
       <c r="AT19">
-        <v>19.300599999999999</v>
+        <v>18.8459</v>
       </c>
       <c r="AU19">
-        <v>19.225999999999999</v>
+        <v>20.6021</v>
       </c>
       <c r="AV19">
-        <v>19.199400000000001</v>
+        <v>20.533999999999999</v>
       </c>
       <c r="AW19">
-        <v>19.079599999999999</v>
+        <v>20.490600000000001</v>
       </c>
       <c r="AX19">
-        <v>18.963200000000001</v>
+        <v>20.3889</v>
       </c>
       <c r="AY19">
-        <v>18.829499999999999</v>
+        <v>20.344999999999999</v>
       </c>
       <c r="AZ19">
-        <v>18.722999999999999</v>
+        <v>20.2193</v>
       </c>
       <c r="BA19">
-        <v>18.6982</v>
+        <v>20.1568</v>
       </c>
       <c r="BB19">
-        <v>18.617100000000001</v>
+        <v>20.124300000000002</v>
       </c>
       <c r="BC19">
-        <v>18.571200000000001</v>
+        <v>20.0915</v>
       </c>
       <c r="BD19">
-        <v>18.489699999999999</v>
+        <v>20.130400000000002</v>
       </c>
       <c r="BE19">
-        <v>16.8018</v>
+        <v>20.0472</v>
       </c>
       <c r="BF19">
-        <v>16.744800000000001</v>
+        <v>18.655100000000001</v>
       </c>
       <c r="BG19">
-        <v>19.0562</v>
+        <v>18.622199999999999</v>
       </c>
       <c r="BH19">
-        <v>18.968</v>
+        <v>20.459199999999999</v>
       </c>
       <c r="BI19">
-        <v>18.877300000000002</v>
+        <v>20.376999999999999</v>
       </c>
       <c r="BJ19">
-        <v>18.8828</v>
+        <v>20.3093</v>
       </c>
       <c r="BK19">
-        <v>18.814499999999999</v>
+        <v>20.2819</v>
       </c>
       <c r="BL19">
-        <v>18.7454</v>
+        <v>20.233899999999998</v>
       </c>
       <c r="BM19">
-        <v>18.690000000000001</v>
+        <v>20.192</v>
       </c>
       <c r="BN19">
-        <v>18.624500000000001</v>
+        <v>20.165099999999999</v>
       </c>
       <c r="BO19">
-        <v>18.535599999999999</v>
+        <v>20.061</v>
       </c>
       <c r="BP19">
-        <v>18.534099999999999</v>
+        <v>19.965399999999999</v>
       </c>
       <c r="BQ19">
-        <v>18.4589</v>
+        <v>19.9528</v>
       </c>
       <c r="BR19">
-        <v>18.411799999999999</v>
+        <v>19.915099999999999</v>
       </c>
       <c r="BS19">
-        <v>18.3749</v>
+        <v>19.8703</v>
       </c>
       <c r="BT19">
-        <v>18.330500000000001</v>
+        <v>19.851600000000001</v>
       </c>
       <c r="BU19">
-        <v>18.257899999999999</v>
+        <v>19.8093</v>
       </c>
       <c r="BV19">
-        <v>18.194700000000001</v>
+        <v>19.7469</v>
       </c>
       <c r="BW19">
-        <v>18.162600000000001</v>
+        <v>19.720199999999998</v>
       </c>
       <c r="BX19">
-        <v>18.115300000000001</v>
+        <v>19.7118</v>
       </c>
       <c r="BY19">
-        <v>18.076699999999999</v>
+        <v>19.728100000000001</v>
       </c>
       <c r="BZ19">
-        <v>18.073599999999999</v>
+        <v>19.702100000000002</v>
       </c>
       <c r="CA19">
-        <v>18.056899999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.704499999999999</v>
+      </c>
+      <c r="CB19">
+        <v>19.668399999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>16.630251282051276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.046897435897439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>18.335106410256412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>19.609302564102567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>19.60694358974359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.728838461538459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>19.429933333333334</v>
-      </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.630148717948721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>19.51100641025641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.730376923076918</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>19.243364102564112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.540107692307686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>19.072744871794871</v>
-      </c>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.41751153846154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>19.282091025641023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.580829487179493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>19.408920512820515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.695884615384621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>19.355810256410255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.648717948717952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>19.514329487179488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.793706410256412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>19.45446282051282</v>
+        <v>20.742897435897437</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>19.469625641025655</v>
+        <v>20.769576923076919</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>19.384665384615385</v>
+        <v>20.712617948717956</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>19.196042307692306</v>
+        <v>20.55253974358974</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>19.193970512820517</v>
+        <v>20.53386282051282</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>19.413967948717946</v>
+        <v>20.712293589743584</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>19.545728205128203</v>
+        <v>20.828561538461535</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>19.419193589743596</v>
+        <v>20.755271794871792</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +8032,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7807,17 +8062,17 @@
         <v>17.062002564102567</v>
       </c>
       <c r="C2">
-        <v>18.71011025641026</v>
+        <v>18.336392307692307</v>
       </c>
       <c r="D2">
-        <v>18.202525641025641</v>
+        <v>17.785596153846146</v>
       </c>
       <c r="E2">
-        <v>16.525966666666669</v>
+        <v>16.211725641025645</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.625151282051284</v>
+        <v>17.348929166666665</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7828,17 +8083,17 @@
         <v>18.666967948717947</v>
       </c>
       <c r="C3">
-        <v>20.230378205128201</v>
+        <v>19.800108974358977</v>
       </c>
       <c r="D3">
-        <v>19.611088461538458</v>
+        <v>19.512867948717947</v>
       </c>
       <c r="E3">
-        <v>18.049326923076922</v>
+        <v>17.721371794871796</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>19.13944038461538</v>
+        <v>18.925329166666668</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7849,17 +8104,17 @@
         <v>20.600471794871794</v>
       </c>
       <c r="C4">
-        <v>21.55700384615384</v>
+        <v>21.539884615384615</v>
       </c>
       <c r="D4">
-        <v>21.169797435897433</v>
+        <v>21.53435</v>
       </c>
       <c r="E4">
-        <v>19.397273076923081</v>
+        <v>19.527983333333339</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>20.681136538461537</v>
+        <v>20.800672435897436</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7870,17 +8125,17 @@
         <v>21.431702564102569</v>
       </c>
       <c r="C5">
-        <v>21.975912820512821</v>
+        <v>22.255564102564097</v>
       </c>
       <c r="D5">
-        <v>21.813632051282056</v>
+        <v>22.442408974358973</v>
       </c>
       <c r="E5">
-        <v>19.954435897435889</v>
+        <v>20.358553846153846</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>21.293920833333335</v>
+        <v>21.622057371794874</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7891,17 +8146,17 @@
         <v>22.05834358974359</v>
       </c>
       <c r="C6">
-        <v>22.494923076923076</v>
+        <v>22.810658974358972</v>
       </c>
       <c r="D6">
-        <v>22.348226923076918</v>
+        <v>23.136453846153842</v>
       </c>
       <c r="E6">
-        <v>20.44518076923077</v>
+        <v>21.012592307692316</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>21.836668589743589</v>
+        <v>22.254512179487179</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7912,17 +8167,17 @@
         <v>22.367576923076914</v>
       </c>
       <c r="C7">
-        <v>22.52087564102564</v>
+        <v>23.105249999999998</v>
       </c>
       <c r="D7">
-        <v>22.324979487179483</v>
+        <v>23.494443589743593</v>
       </c>
       <c r="E7">
-        <v>20.42975384615384</v>
+        <v>21.351410256410258</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>21.910796474358971</v>
+        <v>22.579670192307692</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7933,17 +8188,17 @@
         <v>22.457907692307693</v>
       </c>
       <c r="C8">
-        <v>22.506449999999994</v>
+        <v>23.207564102564096</v>
       </c>
       <c r="D8">
-        <v>22.32355128205128</v>
+        <v>23.57478333333334</v>
       </c>
       <c r="E8">
-        <v>20.435228205128219</v>
+        <v>21.424274358974362</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>21.930784294871799</v>
+        <v>22.666132371794873</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7954,17 +8209,17 @@
         <v>22.605321794871788</v>
       </c>
       <c r="C9">
-        <v>22.561367948717937</v>
+        <v>23.36393076923077</v>
       </c>
       <c r="D9">
-        <v>22.346230769230758</v>
+        <v>23.730979487179486</v>
       </c>
       <c r="E9">
-        <v>20.485741025641016</v>
+        <v>21.568351282051278</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>21.999665384615376</v>
+        <v>22.817145833333331</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7975,17 +8230,17 @@
         <v>22.533843589743594</v>
       </c>
       <c r="C10">
-        <v>22.991923076923069</v>
+        <v>23.330561538461534</v>
       </c>
       <c r="D10">
-        <v>22.877294871794877</v>
+        <v>23.691415384615379</v>
       </c>
       <c r="E10">
-        <v>20.9796858974359</v>
+        <v>21.546957692307689</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>22.345686858974361</v>
+        <v>22.775694551282047</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7996,17 +8251,17 @@
         <v>22.605837179487178</v>
       </c>
       <c r="C11">
-        <v>22.838315384615377</v>
+        <v>23.427785897435896</v>
       </c>
       <c r="D11">
-        <v>22.712916666666665</v>
+        <v>23.790932051282045</v>
       </c>
       <c r="E11">
-        <v>20.826187179487189</v>
+        <v>21.648035897435904</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>22.245814102564104</v>
+        <v>22.868147756410256</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8017,17 +8272,17 @@
         <v>22.769288461538455</v>
       </c>
       <c r="C12">
-        <v>22.928392307692306</v>
+        <v>23.580203846153843</v>
       </c>
       <c r="D12">
-        <v>22.777638461538459</v>
+        <v>23.975592307692306</v>
       </c>
       <c r="E12">
-        <v>20.868193589743591</v>
+        <v>21.805255128205133</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>22.335878205128203</v>
+        <v>23.032584935897436</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8038,17 +8293,17 @@
         <v>22.7254282051282</v>
       </c>
       <c r="C13">
-        <v>22.945411538461535</v>
+        <v>23.533547435897439</v>
       </c>
       <c r="D13">
-        <v>22.766975641025642</v>
+        <v>23.946676923076918</v>
       </c>
       <c r="E13">
-        <v>20.871955128205133</v>
+        <v>21.782123076923078</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>22.327442628205127</v>
+        <v>22.996943910256412</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8059,17 +8314,17 @@
         <v>22.853789743589743</v>
       </c>
       <c r="C14">
-        <v>23.009396153846154</v>
+        <v>23.665605128205122</v>
       </c>
       <c r="D14">
-        <v>22.85979102564102</v>
+        <v>24.091285897435899</v>
       </c>
       <c r="E14">
-        <v>20.941088461538463</v>
+        <v>21.929120512820511</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>22.416016346153846</v>
+        <v>23.134950320512822</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8080,17 +8335,17 @@
         <v>22.873143589743595</v>
       </c>
       <c r="C15">
-        <v>23.014714102564099</v>
+        <v>23.665543589743585</v>
       </c>
       <c r="D15">
-        <v>22.872474358974358</v>
+        <v>24.105187179487181</v>
       </c>
       <c r="E15">
-        <v>20.983479487179491</v>
+        <v>21.891044871794868</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>22.435952884615386</v>
+        <v>23.133729807692305</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8101,17 +8356,17 @@
         <v>22.975564102564103</v>
       </c>
       <c r="C16">
-        <v>23.051033333333329</v>
+        <v>23.759275641025642</v>
       </c>
       <c r="D16">
-        <v>22.915138461538465</v>
+        <v>24.225534615384621</v>
       </c>
       <c r="E16">
-        <v>21.033491025641034</v>
+        <v>22.003388461538464</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>22.493806730769229</v>
+        <v>23.240940705128207</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8122,17 +8377,17 @@
         <v>22.967002564102565</v>
       </c>
       <c r="C17">
-        <v>23.113273076923086</v>
+        <v>23.732120512820522</v>
       </c>
       <c r="D17">
-        <v>22.979337179487182</v>
+        <v>24.193941025641024</v>
       </c>
       <c r="E17">
-        <v>21.08895256410257</v>
+        <v>21.999216666666655</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>22.537141346153849</v>
+        <v>23.223070192307691</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8143,17 +8398,17 @@
         <v>22.984969230769217</v>
       </c>
       <c r="C18">
-        <v>23.145735897435898</v>
+        <v>23.800296153846155</v>
       </c>
       <c r="D18">
-        <v>23.013755128205119</v>
+        <v>24.242867948717947</v>
       </c>
       <c r="E18">
-        <v>21.088779487179487</v>
+        <v>22.049557692307687</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>22.558309935897434</v>
+        <v>23.26942275641025</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8164,17 +8419,17 @@
         <v>22.874271794871795</v>
       </c>
       <c r="C19">
-        <v>23.125800000000005</v>
+        <v>23.717805128205121</v>
       </c>
       <c r="D19">
-        <v>22.986397435897434</v>
+        <v>24.134585897435898</v>
       </c>
       <c r="E19">
-        <v>21.061224358974361</v>
+        <v>21.952570512820511</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>22.511923397435897</v>
+        <v>23.169808333333332</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8185,17 +8440,17 @@
         <v>22.978502564102566</v>
       </c>
       <c r="C20">
-        <v>23.024325641025644</v>
+        <v>23.788248717948711</v>
       </c>
       <c r="D20">
-        <v>22.893894871794874</v>
+        <v>24.23972564102565</v>
       </c>
       <c r="E20">
-        <v>20.984062820512822</v>
+        <v>22.05603974358975</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>22.470196474358975</v>
+        <v>23.265629166666667</v>
       </c>
     </row>
   </sheetData>
@@ -8209,7 +8464,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8239,17 +8494,17 @@
         <v>17.116773076923071</v>
       </c>
       <c r="C2">
-        <v>17.83108076923077</v>
+        <v>18.346782051282048</v>
       </c>
       <c r="D2">
-        <v>17.101942307692315</v>
+        <v>17.736792307692301</v>
       </c>
       <c r="E2">
-        <v>15.589097435897433</v>
+        <v>16.227846153846155</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.909723397435897</v>
+        <v>17.357048397435893</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8260,17 +8515,17 @@
         <v>19.239364102564089</v>
       </c>
       <c r="C3">
-        <v>19.130451282051286</v>
+        <v>20.334805128205129</v>
       </c>
       <c r="D3">
-        <v>18.314465384615385</v>
+        <v>19.814203846153848</v>
       </c>
       <c r="E3">
-        <v>16.794016666666664</v>
+        <v>18.221065384615382</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>18.369574358974358</v>
+        <v>19.402359615384611</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8281,17 +8536,17 @@
         <v>21.121852564102571</v>
       </c>
       <c r="C4">
-        <v>19.924389743589739</v>
+        <v>22.114803846153848</v>
       </c>
       <c r="D4">
-        <v>19.199507692307687</v>
+        <v>21.737694871794869</v>
       </c>
       <c r="E4">
-        <v>17.555880769230775</v>
+        <v>20.029796153846153</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>19.450407692307692</v>
+        <v>21.251036858974359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8302,17 +8557,17 @@
         <v>21.38314487179488</v>
       </c>
       <c r="C5">
-        <v>19.479488461538459</v>
+        <v>22.375499999999995</v>
       </c>
       <c r="D5">
-        <v>18.78740256410256</v>
+        <v>22.109124358974356</v>
       </c>
       <c r="E5">
-        <v>17.077323076923076</v>
+        <v>20.305298717948716</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19.181839743589745</v>
+        <v>21.543266987179486</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8323,17 +8578,17 @@
         <v>21.583246153846158</v>
       </c>
       <c r="C6">
-        <v>19.474808974358975</v>
+        <v>22.52124615384616</v>
       </c>
       <c r="D6">
-        <v>18.802602564102571</v>
+        <v>22.320771794871799</v>
       </c>
       <c r="E6">
-        <v>17.079720512820511</v>
+        <v>20.511174358974358</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>19.235094551282053</v>
+        <v>21.734109615384618</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8344,17 +8599,17 @@
         <v>21.633671794871791</v>
       </c>
       <c r="C7">
-        <v>19.367552564102557</v>
+        <v>22.56842564102563</v>
       </c>
       <c r="D7">
-        <v>18.702524358974365</v>
+        <v>22.390806410256413</v>
       </c>
       <c r="E7">
-        <v>16.958207692307692</v>
+        <v>20.556258974358972</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>19.165489102564102</v>
+        <v>21.7872907051282</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8365,17 +8620,17 @@
         <v>21.270264102564116</v>
       </c>
       <c r="C8">
-        <v>19.212474358974369</v>
+        <v>22.236633333333323</v>
       </c>
       <c r="D8">
-        <v>18.587555128205128</v>
+        <v>22.025756410256406</v>
       </c>
       <c r="E8">
-        <v>16.825442307692303</v>
+        <v>20.200426923076915</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>18.973933974358978</v>
+        <v>21.433270192307692</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8386,17 +8641,17 @@
         <v>21.659507692307685</v>
       </c>
       <c r="C9">
-        <v>19.268508974358969</v>
+        <v>22.599165384615386</v>
       </c>
       <c r="D9">
-        <v>18.610589743589752</v>
+        <v>22.397008974358972</v>
       </c>
       <c r="E9">
-        <v>16.854494871794877</v>
+        <v>20.576341025641025</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.098275320512819</v>
+        <v>21.808005769230768</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8407,17 +8662,17 @@
         <v>21.651053846153847</v>
       </c>
       <c r="C10">
-        <v>18.969262820512824</v>
+        <v>22.616817948717944</v>
       </c>
       <c r="D10">
-        <v>18.33422564102564</v>
+        <v>22.435287179487176</v>
       </c>
       <c r="E10">
-        <v>16.598851282051289</v>
+        <v>20.598765384615373</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>18.888348397435898</v>
+        <v>21.825481089743587</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8428,17 +8683,17 @@
         <v>21.760361538461535</v>
       </c>
       <c r="C11">
-        <v>19.327643589743591</v>
+        <v>22.708128205128208</v>
       </c>
       <c r="D11">
-        <v>18.670176923076923</v>
+        <v>22.52552948717949</v>
       </c>
       <c r="E11">
-        <v>16.932942307692311</v>
+        <v>20.692282051282053</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.172781089743591</v>
+        <v>21.921575320512819</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8449,17 +8704,17 @@
         <v>22.004571794871797</v>
       </c>
       <c r="C12">
-        <v>19.465053846153847</v>
+        <v>22.916782051282052</v>
       </c>
       <c r="D12">
-        <v>18.807811538461539</v>
+        <v>22.742903846153851</v>
       </c>
       <c r="E12">
-        <v>17.052066666666668</v>
+        <v>20.93908076923077</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>19.33237596153846</v>
+        <v>22.150834615384618</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8470,17 +8725,17 @@
         <v>21.988553846153842</v>
       </c>
       <c r="C13">
-        <v>19.491047435897432</v>
+        <v>22.919270512820514</v>
       </c>
       <c r="D13">
-        <v>18.837667948717957</v>
+        <v>22.756567948717954</v>
       </c>
       <c r="E13">
-        <v>17.070767948717947</v>
+        <v>20.925288461538468</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>19.347009294871796</v>
+        <v>22.147420192307695</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8491,17 +8746,17 @@
         <v>21.984574358974356</v>
       </c>
       <c r="C14">
-        <v>19.399730769230761</v>
+        <v>22.937974358974351</v>
       </c>
       <c r="D14">
-        <v>18.757085897435903</v>
+        <v>22.764516666666665</v>
       </c>
       <c r="E14">
-        <v>16.991929487179487</v>
+        <v>20.946908974358973</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19.283330128205126</v>
+        <v>22.158493589743589</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8512,17 +8767,17 @@
         <v>22.013798717948717</v>
       </c>
       <c r="C15">
-        <v>19.314882051282055</v>
+        <v>22.958269230769226</v>
       </c>
       <c r="D15">
-        <v>18.682758974358965</v>
+        <v>22.771097435897435</v>
       </c>
       <c r="E15">
-        <v>16.921912820512826</v>
+        <v>20.94805641025641</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19.233338141025641</v>
+        <v>22.172805448717948</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8533,17 +8788,17 @@
         <v>21.849776923076931</v>
       </c>
       <c r="C16">
-        <v>19.172696153846157</v>
+        <v>22.754044871794868</v>
       </c>
       <c r="D16">
-        <v>18.544967948717947</v>
+        <v>22.598329487179488</v>
       </c>
       <c r="E16">
-        <v>16.777953846153839</v>
+        <v>20.763546153846153</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>19.08634871794872</v>
+        <v>21.99142435897436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8554,17 +8809,17 @@
         <v>21.808628205128205</v>
       </c>
       <c r="C17">
-        <v>19.288298717948731</v>
+        <v>22.688492307692304</v>
       </c>
       <c r="D17">
-        <v>18.651207692307693</v>
+        <v>22.539714102564105</v>
       </c>
       <c r="E17">
-        <v>16.878311538461535</v>
+        <v>20.700926923076924</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19.15661153846154</v>
+        <v>21.934440384615382</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8575,17 +8830,17 @@
         <v>21.951398717948724</v>
       </c>
       <c r="C18">
-        <v>19.302517948717952</v>
+        <v>22.866269230769234</v>
       </c>
       <c r="D18">
-        <v>18.660429487179492</v>
+        <v>22.713780769230773</v>
       </c>
       <c r="E18">
-        <v>16.901944871794871</v>
+        <v>20.876019230769241</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19.204072756410259</v>
+        <v>22.101866987179495</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8596,17 +8851,17 @@
         <v>22.069108974358976</v>
       </c>
       <c r="C19">
-        <v>19.336151282051286</v>
+        <v>23.009512820512818</v>
       </c>
       <c r="D19">
-        <v>18.695384615384619</v>
+        <v>22.849446153846138</v>
       </c>
       <c r="E19">
-        <v>16.93017051282051</v>
+        <v>21.018183333333333</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19.257703846153845</v>
+        <v>22.236562820512816</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8617,17 +8872,17 @@
         <v>21.996229487179491</v>
       </c>
       <c r="C20">
-        <v>19.378803846153847</v>
+        <v>22.936547435897417</v>
       </c>
       <c r="D20">
-        <v>18.730633333333337</v>
+        <v>22.761815384615382</v>
       </c>
       <c r="E20">
-        <v>16.969989743589746</v>
+        <v>20.943935897435892</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19.268914102564104</v>
+        <v>22.159632051282045</v>
       </c>
     </row>
   </sheetData>
@@ -8641,7 +8896,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8671,17 +8926,17 @@
         <v>17.36446282051282</v>
       </c>
       <c r="C2">
-        <v>18.032955128205135</v>
+        <v>18.625737179487185</v>
       </c>
       <c r="D2">
-        <v>17.405703846153848</v>
+        <v>18.043950000000002</v>
       </c>
       <c r="E2">
-        <v>15.703351282051282</v>
+        <v>16.436156410256409</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.126618269230772</v>
+        <v>17.617576602564103</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8692,17 +8947,17 @@
         <v>19.408871794871803</v>
       </c>
       <c r="C3">
-        <v>19.093741025641023</v>
+        <v>20.475284615384624</v>
       </c>
       <c r="D3">
-        <v>18.415767948717946</v>
+        <v>20.025739743589735</v>
       </c>
       <c r="E3">
-        <v>16.751323076923079</v>
+        <v>18.327692307692303</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>18.417425961538463</v>
+        <v>19.559397115384616</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8713,17 +8968,17 @@
         <v>21.181608974358976</v>
       </c>
       <c r="C4">
-        <v>19.795489743589751</v>
+        <v>22.087580769230772</v>
       </c>
       <c r="D4">
-        <v>19.234528205128207</v>
+        <v>21.849919230769235</v>
       </c>
       <c r="E4">
-        <v>17.436566666666661</v>
+        <v>20.007692307692313</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>19.4120483974359</v>
+        <v>21.281700320512822</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8734,17 +8989,17 @@
         <v>21.49552692307693</v>
       </c>
       <c r="C5">
-        <v>19.478237179487191</v>
+        <v>22.401398717948709</v>
       </c>
       <c r="D5">
-        <v>18.954416666666663</v>
+        <v>22.293675641025647</v>
       </c>
       <c r="E5">
-        <v>17.035448717948714</v>
+        <v>20.323549999999997</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19.240907371794872</v>
+        <v>21.628537820512822</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8755,17 +9010,17 @@
         <v>21.829561538461537</v>
       </c>
       <c r="C6">
-        <v>19.579694871794874</v>
+        <v>22.754878205128222</v>
       </c>
       <c r="D6">
-        <v>19.06886153846154</v>
+        <v>22.715251282051288</v>
       </c>
       <c r="E6">
-        <v>17.13366794871795</v>
+        <v>20.684376923076936</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>19.402946474358977</v>
+        <v>21.996016987179495</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8776,17 +9031,17 @@
         <v>21.952897435897441</v>
       </c>
       <c r="C7">
-        <v>19.534098717948726</v>
+        <v>22.886741025641019</v>
       </c>
       <c r="D7">
-        <v>18.9955</v>
+        <v>22.880264102564105</v>
       </c>
       <c r="E7">
-        <v>17.042760256410254</v>
+        <v>20.810982051282053</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>19.381314102564104</v>
+        <v>22.132721153846155</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8797,17 +9052,17 @@
         <v>21.711543589743584</v>
       </c>
       <c r="C8">
-        <v>19.502125641025646</v>
+        <v>22.741744871794868</v>
       </c>
       <c r="D8">
-        <v>18.996021794871801</v>
+        <v>22.68178076923077</v>
       </c>
       <c r="E8">
-        <v>17.009192307692306</v>
+        <v>20.617307692307683</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>19.304720833333334</v>
+        <v>21.938094230769224</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8818,17 +9073,17 @@
         <v>22.046105128205127</v>
       </c>
       <c r="C9">
-        <v>19.499544871794878</v>
+        <v>23.012269230769235</v>
       </c>
       <c r="D9">
-        <v>18.991742307692302</v>
+        <v>22.978262820512821</v>
       </c>
       <c r="E9">
-        <v>16.99780512820513</v>
+        <v>20.908593589743589</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.383799358974361</v>
+        <v>22.236307692307694</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8839,17 +9094,17 @@
         <v>22.005094871794878</v>
       </c>
       <c r="C10">
-        <v>19.311312820512825</v>
+        <v>22.999098717948719</v>
       </c>
       <c r="D10">
-        <v>18.821543589743591</v>
+        <v>22.969129487179487</v>
       </c>
       <c r="E10">
-        <v>16.846573076923075</v>
+        <v>20.902265384615379</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>19.246131089743592</v>
+        <v>22.218897115384614</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8860,17 +9115,17 @@
         <v>22.107349999999993</v>
       </c>
       <c r="C11">
-        <v>19.515412820512818</v>
+        <v>23.089374358974347</v>
       </c>
       <c r="D11">
-        <v>19.021030769230766</v>
+        <v>23.075706410256405</v>
       </c>
       <c r="E11">
-        <v>17.052149999999997</v>
+        <v>20.987508974358978</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.423985897435895</v>
+        <v>22.314984935897428</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8881,17 +9136,17 @@
         <v>22.384643589743593</v>
       </c>
       <c r="C12">
-        <v>19.666198717948721</v>
+        <v>23.335123076923086</v>
       </c>
       <c r="D12">
-        <v>19.166125641025644</v>
+        <v>23.337335897435906</v>
       </c>
       <c r="E12">
-        <v>17.195573076923075</v>
+        <v>21.284639743589754</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>19.603135256410258</v>
+        <v>22.585435576923086</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8902,17 +9157,17 @@
         <v>22.355374358974352</v>
       </c>
       <c r="C13">
-        <v>19.667855128205129</v>
+        <v>23.292946153846163</v>
       </c>
       <c r="D13">
-        <v>19.158771794871797</v>
+        <v>23.321360256410255</v>
       </c>
       <c r="E13">
-        <v>17.18198717948718</v>
+        <v>21.229685897435893</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>19.590997115384614</v>
+        <v>22.549841666666666</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8923,17 +9178,17 @@
         <v>22.346210256410259</v>
       </c>
       <c r="C14">
-        <v>19.623806410256421</v>
+        <v>23.31461282051281</v>
       </c>
       <c r="D14">
-        <v>19.130673076923074</v>
+        <v>23.332041025641029</v>
       </c>
       <c r="E14">
-        <v>17.136392307692301</v>
+        <v>21.246910256410256</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19.559270512820515</v>
+        <v>22.55994358974359</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8944,17 +9199,17 @@
         <v>22.394005128205134</v>
       </c>
       <c r="C15">
-        <v>19.551907692307701</v>
+        <v>23.345680769230771</v>
       </c>
       <c r="D15">
-        <v>19.057625641025645</v>
+        <v>23.355880769230769</v>
       </c>
       <c r="E15">
-        <v>17.073760256410253</v>
+        <v>21.262157692307685</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19.519324679487184</v>
+        <v>22.589431089743588</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8965,17 +9220,17 @@
         <v>22.34097564102564</v>
       </c>
       <c r="C16">
-        <v>19.487165384615384</v>
+        <v>23.326574358974359</v>
       </c>
       <c r="D16">
-        <v>18.992148717948719</v>
+        <v>23.342524358974352</v>
       </c>
       <c r="E16">
-        <v>16.998564102564103</v>
+        <v>21.231593589743579</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>19.454713461538461</v>
+        <v>22.560416987179483</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8986,17 +9241,17 @@
         <v>22.292557692307689</v>
       </c>
       <c r="C17">
-        <v>19.545928205128206</v>
+        <v>23.257570512820514</v>
       </c>
       <c r="D17">
-        <v>19.048475641025647</v>
+        <v>23.277515384615388</v>
       </c>
       <c r="E17">
-        <v>17.052871794871791</v>
+        <v>21.170774358974363</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19.484958333333331</v>
+        <v>22.499604487179489</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9007,17 +9262,17 @@
         <v>22.387271794871801</v>
       </c>
       <c r="C18">
-        <v>19.553228205128217</v>
+        <v>23.36069487179487</v>
       </c>
       <c r="D18">
-        <v>19.063810256410253</v>
+        <v>23.387541025641028</v>
       </c>
       <c r="E18">
-        <v>17.07516025641026</v>
+        <v>21.279944871794878</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19.51986762820513</v>
+        <v>22.603863141025645</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9028,17 +9283,17 @@
         <v>22.457821794871794</v>
       </c>
       <c r="C19">
-        <v>19.573771794871792</v>
+        <v>23.420729487179489</v>
       </c>
       <c r="D19">
-        <v>19.078158974358974</v>
+        <v>23.451965384615381</v>
       </c>
       <c r="E19">
-        <v>17.091748717948715</v>
+        <v>21.351060256410253</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19.550375320512821</v>
+        <v>22.670394230769229</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9049,17 +9304,17 @@
         <v>22.415662820512825</v>
       </c>
       <c r="C20">
-        <v>19.60569615384615</v>
+        <v>23.39212435897435</v>
       </c>
       <c r="D20">
-        <v>19.106961538461544</v>
+        <v>23.410320512820515</v>
       </c>
       <c r="E20">
-        <v>17.123932051282043</v>
+        <v>21.319680769230768</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19.563063141025641</v>
+        <v>22.634447115384617</v>
       </c>
     </row>
   </sheetData>
@@ -9073,7 +9328,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9103,17 +9358,17 @@
         <v>16.620806410256414</v>
       </c>
       <c r="C2">
-        <v>16.684660256410261</v>
+        <v>18.004701282051283</v>
       </c>
       <c r="D2">
-        <v>15.952070512820505</v>
+        <v>17.375147435897432</v>
       </c>
       <c r="E2">
-        <v>14.303678205128204</v>
+        <v>15.783219230769229</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>15.890303846153845</v>
+        <v>16.94596858974359</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9124,17 +9379,17 @@
         <v>18.478314102564099</v>
       </c>
       <c r="C3">
-        <v>17.217047435897438</v>
+        <v>19.754770512820514</v>
       </c>
       <c r="D3">
-        <v>16.435779487179488</v>
+        <v>19.176193589743587</v>
       </c>
       <c r="E3">
-        <v>14.67499615384615</v>
+        <v>17.506196153846158</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>16.701534294871795</v>
+        <v>18.728868589743591</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9145,17 +9400,17 @@
         <v>19.867766666666665</v>
       </c>
       <c r="C4">
-        <v>17.588855128205115</v>
+        <v>21.03574230769232</v>
       </c>
       <c r="D4">
-        <v>16.821233333333339</v>
+        <v>20.639525641025646</v>
       </c>
       <c r="E4">
-        <v>14.972788461538457</v>
+        <v>18.805178205128211</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>17.312660897435894</v>
+        <v>20.08705320512821</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9166,17 +9421,17 @@
         <v>19.683694871794867</v>
       </c>
       <c r="C5">
-        <v>17.288406410256414</v>
+        <v>20.934578205128211</v>
       </c>
       <c r="D5">
-        <v>16.512497435897437</v>
+        <v>20.617528205128217</v>
       </c>
       <c r="E5">
-        <v>14.638262820512818</v>
+        <v>18.632639743589742</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17.030715384615384</v>
+        <v>19.967110256410258</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9187,17 +9442,17 @@
         <v>19.67264102564102</v>
       </c>
       <c r="C6">
-        <v>17.218420512820515</v>
+        <v>20.924889743589745</v>
       </c>
       <c r="D6">
-        <v>16.43530512820513</v>
+        <v>20.637820512820518</v>
       </c>
       <c r="E6">
-        <v>14.543138461538465</v>
+        <v>18.644260256410259</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>16.967376282051283</v>
+        <v>19.969902884615387</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9208,17 +9463,17 @@
         <v>19.363658974358973</v>
       </c>
       <c r="C7">
-        <v>17.177815384615382</v>
+        <v>20.697215384615379</v>
       </c>
       <c r="D7">
-        <v>16.397926923076916</v>
+        <v>20.417543589743595</v>
       </c>
       <c r="E7">
-        <v>14.508637179487183</v>
+        <v>18.378716666666673</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>16.862009615384615</v>
+        <v>19.714283653846156</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9229,17 +9484,17 @@
         <v>19.150549999999996</v>
       </c>
       <c r="C8">
-        <v>17.103538461538459</v>
+        <v>20.502578205128209</v>
       </c>
       <c r="D8">
-        <v>16.337212820512832</v>
+        <v>20.19900512820513</v>
       </c>
       <c r="E8">
-        <v>14.458505128205134</v>
+        <v>18.189289743589743</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>16.762451602564106</v>
+        <v>19.51035576923077</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9250,17 +9505,17 @@
         <v>19.388148717948713</v>
       </c>
       <c r="C9">
-        <v>17.177524358974356</v>
+        <v>20.710935897435899</v>
       </c>
       <c r="D9">
-        <v>16.414324358974358</v>
+        <v>20.429389743589752</v>
       </c>
       <c r="E9">
-        <v>14.526494871794872</v>
+        <v>18.414325641025648</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>16.876623076923075</v>
+        <v>19.735700000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9271,17 +9526,17 @@
         <v>19.515066666666673</v>
       </c>
       <c r="C10">
-        <v>17.012524358974364</v>
+        <v>20.826432051282055</v>
       </c>
       <c r="D10">
-        <v>16.232675641025637</v>
+        <v>20.542560256410262</v>
       </c>
       <c r="E10">
-        <v>14.352141025641021</v>
+        <v>18.527474358974356</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>16.778101923076925</v>
+        <v>19.852883333333335</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9292,17 +9547,17 @@
         <v>19.496346153846144</v>
       </c>
       <c r="C11">
-        <v>17.181910256410259</v>
+        <v>20.827058974358973</v>
       </c>
       <c r="D11">
-        <v>16.405350000000002</v>
+        <v>20.542757692307703</v>
       </c>
       <c r="E11">
-        <v>14.507394871794876</v>
+        <v>18.517005128205124</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>16.89775032051282</v>
+        <v>19.845791987179485</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9313,17 +9568,17 @@
         <v>19.616611538461534</v>
       </c>
       <c r="C12">
-        <v>17.231365384615383</v>
+        <v>20.922930769230774</v>
       </c>
       <c r="D12">
-        <v>16.44677307692308</v>
+        <v>20.646941025641027</v>
       </c>
       <c r="E12">
-        <v>14.548025641025642</v>
+        <v>18.618666666666666</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>16.96069391025641</v>
+        <v>19.951287499999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9334,17 +9589,17 @@
         <v>19.575960256410252</v>
       </c>
       <c r="C13">
-        <v>17.240614102564102</v>
+        <v>20.903914102564098</v>
       </c>
       <c r="D13">
-        <v>16.459161538461533</v>
+        <v>20.636558974358977</v>
       </c>
       <c r="E13">
-        <v>14.559329487179488</v>
+        <v>18.588349999999998</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>16.95876634615384</v>
+        <v>19.926195833333331</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9355,17 +9610,17 @@
         <v>19.597192307692303</v>
       </c>
       <c r="C14">
-        <v>17.205155128205124</v>
+        <v>20.940323076923072</v>
       </c>
       <c r="D14">
-        <v>16.42400512820512</v>
+        <v>20.665334615384616</v>
       </c>
       <c r="E14">
-        <v>14.529280769230771</v>
+        <v>18.618066666666667</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>16.93890833333333</v>
+        <v>19.955229166666665</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9376,17 +9631,17 @@
         <v>19.496832051282045</v>
       </c>
       <c r="C15">
-        <v>17.163291025641026</v>
+        <v>20.866897435897442</v>
       </c>
       <c r="D15">
-        <v>16.385903846153841</v>
+        <v>20.579283333333343</v>
       </c>
       <c r="E15">
-        <v>14.489296153846153</v>
+        <v>18.545352564102572</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>16.883830769230766</v>
+        <v>19.872091346153852</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9397,17 +9652,17 @@
         <v>19.247412820512825</v>
       </c>
       <c r="C16">
-        <v>17.105619230769232</v>
+        <v>20.62177307692308</v>
       </c>
       <c r="D16">
-        <v>16.325987179487193</v>
+        <v>20.340951282051275</v>
       </c>
       <c r="E16">
-        <v>14.431364102564109</v>
+        <v>18.308362820512819</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>16.77759583333334</v>
+        <v>19.629624999999997</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9418,17 +9673,17 @@
         <v>19.278058974358974</v>
       </c>
       <c r="C17">
-        <v>17.172837179487175</v>
+        <v>20.638865384615379</v>
       </c>
       <c r="D17">
-        <v>16.396251282051278</v>
+        <v>20.35618461538462</v>
       </c>
       <c r="E17">
-        <v>14.498452564102564</v>
+        <v>18.339985897435906</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>16.836399999999998</v>
+        <v>19.653273717948721</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9439,17 +9694,17 @@
         <v>19.500446153846159</v>
       </c>
       <c r="C18">
-        <v>17.178092307692314</v>
+        <v>20.826593589743595</v>
       </c>
       <c r="D18">
-        <v>16.396514102564105</v>
+        <v>20.558751282051283</v>
       </c>
       <c r="E18">
-        <v>14.497950000000001</v>
+        <v>18.525023076923087</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>16.893250641025645</v>
+        <v>19.852703525641029</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9460,17 +9715,17 @@
         <v>19.653365384615384</v>
       </c>
       <c r="C19">
-        <v>17.181950000000001</v>
+        <v>20.976700000000005</v>
       </c>
       <c r="D19">
-        <v>16.401342307692296</v>
+        <v>20.7085217948718</v>
       </c>
       <c r="E19">
-        <v>14.501884615384615</v>
+        <v>18.656438461538468</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>16.934635576923075</v>
+        <v>19.998756410256416</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9481,17 +9736,17 @@
         <v>19.509762820512808</v>
       </c>
       <c r="C20">
-        <v>17.196919230769229</v>
+        <v>20.880903846153849</v>
       </c>
       <c r="D20">
-        <v>16.410265384615382</v>
+        <v>20.597788461538471</v>
       </c>
       <c r="E20">
-        <v>14.514288461538458</v>
+        <v>18.544151282051278</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>16.907808974358968</v>
+        <v>19.883151602564102</v>
       </c>
     </row>
   </sheetData>
@@ -9505,7 +9760,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9535,17 +9790,17 @@
         <v>16.630251282051276</v>
       </c>
       <c r="C2">
-        <v>16.610961538461535</v>
+        <v>18.046897435897439</v>
       </c>
       <c r="D2">
-        <v>15.799564102564096</v>
+        <v>17.436261538461533</v>
       </c>
       <c r="E2">
-        <v>14.159655128205131</v>
+        <v>15.776661538461541</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>15.800108012820511</v>
+        <v>16.972517948717947</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9556,17 +9811,17 @@
         <v>18.335106410256412</v>
       </c>
       <c r="C3">
-        <v>17.056135897435905</v>
+        <v>19.609302564102567</v>
       </c>
       <c r="D3">
-        <v>16.207035897435894</v>
+        <v>19.042119230769224</v>
       </c>
       <c r="E3">
-        <v>14.486397435897437</v>
+        <v>17.343601282051289</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>16.521168910256414</v>
+        <v>18.582532371794873</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9577,17 +9832,17 @@
         <v>19.60694358974359</v>
       </c>
       <c r="C4">
-        <v>17.385602564102562</v>
+        <v>20.728838461538459</v>
       </c>
       <c r="D4">
-        <v>16.532669230769233</v>
+        <v>20.329107692307698</v>
       </c>
       <c r="E4">
-        <v>14.760524358974363</v>
+        <v>18.494692307692311</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>17.071434935897436</v>
+        <v>19.789895512820515</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9598,17 +9853,17 @@
         <v>19.429933333333334</v>
       </c>
       <c r="C5">
-        <v>17.108825641025632</v>
+        <v>20.630148717948721</v>
       </c>
       <c r="D5">
-        <v>16.254496153846155</v>
+        <v>20.302352564102552</v>
       </c>
       <c r="E5">
-        <v>14.430798717948713</v>
+        <v>18.320564102564106</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>16.806013461538459</v>
+        <v>19.670749679487177</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9619,17 +9874,17 @@
         <v>19.51100641025641</v>
       </c>
       <c r="C6">
-        <v>17.064541025641045</v>
+        <v>20.730376923076918</v>
       </c>
       <c r="D6">
-        <v>16.201048717948716</v>
+        <v>20.450428205128215</v>
       </c>
       <c r="E6">
-        <v>14.358848717948717</v>
+        <v>18.415335897435895</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>16.783861217948722</v>
+        <v>19.776786858974361</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9640,17 +9895,17 @@
         <v>19.243364102564112</v>
       </c>
       <c r="C7">
-        <v>17.036182051282051</v>
+        <v>20.540107692307686</v>
       </c>
       <c r="D7">
-        <v>16.169267948717945</v>
+        <v>20.269530769230766</v>
       </c>
       <c r="E7">
-        <v>14.328652564102558</v>
+        <v>18.191303846153858</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>16.694366666666667</v>
+        <v>19.561076602564107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9661,17 +9916,17 @@
         <v>19.072744871794871</v>
       </c>
       <c r="C8">
-        <v>16.990988461538464</v>
+        <v>20.41751153846154</v>
       </c>
       <c r="D8">
-        <v>16.138521794871792</v>
+        <v>20.126869230769231</v>
       </c>
       <c r="E8">
-        <v>14.298049999999998</v>
+        <v>18.055829487179484</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>16.625076282051282</v>
+        <v>19.418238782051279</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9682,17 +9937,17 @@
         <v>19.282091025641023</v>
       </c>
       <c r="C9">
-        <v>17.042378205128212</v>
+        <v>20.580829487179493</v>
       </c>
       <c r="D9">
-        <v>16.196466666666662</v>
+        <v>20.312242307692312</v>
       </c>
       <c r="E9">
-        <v>14.349793589743589</v>
+        <v>18.246011538461541</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>16.717682371794872</v>
+        <v>19.605293589743592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9703,17 +9958,17 @@
         <v>19.408920512820515</v>
       </c>
       <c r="C10">
-        <v>16.906071794871796</v>
+        <v>20.695884615384621</v>
       </c>
       <c r="D10">
-        <v>16.050488461538468</v>
+        <v>20.41946282051282</v>
       </c>
       <c r="E10">
-        <v>14.20370769230769</v>
+        <v>18.362866666666672</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>16.642297115384615</v>
+        <v>19.721783653846156</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9724,17 +9979,17 @@
         <v>19.355810256410255</v>
       </c>
       <c r="C11">
-        <v>17.03533205128204</v>
+        <v>20.648717948717952</v>
       </c>
       <c r="D11">
-        <v>16.179283333333331</v>
+        <v>20.386566666666656</v>
       </c>
       <c r="E11">
-        <v>14.326838461538465</v>
+        <v>18.303738461538462</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>16.724316025641023</v>
+        <v>19.67370833333333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9745,17 +10000,17 @@
         <v>19.514329487179488</v>
       </c>
       <c r="C12">
-        <v>17.087752564102576</v>
+        <v>20.793706410256412</v>
       </c>
       <c r="D12">
-        <v>16.22352051282051</v>
+        <v>20.53410641025642</v>
       </c>
       <c r="E12">
-        <v>14.373206410256412</v>
+        <v>18.459794871794866</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>16.799702243589749</v>
+        <v>19.825484294871796</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9766,17 +10021,17 @@
         <v>19.45446282051282</v>
       </c>
       <c r="C13">
-        <v>17.091519230769233</v>
+        <v>20.742897435897437</v>
       </c>
       <c r="D13">
-        <v>16.225405128205125</v>
+        <v>20.489316666666664</v>
       </c>
       <c r="E13">
-        <v>14.378693589743589</v>
+        <v>18.399757692307691</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>16.787520192307692</v>
+        <v>19.771608653846151</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9787,17 +10042,17 @@
         <v>19.469625641025655</v>
       </c>
       <c r="C14">
-        <v>17.059835897435896</v>
+        <v>20.769576923076919</v>
       </c>
       <c r="D14">
-        <v>16.198399999999999</v>
+        <v>20.520979487179481</v>
       </c>
       <c r="E14">
-        <v>14.350542307692303</v>
+        <v>18.41717692307693</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>16.769600961538462</v>
+        <v>19.794339743589745</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9808,17 +10063,17 @@
         <v>19.384665384615385</v>
       </c>
       <c r="C15">
-        <v>17.025419230769234</v>
+        <v>20.712617948717956</v>
       </c>
       <c r="D15">
-        <v>16.165744871794871</v>
+        <v>20.449665384615386</v>
       </c>
       <c r="E15">
-        <v>14.315370512820513</v>
+        <v>18.360415384615386</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>16.722799999999999</v>
+        <v>19.726841025641029</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9829,17 +10084,17 @@
         <v>19.196042307692306</v>
       </c>
       <c r="C16">
-        <v>16.990106410256406</v>
+        <v>20.55253974358974</v>
       </c>
       <c r="D16">
-        <v>16.127571794871784</v>
+        <v>20.292055128205124</v>
       </c>
       <c r="E16">
-        <v>14.273557692307687</v>
+        <v>18.203321794871794</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>16.646819551282046</v>
+        <v>19.56098974358974</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9850,17 +10105,17 @@
         <v>19.193970512820517</v>
       </c>
       <c r="C17">
-        <v>17.038064102564096</v>
+        <v>20.53386282051282</v>
       </c>
       <c r="D17">
-        <v>16.179748717948716</v>
+        <v>20.276137179487176</v>
       </c>
       <c r="E17">
-        <v>14.326788461538463</v>
+        <v>18.194767948717942</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>16.684642948717951</v>
+        <v>19.549684615384614</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9871,17 +10126,17 @@
         <v>19.413967948717946</v>
       </c>
       <c r="C18">
-        <v>17.0412717948718</v>
+        <v>20.712293589743584</v>
       </c>
       <c r="D18">
-        <v>16.179980769230767</v>
+        <v>20.466315384615392</v>
       </c>
       <c r="E18">
-        <v>14.325697435897432</v>
+        <v>18.377520512820517</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>16.740229487179484</v>
+        <v>19.742524358974361</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9892,17 +10147,17 @@
         <v>19.545728205128203</v>
       </c>
       <c r="C19">
-        <v>17.044283333333336</v>
+        <v>20.828561538461535</v>
       </c>
       <c r="D19">
-        <v>16.180355128205118</v>
+        <v>20.580344871794871</v>
       </c>
       <c r="E19">
-        <v>14.329602564102562</v>
+        <v>18.481978205128204</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>16.774992307692305</v>
+        <v>19.859153205128205</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9913,17 +10168,17 @@
         <v>19.419193589743596</v>
       </c>
       <c r="C20">
-        <v>17.055311538461542</v>
+        <v>20.755271794871792</v>
       </c>
       <c r="D20">
-        <v>16.189221794871795</v>
+        <v>20.500071794871797</v>
       </c>
       <c r="E20">
-        <v>14.339917948717945</v>
+        <v>18.384848717948724</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>16.750911217948719</v>
+        <v>19.764846474358979</v>
       </c>
     </row>
   </sheetData>

--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy200_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy200_ptAll-nph_tileExpand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1B1AC-632D-43E2-8732-E3D27BC51E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82650A8F-5058-4976-AC2B-BB449140FB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -1882,7 +1882,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
